--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -9673,7 +9673,7 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5">
-        <v>0.031703760065943803</v>
+        <v>0.031703760065943797</v>
       </c>
       <c r="I144" s="5">
         <v>0</v>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>15/12/2023</t>
+    <t>16/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4900,17 +4900,17 @@
         <v>490</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
-        <v>0.080958549222797896</v>
+        <v>0.091078367875647701</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1.6326530612244898</v>
+        <v>1.8367346938775513</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -5117,17 +5117,17 @@
         <v>3185</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>0.0015540764201538799</v>
+        <v>0.0031081528403077699</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>0.031397174254317109</v>
+        <v>0.062794348508634218</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.00265817468460757</v>
+        <v>0.0039872620269113604</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>0.026752273943285176</v>
+        <v>0.040128410914927769</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.25779944009184103</v>
+        <v>0.28062543218330599</v>
       </c>
       <c r="I17" s="5">
-        <v>11.9791666666667</v>
+        <v>11.4832535885167</v>
       </c>
       <c r="J17" s="5">
-        <v>5.2747252747252746</v>
+        <v>5.7417582417582418</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.024433881267452998</v>
+        <v>0.025473620895855299</v>
       </c>
       <c r="I19" s="5">
-        <v>14.893617021276601</v>
+        <v>15.3061224489796</v>
       </c>
       <c r="J19" s="5">
-        <v>0.49333473286449042</v>
+        <v>0.51432770022042618</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.022262581287714599</v>
+        <v>0.021676723885406299</v>
       </c>
       <c r="I20" s="5">
-        <v>13.157894736842101</v>
+        <v>13.5135135135135</v>
       </c>
       <c r="J20" s="5">
-        <v>0.44753268166293725</v>
+        <v>0.43575550582970207</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5396,17 +5396,17 @@
         <v>1953</v>
       </c>
       <c r="F21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
-        <v>0.015157218246259299</v>
+        <v>0.0126310152052161</v>
       </c>
       <c r="I21" s="5">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>0.30721966205837176</v>
+        <v>0.2560163850486431</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -5427,17 +5427,17 @@
         <v>602</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>0.0083155242522264805</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
+        <v>0.16611295681063123</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.040517817710338098</v>
+        <v>0.043411947546790799</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>4.0816326530612246</v>
+        <v>4.3731778425655978</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5644,17 +5644,17 @@
         <v>1155</v>
       </c>
       <c r="F29" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>0.034468644305133703</v>
+        <v>0.047394385919558801</v>
       </c>
       <c r="I29" s="5">
-        <v>37.5</v>
+        <v>27.272727272727298</v>
       </c>
       <c r="J29" s="5">
-        <v>0.69264069264069261</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.0065880058765012397</v>
+        <v>0.011529010283877201</v>
       </c>
       <c r="I30" s="5">
-        <v>25</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J30" s="5">
-        <v>0.13320013320013319</v>
+        <v>0.23310023310023309</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.114984736703499</v>
+        <v>0.113130144176023</v>
       </c>
       <c r="I33" s="5">
-        <v>6.4516129032258096</v>
+        <v>6.5573770491803298</v>
       </c>
       <c r="J33" s="5">
-        <v>2.3308270676691731</v>
+        <v>2.2932330827067671</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.027819537995368598</v>
+        <v>0.0289323195151833</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J34" s="5">
-        <v>0.56242969628796402</v>
+        <v>0.58492688413948257</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.0098209397166167806</v>
+        <v>0.012276174645771</v>
       </c>
       <c r="I36" s="5">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="J36" s="5">
-        <v>0.19687461547926666</v>
+        <v>0.24609326934908332</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -6016,17 +6016,17 @@
         <v>875</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5">
-        <v>0.0056842727541438296</v>
+        <v>0.017052818262431501</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <v>0.1142857142857143</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -6109,17 +6109,17 @@
         <v>427</v>
       </c>
       <c r="F44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>0.0069296067448172301</v>
+        <v>0.0092394756597563108</v>
       </c>
       <c r="I44" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J44" s="5">
-        <v>0.70257611241217799</v>
+        <v>0.93676814988290402</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.039599721217962597</v>
+        <v>0.042719699253317298</v>
       </c>
       <c r="I45" s="5">
-        <v>13.3333333333333</v>
+        <v>15.730337078651701</v>
       </c>
       <c r="J45" s="5">
-        <v>0.81618519984170945</v>
+        <v>0.88049070043529876</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6171,17 +6171,17 @@
         <v>959</v>
       </c>
       <c r="F46" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
-        <v>0.072022388673964904</v>
+        <v>0.077166845007819604</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>1.4598540145985401</v>
+        <v>1.5641293013555788</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -6419,17 +6419,17 @@
         <v>308</v>
       </c>
       <c r="F54" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5">
-        <v>0.012780900222707199</v>
+        <v>0.0095856751670303896</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>1.2987012987012987</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="K54" s="5"/>
     </row>
@@ -6450,17 +6450,17 @@
         <v>238</v>
       </c>
       <c r="F55" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5">
-        <v>0.074867733670515399</v>
+        <v>0.079027052207766305</v>
       </c>
       <c r="I55" s="5">
-        <v>5.5555555555555598</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J55" s="5">
-        <v>7.5630252100840334</v>
+        <v>7.9831932773109235</v>
       </c>
       <c r="K55" s="5"/>
     </row>
@@ -6543,17 +6543,17 @@
         <v>833</v>
       </c>
       <c r="F58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>0.0119313944817301</v>
+        <v>0.00596569724086503</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0.24009603841536614</v>
+        <v>0.12004801920768307</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.019604533932038801</v>
+        <v>0.018752162891515298</v>
       </c>
       <c r="I60" s="5">
-        <v>8.6956521739130395</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J60" s="5">
-        <v>0.39302802460697195</v>
+        <v>0.37593984962406013</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.079996206167947004</v>
+        <v>0.080155879234150504</v>
       </c>
       <c r="I63" s="5">
-        <v>8.7824351297405201</v>
+        <v>10.1593625498008</v>
       </c>
       <c r="J63" s="5">
-        <v>1.6251459711950176</v>
+        <v>1.62838977552874</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6822,17 +6822,17 @@
         <v>371</v>
       </c>
       <c r="F67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5">
-        <v>0.014501370379500901</v>
+        <v>0.029002740759001701</v>
       </c>
       <c r="I67" s="5">
         <v>0</v>
       </c>
       <c r="J67" s="5">
-        <v>0.26954177897574128</v>
+        <v>0.53908355795148255</v>
       </c>
       <c r="K67" s="5"/>
     </row>
@@ -6884,17 +6884,17 @@
         <v>938</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5">
-        <v>0</v>
+        <v>0.0052047550642266797</v>
       </c>
       <c r="I69" s="5">
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <v>0</v>
+        <v>0.10660980810234541</v>
       </c>
       <c r="K69" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.015218538208676601</v>
+        <v>0.016486749726066299</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0.15278838808250572</v>
+        <v>0.16552075375604786</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -6946,17 +6946,17 @@
         <v>3801</v>
       </c>
       <c r="F71" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
-        <v>0.0039416374876002696</v>
+        <v>0.0065693958126671103</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <v>0.078926598263614839</v>
+        <v>0.13154433043935806</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -6977,17 +6977,17 @@
         <v>791</v>
       </c>
       <c r="F72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5">
-        <v>0.012539184952978099</v>
+        <v>0.0188087774294671</v>
       </c>
       <c r="I72" s="5">
         <v>0</v>
       </c>
       <c r="J72" s="5">
-        <v>0.25284450063211128</v>
+        <v>0.37926675094816686</v>
       </c>
       <c r="K72" s="5"/>
     </row>
@@ -7070,17 +7070,17 @@
         <v>9058</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
-        <v>0.00055116947138438303</v>
+        <v>0.00110233894276877</v>
       </c>
       <c r="I75" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J75" s="5">
-        <v>0.011039964672113049</v>
+        <v>0.022079929344226097</v>
       </c>
       <c r="K75" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.060673595295280602</v>
+        <v>0.072512345596798797</v>
       </c>
       <c r="I76" s="5">
         <v>0</v>
       </c>
       <c r="J76" s="5">
-        <v>1.2202380952380953</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7132,17 +7132,17 @@
         <v>2114</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5">
-        <v>0</v>
+        <v>0.0023533620129717299</v>
       </c>
       <c r="I77" s="5">
         <v>0</v>
       </c>
       <c r="J77" s="5">
-        <v>0</v>
+        <v>0.04730368968779565</v>
       </c>
       <c r="K77" s="5"/>
     </row>
@@ -7194,17 +7194,17 @@
         <v>1932</v>
       </c>
       <c r="F79" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
-        <v>0.0051027046886202004</v>
+        <v>0.0076540570329302997</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="5">
-        <v>0.10351966873706005</v>
+        <v>0.15527950310559005</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -7380,17 +7380,17 @@
         <v>469</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5">
-        <v>0</v>
+        <v>0.0106675769665678</v>
       </c>
       <c r="I85" s="5">
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <v>0</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K85" s="5"/>
     </row>
@@ -7442,17 +7442,17 @@
         <v>1218</v>
       </c>
       <c r="F87" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
-        <v>0.0097958304047881996</v>
+        <v>0.0089795112043891904</v>
       </c>
       <c r="I87" s="5">
         <v>0</v>
       </c>
       <c r="J87" s="5">
-        <v>0.98522167487684731</v>
+        <v>0.90311986863710991</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.017004503642789801</v>
+        <v>0.014878940687441101</v>
       </c>
       <c r="I88" s="5">
-        <v>0</v>
+        <v>5.71428571428571</v>
       </c>
       <c r="J88" s="5">
-        <v>0.34176349965823649</v>
+        <v>0.29904306220095694</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.0130155738072797</v>
+        <v>0.013464386697185899</v>
       </c>
       <c r="I90" s="5">
-        <v>13.7931034482759</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="J90" s="5">
-        <v>1.3068949977467328</v>
+        <v>1.35196034249662</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7566,17 +7566,17 @@
         <v>1428</v>
       </c>
       <c r="F91" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
-        <v>0.0139476822439031</v>
+        <v>0.0174346028048789</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.350140056022409</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.014906640949950501</v>
+        <v>0.015734787669392201</v>
       </c>
       <c r="I93" s="5">
-        <v>2.7777777777777799</v>
+        <v>2.6315789473684199</v>
       </c>
       <c r="J93" s="5">
-        <v>0.30413111430261047</v>
+        <v>0.32102728731942215</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7752,17 +7752,17 @@
         <v>1344</v>
       </c>
       <c r="F97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5">
-        <v>0.0036560932450021202</v>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>0.074404761904761904</v>
+        <v>0</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.00644354807531219</v>
+        <v>0.0032217740376560898</v>
       </c>
       <c r="I98" s="5">
         <v>0</v>
       </c>
       <c r="J98" s="5">
-        <v>0.064787819889860709</v>
+        <v>0.032393909944930355</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.045576427871504899</v>
+        <v>0.049374463527463601</v>
       </c>
       <c r="I103" s="5">
         <v>0</v>
       </c>
       <c r="J103" s="5">
-        <v>0.91673032849503444</v>
+        <v>0.99312452253628725</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.022092446779670202</v>
+        <v>0.020594653777658602</v>
       </c>
       <c r="I104" s="5">
-        <v>1.6949152542372901</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="J104" s="5">
-        <v>2.2180451127819549</v>
+        <v>2.0676691729323307</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.041604017342306197</v>
+        <v>0.04014422726012</v>
       </c>
       <c r="I110" s="5">
-        <v>1.7543859649122799</v>
+        <v>0</v>
       </c>
       <c r="J110" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.81085065605189455</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8186,17 +8186,17 @@
         <v>6923</v>
       </c>
       <c r="F111" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5">
-        <v>0.0014410509296219501</v>
+        <v>0.00216157639443293</v>
       </c>
       <c r="I111" s="5">
         <v>0</v>
       </c>
       <c r="J111" s="5">
-        <v>0.028889209880109779</v>
+        <v>0.043333814820164664</v>
       </c>
       <c r="K111" s="5"/>
     </row>
@@ -8217,17 +8217,17 @@
         <v>595</v>
       </c>
       <c r="F112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
-        <v>0.0083287525194476394</v>
+        <v>0.0166575050388953</v>
       </c>
       <c r="I112" s="5">
         <v>0</v>
       </c>
       <c r="J112" s="5">
-        <v>0.16806722689075632</v>
+        <v>0.33613445378151263</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.020355638448238799</v>
+        <v>0.021627865851253699</v>
       </c>
       <c r="I113" s="5">
-        <v>12.5</v>
+        <v>11.764705882352899</v>
       </c>
       <c r="J113" s="5">
-        <v>0.41184041184041181</v>
+        <v>0.43758043758043758</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.13469974698290799</v>
+        <v>0.138340280685148</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>2.7106227106227108</v>
+        <v>2.7838827838827842</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8527,17 +8527,17 @@
         <v>980</v>
       </c>
       <c r="F122" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>0.030368522014647799</v>
+        <v>0.020245681343098499</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>0.61224489795918369</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -8620,17 +8620,17 @@
         <v>8820</v>
       </c>
       <c r="F125" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>0.0090253674875802499</v>
+        <v>0.0084612820196064802</v>
       </c>
       <c r="I125" s="5">
-        <v>6.25</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="J125" s="5">
-        <v>0.18140589569160998</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.16484171687908999</v>
+        <v>0.157827175735299</v>
       </c>
       <c r="I130" s="5">
-        <v>12.7659574468085</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="J130" s="5">
-        <v>3.3075299085151304</v>
+        <v>3.1667839549612951</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8806,17 +8806,17 @@
         <v>1841</v>
       </c>
       <c r="F131" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="5">
-        <v>0.013504170087723101</v>
+        <v>0.016205004105267699</v>
       </c>
       <c r="I131" s="5">
         <v>0</v>
       </c>
       <c r="J131" s="5">
-        <v>0.27159152634437805</v>
+        <v>0.32590983161325365</v>
       </c>
       <c r="K131" s="5"/>
     </row>
@@ -8868,17 +8868,17 @@
         <v>6391</v>
       </c>
       <c r="F133" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5">
-        <v>0.026497663529551099</v>
+        <v>0.027277006574537899</v>
       </c>
       <c r="I133" s="5">
-        <v>2.9411764705882399</v>
+        <v>8.5714285714285694</v>
       </c>
       <c r="J133" s="5">
-        <v>0.53199812235956812</v>
+        <v>0.547645125958379</v>
       </c>
       <c r="K133" s="5"/>
     </row>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.028558341946602499</v>
+        <v>0.024164750877894398</v>
       </c>
       <c r="I135" s="5">
-        <v>7.6923076923076898</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J135" s="5">
-        <v>0.5803571428571429</v>
+        <v>0.49107142857142855</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.0198490370460222</v>
+        <v>0.015438139924683901</v>
       </c>
       <c r="I138" s="5">
-        <v>11.1111111111111</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J138" s="5">
-        <v>0.39929015084294583</v>
+        <v>0.3105590062111801</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9054,17 +9054,17 @@
         <v>2114</v>
       </c>
       <c r="F139" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>0.0306403599535209</v>
+        <v>0.0282834091878655</v>
       </c>
       <c r="I139" s="5">
-        <v>15.384615384615399</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J139" s="5">
-        <v>0.61494796594134349</v>
+        <v>0.56764427625354774</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.020150727441260601</v>
+        <v>0.020990341084646501</v>
       </c>
       <c r="I140" s="5">
-        <v>14.5833333333333</v>
+        <v>16</v>
       </c>
       <c r="J140" s="5">
-        <v>0.40502911146738668</v>
+        <v>0.42190532444519452</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9116,17 +9116,17 @@
         <v>1197</v>
       </c>
       <c r="F141" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5">
-        <v>0.0538987449884532</v>
+        <v>0.058044802295257297</v>
       </c>
       <c r="I141" s="5">
         <v>0</v>
       </c>
       <c r="J141" s="5">
-        <v>1.086048454469507</v>
+        <v>1.1695906432748537</v>
       </c>
       <c r="K141" s="5"/>
     </row>
@@ -9209,17 +9209,17 @@
         <v>623</v>
       </c>
       <c r="F144" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5">
-        <v>0.015851880032971902</v>
+        <v>0.0079259400164859595</v>
       </c>
       <c r="I144" s="5">
         <v>0</v>
       </c>
       <c r="J144" s="5">
-        <v>0.32102728731942215</v>
+        <v>0.16051364365971107</v>
       </c>
       <c r="K144" s="5"/>
     </row>
@@ -9302,17 +9302,17 @@
         <v>7966</v>
       </c>
       <c r="F147" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>0.0262850412456106</v>
+        <v>0.0300400471378406</v>
       </c>
       <c r="I147" s="5">
-        <v>4.7619047619047601</v>
+        <v>6.25</v>
       </c>
       <c r="J147" s="5">
-        <v>0.52724077328646746</v>
+        <v>0.60256088375596284</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -9333,17 +9333,17 @@
         <v>294</v>
       </c>
       <c r="F148" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="5">
-        <v>0</v>
+        <v>0.016767832589959401</v>
       </c>
       <c r="I148" s="5">
         <v>0</v>
       </c>
       <c r="J148" s="5">
-        <v>0</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="K148" s="5"/>
     </row>
@@ -9364,17 +9364,17 @@
         <v>4914</v>
       </c>
       <c r="F149" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5">
-        <v>0.0101192349453612</v>
+        <v>0.0131550054289695</v>
       </c>
       <c r="I149" s="5">
         <v>0</v>
       </c>
       <c r="J149" s="5">
-        <v>0.20350020350020348</v>
+        <v>0.26455026455026454</v>
       </c>
       <c r="K149" s="5"/>
     </row>
@@ -9612,17 +9612,17 @@
         <v>133</v>
       </c>
       <c r="F157" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>0.15102888427411701</v>
+        <v>0.113271663205588</v>
       </c>
       <c r="I157" s="5">
         <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>3.007518796992481</v>
+        <v>2.2556390977443606</v>
       </c>
       <c r="K157" s="5"/>
     </row>
@@ -9674,17 +9674,17 @@
         <v>469</v>
       </c>
       <c r="F159" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="5">
-        <v>0.0105955774059907</v>
+        <v>0</v>
       </c>
       <c r="I159" s="5">
         <v>0</v>
       </c>
       <c r="J159" s="5">
-        <v>0.21321961620469082</v>
+        <v>0</v>
       </c>
       <c r="K159" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.0067979925527991598</v>
+        <v>0.0050984944145993699</v>
       </c>
       <c r="I164" s="5">
         <v>0</v>
       </c>
       <c r="J164" s="5">
-        <v>0.13605442176870747</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9860,17 +9860,17 @@
         <v>182</v>
       </c>
       <c r="F165" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5">
-        <v>0.021961369950257499</v>
+        <v>0.032942054925386197</v>
       </c>
       <c r="I165" s="5">
-        <v>0</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J165" s="5">
-        <v>2.197802197802198</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -9891,17 +9891,17 @@
         <v>1379</v>
       </c>
       <c r="F166" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5">
-        <v>0.010693738459673899</v>
+        <v>0.0142583179462319</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>0.21754894851341552</v>
+        <v>0.29006526468455401</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -9953,17 +9953,17 @@
         <v>791</v>
       </c>
       <c r="F168" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="5">
-        <v>0.0062035509125423398</v>
+        <v>0.0124071018250847</v>
       </c>
       <c r="I168" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J168" s="5">
-        <v>0.12642225031605564</v>
+        <v>0.25284450063211128</v>
       </c>
       <c r="K168" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.0121134057042027</v>
+        <v>0.010094504753502299</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.2477291494632535</v>
+        <v>0.20644095788604458</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.081611032579740103</v>
+        <v>0.086230524989914098</v>
       </c>
       <c r="I174" s="5">
-        <v>5.6603773584905701</v>
+        <v>5.3571428571428603</v>
       </c>
       <c r="J174" s="5">
-        <v>8.2298136645962732</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10170,17 +10170,17 @@
         <v>1400</v>
       </c>
       <c r="F175" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="5">
-        <v>0.017591201584615399</v>
+        <v>0.0211094419015385</v>
       </c>
       <c r="I175" s="5">
         <v>0</v>
       </c>
       <c r="J175" s="5">
-        <v>0.35714285714285715</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K175" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.054243148023326297</v>
+        <v>0.062246235436604</v>
       </c>
       <c r="I176" s="5">
-        <v>21.311475409836099</v>
+        <v>20</v>
       </c>
       <c r="J176" s="5">
-        <v>1.101679609897056</v>
+        <v>1.2642225031605563</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.14301460171394501</v>
+        <v>0.14993466308720099</v>
       </c>
       <c r="I177" s="5">
-        <v>15.322580645161301</v>
+        <v>15.6410256410256</v>
       </c>
       <c r="J177" s="5">
-        <v>1.4370702310129027</v>
+        <v>1.5066058873522368</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10263,17 +10263,17 @@
         <v>945</v>
       </c>
       <c r="F178" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5">
-        <v>0</v>
+        <v>0.0157778479015462</v>
       </c>
       <c r="I178" s="5">
         <v>0</v>
       </c>
       <c r="J178" s="5">
-        <v>0</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="K178" s="5"/>
     </row>
@@ -10294,17 +10294,17 @@
         <v>280</v>
       </c>
       <c r="F179" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5">
-        <v>0.0278940027894003</v>
+        <v>0.0383542538354254</v>
       </c>
       <c r="I179" s="5">
-        <v>0</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J179" s="5">
-        <v>2.8571428571428572</v>
+        <v>3.9285714285714284</v>
       </c>
       <c r="K179" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.028973709807600799</v>
+        <v>0.034492511675715203</v>
       </c>
       <c r="I180" s="5">
-        <v>19.047619047619001</v>
+        <v>16</v>
       </c>
       <c r="J180" s="5">
-        <v>0.58365758754863817</v>
+        <v>0.69483046136742632</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.026304477918885402</v>
+        <v>0.0310871102677736</v>
       </c>
       <c r="I181" s="5">
-        <v>13.636363636363599</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="J181" s="5">
-        <v>0.5475360876057741</v>
+        <v>0.64708810353409663</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10387,17 +10387,17 @@
         <v>2128</v>
       </c>
       <c r="F182" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5">
-        <v>0.037294646353516002</v>
+        <v>0.032632815559326497</v>
       </c>
       <c r="I182" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J182" s="5">
-        <v>0.37593984962406013</v>
+        <v>0.3289473684210526</v>
       </c>
       <c r="K182" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.14030383820855</v>
+        <v>0.15701418298395101</v>
       </c>
       <c r="I184" s="5">
-        <v>16.404494382022499</v>
+        <v>18.0722891566265</v>
       </c>
       <c r="J184" s="5">
-        <v>2.8584275436793423</v>
+        <v>3.1988694758478928</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>1897</v>
       </c>
       <c r="F185" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5">
-        <v>0.036614995933120099</v>
+        <v>0.033999639080754401</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>0.73800738007380073</v>
+        <v>0.68529256721138643</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -10542,17 +10542,17 @@
         <v>1435</v>
       </c>
       <c r="F187" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5">
-        <v>0.017248873648550701</v>
+        <v>0.020698648378260898</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>0.34843205574912894</v>
+        <v>0.41811846689895471</v>
       </c>
       <c r="K187" s="5"/>
     </row>
@@ -10573,17 +10573,17 @@
         <v>1134</v>
       </c>
       <c r="F188" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5">
-        <v>0.0043634776917203001</v>
+        <v>0.0087269553834406002</v>
       </c>
       <c r="I188" s="5">
         <v>0</v>
       </c>
       <c r="J188" s="5">
-        <v>0.088183421516754845</v>
+        <v>0.17636684303350969</v>
       </c>
       <c r="K188" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.19892279752945</v>
+        <v>0.214907665188066</v>
       </c>
       <c r="I190" s="5">
-        <v>12.5</v>
+        <v>14.876033057851201</v>
       </c>
       <c r="J190" s="5">
-        <v>4.0100250626566414</v>
+        <v>4.3322592194772644</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.14184861479371899</v>
+        <v>0.137484042030836</v>
       </c>
       <c r="I193" s="5">
-        <v>10.7692307692308</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J193" s="5">
-        <v>2.8659611992945324</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.052181768668435401</v>
+        <v>0.055443129210212598</v>
       </c>
       <c r="I194" s="5">
-        <v>12.5</v>
+        <v>14.705882352941201</v>
       </c>
       <c r="J194" s="5">
-        <v>0.52424639580602883</v>
+        <v>0.55701179554390567</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.046548000297907198</v>
+        <v>0.058960800377349097</v>
       </c>
       <c r="I195" s="5">
         <v>0</v>
       </c>
       <c r="J195" s="5">
-        <v>0.93574547723019341</v>
+        <v>1.1852776044915783</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.123329036087232</v>
+        <v>0.13489113322040999</v>
       </c>
       <c r="I196" s="5">
-        <v>20.3125</v>
+        <v>21.428571428571399</v>
       </c>
       <c r="J196" s="5">
-        <v>2.515228925132639</v>
+        <v>2.7510316368638237</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.22090685310189401</v>
+        <v>0.23309481741096399</v>
       </c>
       <c r="I197" s="5">
-        <v>18.620689655172399</v>
+        <v>19.934640522875799</v>
       </c>
       <c r="J197" s="5">
-        <v>2.2681944390129445</v>
+        <v>2.3933362011653827</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10883,17 +10883,17 @@
         <v>1568</v>
       </c>
       <c r="F198" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="5">
-        <v>0.012626860488975201</v>
+        <v>0.0094701453667313806</v>
       </c>
       <c r="I198" s="5">
         <v>0</v>
       </c>
       <c r="J198" s="5">
-        <v>0.25510204081632654</v>
+        <v>0.19132653061224489</v>
       </c>
       <c r="K198" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.013383894713361599</v>
+        <v>0.026767789426723199</v>
       </c>
       <c r="I199" s="5">
-        <v>33.3333333333333</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J199" s="5">
-        <v>0.27124773960216997</v>
+        <v>0.54249547920433994</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>987</v>
+        <v>1077</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.36757873614736503</v>
+        <v>0.40109655403314298</v>
       </c>
       <c r="I201" s="5">
-        <v>17.426545086119599</v>
+        <v>18.384401114206099</v>
       </c>
       <c r="J201" s="5">
-        <v>3.7075992637391533</v>
+        <v>4.0456782239585296</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.50845567250643497</v>
+        <v>0.55547415405004097</v>
       </c>
       <c r="I202" s="5">
-        <v>12.473118279569899</v>
+        <v>13.3858267716535</v>
       </c>
       <c r="J202" s="5">
-        <v>5.0903119868637114</v>
+        <v>5.5610290093048711</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1421</v>
+        <v>1531</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.61153998765730699</v>
+        <v>0.658879465941828</v>
       </c>
       <c r="I203" s="5">
-        <v>17.030260380014099</v>
+        <v>16.982364467668202</v>
       </c>
       <c r="J203" s="5">
-        <v>6.1533798120642622</v>
+        <v>6.629714632139609</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>1006</v>
+        <v>1089</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.33954550854871601</v>
+        <v>0.36755970060591697</v>
       </c>
       <c r="I204" s="5">
-        <v>12.5248508946322</v>
+        <v>13.957759412304901</v>
       </c>
       <c r="J204" s="5">
-        <v>3.4104007051325511</v>
+        <v>3.6917757136077021</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.41396062058656802</v>
+        <v>0.444564713159115</v>
       </c>
       <c r="I205" s="5">
-        <v>11.802853437094701</v>
+        <v>11.231884057971</v>
       </c>
       <c r="J205" s="5">
-        <v>4.1673423058213066</v>
+        <v>4.4754337603372791</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.032842178553072102</v>
+        <v>0.036126396408379398</v>
       </c>
       <c r="I206" s="5">
         <v>0</v>
       </c>
       <c r="J206" s="5">
-        <v>0.65984823490597166</v>
+        <v>0.72583305839656875</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11162,17 +11162,17 @@
         <v>308</v>
       </c>
       <c r="F207" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="5">
-        <v>0.015967655916176202</v>
+        <v>0.019161187099411399</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>1.6233766233766231</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -11193,17 +11193,17 @@
         <v>1463</v>
       </c>
       <c r="F208" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="5">
-        <v>0.033952168185460298</v>
+        <v>0.020371300911276199</v>
       </c>
       <c r="I208" s="5">
         <v>0</v>
       </c>
       <c r="J208" s="5">
-        <v>0.68352699931647298</v>
+        <v>0.41011619958988382</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -11224,17 +11224,17 @@
         <v>2058</v>
       </c>
       <c r="F209" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="5">
-        <v>0.0094764722884259096</v>
+        <v>0.0118455903605324</v>
       </c>
       <c r="I209" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J209" s="5">
-        <v>0.1943634596695821</v>
+        <v>0.24295432458697766</v>
       </c>
       <c r="K209" s="5"/>
     </row>
@@ -11255,17 +11255,17 @@
         <v>1344</v>
       </c>
       <c r="F210" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="5">
-        <v>0.0146869836607307</v>
+        <v>0.036717459151826698</v>
       </c>
       <c r="I210" s="5">
         <v>0</v>
       </c>
       <c r="J210" s="5">
-        <v>0.14880952380952381</v>
+        <v>0.37202380952380948</v>
       </c>
       <c r="K210" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.074802086147069194</v>
+        <v>0.062335071789224303</v>
       </c>
       <c r="I211" s="5">
-        <v>13.8888888888889</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J211" s="5">
-        <v>1.5306122448979591</v>
+        <v>1.2755102040816326</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.028960451984514999</v>
+        <v>0.040292802761064297</v>
       </c>
       <c r="I217" s="5">
-        <v>6.5217391304347796</v>
+        <v>6.25</v>
       </c>
       <c r="J217" s="5">
-        <v>0.58516728151634645</v>
+        <v>0.81414578297926476</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11503,17 +11503,17 @@
         <v>4424</v>
       </c>
       <c r="F218" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="5">
-        <v>0.064164766113798996</v>
+        <v>0.073170347322753307</v>
       </c>
       <c r="I218" s="5">
-        <v>5.2631578947368398</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J218" s="5">
-        <v>1.2884267631103075</v>
+        <v>1.469258589511754</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.041429692660729898</v>
+        <v>0.066747838175620494</v>
       </c>
       <c r="I219" s="5">
-        <v>5.5555555555555598</v>
+        <v>3.4482758620689702</v>
       </c>
       <c r="J219" s="5">
-        <v>0.82949308755760376</v>
+        <v>1.336405529953917</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.034118848744746202</v>
+        <v>0.045633960196098097</v>
       </c>
       <c r="I221" s="5">
-        <v>7.5</v>
+        <v>9.3457943925233593</v>
       </c>
       <c r="J221" s="5">
-        <v>0.68640068640068641</v>
+        <v>0.91806091806091816</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.021780108029335801</v>
+        <v>0.027720137491881999</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
       </c>
       <c r="J224" s="5">
-        <v>0.44141252006420545</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11720,17 +11720,17 @@
         <v>280</v>
       </c>
       <c r="F225" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="5">
-        <v>0.017513134851138399</v>
+        <v>0</v>
       </c>
       <c r="I225" s="5">
         <v>0</v>
       </c>
       <c r="J225" s="5">
-        <v>0.35714285714285715</v>
+        <v>0</v>
       </c>
       <c r="K225" s="5"/>
     </row>
@@ -11782,17 +11782,17 @@
         <v>714</v>
       </c>
       <c r="F227" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="5">
-        <v>0.013917400229637099</v>
+        <v>0.020876100344455702</v>
       </c>
       <c r="I227" s="5">
         <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.42016806722689076</v>
       </c>
       <c r="K227" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.14973197975623601</v>
+        <v>0.153059357084153</v>
       </c>
       <c r="I228" s="5">
-        <v>2.2222222222222201</v>
+        <v>2.1739130434782599</v>
       </c>
       <c r="J228" s="5">
-        <v>3.0467163168584972</v>
+        <v>3.1144211238997968</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.0567966571759453</v>
+        <v>0.0573646237477047</v>
       </c>
       <c r="I229" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" s="5">
-        <v>5.7603686635944698</v>
+        <v>5.8179723502304146</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11906,17 +11906,17 @@
         <v>2023</v>
       </c>
       <c r="F231" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="5">
-        <v>0.046331406109405497</v>
+        <v>0.048769901167795303</v>
       </c>
       <c r="I231" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J231" s="5">
-        <v>0.93919920909540289</v>
+        <v>0.98863074641621362</v>
       </c>
       <c r="K231" s="5"/>
     </row>
@@ -11937,17 +11937,17 @@
         <v>217</v>
       </c>
       <c r="F232" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="5">
-        <v>0.045906515970876902</v>
+        <v>0.050497167567964601</v>
       </c>
       <c r="I232" s="5">
         <v>0</v>
       </c>
       <c r="J232" s="5">
-        <v>4.6082949308755765</v>
+        <v>5.0691244239631335</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -11968,17 +11968,17 @@
         <v>742</v>
       </c>
       <c r="F233" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="5">
-        <v>0.0267301061185213</v>
+        <v>0.0334126326481516</v>
       </c>
       <c r="I233" s="5">
         <v>0</v>
       </c>
       <c r="J233" s="5">
-        <v>0.53908355795148255</v>
+        <v>0.67385444743935319</v>
       </c>
       <c r="K233" s="5"/>
     </row>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.13122785529941799</v>
+        <v>0.14094843717344899</v>
       </c>
       <c r="I235" s="5">
-        <v>3.7037037037037002</v>
+        <v>3.4482758620689702</v>
       </c>
       <c r="J235" s="5">
-        <v>13.300492610837439</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.092631923297429405</v>
+        <v>0.097639054286479704</v>
       </c>
       <c r="I238" s="5">
-        <v>2.7027027027027</v>
+        <v>4.2735042735042699</v>
       </c>
       <c r="J238" s="5">
-        <v>1.8832711231761112</v>
+        <v>1.9850695622667121</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12154,17 +12154,17 @@
         <v>2611</v>
       </c>
       <c r="F239" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="5">
-        <v>0.034290025031718303</v>
+        <v>0.030480022250416201</v>
       </c>
       <c r="I239" s="5">
-        <v>11.1111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="J239" s="5">
-        <v>0.34469551895825351</v>
+        <v>0.30639601685178092</v>
       </c>
       <c r="K239" s="5"/>
     </row>
@@ -12192,7 +12192,7 @@
         <v>0.040026862472147998</v>
       </c>
       <c r="I240" s="5">
-        <v>14.814814814814801</v>
+        <v>18.518518518518501</v>
       </c>
       <c r="J240" s="5">
         <v>0.81032412965186074</v>
@@ -12247,17 +12247,17 @@
         <v>1218</v>
       </c>
       <c r="F242" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="5">
-        <v>0.0244658293916164</v>
+        <v>0.016310552927744301</v>
       </c>
       <c r="I242" s="5">
         <v>0</v>
       </c>
       <c r="J242" s="5">
-        <v>0.49261083743842365</v>
+        <v>0.32840722495894908</v>
       </c>
       <c r="K242" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>1.50103373077686</v>
+        <v>1.47271233963012</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>30.285714285714288</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.060678083305284</v>
+        <v>0.065257561290588503</v>
       </c>
       <c r="I245" s="5">
-        <v>1.88679245283019</v>
+        <v>1.7543859649122799</v>
       </c>
       <c r="J245" s="5">
-        <v>6.1059907834101379</v>
+        <v>6.5668202764976948</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12371,17 +12371,17 @@
         <v>322</v>
       </c>
       <c r="F246" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="5">
-        <v>0.015383905358214199</v>
+        <v>0.030767810716428499</v>
       </c>
       <c r="I246" s="5">
         <v>0</v>
       </c>
       <c r="J246" s="5">
-        <v>0.3105590062111801</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="K246" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.044458717726893797</v>
+        <v>0.0455048052028207</v>
       </c>
       <c r="I247" s="5">
-        <v>12.9411764705882</v>
+        <v>12.643678160919499</v>
       </c>
       <c r="J247" s="5">
-        <v>4.5140732873074878</v>
+        <v>4.6202867764206053</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.065884019419314696</v>
+        <v>0.068629186895119501</v>
       </c>
       <c r="I248" s="5">
-        <v>4.1666666666666696</v>
+        <v>4</v>
       </c>
       <c r="J248" s="5">
-        <v>1.3366750208855471</v>
+        <v>1.3923698134224449</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12495,17 +12495,17 @@
         <v>1162</v>
       </c>
       <c r="F250" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="5">
-        <v>0</v>
+        <v>0.0042330371618332398</v>
       </c>
       <c r="I250" s="5">
         <v>0</v>
       </c>
       <c r="J250" s="5">
-        <v>0</v>
+        <v>0.086058519793459562</v>
       </c>
       <c r="K250" s="5"/>
     </row>
@@ -12557,17 +12557,17 @@
         <v>1414</v>
       </c>
       <c r="F252" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="5">
-        <v>0.0068742932367266002</v>
+        <v>0.0137485864734532</v>
       </c>
       <c r="I252" s="5">
         <v>0</v>
       </c>
       <c r="J252" s="5">
-        <v>0.14144271570014144</v>
+        <v>0.28288543140028288</v>
       </c>
       <c r="K252" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.25673914723785801</v>
+        <v>0.26491121558495201</v>
       </c>
       <c r="I256" s="5">
-        <v>9.8143236074270597</v>
+        <v>11.3110539845758</v>
       </c>
       <c r="J256" s="5">
-        <v>5.1513288242126123</v>
+        <v>5.3152968504474964</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.065320425504936497</v>
+        <v>0.059556858548618599</v>
       </c>
       <c r="I257" s="5">
-        <v>8.8235294117647101</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="J257" s="5">
-        <v>1.3092029264536003</v>
+        <v>1.1936850211782826</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.20671786165929201</v>
+        <v>0.21183253040137801</v>
       </c>
       <c r="I258" s="5">
-        <v>13.4020618556701</v>
+        <v>13.4808853118712</v>
       </c>
       <c r="J258" s="5">
-        <v>2.0995670995670994</v>
+        <v>2.1515151515151514</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.33379921535078499</v>
+        <v>0.36530013468024602</v>
       </c>
       <c r="I259" s="5">
-        <v>20.695364238410601</v>
+        <v>22.087745839636899</v>
       </c>
       <c r="J259" s="5">
-        <v>3.3997523359225483</v>
+        <v>3.7205898908026565</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12836,17 +12836,17 @@
         <v>1106</v>
       </c>
       <c r="F261" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="5">
-        <v>0.062841701753283505</v>
+        <v>0.071819087718038299</v>
       </c>
       <c r="I261" s="5">
         <v>0</v>
       </c>
       <c r="J261" s="5">
-        <v>1.2658227848101267</v>
+        <v>1.4466546112115732</v>
       </c>
       <c r="K261" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.19514494114354899</v>
+        <v>0.20250890118670201</v>
       </c>
       <c r="I262" s="5">
-        <v>7.5471698113207504</v>
+        <v>7.2727272727272698</v>
       </c>
       <c r="J262" s="5">
-        <v>19.924812030075188</v>
+        <v>20.676691729323306</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.0145117871991525</v>
+        <v>0.0159629659190678</v>
       </c>
       <c r="I263" s="5">
-        <v>10</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J263" s="5">
-        <v>0.29154518950437319</v>
+        <v>0.32069970845481049</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -12936,7 +12936,7 @@
         <v>0.017368850703148999</v>
       </c>
       <c r="I264" s="5">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J264" s="5">
         <v>0.1756440281030445</v>
@@ -13053,17 +13053,17 @@
         <v>1106</v>
       </c>
       <c r="F268" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="5">
-        <v>0</v>
+        <v>0.0089458240893151107</v>
       </c>
       <c r="I268" s="5">
         <v>0</v>
       </c>
       <c r="J268" s="5">
-        <v>0</v>
+        <v>0.090415913200723327</v>
       </c>
       <c r="K268" s="5"/>
     </row>
@@ -13084,17 +13084,17 @@
         <v>392</v>
       </c>
       <c r="F269" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="5">
-        <v>0.0125467365938119</v>
+        <v>0</v>
       </c>
       <c r="I269" s="5">
         <v>0</v>
       </c>
       <c r="J269" s="5">
-        <v>0.25510204081632654</v>
+        <v>0</v>
       </c>
       <c r="K269" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.27879306749207</v>
+        <v>0.272207404480446</v>
       </c>
       <c r="I270" s="5">
-        <v>6.2992125984251999</v>
+        <v>6.4516129032258096</v>
       </c>
       <c r="J270" s="5">
-        <v>5.6519804183355591</v>
+        <v>5.5184690698709389</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13215,7 +13215,7 @@
         <v>0.0128082245879487</v>
       </c>
       <c r="I273" s="5">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J273" s="5">
         <v>0.2589555459646094</v>
@@ -13239,17 +13239,17 @@
         <v>1617</v>
       </c>
       <c r="F274" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="5">
-        <v>0.012357197140544601</v>
+        <v>0.0154464964256807</v>
       </c>
       <c r="I274" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J274" s="5">
-        <v>0.24737167594310452</v>
+        <v>0.30921459492888065</v>
       </c>
       <c r="K274" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.0049950382619930898</v>
+        <v>0.0083250637699884798</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.10107816711590296</v>
+        <v>0.1684636118598383</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.0308652862534834</v>
+        <v>0.035274612861123801</v>
       </c>
       <c r="I277" s="5">
-        <v>21.428571428571399</v>
+        <v>31.25</v>
       </c>
       <c r="J277" s="5">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.0117528891765835</v>
+        <v>0.0108488207783848</v>
       </c>
       <c r="I278" s="5">
         <v>0</v>
       </c>
       <c r="J278" s="5">
-        <v>0.23627771719374771</v>
+        <v>0.21810250817884408</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13394,17 +13394,17 @@
         <v>2037</v>
       </c>
       <c r="F279" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="5">
-        <v>0.016812575806703398</v>
+        <v>0.0096071861752590904</v>
       </c>
       <c r="I279" s="5">
-        <v>28.571428571428601</v>
+        <v>50</v>
       </c>
       <c r="J279" s="5">
-        <v>0.3436426116838488</v>
+        <v>0.19636720667648502</v>
       </c>
       <c r="K279" s="5"/>
     </row>
@@ -13425,17 +13425,17 @@
         <v>756</v>
       </c>
       <c r="F280" s="4">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="5">
-        <v>1.15673417587647</v>
+        <v>1.2228332716408401</v>
       </c>
       <c r="I280" s="5">
         <v>0</v>
       </c>
       <c r="J280" s="5">
-        <v>23.148148148148149</v>
+        <v>24.470899470899472</v>
       </c>
       <c r="K280" s="5"/>
     </row>
@@ -13456,17 +13456,17 @@
         <v>791</v>
       </c>
       <c r="F281" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="5">
-        <v>0.034881924684941501</v>
+        <v>0.038619273758328097</v>
       </c>
       <c r="I281" s="5">
-        <v>7.1428571428571397</v>
+        <v>6.4516129032258096</v>
       </c>
       <c r="J281" s="5">
-        <v>3.5398230088495577</v>
+        <v>3.9190897597977248</v>
       </c>
       <c r="K281" s="5"/>
     </row>
@@ -13487,17 +13487,17 @@
         <v>2002</v>
       </c>
       <c r="F282" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="5">
-        <v>0.0121334485202046</v>
+        <v>0.016986827928286499</v>
       </c>
       <c r="I282" s="5">
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>0.24975024975024976</v>
+        <v>0.34965034965034963</v>
       </c>
       <c r="K282" s="5"/>
     </row>
@@ -13580,17 +13580,17 @@
         <v>1869</v>
       </c>
       <c r="F285" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="5">
-        <v>0.0079646370116681908</v>
+        <v>0.0053097580077787997</v>
       </c>
       <c r="I285" s="5">
         <v>0</v>
       </c>
       <c r="J285" s="5">
-        <v>0.16051364365971107</v>
+        <v>0.1070090957731407</v>
       </c>
       <c r="K285" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.0256673298773516</v>
+        <v>0.026495308260491901</v>
       </c>
       <c r="I288" s="5">
         <v>0</v>
       </c>
       <c r="J288" s="5">
-        <v>0.51375538614517735</v>
+        <v>0.5303281405369572</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13704,17 +13704,17 @@
         <v>308</v>
       </c>
       <c r="F289" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="5">
-        <v>0.016053580430043301</v>
+        <v>0.00642143217201732</v>
       </c>
       <c r="I289" s="5">
         <v>0</v>
       </c>
       <c r="J289" s="5">
-        <v>1.6233766233766231</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K289" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.027696968423545899</v>
+        <v>0.033427375683589798</v>
       </c>
       <c r="I290" s="5">
-        <v>0</v>
+        <v>2.8571428571428599</v>
       </c>
       <c r="J290" s="5">
-        <v>0.55833654216403539</v>
+        <v>0.67385444743935319</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.0083629288091746894</v>
+        <v>0.010221357433435699</v>
       </c>
       <c r="I292" s="5">
         <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>0.16850777008050927</v>
+        <v>0.20595394120951133</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13828,17 +13828,17 @@
         <v>3115</v>
       </c>
       <c r="F293" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="5">
-        <v>0.0096009216884820892</v>
+        <v>0.011201075303229099</v>
       </c>
       <c r="I293" s="5">
         <v>0</v>
       </c>
       <c r="J293" s="5">
-        <v>0.1926163723916533</v>
+        <v>0.22471910112359553</v>
       </c>
       <c r="K293" s="5"/>
     </row>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0037585860199393002</v>
+        <v>0.0046982325249241199</v>
       </c>
       <c r="I295" s="5">
         <v>0</v>
       </c>
       <c r="J295" s="5">
-        <v>0.075485940743536512</v>
+        <v>0.094357425929420646</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.0196895264593158</v>
+        <v>0.024233263334542499</v>
       </c>
       <c r="I297" s="5">
-        <v>7.6923076923076898</v>
+        <v>6.25</v>
       </c>
       <c r="J297" s="5">
-        <v>0.39513677811550157</v>
+        <v>0.48632218844984804</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.0145764868016538</v>
+        <v>0.018551892293013902</v>
       </c>
       <c r="I302" s="5">
         <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>0.29649595687331537</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14138,17 +14138,17 @@
         <v>4977</v>
       </c>
       <c r="F303" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="5">
-        <v>0.0029823326613143699</v>
+        <v>0.0039764435484191604</v>
       </c>
       <c r="I303" s="5">
         <v>0</v>
       </c>
       <c r="J303" s="5">
-        <v>0.06027727546714888</v>
+        <v>0.080369700622865178</v>
       </c>
       <c r="K303" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0076088155737237201</v>
+        <v>0.0085599175204391798</v>
       </c>
       <c r="I306" s="5">
         <v>0</v>
       </c>
       <c r="J306" s="5">
-        <v>0.15238095238095239</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14262,17 +14262,17 @@
         <v>1862</v>
       </c>
       <c r="F307" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="5">
-        <v>0.0133031794598909</v>
+        <v>0.015963815351869099</v>
       </c>
       <c r="I307" s="5">
         <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>0.26852846401718583</v>
+        <v>0.32223415682062301</v>
       </c>
       <c r="K307" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.0181665280207341</v>
+        <v>0.022708160025917599</v>
       </c>
       <c r="I311" s="5">
         <v>0</v>
       </c>
       <c r="J311" s="5">
-        <v>0.18285714285714286</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14417,17 +14417,17 @@
         <v>3185</v>
       </c>
       <c r="F312" s="4">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="5">
-        <v>0.092490551071244403</v>
+        <v>0.12227564378910299</v>
       </c>
       <c r="I312" s="5">
-        <v>1.6949152542372901</v>
+        <v>1.2820512820512799</v>
       </c>
       <c r="J312" s="5">
-        <v>1.8524332810047097</v>
+        <v>2.4489795918367347</v>
       </c>
       <c r="K312" s="5"/>
     </row>
@@ -14448,17 +14448,17 @@
         <v>266</v>
       </c>
       <c r="F313" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="5">
-        <v>0.33452274754683298</v>
+        <v>0.40886113589057399</v>
       </c>
       <c r="I313" s="5">
-        <v>11.1111111111111</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J313" s="5">
-        <v>3.3834586466165413</v>
+        <v>4.1353383458646613</v>
       </c>
       <c r="K313" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.034702298664122902</v>
+        <v>0.041158540276052799</v>
       </c>
       <c r="I314" s="5">
         <v>0</v>
       </c>
       <c r="J314" s="5">
-        <v>0.69725960758877903</v>
+        <v>0.82698232527971471</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.0266530323267497</v>
+        <v>0.0259022426837426</v>
       </c>
       <c r="I317" s="5">
-        <v>7.0422535211267601</v>
+        <v>4.3478260869565197</v>
       </c>
       <c r="J317" s="5">
-        <v>0.53580861821749304</v>
+        <v>0.52071541770432428</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14665,17 +14665,17 @@
         <v>1883</v>
       </c>
       <c r="F320" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G320" s="4"/>
       <c r="H320" s="5">
-        <v>0.0132673855820667</v>
+        <v>0.0079604313492400401</v>
       </c>
       <c r="I320" s="5">
         <v>0</v>
       </c>
       <c r="J320" s="5">
-        <v>0.26553372278279341</v>
+        <v>0.15932023366967604</v>
       </c>
       <c r="K320" s="5"/>
     </row>
@@ -14913,17 +14913,17 @@
         <v>1764</v>
       </c>
       <c r="F328" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="5">
-        <v>0.0056078487451036501</v>
+        <v>0.0084117731176554696</v>
       </c>
       <c r="I328" s="5">
         <v>0</v>
       </c>
       <c r="J328" s="5">
-        <v>0.11337868480725624</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="K328" s="5"/>
     </row>
@@ -14975,17 +14975,17 @@
         <v>1477</v>
       </c>
       <c r="F330" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="5">
-        <v>0.0067212657487658103</v>
+        <v>0.0033606328743829</v>
       </c>
       <c r="I330" s="5">
         <v>0</v>
       </c>
       <c r="J330" s="5">
-        <v>0.13540961408259986</v>
+        <v>0.067704807041299928</v>
       </c>
       <c r="K330" s="5"/>
     </row>
@@ -15006,17 +15006,17 @@
         <v>882</v>
       </c>
       <c r="F331" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="5">
-        <v>0.016795149560806799</v>
+        <v>0.022393532747742501</v>
       </c>
       <c r="I331" s="5">
         <v>0</v>
       </c>
       <c r="J331" s="5">
-        <v>0.3401360544217687</v>
+        <v>0.45351473922902497</v>
       </c>
       <c r="K331" s="5"/>
     </row>
@@ -15037,17 +15037,17 @@
         <v>133</v>
       </c>
       <c r="F332" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="5">
-        <v>0</v>
+        <v>0.035884738220834697</v>
       </c>
       <c r="I332" s="5">
         <v>0</v>
       </c>
       <c r="J332" s="5">
-        <v>0</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="K332" s="5"/>
     </row>
@@ -15099,17 +15099,17 @@
         <v>1799</v>
       </c>
       <c r="F334" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="5">
-        <v>0</v>
+        <v>0.00275674990213538</v>
       </c>
       <c r="I334" s="5">
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>0</v>
+        <v>0.055586436909394105</v>
       </c>
       <c r="K334" s="5"/>
     </row>
@@ -15285,17 +15285,17 @@
         <v>1015</v>
       </c>
       <c r="F340" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="5">
-        <v>0.0049039079242248103</v>
+        <v>0.0098078158484496292</v>
       </c>
       <c r="I340" s="5">
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>0.09852216748768472</v>
+        <v>0.19704433497536944</v>
       </c>
       <c r="K340" s="5"/>
     </row>
@@ -15316,17 +15316,17 @@
         <v>1106</v>
       </c>
       <c r="F341" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="5">
-        <v>0.0534745060292506</v>
+        <v>0.066843132536563196</v>
       </c>
       <c r="I341" s="5">
-        <v>33.3333333333333</v>
+        <v>40</v>
       </c>
       <c r="J341" s="5">
-        <v>1.0849909584086799</v>
+        <v>1.3562386980108498</v>
       </c>
       <c r="K341" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.0143813709473297</v>
+        <v>0.023010193515727501</v>
       </c>
       <c r="I342" s="5">
         <v>0</v>
       </c>
       <c r="J342" s="5">
-        <v>0.14459224985540775</v>
+        <v>0.23134759976865238</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15409,17 +15409,17 @@
         <v>532</v>
       </c>
       <c r="F344" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G344" s="4"/>
       <c r="H344" s="5">
-        <v>0.027960296379141599</v>
+        <v>0.018640197586094399</v>
       </c>
       <c r="I344" s="5">
         <v>0</v>
       </c>
       <c r="J344" s="5">
-        <v>0.56390977443609014</v>
+        <v>0.37593984962406013</v>
       </c>
       <c r="K344" s="5"/>
     </row>
@@ -15440,17 +15440,17 @@
         <v>1022</v>
       </c>
       <c r="F345" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="5">
-        <v>0.019458186788864101</v>
+        <v>0.0145936400916481</v>
       </c>
       <c r="I345" s="5">
         <v>0</v>
       </c>
       <c r="J345" s="5">
-        <v>0.39138943248532287</v>
+        <v>0.29354207436399216</v>
       </c>
       <c r="K345" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.017328244605500899</v>
+        <v>0.019061069066050901</v>
       </c>
       <c r="I346" s="5">
         <v>0</v>
       </c>
       <c r="J346" s="5">
-        <v>0.34928396786587496</v>
+        <v>0.38421236465246245</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15502,17 +15502,17 @@
         <v>630</v>
       </c>
       <c r="F347" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="5">
-        <v>0.0155770518871598</v>
+        <v>0.023365577830739798</v>
       </c>
       <c r="I347" s="5">
         <v>0</v>
       </c>
       <c r="J347" s="5">
-        <v>0.31746031746031744</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="K347" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.0074399004838911296</v>
+        <v>0.0089278805806693503</v>
       </c>
       <c r="I349" s="5">
         <v>0</v>
       </c>
       <c r="J349" s="5">
-        <v>0.15069318866787221</v>
+        <v>0.18083182640144665</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.0058475172172835098</v>
+        <v>0.0073093965216043796</v>
       </c>
       <c r="I355" s="5">
         <v>0</v>
       </c>
       <c r="J355" s="5">
-        <v>0.11855364552459988</v>
+        <v>0.14819205690574985</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15812,17 +15812,17 @@
         <v>994</v>
       </c>
       <c r="F357" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="5">
-        <v>0.0049654898455732703</v>
+        <v>0.0099309796911465301</v>
       </c>
       <c r="I357" s="5">
         <v>0</v>
       </c>
       <c r="J357" s="5">
-        <v>0.1006036217303823</v>
+        <v>0.2012072434607646</v>
       </c>
       <c r="K357" s="5"/>
     </row>
@@ -15905,17 +15905,17 @@
         <v>749</v>
       </c>
       <c r="F360" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="5">
-        <v>0.013245208545808599</v>
+        <v>0.0066226042729042797</v>
       </c>
       <c r="I360" s="5">
         <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>0.26702269692923897</v>
+        <v>0.13351134846461948</v>
       </c>
       <c r="K360" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.0058443304150643501</v>
+        <v>0</v>
       </c>
       <c r="I363" s="5">
         <v>0</v>
       </c>
       <c r="J363" s="5">
-        <v>0.11806375442739078</v>
+        <v>0</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.092074715813268704</v>
+        <v>0.099591019144964099</v>
       </c>
       <c r="I364" s="5">
         <v>0</v>
       </c>
       <c r="J364" s="5">
-        <v>1.8445322793148879</v>
+        <v>1.9951063429324301</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.026108266233111199</v>
+        <v>0.027295005607343499</v>
       </c>
       <c r="I365" s="5">
-        <v>4.5454545454545503</v>
+        <v>8.6956521739130395</v>
       </c>
       <c r="J365" s="5">
-        <v>0.52293796054195385</v>
+        <v>0.54670786783931546</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16184,17 +16184,17 @@
         <v>700</v>
       </c>
       <c r="F369" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G369" s="4"/>
       <c r="H369" s="5">
-        <v>0.0070695359556598699</v>
+        <v>0.0141390719113197</v>
       </c>
       <c r="I369" s="5">
         <v>0</v>
       </c>
       <c r="J369" s="5">
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K369" s="5"/>
     </row>
@@ -16215,17 +16215,17 @@
         <v>1057</v>
       </c>
       <c r="F370" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="5">
-        <v>0.00925591684484307</v>
+        <v>0.0046279584224215298</v>
       </c>
       <c r="I370" s="5">
         <v>0</v>
       </c>
       <c r="J370" s="5">
-        <v>0.1892147587511826</v>
+        <v>0.0946073793755913</v>
       </c>
       <c r="K370" s="5"/>
     </row>
@@ -16277,17 +16277,17 @@
         <v>4312</v>
       </c>
       <c r="F372" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="5">
-        <v>0.00687311204203595</v>
+        <v>0.00572759336836329</v>
       </c>
       <c r="I372" s="5">
         <v>0</v>
       </c>
       <c r="J372" s="5">
-        <v>0.13914656771799627</v>
+        <v>0.11595547309833025</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -16308,17 +16308,17 @@
         <v>1911</v>
       </c>
       <c r="F373" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G373" s="4"/>
       <c r="H373" s="5">
-        <v>0.0051821258116504596</v>
+        <v>0.0077731887174756799</v>
       </c>
       <c r="I373" s="5">
         <v>0</v>
       </c>
       <c r="J373" s="5">
-        <v>0.10465724751439037</v>
+        <v>0.15698587127158556</v>
       </c>
       <c r="K373" s="5"/>
     </row>
@@ -16339,17 +16339,17 @@
         <v>1883</v>
       </c>
       <c r="F374" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="5">
-        <v>0.0105203081398254</v>
+        <v>0.013150385174781801</v>
       </c>
       <c r="I374" s="5">
         <v>0</v>
       </c>
       <c r="J374" s="5">
-        <v>0.21242697822623471</v>
+        <v>0.26553372278279341</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -16370,17 +16370,17 @@
         <v>3479</v>
       </c>
       <c r="F375" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="5">
-        <v>0.00427992415974389</v>
+        <v>0.0057065655463251902</v>
       </c>
       <c r="I375" s="5">
         <v>0</v>
       </c>
       <c r="J375" s="5">
-        <v>0.086231675768899105</v>
+        <v>0.11497556769186547</v>
       </c>
       <c r="K375" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.016122675647594099</v>
+        <v>0.0179140840528824</v>
       </c>
       <c r="I376" s="5">
         <v>0</v>
       </c>
       <c r="J376" s="5">
-        <v>0.16131923283742605</v>
+        <v>0.17924359204158452</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16432,17 +16432,17 @@
         <v>1526</v>
       </c>
       <c r="F377" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="5">
-        <v>0.0064070118337508598</v>
+        <v>0.0032035059168754299</v>
       </c>
       <c r="I377" s="5">
         <v>0</v>
       </c>
       <c r="J377" s="5">
-        <v>0.13106159895150721</v>
+        <v>0.065530799475753604</v>
       </c>
       <c r="K377" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.0109325461900077</v>
+        <v>0.0098392915710068894</v>
       </c>
       <c r="I382" s="5">
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>0.22079929344226099</v>
+        <v>0.1987193640980349</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.035674296912308501</v>
+        <v>0.0364850763875883</v>
       </c>
       <c r="I383" s="5">
         <v>0</v>
       </c>
       <c r="J383" s="5">
-        <v>0.7150983260198277</v>
+        <v>0.73135056070209647</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16680,17 +16680,17 @@
         <v>1708</v>
       </c>
       <c r="F385" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G385" s="4"/>
       <c r="H385" s="5">
-        <v>0.0058087863702636598</v>
+        <v>0.011617572740527301</v>
       </c>
       <c r="I385" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J385" s="5">
-        <v>0.117096018735363</v>
+        <v>0.23419203747072601</v>
       </c>
       <c r="K385" s="5"/>
     </row>
@@ -16742,17 +16742,17 @@
         <v>7679</v>
       </c>
       <c r="F387" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G387" s="4"/>
       <c r="H387" s="5">
-        <v>0.00192490187812676</v>
+        <v>0.00384980375625353</v>
       </c>
       <c r="I387" s="5">
         <v>0</v>
       </c>
       <c r="J387" s="5">
-        <v>0.013022528975126969</v>
+        <v>0.026045057950253938</v>
       </c>
       <c r="K387" s="5"/>
     </row>
@@ -16866,17 +16866,17 @@
         <v>1435</v>
       </c>
       <c r="F391" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="5">
-        <v>0.0068835441992373004</v>
+        <v>0.010325316298856</v>
       </c>
       <c r="I391" s="5">
         <v>0</v>
       </c>
       <c r="J391" s="5">
-        <v>0.13937282229965156</v>
+        <v>0.20905923344947736</v>
       </c>
       <c r="K391" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.128698356791352</v>
+        <v>0.13228993884134399</v>
       </c>
       <c r="I392" s="5">
-        <v>0.93023255813953498</v>
+        <v>0.90497737556561098</v>
       </c>
       <c r="J392" s="5">
-        <v>2.5897374126716453</v>
+        <v>2.6620091544206215</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.017803604873914899</v>
+        <v>0.016023244386523399</v>
       </c>
       <c r="I397" s="5">
         <v>0</v>
       </c>
       <c r="J397" s="5">
-        <v>0.3710575139146568</v>
+        <v>0.33395176252319109</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.0061487899565664901</v>
+        <v>0.0053801912119956696</v>
       </c>
       <c r="I398" s="5">
-        <v>25</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J398" s="5">
-        <v>0.12302014454866986</v>
+        <v>0.1076426264800861</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17121,7 +17121,7 @@
         <v>0.049783751827997103</v>
       </c>
       <c r="I399" s="5">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="J399" s="5">
         <v>1.0025062656641603</v>
@@ -17176,17 +17176,17 @@
         <v>2289</v>
       </c>
       <c r="F401" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="5">
-        <v>0.013014337461770401</v>
+        <v>0.0151833937053988</v>
       </c>
       <c r="I401" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J401" s="5">
-        <v>0.26212319790301442</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="K401" s="5"/>
     </row>
@@ -17207,17 +17207,17 @@
         <v>791</v>
       </c>
       <c r="F402" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G402" s="4"/>
       <c r="H402" s="5">
-        <v>0.018843629282999898</v>
+        <v>0.0125624195219999</v>
       </c>
       <c r="I402" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J402" s="5">
-        <v>0.37926675094816686</v>
+        <v>0.25284450063211128</v>
       </c>
       <c r="K402" s="5"/>
     </row>
@@ -17362,17 +17362,17 @@
         <v>2226</v>
       </c>
       <c r="F407" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" s="4"/>
       <c r="H407" s="5">
-        <v>0</v>
+        <v>0.0022331447814756202</v>
       </c>
       <c r="I407" s="5">
         <v>0</v>
       </c>
       <c r="J407" s="5">
-        <v>0</v>
+        <v>0.044923629829290213</v>
       </c>
       <c r="K407" s="5"/>
     </row>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.018206956195201299</v>
+        <v>0.021620760481801601</v>
       </c>
       <c r="I408" s="5">
-        <v>6.25</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J408" s="5">
-        <v>0.36454773296878556</v>
+        <v>0.4329004329004329</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17424,17 +17424,17 @@
         <v>1351</v>
       </c>
       <c r="F409" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G409" s="4"/>
       <c r="H409" s="5">
-        <v>0.0109177457038671</v>
+        <v>0.014556994271822801</v>
       </c>
       <c r="I409" s="5">
         <v>0</v>
       </c>
       <c r="J409" s="5">
-        <v>0.22205773501110287</v>
+        <v>0.29607698001480381</v>
       </c>
       <c r="K409" s="5"/>
     </row>
@@ -17517,17 +17517,17 @@
         <v>1288</v>
       </c>
       <c r="F412" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G412" s="4"/>
       <c r="H412" s="5">
-        <v>0.061901298379733502</v>
+        <v>0.054163636082266799</v>
       </c>
       <c r="I412" s="5">
         <v>0</v>
       </c>
       <c r="J412" s="5">
-        <v>0.6211180124223602</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="K412" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.016574024774023501</v>
+        <v>0.0145022716772706</v>
       </c>
       <c r="I418" s="5">
-        <v>0</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J418" s="5">
-        <v>1.6684045881126173</v>
+        <v>1.4598540145985401</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.0092904239618614801</v>
+        <v>0.0053088136924922804</v>
       </c>
       <c r="I423" s="5">
-        <v>14.285714285714301</v>
+        <v>25</v>
       </c>
       <c r="J423" s="5">
-        <v>0.1890359168241966</v>
+        <v>0.10802052389954091</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17889,17 +17889,17 @@
         <v>7476</v>
       </c>
       <c r="F424" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="5">
-        <v>0.018163253920992401</v>
+        <v>0.0129737528007089</v>
       </c>
       <c r="I424" s="5">
         <v>0</v>
       </c>
       <c r="J424" s="5">
-        <v>0.18726591760299627</v>
+        <v>0.13376136971642588</v>
       </c>
       <c r="K424" s="5"/>
     </row>
@@ -18013,17 +18013,17 @@
         <v>637</v>
       </c>
       <c r="F428" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G428" s="4"/>
       <c r="H428" s="5">
-        <v>0.031368858565658901</v>
+        <v>0.023526643924244198</v>
       </c>
       <c r="I428" s="5">
         <v>0</v>
       </c>
       <c r="J428" s="5">
-        <v>0.62794348508634223</v>
+        <v>0.47095761381475665</v>
       </c>
       <c r="K428" s="5"/>
     </row>
@@ -18137,17 +18137,17 @@
         <v>1554</v>
       </c>
       <c r="F432" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G432" s="4"/>
       <c r="H432" s="5">
-        <v>0.0031793166376819001</v>
+        <v>0</v>
       </c>
       <c r="I432" s="5">
         <v>0</v>
       </c>
       <c r="J432" s="5">
-        <v>0.064350064350064351</v>
+        <v>0</v>
       </c>
       <c r="K432" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.038694055937176598</v>
+        <v>0.0445965390462374</v>
       </c>
       <c r="I438" s="5">
-        <v>1.6949152542372901</v>
+        <v>0</v>
       </c>
       <c r="J438" s="5">
-        <v>0.77611154959221262</v>
+        <v>0.8945014469876349</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18416,17 +18416,17 @@
         <v>2548</v>
       </c>
       <c r="F441" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="5">
-        <v>0.0096425506474972795</v>
+        <v>0.0134995709064962</v>
       </c>
       <c r="I441" s="5">
-        <v>20</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J441" s="5">
-        <v>0.19623233908948193</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="K441" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.080363410037138802</v>
+        <v>0.081619088318969094</v>
       </c>
       <c r="I443" s="5">
-        <v>6.25</v>
+        <v>5.6410256410256396</v>
       </c>
       <c r="J443" s="5">
-        <v>1.6307117377271956</v>
+        <v>1.656191608629183</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18509,17 +18509,17 @@
         <v>2436</v>
       </c>
       <c r="F444" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="5">
-        <v>0.0040699046828323298</v>
+        <v>0.0081398093656646596</v>
       </c>
       <c r="I444" s="5">
         <v>0</v>
       </c>
       <c r="J444" s="5">
-        <v>0.041050903119868636</v>
+        <v>0.082101806239737271</v>
       </c>
       <c r="K444" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.15679667468071901</v>
+        <v>0.166020008485467</v>
       </c>
       <c r="I446" s="5">
-        <v>1.9607843137254899</v>
+        <v>1.8518518518518501</v>
       </c>
       <c r="J446" s="5">
-        <v>15.838509316770185</v>
+        <v>16.770186335403729</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.0147676425049102</v>
+        <v>0.015903615005287999</v>
       </c>
       <c r="I447" s="5">
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>0.29619503303713829</v>
+        <v>0.31897926634768742</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18664,17 +18664,17 @@
         <v>1232</v>
       </c>
       <c r="F449" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="5">
-        <v>0.0040408938457186698</v>
+        <v>0.0080817876914373501</v>
       </c>
       <c r="I449" s="5">
         <v>0</v>
       </c>
       <c r="J449" s="5">
-        <v>0.081168831168831168</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="K449" s="5"/>
     </row>
@@ -18695,17 +18695,17 @@
         <v>2149</v>
       </c>
       <c r="F450" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G450" s="4"/>
       <c r="H450" s="5">
-        <v>0.00920119799597908</v>
+        <v>0.0138017969939686</v>
       </c>
       <c r="I450" s="5">
         <v>0</v>
       </c>
       <c r="J450" s="5">
-        <v>0.18613308515588647</v>
+        <v>0.27919962773382972</v>
       </c>
       <c r="K450" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.10766241066903701</v>
+        <v>0.117659634516876</v>
       </c>
       <c r="I453" s="5">
-        <v>14.285714285714301</v>
+        <v>12.4183006535948</v>
       </c>
       <c r="J453" s="5">
-        <v>2.1834061135371177</v>
+        <v>2.3861509669369929</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18850,17 +18850,17 @@
         <v>910</v>
       </c>
       <c r="F455" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="5">
-        <v>0.0431238949501919</v>
+        <v>0.032342921212643899</v>
       </c>
       <c r="I455" s="5">
         <v>0</v>
       </c>
       <c r="J455" s="5">
-        <v>0.87912087912087911</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="K455" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.028057353720180599</v>
+        <v>0.029179647868987899</v>
       </c>
       <c r="I459" s="5">
         <v>0</v>
       </c>
       <c r="J459" s="5">
-        <v>0.5615453728661276</v>
+        <v>0.58400718778077276</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.011858805318986299</v>
+        <v>0.010610510022250901</v>
       </c>
       <c r="I460" s="5">
-        <v>15.789473684210501</v>
+        <v>17.647058823529399</v>
       </c>
       <c r="J460" s="5">
-        <v>0.23830427693465445</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19043,7 +19043,7 @@
         <v>0.016461015025379399</v>
       </c>
       <c r="I461" s="5">
-        <v>9.5238095238095202</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J461" s="5">
         <v>0.33076074972436603</v>
@@ -19098,17 +19098,17 @@
         <v>4522</v>
       </c>
       <c r="F463" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="5">
-        <v>0.020905079934424101</v>
+        <v>0.0154037431095756</v>
       </c>
       <c r="I463" s="5">
-        <v>10.526315789473699</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J463" s="5">
-        <v>0.42016806722689076</v>
+        <v>0.30959752321981426</v>
       </c>
       <c r="K463" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.028809192601799299</v>
+        <v>0.026751393130242201</v>
       </c>
       <c r="I468" s="5">
-        <v>7.1428571428571397</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J468" s="5">
-        <v>0.58139534883720934</v>
+        <v>0.53986710963455142</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.017616769822641098</v>
+        <v>0.015100088419406601</v>
       </c>
       <c r="I470" s="5">
-        <v>0</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J470" s="5">
-        <v>0.35419126328217237</v>
+        <v>0.30359251138471915</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19346,17 +19346,17 @@
         <v>5502</v>
       </c>
       <c r="F471" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="5">
-        <v>0.0126929095593928</v>
+        <v>0.011786273162293401</v>
       </c>
       <c r="I471" s="5">
         <v>0</v>
       </c>
       <c r="J471" s="5">
-        <v>0.2544529262086514</v>
+        <v>0.23627771719374771</v>
       </c>
       <c r="K471" s="5"/>
     </row>
@@ -19470,17 +19470,17 @@
         <v>1505</v>
       </c>
       <c r="F475" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G475" s="4"/>
       <c r="H475" s="5">
-        <v>0.0066198423153560502</v>
+        <v>0.0099297634730340697</v>
       </c>
       <c r="I475" s="5">
         <v>0</v>
       </c>
       <c r="J475" s="5">
-        <v>0.13289036544850499</v>
+        <v>0.19933554817275745</v>
       </c>
       <c r="K475" s="5"/>
     </row>
@@ -19594,17 +19594,17 @@
         <v>2037</v>
       </c>
       <c r="F479" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G479" s="4"/>
       <c r="H479" s="5">
-        <v>0.0095183478051879804</v>
+        <v>0.014277521707781999</v>
       </c>
       <c r="I479" s="5">
-        <v>0</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J479" s="5">
-        <v>0.19636720667648502</v>
+        <v>0.29455081001472755</v>
       </c>
       <c r="K479" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.0941097999255609</v>
+        <v>0.101099387187937</v>
       </c>
       <c r="I482" s="5">
-        <v>12.2015915119363</v>
+        <v>12.0987654320988</v>
       </c>
       <c r="J482" s="5">
-        <v>1.9200407435701554</v>
+        <v>2.0626432391138274</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19718,17 +19718,17 @@
         <v>3080</v>
       </c>
       <c r="F483" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="5">
-        <v>0.014498216719343499</v>
+        <v>0.019330955625791402</v>
       </c>
       <c r="I483" s="5">
-        <v>11.1111111111111</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J483" s="5">
-        <v>0.29220779220779219</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="K483" s="5"/>
     </row>
@@ -19873,17 +19873,17 @@
         <v>1540</v>
       </c>
       <c r="F488" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G488" s="4"/>
       <c r="H488" s="5">
-        <v>0.0096917068064856903</v>
+        <v>0.0161528446774762</v>
       </c>
       <c r="I488" s="5">
         <v>0</v>
       </c>
       <c r="J488" s="5">
-        <v>0.19480519480519481</v>
+        <v>0.32467532467532467</v>
       </c>
       <c r="K488" s="5"/>
     </row>
@@ -19935,17 +19935,17 @@
         <v>9058</v>
       </c>
       <c r="F490" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="5">
-        <v>0.026377800443147002</v>
+        <v>0.029675025498540401</v>
       </c>
       <c r="I490" s="5">
         <v>0</v>
       </c>
       <c r="J490" s="5">
-        <v>0.52991830426142639</v>
+        <v>0.59615809229410466</v>
       </c>
       <c r="K490" s="5"/>
     </row>
@@ -19966,17 +19966,17 @@
         <v>1806</v>
       </c>
       <c r="F491" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="5">
-        <v>0.0054877814545913504</v>
+        <v>0.00274389072729568</v>
       </c>
       <c r="I491" s="5">
         <v>0</v>
       </c>
       <c r="J491" s="5">
-        <v>0.11074197120708748</v>
+        <v>0.05537098560354374</v>
       </c>
       <c r="K491" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0027810319714387998</v>
+        <v>0.0041715479571582002</v>
       </c>
       <c r="I492" s="5">
-        <v>0</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J492" s="5">
-        <v>0.055640561969675893</v>
+        <v>0.083460842954513836</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20090,17 +20090,17 @@
         <v>7840</v>
       </c>
       <c r="F495" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G495" s="4"/>
       <c r="H495" s="5">
-        <v>0.0329364491214202</v>
+        <v>0.035470022130760198</v>
       </c>
       <c r="I495" s="5">
-        <v>3.8461538461538498</v>
+        <v>3.5714285714285698</v>
       </c>
       <c r="J495" s="5">
-        <v>0.33163265306122447</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K495" s="5"/>
     </row>
@@ -20183,17 +20183,17 @@
         <v>1855</v>
       </c>
       <c r="F498" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G498" s="4"/>
       <c r="H498" s="5">
-        <v>0.021505260724404701</v>
+        <v>0.026881575905505901</v>
       </c>
       <c r="I498" s="5">
         <v>0</v>
       </c>
       <c r="J498" s="5">
-        <v>0.215633423180593</v>
+        <v>0.26954177897574128</v>
       </c>
       <c r="K498" s="5"/>
     </row>
@@ -20245,17 +20245,17 @@
         <v>2408</v>
       </c>
       <c r="F500" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G500" s="4"/>
       <c r="H500" s="5">
-        <v>0.016485599828549798</v>
+        <v>0.0082427999142748801</v>
       </c>
       <c r="I500" s="5">
         <v>0</v>
       </c>
       <c r="J500" s="5">
-        <v>0.16611295681063123</v>
+        <v>0.083056478405315617</v>
       </c>
       <c r="K500" s="5"/>
     </row>
@@ -20307,17 +20307,17 @@
         <v>1197</v>
       </c>
       <c r="F502" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G502" s="4"/>
       <c r="H502" s="5">
-        <v>0.0124611109495782</v>
+        <v>0.0083074072997187907</v>
       </c>
       <c r="I502" s="5">
         <v>0</v>
       </c>
       <c r="J502" s="5">
-        <v>0.25062656641604009</v>
+        <v>0.16708437761069339</v>
       </c>
       <c r="K502" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.021375956039633898</v>
+        <v>0.019950892303658301</v>
       </c>
       <c r="I503" s="5">
-        <v>6.6666666666666696</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J503" s="5">
-        <v>0.42771599657827203</v>
+        <v>0.39920159680638717</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.031098055531041301</v>
+        <v>0.029417079556390401</v>
       </c>
       <c r="I504" s="5">
-        <v>2.7027027027027</v>
+        <v>2.8571428571428599</v>
       </c>
       <c r="J504" s="5">
-        <v>0.62405127340192279</v>
+        <v>0.59031877213695394</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.0113776860820559</v>
+        <v>0.0123258265888939</v>
       </c>
       <c r="I507" s="5">
-        <v>16.6666666666667</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J507" s="5">
-        <v>0.2282670724747955</v>
+        <v>0.24728932851436183</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20586,17 +20586,17 @@
         <v>4620</v>
       </c>
       <c r="F511" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G511" s="4"/>
       <c r="H511" s="5">
-        <v>0.0085833778596059798</v>
+        <v>0.010729222324507501</v>
       </c>
       <c r="I511" s="5">
         <v>0</v>
       </c>
       <c r="J511" s="5">
-        <v>0.086580086580086577</v>
+        <v>0.10822510822510822</v>
       </c>
       <c r="K511" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.0088137454137046205</v>
+        <v>0.013850171364393</v>
       </c>
       <c r="I513" s="5">
         <v>0</v>
       </c>
       <c r="J513" s="5">
-        <v>0.17667844522968199</v>
+        <v>0.27763755678950025</v>
       </c>
       <c r="K513" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>23/12/2023</t>
+    <t>24/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4931,17 +4931,17 @@
         <v>2485</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
-        <v>0.0079480831210532801</v>
+        <v>0.0039740415605266401</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.080482897384305835</v>
+        <v>0.040241448692152917</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -5148,17 +5148,17 @@
         <v>2520</v>
       </c>
       <c r="F13" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>0.029565330510829799</v>
+        <v>0.0236522644086638</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0.59523809523809523</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.0132908734230379</v>
+        <v>0.017278135449949199</v>
       </c>
       <c r="I15" s="5">
-        <v>10</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J15" s="5">
-        <v>0.13376136971642588</v>
+        <v>0.17388978063135366</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.31822118386336601</v>
+        <v>0.338361765120541</v>
       </c>
       <c r="I17" s="5">
-        <v>9.7046413502109701</v>
+        <v>10.3174603174603</v>
       </c>
       <c r="J17" s="5">
-        <v>6.5109890109890118</v>
+        <v>6.9230769230769234</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5303,17 +5303,17 @@
         <v>1344</v>
       </c>
       <c r="F18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5">
-        <v>0.036765787229036097</v>
+        <v>0.029412629783228901</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>0.37202380952380948</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.034831277551475602</v>
+        <v>0.033791537923073302</v>
       </c>
       <c r="I19" s="5">
-        <v>15.6716417910448</v>
+        <v>16.153846153846199</v>
       </c>
       <c r="J19" s="5">
-        <v>0.70326440642384802</v>
+        <v>0.68227143906791221</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.032222157126955302</v>
+        <v>0.032808014529263602</v>
       </c>
       <c r="I20" s="5">
-        <v>16.363636363636399</v>
+        <v>16.071428571428601</v>
       </c>
       <c r="J20" s="5">
-        <v>0.64774467082793552</v>
+        <v>0.65952184666117064</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.0607767265655072</v>
+        <v>0.052094337056149</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>6.1224489795918364</v>
+        <v>5.2478134110787176</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5520,17 +5520,17 @@
         <v>1078</v>
       </c>
       <c r="F25" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5">
-        <v>0.0274569383683257</v>
+        <v>0.032033094763046603</v>
       </c>
       <c r="I25" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J25" s="5">
-        <v>0.55658627087198509</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5582,17 +5582,17 @@
         <v>994</v>
       </c>
       <c r="F27" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5">
-        <v>0.074690036349151001</v>
+        <v>0.084648707862371206</v>
       </c>
       <c r="I27" s="5">
-        <v>20</v>
+        <v>29.411764705882401</v>
       </c>
       <c r="J27" s="5">
-        <v>1.5090543259557343</v>
+        <v>1.7102615694164991</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -5613,17 +5613,17 @@
         <v>5054</v>
       </c>
       <c r="F28" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5">
-        <v>0.020627164010509999</v>
+        <v>0.016698180389460499</v>
       </c>
       <c r="I28" s="5">
-        <v>9.5238095238095202</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J28" s="5">
-        <v>0.41551246537396125</v>
+        <v>0.33636723387415907</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -5644,17 +5644,17 @@
         <v>1155</v>
       </c>
       <c r="F29" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>0.025851483228850301</v>
+        <v>0.0387772248432754</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <v>0.51948051948051943</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.018117016160378401</v>
+        <v>0.019764017629503701</v>
       </c>
       <c r="I30" s="5">
-        <v>27.272727272727298</v>
+        <v>41.6666666666667</v>
       </c>
       <c r="J30" s="5">
-        <v>0.36630036630036628</v>
+        <v>0.39960039960039961</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.050075168391663497</v>
+        <v>0.048962386871848701</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>1.0123734533183353</v>
+        <v>0.98987626546681673</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.013503792110348099</v>
+        <v>0.017800453236367898</v>
       </c>
       <c r="I36" s="5">
-        <v>18.181818181818201</v>
+        <v>13.7931034482759</v>
       </c>
       <c r="J36" s="5">
-        <v>0.27070259628399163</v>
+        <v>0.35683524055617077</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5985,17 +5985,17 @@
         <v>133</v>
       </c>
       <c r="F40" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5">
-        <v>0.0299432575269864</v>
+        <v>0.0224574431452398</v>
       </c>
       <c r="I40" s="5">
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <v>3.007518796992481</v>
+        <v>2.2556390977443606</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -6109,17 +6109,17 @@
         <v>427</v>
       </c>
       <c r="F44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>0.0046197378298781502</v>
+        <v>0.0069296067448172301</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0.46838407494145201</v>
+        <v>0.70257611241217799</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.066239533673682904</v>
+        <v>0.060719572534209398</v>
       </c>
       <c r="I45" s="5">
-        <v>15.9420289855072</v>
+        <v>18.972332015810299</v>
       </c>
       <c r="J45" s="5">
-        <v>1.365255243371587</v>
+        <v>1.2514839730906213</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6171,17 +6171,17 @@
         <v>959</v>
       </c>
       <c r="F46" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
-        <v>0.056589019672401</v>
+        <v>0.051444563338546398</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>1.1470281543274243</v>
+        <v>1.0427528675703857</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -6233,17 +6233,17 @@
         <v>1148</v>
       </c>
       <c r="F48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5">
-        <v>0.017182573434023199</v>
+        <v>0.021478216792528999</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>0.34843205574912894</v>
+        <v>0.43554006968641112</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -6295,17 +6295,17 @@
         <v>2856</v>
       </c>
       <c r="F50" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5">
-        <v>0.026170520130364101</v>
+        <v>0.0279152214723884</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0.52521008403361347</v>
+        <v>0.56022408963585435</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -6326,17 +6326,17 @@
         <v>1330</v>
       </c>
       <c r="F51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
-        <v>0.0111231818232378</v>
+        <v>0.0148309090976504</v>
       </c>
       <c r="I51" s="5">
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <v>0.22556390977443611</v>
+        <v>0.30075187969924816</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -6543,17 +6543,17 @@
         <v>833</v>
       </c>
       <c r="F58" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>0.017897091722595099</v>
+        <v>0.0119313944817301</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0.36014405762304924</v>
+        <v>0.24009603841536614</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.036651954742507202</v>
+        <v>0.037504325783030701</v>
       </c>
       <c r="I60" s="5">
-        <v>2.32558139534884</v>
+        <v>2.2727272727272698</v>
       </c>
       <c r="J60" s="5">
-        <v>0.73479152426520855</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.105863242892912</v>
+        <v>0.101392397039214</v>
       </c>
       <c r="I63" s="5">
-        <v>9.0497737556561102</v>
+        <v>10.078740157480301</v>
       </c>
       <c r="J63" s="5">
-        <v>2.150642273258077</v>
+        <v>2.0598157519138445</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6729,17 +6729,17 @@
         <v>6286</v>
       </c>
       <c r="F64" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>0.018267335304087601</v>
+        <v>0.017473103334344701</v>
       </c>
       <c r="I64" s="5">
-        <v>8.6956521739130395</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J64" s="5">
-        <v>0.36589245943366211</v>
+        <v>0.34998409163219857</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.021559595795625199</v>
+        <v>0.0240960188304046</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0.21645021645021645</v>
+        <v>0.24191494779730072</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -6946,17 +6946,17 @@
         <v>3801</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
-        <v>0.0026277583250668402</v>
+        <v>0.0039416374876002696</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <v>0.052617732175743226</v>
+        <v>0.078926598263614839</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -7039,17 +7039,17 @@
         <v>4956</v>
       </c>
       <c r="F74" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>0.0110658194943524</v>
+        <v>0.013077786675143799</v>
       </c>
       <c r="I74" s="5">
-        <v>9.0909090909090899</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J74" s="5">
-        <v>0.22195318805488298</v>
+        <v>0.2623083131557708</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.12874640952901001</v>
+        <v>0.11690765922749199</v>
       </c>
       <c r="I76" s="5">
-        <v>22.9885057471264</v>
+        <v>20.253164556961998</v>
       </c>
       <c r="J76" s="5">
-        <v>2.5892857142857144</v>
+        <v>2.3511904761904763</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7287,17 +7287,17 @@
         <v>315</v>
       </c>
       <c r="F82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5">
-        <v>0.0156125587422523</v>
+        <v>0</v>
       </c>
       <c r="I82" s="5">
         <v>0</v>
       </c>
       <c r="J82" s="5">
-        <v>0.31746031746031744</v>
+        <v>0</v>
       </c>
       <c r="K82" s="5"/>
     </row>
@@ -7380,17 +7380,17 @@
         <v>469</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5">
-        <v>0</v>
+        <v>0.0106675769665678</v>
       </c>
       <c r="I85" s="5">
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <v>0</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K85" s="5"/>
     </row>
@@ -7442,17 +7442,17 @@
         <v>1218</v>
       </c>
       <c r="F87" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
-        <v>0.0097958304047881996</v>
+        <v>0.0089795112043891904</v>
       </c>
       <c r="I87" s="5">
-        <v>16.6666666666667</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J87" s="5">
-        <v>0.98522167487684731</v>
+        <v>0.90311986863710991</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.024231417690975501</v>
+        <v>0.021255629553487199</v>
       </c>
       <c r="I88" s="5">
-        <v>12.280701754386</v>
+        <v>12</v>
       </c>
       <c r="J88" s="5">
-        <v>0.48701298701298701</v>
+        <v>0.42720437457279564</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.022889457385216101</v>
+        <v>0.0224406444953099</v>
       </c>
       <c r="I90" s="5">
-        <v>5.8823529411764701</v>
+        <v>2</v>
       </c>
       <c r="J90" s="5">
-        <v>2.298332582244254</v>
+        <v>2.253267237494367</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.0252584749429717</v>
+        <v>0.024016254863809199</v>
       </c>
       <c r="I93" s="5">
-        <v>11.4754098360656</v>
+        <v>12.0689655172414</v>
       </c>
       <c r="J93" s="5">
-        <v>0.51533327701275655</v>
+        <v>0.48998901748753909</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7659,17 +7659,17 @@
         <v>5929</v>
       </c>
       <c r="F94" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
-        <v>0.021761091670272601</v>
+        <v>0.020924126606031299</v>
       </c>
       <c r="I94" s="5">
-        <v>7.6923076923076898</v>
+        <v>8</v>
       </c>
       <c r="J94" s="5">
-        <v>0.43852251644459433</v>
+        <v>0.42165626581210991</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -7752,17 +7752,17 @@
         <v>1344</v>
       </c>
       <c r="F97" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5">
-        <v>0.0073121864900042403</v>
+        <v>0.0036560932450021202</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>0.14880952380952381</v>
+        <v>0.074404761904761904</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.035439514414216999</v>
+        <v>0.032217740376560999</v>
       </c>
       <c r="I98" s="5">
-        <v>27.272727272727298</v>
+        <v>30</v>
       </c>
       <c r="J98" s="5">
-        <v>0.35633300939423385</v>
+        <v>0.32393909944930355</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7876,17 +7876,17 @@
         <v>1057</v>
       </c>
       <c r="F101" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5">
-        <v>0.0140899975107671</v>
+        <v>0.00939333167384474</v>
       </c>
       <c r="I101" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J101" s="5">
-        <v>0.28382213812677387</v>
+        <v>0.1892147587511826</v>
       </c>
       <c r="K101" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.0265862495917112</v>
+        <v>0.022788213935752401</v>
       </c>
       <c r="I103" s="5">
-        <v>14.285714285714301</v>
+        <v>0</v>
       </c>
       <c r="J103" s="5">
-        <v>0.53475935828876997</v>
+        <v>0.45836516424751722</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.017599067773635499</v>
+        <v>0.016101274771624</v>
       </c>
       <c r="I104" s="5">
-        <v>6.3829787234042596</v>
+        <v>4.6511627906976702</v>
       </c>
       <c r="J104" s="5">
-        <v>1.7669172932330828</v>
+        <v>1.6165413533834587</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8062,17 +8062,17 @@
         <v>1883</v>
       </c>
       <c r="F107" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="5">
-        <v>0.0053091378225633102</v>
+        <v>0.0026545689112816499</v>
       </c>
       <c r="I107" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J107" s="5">
-        <v>0.10621348911311736</v>
+        <v>0.053106744556558678</v>
       </c>
       <c r="K107" s="5"/>
     </row>
@@ -8124,17 +8124,17 @@
         <v>3948</v>
       </c>
       <c r="F109" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>0.017532830224595598</v>
+        <v>0.0200375202566806</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>0.3546099290780142</v>
+        <v>0.40526849037487339</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.029195801643723599</v>
+        <v>0.031385486767002903</v>
       </c>
       <c r="I110" s="5">
-        <v>5</v>
+        <v>4.6511627906976702</v>
       </c>
       <c r="J110" s="5">
-        <v>0.58970956803774144</v>
+        <v>0.63393778564057202</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8186,17 +8186,17 @@
         <v>6923</v>
       </c>
       <c r="F111" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5">
-        <v>0.00432315278886586</v>
+        <v>0.0036026273240548899</v>
       </c>
       <c r="I111" s="5">
-        <v>33.3333333333333</v>
+        <v>40</v>
       </c>
       <c r="J111" s="5">
-        <v>0.086667629640329327</v>
+        <v>0.072223024700274446</v>
       </c>
       <c r="K111" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.033077912478387997</v>
+        <v>0.040711276896477598</v>
       </c>
       <c r="I113" s="5">
-        <v>19.230769230769202</v>
+        <v>15.625</v>
       </c>
       <c r="J113" s="5">
-        <v>0.66924066924066927</v>
+        <v>0.82368082368082363</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8403,17 +8403,17 @@
         <v>1974</v>
       </c>
       <c r="F118" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5">
-        <v>0.010026218561538401</v>
+        <v>0.0150393278423076</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
       </c>
       <c r="J118" s="5">
-        <v>0.10131712259371835</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -8434,17 +8434,17 @@
         <v>238</v>
       </c>
       <c r="F119" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5">
-        <v>0.0041701070049457497</v>
+        <v>0.0083402140098914907</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
       </c>
       <c r="J119" s="5">
-        <v>0.42016806722689076</v>
+        <v>0.84033613445378152</v>
       </c>
       <c r="K119" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.19294828621876001</v>
+        <v>0.21115095472996301</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>3.8827838827838828</v>
+        <v>4.2490842490842491</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8496,17 +8496,17 @@
         <v>1197</v>
       </c>
       <c r="F121" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5">
-        <v>0.020757654385054499</v>
+        <v>0.033212247016087201</v>
       </c>
       <c r="I121" s="5">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="J121" s="5">
-        <v>0.41771094402673348</v>
+        <v>0.66833751044277356</v>
       </c>
       <c r="K121" s="5"/>
     </row>
@@ -8527,17 +8527,17 @@
         <v>980</v>
       </c>
       <c r="F122" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>0.025307101678873099</v>
+        <v>0.035429942350422398</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>0.51020408163265307</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -8558,17 +8558,17 @@
         <v>3619</v>
       </c>
       <c r="F123" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
-        <v>0.011040147496370599</v>
+        <v>0.0096601290593242295</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
       </c>
       <c r="J123" s="5">
-        <v>0.22105554020447638</v>
+        <v>0.19342359767891684</v>
       </c>
       <c r="K123" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>0.99233038868478696</v>
+        <v>0.83355752649522097</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>100.44642857142858</v>
+        <v>84.375</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8620,17 +8620,17 @@
         <v>8820</v>
       </c>
       <c r="F125" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>0.0231275041869244</v>
+        <v>0.022563418718950599</v>
       </c>
       <c r="I125" s="5">
-        <v>7.3170731707317103</v>
+        <v>10</v>
       </c>
       <c r="J125" s="5">
-        <v>0.46485260770975056</v>
+        <v>0.45351473922902497</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.022099083450558901</v>
+        <v>0.0309387168307825</v>
       </c>
       <c r="I129" s="5">
-        <v>1.8181818181818199</v>
+        <v>1.2987012987013</v>
       </c>
       <c r="J129" s="5">
-        <v>0.44340535311189938</v>
+        <v>0.62076749435665912</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.15081263459150801</v>
+        <v>0.15431990516340399</v>
       </c>
       <c r="I130" s="5">
-        <v>16.2790697674419</v>
+        <v>15.909090909090899</v>
       </c>
       <c r="J130" s="5">
-        <v>3.0260380014074597</v>
+        <v>3.0964109781843772</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8875,7 +8875,7 @@
         <v>0.033511750934432302</v>
       </c>
       <c r="I133" s="5">
-        <v>11.6279069767442</v>
+        <v>13.953488372093</v>
       </c>
       <c r="J133" s="5">
         <v>0.6728211547488655</v>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.021967955343540398</v>
+        <v>0.023066353110717398</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
       </c>
       <c r="J135" s="5">
-        <v>0.4464285714285714</v>
+        <v>0.46875</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.0275681070083642</v>
+        <v>0.028670831288698701</v>
       </c>
       <c r="I138" s="5">
-        <v>4</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J138" s="5">
-        <v>0.55456965394853597</v>
+        <v>0.57675244010647742</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9054,17 +9054,17 @@
         <v>2114</v>
       </c>
       <c r="F139" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>0.023569507656554599</v>
+        <v>0.0282834091878655</v>
       </c>
       <c r="I139" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J139" s="5">
-        <v>0.47303689687795647</v>
+        <v>0.56764427625354774</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.023509182014804099</v>
+        <v>0.025188409301575801</v>
       </c>
       <c r="I140" s="5">
-        <v>10.714285714285699</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="J140" s="5">
-        <v>0.47253396337861786</v>
+        <v>0.50628638933423342</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9240,17 +9240,17 @@
         <v>1169</v>
       </c>
       <c r="F145" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5">
-        <v>0.033789491468153403</v>
+        <v>0.025342118601115099</v>
       </c>
       <c r="I145" s="5">
         <v>0</v>
       </c>
       <c r="J145" s="5">
-        <v>0.34217279726261762</v>
+        <v>0.25662959794696322</v>
       </c>
       <c r="K145" s="5"/>
     </row>
@@ -9309,7 +9309,7 @@
         <v>0.026910875560982199</v>
       </c>
       <c r="I147" s="5">
-        <v>2.32558139534884</v>
+        <v>4.6511627906976702</v>
       </c>
       <c r="J147" s="5">
         <v>0.53979412503138335</v>
@@ -9519,17 +9519,17 @@
         <v>952</v>
       </c>
       <c r="F154" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5">
-        <v>0.0052383995641651603</v>
+        <v>0.0104767991283303</v>
       </c>
       <c r="I154" s="5">
         <v>0</v>
       </c>
       <c r="J154" s="5">
-        <v>0.10504201680672269</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K154" s="5"/>
     </row>
@@ -9550,17 +9550,17 @@
         <v>1988</v>
       </c>
       <c r="F155" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="5">
-        <v>0.015084776443613101</v>
+        <v>0.0075423882218065503</v>
       </c>
       <c r="I155" s="5">
         <v>0</v>
       </c>
       <c r="J155" s="5">
-        <v>0.1006036217303823</v>
+        <v>0.05030181086519115</v>
       </c>
       <c r="K155" s="5"/>
     </row>
@@ -9612,17 +9612,17 @@
         <v>133</v>
       </c>
       <c r="F157" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>0.453086652822352</v>
+        <v>0.33981498961676398</v>
       </c>
       <c r="I157" s="5">
-        <v>8.3333333333333304</v>
+        <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>9.0225563909774422</v>
+        <v>6.7669172932330826</v>
       </c>
       <c r="K157" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.019544228589297601</v>
+        <v>0.0220934757965973</v>
       </c>
       <c r="I164" s="5">
-        <v>17.3913043478261</v>
+        <v>19.230769230769202</v>
       </c>
       <c r="J164" s="5">
-        <v>0.39115646258503406</v>
+        <v>0.44217687074829937</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9891,17 +9891,17 @@
         <v>1379</v>
       </c>
       <c r="F166" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5">
-        <v>0.010693738459673899</v>
+        <v>0.0142583179462319</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>0.21754894851341552</v>
+        <v>0.29006526468455401</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.024226811408405501</v>
+        <v>0.020189009507004599</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.495458298926507</v>
+        <v>0.41288191577208916</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.40651533209530899</v>
+        <v>0.41575431691565701</v>
       </c>
       <c r="I174" s="5">
-        <v>3.7878787878787898</v>
+        <v>4.07407407407407</v>
       </c>
       <c r="J174" s="5">
-        <v>40.993788819875775</v>
+        <v>41.925465838509318</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10208,7 +10208,7 @@
         <v>0.075584714458733396</v>
       </c>
       <c r="I176" s="5">
-        <v>4.7058823529411802</v>
+        <v>3.52941176470588</v>
       </c>
       <c r="J176" s="5">
         <v>1.5351273252663897</v>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.212984111154639</v>
+        <v>0.21452190257091799</v>
       </c>
       <c r="I177" s="5">
-        <v>22.7436823104693</v>
+        <v>22.580645161290299</v>
       </c>
       <c r="J177" s="5">
-        <v>2.1401529784439464</v>
+        <v>2.1556053465193541</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10294,17 +10294,17 @@
         <v>280</v>
       </c>
       <c r="F179" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5">
-        <v>0.041841004184100403</v>
+        <v>0.045327754532775502</v>
       </c>
       <c r="I179" s="5">
-        <v>16.6666666666667</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="J179" s="5">
-        <v>4.2857142857142856</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="K179" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.053808318214115698</v>
+        <v>0.051048917280058503</v>
       </c>
       <c r="I180" s="5">
-        <v>15.384615384615399</v>
+        <v>16.2162162162162</v>
       </c>
       <c r="J180" s="5">
-        <v>1.083935519733185</v>
+        <v>1.0283490828237909</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.026902306962496399</v>
+        <v>0.027500136006107401</v>
       </c>
       <c r="I181" s="5">
-        <v>6.6666666666666696</v>
+        <v>6.5217391304347796</v>
       </c>
       <c r="J181" s="5">
-        <v>0.55998008959681433</v>
+        <v>0.57242409158785468</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10387,17 +10387,17 @@
         <v>2128</v>
       </c>
       <c r="F182" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5">
-        <v>0.023309153970947499</v>
+        <v>0.027970984765137</v>
       </c>
       <c r="I182" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J182" s="5">
-        <v>0.23496240601503759</v>
+        <v>0.28195488721804507</v>
       </c>
       <c r="K182" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.20903695445453699</v>
+        <v>0.216603903032076</v>
       </c>
       <c r="I184" s="5">
-        <v>18.401206636500799</v>
+        <v>18.6317321688501</v>
       </c>
       <c r="J184" s="5">
-        <v>4.258735868448098</v>
+        <v>4.4128982528263103</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>1897</v>
       </c>
       <c r="F185" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5">
-        <v>0.039230352785485798</v>
+        <v>0.041845709637851503</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>0.79072219293621504</v>
+        <v>0.84343700579862946</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -10542,17 +10542,17 @@
         <v>1435</v>
       </c>
       <c r="F187" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5">
-        <v>0.010349324189130401</v>
+        <v>0.017248873648550701</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>0.20905923344947736</v>
+        <v>0.34843205574912894</v>
       </c>
       <c r="K187" s="5"/>
     </row>
@@ -10573,17 +10573,17 @@
         <v>1134</v>
       </c>
       <c r="F188" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5">
-        <v>0.0174539107668812</v>
+        <v>0.0130904330751609</v>
       </c>
       <c r="I188" s="5">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J188" s="5">
-        <v>0.35273368606701938</v>
+        <v>0.26455026455026454</v>
       </c>
       <c r="K188" s="5"/>
     </row>
@@ -10604,17 +10604,17 @@
         <v>721</v>
       </c>
       <c r="F189" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5">
-        <v>0.054951470982188902</v>
+        <v>0.096165074218830499</v>
       </c>
       <c r="I189" s="5">
         <v>0</v>
       </c>
       <c r="J189" s="5">
-        <v>1.1095700416088765</v>
+        <v>1.9417475728155338</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.30992882293650897</v>
+        <v>0.28861566605835398</v>
       </c>
       <c r="I190" s="5">
-        <v>18.3381088825215</v>
+        <v>16.615384615384599</v>
       </c>
       <c r="J190" s="5">
-        <v>6.2477622627998564</v>
+        <v>5.8181167203723589</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10666,17 +10666,17 @@
         <v>182</v>
       </c>
       <c r="F191" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5">
-        <v>0.053162928426749502</v>
+        <v>0.058479221269424397</v>
       </c>
       <c r="I191" s="5">
         <v>0</v>
       </c>
       <c r="J191" s="5">
-        <v>5.4945054945054945</v>
+        <v>6.0439560439560438</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -10735,7 +10735,7 @@
         <v>0.264056652154462</v>
       </c>
       <c r="I193" s="5">
-        <v>3.30578512396694</v>
+        <v>2.4793388429752099</v>
       </c>
       <c r="J193" s="5">
         <v>5.3350970017636685</v>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.086426054357096105</v>
+        <v>0.081534013544430295</v>
       </c>
       <c r="I194" s="5">
-        <v>26.415094339622598</v>
+        <v>32</v>
       </c>
       <c r="J194" s="5">
-        <v>0.8682830930537353</v>
+        <v>0.81913499344692009</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.052754400337628203</v>
+        <v>0.055857600357488602</v>
       </c>
       <c r="I195" s="5">
-        <v>17.647058823529399</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J195" s="5">
-        <v>1.0605115408608858</v>
+        <v>1.1228945726762321</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.15223427892017699</v>
+        <v>0.15416129510904</v>
       </c>
       <c r="I196" s="5">
-        <v>12.6582278481013</v>
+        <v>13.125</v>
       </c>
       <c r="J196" s="5">
-        <v>3.1047357044606017</v>
+        <v>3.1440361564157993</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.33973950511532702</v>
+        <v>0.34469086561588602</v>
       </c>
       <c r="I197" s="5">
-        <v>15.5829596412556</v>
+        <v>16.4640883977901</v>
       </c>
       <c r="J197" s="5">
-        <v>3.488326619999218</v>
+        <v>3.539165460873646</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10883,17 +10883,17 @@
         <v>1568</v>
       </c>
       <c r="F198" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="5">
-        <v>0.047350726833656903</v>
+        <v>0.034723866344681699</v>
       </c>
       <c r="I198" s="5">
         <v>0</v>
       </c>
       <c r="J198" s="5">
-        <v>0.95663265306122447</v>
+        <v>0.70153061224489799</v>
       </c>
       <c r="K198" s="5"/>
     </row>
@@ -10945,17 +10945,17 @@
         <v>147</v>
       </c>
       <c r="F200" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="5">
-        <v>0.053527459586768002</v>
+        <v>0.040145594690076003</v>
       </c>
       <c r="I200" s="5">
         <v>0</v>
       </c>
       <c r="J200" s="5">
-        <v>5.4421768707482991</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="K200" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>1446</v>
+        <v>1470</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.53851960736483295</v>
+        <v>0.54745769213437401</v>
       </c>
       <c r="I201" s="5">
-        <v>17.7731673582296</v>
+        <v>17.278911564625901</v>
       </c>
       <c r="J201" s="5">
-        <v>5.4318019608579693</v>
+        <v>5.5219563502498028</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.71621175374562296</v>
+        <v>0.69871650479916503</v>
       </c>
       <c r="I202" s="5">
-        <v>15.114503816793899</v>
+        <v>15.962441314554001</v>
       </c>
       <c r="J202" s="5">
-        <v>7.1702244116037219</v>
+        <v>6.9950738916256157</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.81251759091977205</v>
+        <v>0.81122651423928505</v>
       </c>
       <c r="I203" s="5">
-        <v>16.154661016949198</v>
+        <v>16.551724137931</v>
       </c>
       <c r="J203" s="5">
-        <v>8.1756376391114181</v>
+        <v>8.1626466894730001</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.47792886690356101</v>
+        <v>0.47252854072386002</v>
       </c>
       <c r="I204" s="5">
-        <v>13.276836158192101</v>
+        <v>13.785714285714301</v>
       </c>
       <c r="J204" s="5">
-        <v>4.800325445792935</v>
+        <v>4.7460844803037494</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.55624280535367598</v>
+        <v>0.56161194440149098</v>
       </c>
       <c r="I205" s="5">
-        <v>13.030888030888001</v>
+        <v>13.957934990439799</v>
       </c>
       <c r="J205" s="5">
-        <v>5.5996973136587211</v>
+        <v>5.6537484460299448</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.039410614263686597</v>
+        <v>0.042694832118993803</v>
       </c>
       <c r="I206" s="5">
-        <v>4.1666666666666696</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J206" s="5">
-        <v>0.79181788188716595</v>
+        <v>0.85780270537776315</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11162,17 +11162,17 @@
         <v>308</v>
       </c>
       <c r="F207" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="5">
-        <v>0.041515905382058099</v>
+        <v>0.038322374198822902</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>4.220779220779221</v>
+        <v>3.8961038961038961</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -11193,17 +11193,17 @@
         <v>1463</v>
       </c>
       <c r="F208" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="5">
-        <v>0.0475330354596444</v>
+        <v>0.044137818641098399</v>
       </c>
       <c r="I208" s="5">
         <v>0</v>
       </c>
       <c r="J208" s="5">
-        <v>0.9569377990430622</v>
+        <v>0.88858509911141503</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.041556714526149598</v>
+        <v>0.039478878799842097</v>
       </c>
       <c r="I211" s="5">
-        <v>20</v>
+        <v>21.052631578947398</v>
       </c>
       <c r="J211" s="5">
-        <v>0.85034013605442182</v>
+        <v>0.80782312925170074</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.089562097320413994</v>
+        <v>0.10075735948546601</v>
       </c>
       <c r="I215" s="5">
-        <v>25</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J215" s="5">
-        <v>1.799775028121485</v>
+        <v>2.0247469066366706</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11441,17 +11441,17 @@
         <v>1218</v>
       </c>
       <c r="F216" s="4">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="5">
-        <v>0.31969571525768298</v>
+        <v>0.016394652064496602</v>
       </c>
       <c r="I216" s="5">
         <v>0</v>
       </c>
       <c r="J216" s="5">
-        <v>3.201970443349754</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="K216" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.067994104659296006</v>
+        <v>0.071141979875004202</v>
       </c>
       <c r="I217" s="5">
-        <v>1.8518518518518501</v>
+        <v>1.76991150442478</v>
       </c>
       <c r="J217" s="5">
-        <v>1.3738710087775092</v>
+        <v>1.4374761480727642</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11510,7 +11510,7 @@
         <v>0.056284882555964103</v>
       </c>
       <c r="I218" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J218" s="5">
         <v>1.1301989150090417</v>
@@ -11565,17 +11565,17 @@
         <v>2639</v>
       </c>
       <c r="F220" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="5">
-        <v>0.0167115712776368</v>
+        <v>0.018568412530707502</v>
       </c>
       <c r="I220" s="5">
         <v>0</v>
       </c>
       <c r="J220" s="5">
-        <v>0.34103827207275483</v>
+        <v>0.37893141341417202</v>
       </c>
       <c r="K220" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.091267920392196195</v>
+        <v>0.093826834048052102</v>
       </c>
       <c r="I221" s="5">
-        <v>13.5514018691589</v>
+        <v>13.636363636363599</v>
       </c>
       <c r="J221" s="5">
-        <v>1.8361218361218363</v>
+        <v>1.8876018876018876</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11627,17 +11627,17 @@
         <v>175</v>
       </c>
       <c r="F222" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="5">
-        <v>0.045356359245043401</v>
+        <v>0.051025904150673797</v>
       </c>
       <c r="I222" s="5">
         <v>0</v>
       </c>
       <c r="J222" s="5">
-        <v>4.5714285714285712</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="K222" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.0287101424023063</v>
+        <v>0.024750122760608902</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
       </c>
       <c r="J224" s="5">
-        <v>0.58186195826645271</v>
+        <v>0.5016051364365971</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11782,17 +11782,17 @@
         <v>714</v>
       </c>
       <c r="F227" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="5">
-        <v>0.034793500574092799</v>
+        <v>0.048710900803729897</v>
       </c>
       <c r="I227" s="5">
-        <v>40</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J227" s="5">
-        <v>0.70028011204481799</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="K227" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.36601150607080002</v>
+        <v>0.372666260726633</v>
       </c>
       <c r="I228" s="5">
-        <v>0.90909090909090895</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="J228" s="5">
-        <v>7.4475287745429926</v>
+        <v>7.5829383886255926</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.12438467921532</v>
+        <v>0.113025347780131</v>
       </c>
       <c r="I229" s="5">
-        <v>2.2831050228310499</v>
+        <v>2.5125628140703502</v>
       </c>
       <c r="J229" s="5">
-        <v>12.61520737327189</v>
+        <v>11.463133640552996</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11875,17 +11875,17 @@
         <v>952</v>
       </c>
       <c r="F230" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="5">
-        <v>0.0103101286704058</v>
+        <v>0.0154651930056087</v>
       </c>
       <c r="I230" s="5">
         <v>0</v>
       </c>
       <c r="J230" s="5">
-        <v>0.21008403361344538</v>
+        <v>0.31512605042016806</v>
       </c>
       <c r="K230" s="5"/>
     </row>
@@ -11913,7 +11913,7 @@
         <v>0.048769901167795303</v>
       </c>
       <c r="I231" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J231" s="5">
         <v>0.98863074641621362</v>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.111786691551356</v>
+        <v>0.102066109677325</v>
       </c>
       <c r="I235" s="5">
         <v>0</v>
       </c>
       <c r="J235" s="5">
-        <v>11.330049261083744</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12061,17 +12061,17 @@
         <v>714</v>
       </c>
       <c r="F236" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="5">
-        <v>0.0412629204519665</v>
+        <v>0.034385767043305399</v>
       </c>
       <c r="I236" s="5">
         <v>0</v>
       </c>
       <c r="J236" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.70028011204481799</v>
       </c>
       <c r="K236" s="5"/>
     </row>
@@ -12092,17 +12092,17 @@
         <v>3122</v>
       </c>
       <c r="F237" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="5">
-        <v>0.015924226162229601</v>
+        <v>0.012739380929783699</v>
       </c>
       <c r="I237" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J237" s="5">
-        <v>0.1601537475976938</v>
+        <v>0.12812299807815503</v>
       </c>
       <c r="K237" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.10514975077005501</v>
+        <v>0.11516401274815601</v>
       </c>
       <c r="I238" s="5">
-        <v>2.38095238095238</v>
+        <v>2.1739130434782599</v>
       </c>
       <c r="J238" s="5">
-        <v>2.1377672209026128</v>
+        <v>2.341364099083814</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12154,17 +12154,17 @@
         <v>2611</v>
       </c>
       <c r="F239" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="5">
-        <v>0.057150041719530503</v>
+        <v>0.053340038938228397</v>
       </c>
       <c r="I239" s="5">
         <v>0</v>
       </c>
       <c r="J239" s="5">
-        <v>0.57449253159708924</v>
+        <v>0.53619302949061665</v>
       </c>
       <c r="K239" s="5"/>
     </row>
@@ -12192,7 +12192,7 @@
         <v>0.041509338860005303</v>
       </c>
       <c r="I240" s="5">
-        <v>14.285714285714301</v>
+        <v>10.714285714285699</v>
       </c>
       <c r="J240" s="5">
         <v>0.84033613445378152</v>
@@ -12216,17 +12216,17 @@
         <v>196</v>
       </c>
       <c r="F241" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="5">
-        <v>0.020051733472358699</v>
+        <v>0.010025866736179299</v>
       </c>
       <c r="I241" s="5">
         <v>0</v>
       </c>
       <c r="J241" s="5">
-        <v>2.0408163265306123</v>
+        <v>1.0204081632653061</v>
       </c>
       <c r="K241" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>1.0762128635758601</v>
+        <v>1.13285564586933</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>21.714285714285715</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12309,17 +12309,17 @@
         <v>1001</v>
       </c>
       <c r="F244" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="5">
-        <v>0.0098780066182644292</v>
+        <v>0.0148170099273967</v>
       </c>
       <c r="I244" s="5">
         <v>100</v>
       </c>
       <c r="J244" s="5">
-        <v>0.19980019980019981</v>
+        <v>0.29970029970029971</v>
       </c>
       <c r="K244" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.066402430786914601</v>
+        <v>0.067547300283240699</v>
       </c>
       <c r="I245" s="5">
-        <v>3.4482758620689702</v>
+        <v>3.3898305084745801</v>
       </c>
       <c r="J245" s="5">
-        <v>6.6820276497695854</v>
+        <v>6.7972350230414742</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.069041773411176205</v>
+        <v>0.064334379769505096</v>
       </c>
       <c r="I247" s="5">
-        <v>9.8484848484848495</v>
+        <v>11.3821138211382</v>
       </c>
       <c r="J247" s="5">
-        <v>7.0100902814657458</v>
+        <v>6.5321295804567177</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.087845359225752997</v>
+        <v>0.094708277915264899</v>
       </c>
       <c r="I248" s="5">
-        <v>7.8125</v>
+        <v>7.2463768115942004</v>
       </c>
       <c r="J248" s="5">
-        <v>1.7822333611807295</v>
+        <v>1.921470342522974</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12464,17 +12464,17 @@
         <v>91</v>
       </c>
       <c r="F249" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="5">
-        <v>0.011403028644408</v>
+        <v>0.022806057288815899</v>
       </c>
       <c r="I249" s="5">
         <v>0</v>
       </c>
       <c r="J249" s="5">
-        <v>1.098901098901099</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="K249" s="5"/>
     </row>
@@ -12495,17 +12495,17 @@
         <v>1162</v>
       </c>
       <c r="F250" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="5">
-        <v>0.038097334456499203</v>
+        <v>0.029631260132832699</v>
       </c>
       <c r="I250" s="5">
-        <v>11.1111111111111</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J250" s="5">
-        <v>0.77452667814113596</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="K250" s="5"/>
     </row>
@@ -12526,17 +12526,17 @@
         <v>378</v>
       </c>
       <c r="F251" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="5">
-        <v>0.038875714341250998</v>
+        <v>0.0259171428941673</v>
       </c>
       <c r="I251" s="5">
         <v>0</v>
       </c>
       <c r="J251" s="5">
-        <v>0.79365079365079361</v>
+        <v>0.52910052910052907</v>
       </c>
       <c r="K251" s="5"/>
     </row>
@@ -12557,17 +12557,17 @@
         <v>1414</v>
       </c>
       <c r="F252" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="5">
-        <v>0.0171857330918165</v>
+        <v>0.0137485864734532</v>
       </c>
       <c r="I252" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J252" s="5">
-        <v>0.3536067892503536</v>
+        <v>0.28288543140028288</v>
       </c>
       <c r="K252" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.345950893360297</v>
+        <v>0.34356737342572802</v>
       </c>
       <c r="I256" s="5">
-        <v>13.9763779527559</v>
+        <v>13.776015857284399</v>
       </c>
       <c r="J256" s="5">
-        <v>6.941313110610098</v>
+        <v>6.8934891029582568</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.080689937388450997</v>
+        <v>0.086453504344768894</v>
       </c>
       <c r="I257" s="5">
-        <v>21.428571428571399</v>
+        <v>17.7777777777778</v>
       </c>
       <c r="J257" s="5">
-        <v>1.6172506738544474</v>
+        <v>1.7327685791297651</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.309863681291352</v>
+        <v>0.30943745889617802</v>
       </c>
       <c r="I258" s="5">
-        <v>11.8294360385144</v>
+        <v>12.6721763085399</v>
       </c>
       <c r="J258" s="5">
-        <v>3.1471861471861469</v>
+        <v>3.1428571428571432</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.46256613120630302</v>
+        <v>0.45703965413095898</v>
       </c>
       <c r="I259" s="5">
-        <v>22.3416965352449</v>
+        <v>21.281741233373602</v>
       </c>
       <c r="J259" s="5">
-        <v>4.7112462006079028</v>
+        <v>4.6549589102780589</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.29087642170453598</v>
+        <v>0.30192236176926501</v>
       </c>
       <c r="I262" s="5">
-        <v>18.9873417721519</v>
+        <v>17.0731707317073</v>
       </c>
       <c r="J262" s="5">
-        <v>29.699248120300751</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.023218859518644001</v>
+        <v>0.020316502078813501</v>
       </c>
       <c r="I263" s="5">
         <v>0</v>
       </c>
       <c r="J263" s="5">
-        <v>0.46647230320699706</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.41928721174004202</v>
+        <v>0.39294455969354702</v>
       </c>
       <c r="I270" s="5">
-        <v>10.994764397905801</v>
+        <v>10.055865921787699</v>
       </c>
       <c r="J270" s="5">
-        <v>8.5002225189141072</v>
+        <v>7.9661771250556308</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13146,17 +13146,17 @@
         <v>1757</v>
       </c>
       <c r="F271" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="5">
-        <v>0.0112464433123025</v>
+        <v>0.0140580541403781</v>
       </c>
       <c r="I271" s="5">
         <v>0</v>
       </c>
       <c r="J271" s="5">
-        <v>0.22766078542970974</v>
+        <v>0.28457598178713717</v>
       </c>
       <c r="K271" s="5"/>
     </row>
@@ -13177,17 +13177,17 @@
         <v>1589</v>
       </c>
       <c r="F272" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="5">
-        <v>0.0185661372223202</v>
+        <v>0.021660493426040199</v>
       </c>
       <c r="I272" s="5">
-        <v>50</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="J272" s="5">
-        <v>0.37759597230962871</v>
+        <v>0.44052863436123352</v>
       </c>
       <c r="K272" s="5"/>
     </row>
@@ -13239,17 +13239,17 @@
         <v>1617</v>
       </c>
       <c r="F274" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="5">
-        <v>0.012357197140544601</v>
+        <v>0.0154464964256807</v>
       </c>
       <c r="I274" s="5">
         <v>0</v>
       </c>
       <c r="J274" s="5">
-        <v>0.24737167594310452</v>
+        <v>0.30921459492888065</v>
       </c>
       <c r="K274" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.018315140293974699</v>
+        <v>0.021645165801969998</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.37061994609164423</v>
+        <v>0.43800539083557954</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.085981868848989396</v>
+        <v>0.081572542241348897</v>
       </c>
       <c r="I277" s="5">
-        <v>38.461538461538503</v>
+        <v>40.540540540540498</v>
       </c>
       <c r="J277" s="5">
-        <v>1.7410714285714286</v>
+        <v>1.6517857142857144</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.0253139151495646</v>
+        <v>0.023505778353167101</v>
       </c>
       <c r="I278" s="5">
-        <v>14.285714285714301</v>
+        <v>11.538461538461499</v>
       </c>
       <c r="J278" s="5">
-        <v>0.5089058524173028</v>
+        <v>0.47255543438749542</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13394,17 +13394,17 @@
         <v>2037</v>
       </c>
       <c r="F279" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="5">
-        <v>0.016812575806703398</v>
+        <v>0.0144107792628886</v>
       </c>
       <c r="I279" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J279" s="5">
-        <v>0.3436426116838488</v>
+        <v>0.29455081001472755</v>
       </c>
       <c r="K279" s="5"/>
     </row>
@@ -13456,17 +13456,17 @@
         <v>791</v>
       </c>
       <c r="F281" s="4">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="5">
-        <v>0.075992764492193901</v>
+        <v>0.068518066345420806</v>
       </c>
       <c r="I281" s="5">
         <v>0</v>
       </c>
       <c r="J281" s="5">
-        <v>7.711757269279393</v>
+        <v>6.9532237673830597</v>
       </c>
       <c r="K281" s="5"/>
     </row>
@@ -13518,17 +13518,17 @@
         <v>2632</v>
       </c>
       <c r="F283" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="5">
-        <v>0.0112168402161111</v>
+        <v>0.0093473668467592697</v>
       </c>
       <c r="I283" s="5">
         <v>0</v>
       </c>
       <c r="J283" s="5">
-        <v>0.22796352583586624</v>
+        <v>0.1899696048632219</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -13580,17 +13580,17 @@
         <v>1869</v>
       </c>
       <c r="F285" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="5">
-        <v>0.013274395019446999</v>
+        <v>0.015929274023336399</v>
       </c>
       <c r="I285" s="5">
         <v>0</v>
       </c>
       <c r="J285" s="5">
-        <v>0.26752273943285176</v>
+        <v>0.32102728731942215</v>
       </c>
       <c r="K285" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.021527437961649701</v>
+        <v>0.0231833947279304</v>
       </c>
       <c r="I288" s="5">
-        <v>7.6923076923076898</v>
+        <v>3.5714285714285698</v>
       </c>
       <c r="J288" s="5">
-        <v>0.4308916141862778</v>
+        <v>0.46403712296983757</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.015923301249145101</v>
+        <v>0.0144067963682741</v>
       </c>
       <c r="I291" s="5">
         <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>0.32051282051282048</v>
+        <v>0.28998778998779001</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.0130090003698273</v>
+        <v>0.012079786057696801</v>
       </c>
       <c r="I292" s="5">
         <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>0.26212319790301442</v>
+        <v>0.24340011233851341</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13828,17 +13828,17 @@
         <v>3115</v>
       </c>
       <c r="F293" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="5">
-        <v>0.0096009216884820892</v>
+        <v>0.012801228917976099</v>
       </c>
       <c r="I293" s="5">
-        <v>16.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="J293" s="5">
-        <v>0.1926163723916533</v>
+        <v>0.2568218298555377</v>
       </c>
       <c r="K293" s="5"/>
     </row>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0084568185448634196</v>
+        <v>0.0075171720398786003</v>
       </c>
       <c r="I295" s="5">
         <v>0</v>
       </c>
       <c r="J295" s="5">
-        <v>0.16984336667295716</v>
+        <v>0.15097188148707302</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13959,7 +13959,7 @@
         <v>0.018932236980111299</v>
       </c>
       <c r="I297" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J297" s="5">
         <v>0.37993920972644379</v>
@@ -13983,17 +13983,17 @@
         <v>588</v>
       </c>
       <c r="F298" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="5">
-        <v>0.016813363261119901</v>
+        <v>0.0084066816305599697</v>
       </c>
       <c r="I298" s="5">
         <v>0</v>
       </c>
       <c r="J298" s="5">
-        <v>0.3401360544217687</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="K298" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.058305947206615097</v>
+        <v>0.062281352697975197</v>
       </c>
       <c r="I302" s="5">
-        <v>4.5454545454545503</v>
+        <v>6.3829787234042596</v>
       </c>
       <c r="J302" s="5">
-        <v>1.1859838274932615</v>
+        <v>1.2668463611859839</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0095110194671546508</v>
+        <v>0.0114132233605856</v>
       </c>
       <c r="I306" s="5">
-        <v>10</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J306" s="5">
-        <v>0.19047619047619047</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14262,17 +14262,17 @@
         <v>1862</v>
       </c>
       <c r="F307" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="5">
-        <v>0.0133031794598909</v>
+        <v>0.015963815351869099</v>
       </c>
       <c r="I307" s="5">
         <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>0.26852846401718583</v>
+        <v>0.32223415682062301</v>
       </c>
       <c r="K307" s="5"/>
     </row>
@@ -14293,17 +14293,17 @@
         <v>1540</v>
       </c>
       <c r="F308" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G308" s="4"/>
       <c r="H308" s="5">
-        <v>0.0287846175004078</v>
+        <v>0.0223880358336505</v>
       </c>
       <c r="I308" s="5">
         <v>0</v>
       </c>
       <c r="J308" s="5">
-        <v>0.58441558441558439</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="K308" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.017457567200722699</v>
+        <v>0.020367161734176499</v>
       </c>
       <c r="I310" s="5">
-        <v>8.3333333333333304</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J310" s="5">
-        <v>0.3498542274052478</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.034062240038876403</v>
+        <v>0.037089994708998701</v>
       </c>
       <c r="I311" s="5">
-        <v>4.4444444444444402</v>
+        <v>4.0816326530612201</v>
       </c>
       <c r="J311" s="5">
-        <v>0.34285714285714286</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14417,17 +14417,17 @@
         <v>3185</v>
       </c>
       <c r="F312" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="5">
-        <v>0.11130218857726</v>
+        <v>0.109734552118426</v>
       </c>
       <c r="I312" s="5">
         <v>0</v>
       </c>
       <c r="J312" s="5">
-        <v>2.2291993720565149</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="K312" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.035509328865614101</v>
+        <v>0.037930419470087802</v>
       </c>
       <c r="I314" s="5">
-        <v>4.5454545454545503</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="J314" s="5">
-        <v>0.71347494730014593</v>
+        <v>0.76212096643424676</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.031533165006295397</v>
+        <v>0.032659349470805898</v>
       </c>
       <c r="I317" s="5">
-        <v>2.38095238095238</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="J317" s="5">
-        <v>0.6339144215530903</v>
+        <v>0.65655422232284355</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14882,17 +14882,17 @@
         <v>2303</v>
       </c>
       <c r="F327" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="5">
-        <v>0.0043111810480481096</v>
+        <v>0.00215559052402406</v>
       </c>
       <c r="I327" s="5">
         <v>0</v>
       </c>
       <c r="J327" s="5">
-        <v>0.086843247937472862</v>
+        <v>0.043421623968736431</v>
       </c>
       <c r="K327" s="5"/>
     </row>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.0234549865301363</v>
+        <v>0.030156411253032402</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.4784688995215311</v>
+        <v>0.61517429938482571</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -15006,17 +15006,17 @@
         <v>882</v>
       </c>
       <c r="F331" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="5">
-        <v>0.016795149560806799</v>
+        <v>0.022393532747742501</v>
       </c>
       <c r="I331" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J331" s="5">
-        <v>0.3401360544217687</v>
+        <v>0.45351473922902497</v>
       </c>
       <c r="K331" s="5"/>
     </row>
@@ -15068,17 +15068,17 @@
         <v>518</v>
       </c>
       <c r="F333" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="5">
-        <v>0</v>
+        <v>0.0095554791117226593</v>
       </c>
       <c r="I333" s="5">
         <v>0</v>
       </c>
       <c r="J333" s="5">
-        <v>0</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="K333" s="5"/>
     </row>
@@ -15099,17 +15099,17 @@
         <v>1799</v>
       </c>
       <c r="F334" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="5">
-        <v>0.0137837495106769</v>
+        <v>0.016540499412812298</v>
       </c>
       <c r="I334" s="5">
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>0.27793218454697055</v>
+        <v>0.33351862145636463</v>
       </c>
       <c r="K334" s="5"/>
     </row>
@@ -15254,17 +15254,17 @@
         <v>1190</v>
       </c>
       <c r="F339" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="5">
-        <v>0.0041539279542735603</v>
+        <v>0.012461783862820699</v>
       </c>
       <c r="I339" s="5">
         <v>0</v>
       </c>
       <c r="J339" s="5">
-        <v>0.084033613445378158</v>
+        <v>0.25210084033613445</v>
       </c>
       <c r="K339" s="5"/>
     </row>
@@ -15285,17 +15285,17 @@
         <v>1015</v>
       </c>
       <c r="F340" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="5">
-        <v>0.0098078158484496292</v>
+        <v>0.0147117237726744</v>
       </c>
       <c r="I340" s="5">
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>0.19704433497536944</v>
+        <v>0.29556650246305421</v>
       </c>
       <c r="K340" s="5"/>
     </row>
@@ -15316,17 +15316,17 @@
         <v>1106</v>
       </c>
       <c r="F341" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="5">
-        <v>0.066843132536563196</v>
+        <v>0.075755550208104996</v>
       </c>
       <c r="I341" s="5">
-        <v>40</v>
+        <v>35.294117647058798</v>
       </c>
       <c r="J341" s="5">
-        <v>1.3562386980108498</v>
+        <v>1.5370705244122964</v>
       </c>
       <c r="K341" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.020133919326261501</v>
+        <v>0.023010193515727501</v>
       </c>
       <c r="I342" s="5">
-        <v>28.571428571428601</v>
+        <v>25</v>
       </c>
       <c r="J342" s="5">
-        <v>0.20242914979757085</v>
+        <v>0.23134759976865238</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15440,17 +15440,17 @@
         <v>1022</v>
       </c>
       <c r="F345" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="5">
-        <v>0.0145936400916481</v>
+        <v>0.024322733486080099</v>
       </c>
       <c r="I345" s="5">
         <v>0</v>
       </c>
       <c r="J345" s="5">
-        <v>0.29354207436399216</v>
+        <v>0.48923679060665359</v>
       </c>
       <c r="K345" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.022526717987151099</v>
+        <v>0.021660305756876101</v>
       </c>
       <c r="I346" s="5">
         <v>0</v>
       </c>
       <c r="J346" s="5">
-        <v>0.45406915822563743</v>
+        <v>0.43660495983234371</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.013391820871004</v>
+        <v>0.0119038407742258</v>
       </c>
       <c r="I349" s="5">
         <v>0</v>
       </c>
       <c r="J349" s="5">
-        <v>0.27124773960216997</v>
+        <v>0.24110910186859552</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15781,17 +15781,17 @@
         <v>2100</v>
       </c>
       <c r="F356" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="5">
-        <v>0.011791173599090699</v>
+        <v>0.014149408318908799</v>
       </c>
       <c r="I356" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J356" s="5">
-        <v>0.23809523809523811</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K356" s="5"/>
     </row>
@@ -15843,17 +15843,17 @@
         <v>742</v>
       </c>
       <c r="F358" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G358" s="4"/>
       <c r="H358" s="5">
-        <v>0.0066922309890448204</v>
+        <v>0</v>
       </c>
       <c r="I358" s="5">
         <v>0</v>
       </c>
       <c r="J358" s="5">
-        <v>0.13477088948787064</v>
+        <v>0</v>
       </c>
       <c r="K358" s="5"/>
     </row>
@@ -15905,17 +15905,17 @@
         <v>749</v>
       </c>
       <c r="F360" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="5">
-        <v>0.026490417091617102</v>
+        <v>0.013245208545808599</v>
       </c>
       <c r="I360" s="5">
         <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>0.53404539385847793</v>
+        <v>0.26702269692923897</v>
       </c>
       <c r="K360" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.098651481228502202</v>
+        <v>0.097711943312040306</v>
       </c>
       <c r="I364" s="5">
-        <v>2.8571428571428599</v>
+        <v>2.8846153846153801</v>
       </c>
       <c r="J364" s="5">
-        <v>1.9762845849802373</v>
+        <v>1.9574628270280443</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.036788920601202202</v>
+        <v>0.032041963104272903</v>
       </c>
       <c r="I365" s="5">
-        <v>6.4516129032258096</v>
+        <v>7.4074074074074101</v>
       </c>
       <c r="J365" s="5">
-        <v>0.73686712621820771</v>
+        <v>0.64178749702876159</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.015630093735905001</v>
+        <v>0.017862964269605701</v>
       </c>
       <c r="I371" s="5">
         <v>0</v>
       </c>
       <c r="J371" s="5">
-        <v>0.31545741324921134</v>
+        <v>0.36052275799909872</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16277,17 +16277,17 @@
         <v>4312</v>
       </c>
       <c r="F372" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="5">
-        <v>0.011455186736726601</v>
+        <v>0.0103096680630539</v>
       </c>
       <c r="I372" s="5">
         <v>0</v>
       </c>
       <c r="J372" s="5">
-        <v>0.2319109461966605</v>
+        <v>0.20871985157699444</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -16339,17 +16339,17 @@
         <v>1883</v>
       </c>
       <c r="F374" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="5">
-        <v>0.0157804622097381</v>
+        <v>0.018410539244694501</v>
       </c>
       <c r="I374" s="5">
         <v>0</v>
       </c>
       <c r="J374" s="5">
-        <v>0.31864046733935208</v>
+        <v>0.37174721189591076</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.016122675647594099</v>
+        <v>0.012539858837017699</v>
       </c>
       <c r="I376" s="5">
         <v>0</v>
       </c>
       <c r="J376" s="5">
-        <v>0.16131923283742605</v>
+        <v>0.12547051442910914</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16432,17 +16432,17 @@
         <v>1526</v>
       </c>
       <c r="F377" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="5">
-        <v>0.0032035059168754299</v>
+        <v>0</v>
       </c>
       <c r="I377" s="5">
         <v>0</v>
       </c>
       <c r="J377" s="5">
-        <v>0.065530799475753604</v>
+        <v>0</v>
       </c>
       <c r="K377" s="5"/>
     </row>
@@ -16556,17 +16556,17 @@
         <v>56</v>
       </c>
       <c r="F381" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="4"/>
       <c r="H381" s="5">
-        <v>0.018694733693518501</v>
+        <v>0</v>
       </c>
       <c r="I381" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J381" s="5">
-        <v>1.7857142857142856</v>
+        <v>0</v>
       </c>
       <c r="K381" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.0098392915710068894</v>
+        <v>0.0076527823330053597</v>
       </c>
       <c r="I382" s="5">
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>0.1987193640980349</v>
+        <v>0.15455950540958269</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.0413497532392667</v>
+        <v>0.042971312189826201</v>
       </c>
       <c r="I383" s="5">
-        <v>1.9607843137254899</v>
+        <v>1.88679245283019</v>
       </c>
       <c r="J383" s="5">
-        <v>0.82886396879570945</v>
+        <v>0.861368438160247</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16649,17 +16649,17 @@
         <v>2037</v>
       </c>
       <c r="F384" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G384" s="4"/>
       <c r="H384" s="5">
-        <v>0.012216694846509399</v>
+        <v>0.0097733558772075593</v>
       </c>
       <c r="I384" s="5">
         <v>0</v>
       </c>
       <c r="J384" s="5">
-        <v>0.24545900834560627</v>
+        <v>0.19636720667648502</v>
       </c>
       <c r="K384" s="5"/>
     </row>
@@ -16804,17 +16804,17 @@
         <v>2387</v>
       </c>
       <c r="F389" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G389" s="4"/>
       <c r="H389" s="5">
-        <v>0.0020528274619046501</v>
+        <v>0.0041056549238093097</v>
       </c>
       <c r="I389" s="5">
         <v>0</v>
       </c>
       <c r="J389" s="5">
-        <v>0.041893590280687051</v>
+        <v>0.083787180561374103</v>
       </c>
       <c r="K389" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.10475447645807801</v>
+        <v>0.104155879449746</v>
       </c>
       <c r="I392" s="5">
-        <v>1.71428571428571</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="J392" s="5">
-        <v>2.1079258010118047</v>
+        <v>2.0958805107203085</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -17021,17 +17021,17 @@
         <v>9065</v>
       </c>
       <c r="F396" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G396" s="4"/>
       <c r="H396" s="5">
-        <v>0.00219658562730092</v>
+        <v>0.0043931712546018504</v>
       </c>
       <c r="I396" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J396" s="5">
-        <v>0.022062879205736349</v>
+        <v>0.044125758411472697</v>
       </c>
       <c r="K396" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.0142428838991319</v>
+        <v>0.0106821629243489</v>
       </c>
       <c r="I397" s="5">
-        <v>12.5</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J397" s="5">
-        <v>0.29684601113172543</v>
+        <v>0.22263450834879409</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17114,17 +17114,17 @@
         <v>798</v>
       </c>
       <c r="F399" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="5">
-        <v>0.087121565698994999</v>
+        <v>0.093344534677494595</v>
       </c>
       <c r="I399" s="5">
-        <v>14.285714285714301</v>
+        <v>20</v>
       </c>
       <c r="J399" s="5">
-        <v>1.7543859649122806</v>
+        <v>1.8796992481203008</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -17176,17 +17176,17 @@
         <v>2289</v>
       </c>
       <c r="F401" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="5">
-        <v>0.0173524499490272</v>
+        <v>0.0151833937053988</v>
       </c>
       <c r="I401" s="5">
         <v>0</v>
       </c>
       <c r="J401" s="5">
-        <v>0.34949759720401924</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="K401" s="5"/>
     </row>
@@ -17269,17 +17269,17 @@
         <v>2289</v>
       </c>
       <c r="F404" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G404" s="4"/>
       <c r="H404" s="5">
-        <v>0</v>
+        <v>0.0021576369560057799</v>
       </c>
       <c r="I404" s="5">
         <v>0</v>
       </c>
       <c r="J404" s="5">
-        <v>0</v>
+        <v>0.043687199650502405</v>
       </c>
       <c r="K404" s="5"/>
     </row>
@@ -17331,17 +17331,17 @@
         <v>1918</v>
       </c>
       <c r="F406" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="5">
-        <v>0.0077894157418899202</v>
+        <v>0.0051929438279266103</v>
       </c>
       <c r="I406" s="5">
         <v>0</v>
       </c>
       <c r="J406" s="5">
-        <v>0.15641293013555788</v>
+        <v>0.10427528675703858</v>
       </c>
       <c r="K406" s="5"/>
     </row>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.0204828257196015</v>
+        <v>0.0227586952440017</v>
       </c>
       <c r="I408" s="5">
-        <v>11.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="J408" s="5">
-        <v>0.41011619958988382</v>
+        <v>0.45568466621098197</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17486,17 +17486,17 @@
         <v>5943</v>
       </c>
       <c r="F411" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="5">
-        <v>0.0133963183568076</v>
+        <v>0.014233588254108099</v>
       </c>
       <c r="I411" s="5">
         <v>0</v>
       </c>
       <c r="J411" s="5">
-        <v>0.26922429749284876</v>
+        <v>0.28605081608615174</v>
       </c>
       <c r="K411" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.018645777870776498</v>
+        <v>0.020717530967529402</v>
       </c>
       <c r="I418" s="5">
-        <v>5.5555555555555598</v>
+        <v>5</v>
       </c>
       <c r="J418" s="5">
-        <v>1.8769551616266946</v>
+        <v>2.0855057351407713</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.015926441077476799</v>
+        <v>0.0145992376543538</v>
       </c>
       <c r="I423" s="5">
-        <v>8.3333333333333304</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J423" s="5">
-        <v>0.32406157169862276</v>
+        <v>0.29705644072373749</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17889,17 +17889,17 @@
         <v>7476</v>
       </c>
       <c r="F424" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="5">
-        <v>0.0129737528007089</v>
+        <v>0.0142711280807798</v>
       </c>
       <c r="I424" s="5">
         <v>0</v>
       </c>
       <c r="J424" s="5">
-        <v>0.13376136971642588</v>
+        <v>0.14713750668806849</v>
       </c>
       <c r="K424" s="5"/>
     </row>
@@ -17982,17 +17982,17 @@
         <v>2723</v>
       </c>
       <c r="F427" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G427" s="4"/>
       <c r="H427" s="5">
-        <v>0.0073075644253148596</v>
+        <v>0.0054806733189861501</v>
       </c>
       <c r="I427" s="5">
         <v>0</v>
       </c>
       <c r="J427" s="5">
-        <v>0.14689680499449137</v>
+        <v>0.11017260374586854</v>
       </c>
       <c r="K427" s="5"/>
     </row>
@@ -18044,17 +18044,17 @@
         <v>5054</v>
       </c>
       <c r="F429" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="5">
-        <v>0.0117465792982202</v>
+        <v>0.0137043425145902</v>
       </c>
       <c r="I429" s="5">
         <v>0</v>
       </c>
       <c r="J429" s="5">
-        <v>0.23743569449940641</v>
+        <v>0.2770083102493075</v>
       </c>
       <c r="K429" s="5"/>
     </row>
@@ -18230,17 +18230,17 @@
         <v>1085</v>
       </c>
       <c r="F435" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="5">
-        <v>0.0054743726368958103</v>
+        <v>0.0063867680763784497</v>
       </c>
       <c r="I435" s="5">
         <v>0</v>
       </c>
       <c r="J435" s="5">
-        <v>0.55299539170506917</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="K435" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.049187359242173601</v>
+        <v>0.051810685068422901</v>
       </c>
       <c r="I438" s="5">
-        <v>2.6666666666666701</v>
+        <v>2.5316455696202498</v>
       </c>
       <c r="J438" s="5">
-        <v>0.98658247829518553</v>
+        <v>1.0392002104709288</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>3080</v>
       </c>
       <c r="F439" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="5">
-        <v>0.0097284150790433697</v>
+        <v>0.011349817592217299</v>
       </c>
       <c r="I439" s="5">
         <v>0</v>
       </c>
       <c r="J439" s="5">
-        <v>0.19480519480519481</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="K439" s="5"/>
     </row>
@@ -18416,17 +18416,17 @@
         <v>2548</v>
       </c>
       <c r="F441" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="5">
-        <v>0.034713182330990203</v>
+        <v>0.030856162071991301</v>
       </c>
       <c r="I441" s="5">
         <v>0</v>
       </c>
       <c r="J441" s="5">
-        <v>0.70643642072213508</v>
+        <v>0.62794348508634223</v>
       </c>
       <c r="K441" s="5"/>
     </row>
@@ -18447,17 +18447,17 @@
         <v>1526</v>
       </c>
       <c r="F442" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G442" s="4"/>
       <c r="H442" s="5">
-        <v>0.0065196698439191</v>
+        <v>0.0130393396878382</v>
       </c>
       <c r="I442" s="5">
         <v>0</v>
       </c>
       <c r="J442" s="5">
-        <v>0.13106159895150721</v>
+        <v>0.26212319790301442</v>
       </c>
       <c r="K442" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.085804682591736695</v>
+        <v>0.088734598582674101</v>
       </c>
       <c r="I443" s="5">
-        <v>10.243902439024399</v>
+        <v>10.849056603773599</v>
       </c>
       <c r="J443" s="5">
-        <v>1.7411245116358078</v>
+        <v>1.8005775437404452</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.020447505006798799</v>
+        <v>0.021583477507176499</v>
       </c>
       <c r="I447" s="5">
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>0.41011619958988382</v>
+        <v>0.4329004329004329</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18664,17 +18664,17 @@
         <v>1232</v>
       </c>
       <c r="F449" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="5">
-        <v>0.036368044611468101</v>
+        <v>0.0282862569200307</v>
       </c>
       <c r="I449" s="5">
         <v>0</v>
       </c>
       <c r="J449" s="5">
-        <v>0.73051948051948046</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="K449" s="5"/>
     </row>
@@ -18757,17 +18757,17 @@
         <v>3458</v>
       </c>
       <c r="F452" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="5">
-        <v>0.014393583916033599</v>
+        <v>0.0129542255244302</v>
       </c>
       <c r="I452" s="5">
-        <v>10</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J452" s="5">
-        <v>0.2891844997108155</v>
+        <v>0.26026604973973394</v>
       </c>
       <c r="K452" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.18687118423268601</v>
+        <v>0.190716270328009</v>
       </c>
       <c r="I453" s="5">
-        <v>12.3456790123457</v>
+        <v>15.322580645161301</v>
       </c>
       <c r="J453" s="5">
-        <v>3.7897691827822837</v>
+        <v>3.8677479725514665</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18912,17 +18912,17 @@
         <v>483</v>
       </c>
       <c r="F457" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G457" s="4"/>
       <c r="H457" s="5">
-        <v>0.0101759420378342</v>
+        <v>0.0305278261135025</v>
       </c>
       <c r="I457" s="5">
         <v>0</v>
       </c>
       <c r="J457" s="5">
-        <v>0.20703933747412009</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="K457" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.040402589357060099</v>
+        <v>0.035913412761831201</v>
       </c>
       <c r="I459" s="5">
-        <v>5.5555555555555598</v>
+        <v>3.125</v>
       </c>
       <c r="J459" s="5">
-        <v>0.80862533692722371</v>
+        <v>0.7187780772686434</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.017476134154295501</v>
+        <v>0.015603691209192401</v>
       </c>
       <c r="I460" s="5">
         <v>0</v>
       </c>
       <c r="J460" s="5">
-        <v>0.35118525021949076</v>
+        <v>0.31355825912454532</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19036,17 +19036,17 @@
         <v>12698</v>
       </c>
       <c r="F461" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="5">
-        <v>0.019596446458785</v>
+        <v>0.0199883753879606</v>
       </c>
       <c r="I461" s="5">
-        <v>6</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J461" s="5">
-        <v>0.39376279729091196</v>
+        <v>0.40163805323673019</v>
       </c>
       <c r="K461" s="5"/>
     </row>
@@ -19098,17 +19098,17 @@
         <v>4522</v>
       </c>
       <c r="F463" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="5">
-        <v>0.0187045452044847</v>
+        <v>0.022005347299393799</v>
       </c>
       <c r="I463" s="5">
-        <v>11.764705882352899</v>
+        <v>10</v>
       </c>
       <c r="J463" s="5">
-        <v>0.37593984962406013</v>
+        <v>0.44228217602830611</v>
       </c>
       <c r="K463" s="5"/>
     </row>
@@ -19129,17 +19129,17 @@
         <v>679</v>
       </c>
       <c r="F464" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G464" s="4"/>
       <c r="H464" s="5">
-        <v>0.051033798955994303</v>
+        <v>0.043743256247995098</v>
       </c>
       <c r="I464" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J464" s="5">
-        <v>1.0309278350515463</v>
+        <v>0.88365243004418259</v>
       </c>
       <c r="K464" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.039098189959584799</v>
+        <v>0.037040390488027701</v>
       </c>
       <c r="I468" s="5">
-        <v>10.526315789473699</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J468" s="5">
-        <v>0.78903654485049834</v>
+        <v>0.74750830564784054</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19322,7 +19322,7 @@
         <v>0.016777876021562901</v>
       </c>
       <c r="I470" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J470" s="5">
         <v>0.33732501264968795</v>
@@ -19346,17 +19346,17 @@
         <v>5502</v>
       </c>
       <c r="F471" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="5">
-        <v>0.035358819486880098</v>
+        <v>0.038078728678178499</v>
       </c>
       <c r="I471" s="5">
         <v>0</v>
       </c>
       <c r="J471" s="5">
-        <v>0.70883315158124316</v>
+        <v>0.76335877862595414</v>
       </c>
       <c r="K471" s="5"/>
     </row>
@@ -19408,17 +19408,17 @@
         <v>1302</v>
       </c>
       <c r="F473" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G473" s="4"/>
       <c r="H473" s="5">
-        <v>0.018995517057974299</v>
+        <v>0.022794620469569201</v>
       </c>
       <c r="I473" s="5">
         <v>0</v>
       </c>
       <c r="J473" s="5">
-        <v>0.38402457757296465</v>
+        <v>0.46082949308755761</v>
       </c>
       <c r="K473" s="5"/>
     </row>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.085495192539557993</v>
+        <v>0.094263930235922902</v>
       </c>
       <c r="I474" s="5">
-        <v>23.076923076923102</v>
+        <v>20.930232558139501</v>
       </c>
       <c r="J474" s="5">
-        <v>1.7195767195767195</v>
+        <v>1.8959435626102292</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19470,17 +19470,17 @@
         <v>1505</v>
       </c>
       <c r="F475" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G475" s="4"/>
       <c r="H475" s="5">
-        <v>0.016549605788390102</v>
+        <v>0.0297892904191022</v>
       </c>
       <c r="I475" s="5">
         <v>0</v>
       </c>
       <c r="J475" s="5">
-        <v>0.33222591362126247</v>
+        <v>0.59800664451827246</v>
       </c>
       <c r="K475" s="5"/>
     </row>
@@ -19501,17 +19501,17 @@
         <v>14</v>
       </c>
       <c r="F476" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G476" s="4"/>
       <c r="H476" s="5">
-        <v>0</v>
+        <v>0.060598715307235498</v>
       </c>
       <c r="I476" s="5">
         <v>0</v>
       </c>
       <c r="J476" s="5">
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="K476" s="5"/>
     </row>
@@ -19532,17 +19532,17 @@
         <v>154</v>
       </c>
       <c r="F477" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G477" s="4"/>
       <c r="H477" s="5">
-        <v>0.062079026600862897</v>
+        <v>0.0310395133004314</v>
       </c>
       <c r="I477" s="5">
         <v>0</v>
       </c>
       <c r="J477" s="5">
-        <v>1.2987012987012987</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K477" s="5"/>
     </row>
@@ -19594,17 +19594,17 @@
         <v>2037</v>
       </c>
       <c r="F479" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G479" s="4"/>
       <c r="H479" s="5">
-        <v>0.011897934756485</v>
+        <v>0.016657108659079</v>
       </c>
       <c r="I479" s="5">
         <v>0</v>
       </c>
       <c r="J479" s="5">
-        <v>0.24545900834560627</v>
+        <v>0.3436426116838488</v>
       </c>
       <c r="K479" s="5"/>
     </row>
@@ -19625,17 +19625,17 @@
         <v>1750</v>
       </c>
       <c r="F480" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G480" s="4"/>
       <c r="H480" s="5">
-        <v>0.0114150038811013</v>
+        <v>0.017122505821652</v>
       </c>
       <c r="I480" s="5">
         <v>0</v>
       </c>
       <c r="J480" s="5">
-        <v>0.22857142857142859</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="K480" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.20194914625936</v>
+        <v>0.206442452356602</v>
       </c>
       <c r="I482" s="5">
-        <v>7.2929542645241003</v>
+        <v>7.2551390568319203</v>
       </c>
       <c r="J482" s="5">
-        <v>4.1201935319582379</v>
+        <v>4.2118665648077407</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19811,17 +19811,17 @@
         <v>1428</v>
       </c>
       <c r="F486" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G486" s="4"/>
       <c r="H486" s="5">
-        <v>0.0069727713279642998</v>
+        <v>0.010459156991946401</v>
       </c>
       <c r="I486" s="5">
         <v>0</v>
       </c>
       <c r="J486" s="5">
-        <v>0.14005602240896359</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K486" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.0097212433470240805</v>
+        <v>0.0072909325102680604</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.1984126984126984</v>
+        <v>0.14880952380952381</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19942,7 +19942,7 @@
         <v>0.034071325572398302</v>
       </c>
       <c r="I490" s="5">
-        <v>3.2258064516128999</v>
+        <v>8.0645161290322598</v>
       </c>
       <c r="J490" s="5">
         <v>0.68447780967100902</v>
@@ -19966,17 +19966,17 @@
         <v>1806</v>
       </c>
       <c r="F491" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="5">
-        <v>0.0054877814545913504</v>
+        <v>0.00274389072729568</v>
       </c>
       <c r="I491" s="5">
         <v>0</v>
       </c>
       <c r="J491" s="5">
-        <v>0.11074197120708748</v>
+        <v>0.05537098560354374</v>
       </c>
       <c r="K491" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0027810319714387998</v>
+        <v>0.0034762899642985</v>
       </c>
       <c r="I492" s="5">
         <v>0</v>
       </c>
       <c r="J492" s="5">
-        <v>0.055640561969675893</v>
+        <v>0.069550702462094868</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20090,17 +20090,17 @@
         <v>7840</v>
       </c>
       <c r="F495" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G495" s="4"/>
       <c r="H495" s="5">
-        <v>0.0114010785420301</v>
+        <v>0.0076007190280200504</v>
       </c>
       <c r="I495" s="5">
         <v>0</v>
       </c>
       <c r="J495" s="5">
-        <v>0.11479591836734696</v>
+        <v>0.076530612244897961</v>
       </c>
       <c r="K495" s="5"/>
     </row>
@@ -20121,17 +20121,17 @@
         <v>2366</v>
       </c>
       <c r="F496" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G496" s="4"/>
       <c r="H496" s="5">
-        <v>0.00631703958257002</v>
+        <v>0.0084227194434267003</v>
       </c>
       <c r="I496" s="5">
         <v>0</v>
       </c>
       <c r="J496" s="5">
-        <v>0.12679628064243448</v>
+        <v>0.16906170752324598</v>
       </c>
       <c r="K496" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.0142506373597559</v>
+        <v>0.011400509887804699</v>
       </c>
       <c r="I503" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J503" s="5">
-        <v>0.28514399771884802</v>
+        <v>0.22811519817507844</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.0176502477338343</v>
+        <v>0.0151287837718579</v>
       </c>
       <c r="I504" s="5">
-        <v>9.5238095238095202</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J504" s="5">
-        <v>0.35419126328217237</v>
+        <v>0.30359251138471915</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20400,17 +20400,17 @@
         <v>2331</v>
       </c>
       <c r="F505" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G505" s="4"/>
       <c r="H505" s="5">
-        <v>0.0127211896856594</v>
+        <v>0.0084807931237729298</v>
       </c>
       <c r="I505" s="5">
         <v>0</v>
       </c>
       <c r="J505" s="5">
-        <v>0.2574002574002574</v>
+        <v>0.1716001716001716</v>
       </c>
       <c r="K505" s="5"/>
     </row>
@@ -20431,17 +20431,17 @@
         <v>1393</v>
       </c>
       <c r="F506" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G506" s="4"/>
       <c r="H506" s="5">
-        <v>0.0071282442421607096</v>
+        <v>0.0106923663632411</v>
       </c>
       <c r="I506" s="5">
         <v>0</v>
       </c>
       <c r="J506" s="5">
-        <v>0.14357501794687724</v>
+        <v>0.21536252692031585</v>
       </c>
       <c r="K506" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.0113776860820559</v>
+        <v>0.0123258265888939</v>
       </c>
       <c r="I507" s="5">
         <v>0</v>
       </c>
       <c r="J507" s="5">
-        <v>0.2282670724747955</v>
+        <v>0.24728932851436183</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20524,17 +20524,17 @@
         <v>518</v>
       </c>
       <c r="F509" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G509" s="4"/>
       <c r="H509" s="5">
-        <v>0.038583968361145901</v>
+        <v>0.048229960451432401</v>
       </c>
       <c r="I509" s="5">
         <v>0</v>
       </c>
       <c r="J509" s="5">
-        <v>0.77220077220077221</v>
+        <v>0.96525096525096521</v>
       </c>
       <c r="K509" s="5"/>
     </row>
@@ -20617,17 +20617,17 @@
         <v>4788</v>
       </c>
       <c r="F512" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G512" s="4"/>
       <c r="H512" s="5">
-        <v>0.0104396883544232</v>
+        <v>0.0083517506835386005</v>
       </c>
       <c r="I512" s="5">
         <v>0</v>
       </c>
       <c r="J512" s="5">
-        <v>0.20885547201336674</v>
+        <v>0.16708437761069339</v>
       </c>
       <c r="K512" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>24/12/2023</t>
+    <t>25/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4962,17 +4962,17 @@
         <v>637</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>0.0077518778924194403</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>0.15698587127158556</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -5148,17 +5148,17 @@
         <v>2520</v>
       </c>
       <c r="F13" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>0.0236522644086638</v>
+        <v>0.017739198306497901</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0.47619047619047622</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.338361765120541</v>
+        <v>0.30345142427477101</v>
       </c>
       <c r="I17" s="5">
-        <v>10.3174603174603</v>
+        <v>10.6194690265487</v>
       </c>
       <c r="J17" s="5">
-        <v>6.9230769230769234</v>
+        <v>6.2087912087912089</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.033791537923073302</v>
+        <v>0.0322319284804699</v>
       </c>
       <c r="I19" s="5">
-        <v>16.153846153846199</v>
+        <v>16.935483870967701</v>
       </c>
       <c r="J19" s="5">
-        <v>0.68227143906791221</v>
+        <v>0.65078198803400866</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.032808014529263602</v>
+        <v>0.030464584920030499</v>
       </c>
       <c r="I20" s="5">
-        <v>16.071428571428601</v>
+        <v>17.307692307692299</v>
       </c>
       <c r="J20" s="5">
-        <v>0.65952184666117064</v>
+        <v>0.61241314332822983</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.052094337056149</v>
+        <v>0.046306077383243598</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>5.2478134110787176</v>
+        <v>4.6647230320699711</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5582,17 +5582,17 @@
         <v>994</v>
       </c>
       <c r="F27" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5">
-        <v>0.084648707862371206</v>
+        <v>0.079669372105761097</v>
       </c>
       <c r="I27" s="5">
-        <v>29.411764705882401</v>
+        <v>31.25</v>
       </c>
       <c r="J27" s="5">
-        <v>1.7102615694164991</v>
+        <v>1.6096579476861168</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -5613,17 +5613,17 @@
         <v>5054</v>
       </c>
       <c r="F28" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5">
-        <v>0.016698180389460499</v>
+        <v>0.013751442673673399</v>
       </c>
       <c r="I28" s="5">
-        <v>5.8823529411764701</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J28" s="5">
-        <v>0.33636723387415907</v>
+        <v>0.2770083102493075</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -5644,17 +5644,17 @@
         <v>1155</v>
       </c>
       <c r="F29" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>0.0387772248432754</v>
+        <v>0.043085805381417097</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <v>0.77922077922077926</v>
+        <v>0.86580086580086579</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.019764017629503701</v>
+        <v>0.018117016160378401</v>
       </c>
       <c r="I30" s="5">
-        <v>41.6666666666667</v>
+        <v>36.363636363636402</v>
       </c>
       <c r="J30" s="5">
-        <v>0.39960039960039961</v>
+        <v>0.36630036630036628</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.15114929098927701</v>
+        <v>0.13538525450573299</v>
       </c>
       <c r="I33" s="5">
-        <v>10.429447852760701</v>
+        <v>9.5890410958904102</v>
       </c>
       <c r="J33" s="5">
-        <v>3.0639097744360901</v>
+        <v>2.744360902255639</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.048962386871848701</v>
+        <v>0.042285697752960302</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0.98987626546681673</v>
+        <v>0.85489313835770531</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5830,17 +5830,17 @@
         <v>8596</v>
       </c>
       <c r="F35" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5">
-        <v>0.0017333355674102901</v>
+        <v>0.00231111408988038</v>
       </c>
       <c r="I35" s="5">
-        <v>66.6666666666667</v>
+        <v>75</v>
       </c>
       <c r="J35" s="5">
-        <v>0.034899953466728716</v>
+        <v>0.046533271288971619</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.017800453236367898</v>
+        <v>0.0153452183072137</v>
       </c>
       <c r="I36" s="5">
-        <v>13.7931034482759</v>
+        <v>20</v>
       </c>
       <c r="J36" s="5">
-        <v>0.35683524055617077</v>
+        <v>0.30761658668635411</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5954,17 +5954,17 @@
         <v>1281</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5">
-        <v>0.0153837870268524</v>
+        <v>0.0076918935134262</v>
       </c>
       <c r="I39" s="5">
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <v>0.156128024980484</v>
+        <v>0.078064012490242002</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -6047,17 +6047,17 @@
         <v>3899</v>
       </c>
       <c r="F42" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5">
-        <v>0.0076414139162883097</v>
+        <v>0.0063678449302402599</v>
       </c>
       <c r="I42" s="5">
-        <v>33.3333333333333</v>
+        <v>40</v>
       </c>
       <c r="J42" s="5">
-        <v>0.15388561169530648</v>
+        <v>0.12823800974608873</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.060719572534209398</v>
+        <v>0.058799586050914197</v>
       </c>
       <c r="I45" s="5">
-        <v>18.972332015810299</v>
+        <v>18.775510204081598</v>
       </c>
       <c r="J45" s="5">
-        <v>1.2514839730906213</v>
+        <v>1.2119113573407203</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6202,17 +6202,17 @@
         <v>658</v>
       </c>
       <c r="F47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5">
-        <v>0.0150889873026172</v>
+        <v>0.0075444936513085897</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>0.303951367781155</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -6233,17 +6233,17 @@
         <v>1148</v>
       </c>
       <c r="F48" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5">
-        <v>0.021478216792528999</v>
+        <v>0.017182573434023199</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>0.43554006968641112</v>
+        <v>0.34843205574912894</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -6302,7 +6302,7 @@
         <v>0.0279152214723884</v>
       </c>
       <c r="I50" s="5">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="J50" s="5">
         <v>0.56022408963585435</v>
@@ -6326,17 +6326,17 @@
         <v>1330</v>
       </c>
       <c r="F51" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
-        <v>0.0148309090976504</v>
+        <v>0.0222463636464756</v>
       </c>
       <c r="I51" s="5">
-        <v>0</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J51" s="5">
-        <v>0.30075187969924816</v>
+        <v>0.45112781954887221</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -6419,17 +6419,17 @@
         <v>308</v>
       </c>
       <c r="F54" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5">
-        <v>0.0063904501113535902</v>
+        <v>0.0095856751670303896</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>0.64935064935064934</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="K54" s="5"/>
     </row>
@@ -6450,17 +6450,17 @@
         <v>238</v>
       </c>
       <c r="F55" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5">
-        <v>0.11230160050577299</v>
+        <v>0.10814228196852201</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>11.344537815126051</v>
+        <v>10.92436974789916</v>
       </c>
       <c r="K55" s="5"/>
     </row>
@@ -6512,17 +6512,17 @@
         <v>2576</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
-        <v>0.00191943737451678</v>
+        <v>0.0057583121235503503</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <v>0.038819875776397512</v>
+        <v>0.11645962732919254</v>
       </c>
       <c r="K57" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.037504325783030701</v>
+        <v>0.031537728499366702</v>
       </c>
       <c r="I60" s="5">
-        <v>2.2727272727272698</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="J60" s="5">
-        <v>0.75187969924812026</v>
+        <v>0.63226247436773753</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6667,17 +6667,17 @@
         <v>1715</v>
       </c>
       <c r="F62" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5">
-        <v>0.011461515097680799</v>
+        <v>0.0057307575488403798</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>0.11661807580174927</v>
+        <v>0.058309037900874633</v>
       </c>
       <c r="K62" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.101392397039214</v>
+        <v>0.096282858920702694</v>
       </c>
       <c r="I63" s="5">
-        <v>10.078740157480301</v>
+        <v>10.116086235489201</v>
       </c>
       <c r="J63" s="5">
-        <v>2.0598157519138445</v>
+        <v>1.9560140132347217</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6729,17 +6729,17 @@
         <v>6286</v>
       </c>
       <c r="F64" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>0.017473103334344701</v>
+        <v>0.019061567273830501</v>
       </c>
       <c r="I64" s="5">
-        <v>9.0909090909090899</v>
+        <v>12.5</v>
       </c>
       <c r="J64" s="5">
-        <v>0.34998409163219857</v>
+        <v>0.38180082723512571</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -6760,17 +6760,17 @@
         <v>1281</v>
       </c>
       <c r="F65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5">
-        <v>0.0077301856017562998</v>
+        <v>0.0038650928008781499</v>
       </c>
       <c r="I65" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J65" s="5">
-        <v>0.156128024980484</v>
+        <v>0.078064012490242002</v>
       </c>
       <c r="K65" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.0240960188304046</v>
+        <v>0.025364230347794298</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0.24191494779730072</v>
+        <v>0.25464731347084291</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -7039,17 +7039,17 @@
         <v>4956</v>
       </c>
       <c r="F74" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>0.013077786675143799</v>
+        <v>0.0120718030847481</v>
       </c>
       <c r="I74" s="5">
-        <v>7.6923076923076898</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J74" s="5">
-        <v>0.2623083131557708</v>
+        <v>0.24213075060532688</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.11690765922749199</v>
+        <v>0.125786721953631</v>
       </c>
       <c r="I76" s="5">
-        <v>20.253164556961998</v>
+        <v>18.823529411764699</v>
       </c>
       <c r="J76" s="5">
-        <v>2.3511904761904763</v>
+        <v>2.5297619047619047</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7132,17 +7132,17 @@
         <v>2114</v>
       </c>
       <c r="F77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5">
-        <v>0.0023533620129717299</v>
+        <v>0.0047067240259434599</v>
       </c>
       <c r="I77" s="5">
         <v>0</v>
       </c>
       <c r="J77" s="5">
-        <v>0.04730368968779565</v>
+        <v>0.0946073793755913</v>
       </c>
       <c r="K77" s="5"/>
     </row>
@@ -7163,17 +7163,17 @@
         <v>679</v>
       </c>
       <c r="F78" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5">
-        <v>0.051564997679575099</v>
+        <v>0.058931425919514398</v>
       </c>
       <c r="I78" s="5">
-        <v>14.285714285714301</v>
+        <v>12.5</v>
       </c>
       <c r="J78" s="5">
-        <v>1.0309278350515463</v>
+        <v>1.1782032400589102</v>
       </c>
       <c r="K78" s="5"/>
     </row>
@@ -7194,17 +7194,17 @@
         <v>1932</v>
       </c>
       <c r="F79" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
-        <v>0.0051027046886202004</v>
+        <v>0.0076540570329302997</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="5">
-        <v>0.10351966873706005</v>
+        <v>0.15527950310559005</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -7225,17 +7225,17 @@
         <v>854</v>
       </c>
       <c r="F80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5">
-        <v>0.0057512911648665097</v>
+        <v>0</v>
       </c>
       <c r="I80" s="5">
         <v>0</v>
       </c>
       <c r="J80" s="5">
-        <v>0.117096018735363</v>
+        <v>0</v>
       </c>
       <c r="K80" s="5"/>
     </row>
@@ -7442,17 +7442,17 @@
         <v>1218</v>
       </c>
       <c r="F87" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
-        <v>0.0089795112043891904</v>
+        <v>0.0097958304047881996</v>
       </c>
       <c r="I87" s="5">
-        <v>18.181818181818201</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J87" s="5">
-        <v>0.90311986863710991</v>
+        <v>0.98522167487684731</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.021255629553487199</v>
+        <v>0.017854728824929299</v>
       </c>
       <c r="I88" s="5">
-        <v>12</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J88" s="5">
-        <v>0.42720437457279564</v>
+        <v>0.35885167464114831</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7504,17 +7504,17 @@
         <v>17339</v>
       </c>
       <c r="F89" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5">
-        <v>0.0023007506774272799</v>
+        <v>0.0028759383467840999</v>
       </c>
       <c r="I89" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J89" s="5">
-        <v>0.02306938116385028</v>
+        <v>0.028836726454812851</v>
       </c>
       <c r="K89" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.0224406444953099</v>
+        <v>0.0197477671558727</v>
       </c>
       <c r="I90" s="5">
-        <v>2</v>
+        <v>4.5454545454545503</v>
       </c>
       <c r="J90" s="5">
-        <v>2.253267237494367</v>
+        <v>1.9828751689950428</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7566,17 +7566,17 @@
         <v>1428</v>
       </c>
       <c r="F91" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
-        <v>0.0139476822439031</v>
+        <v>0.0104607616829273</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.024016254863809199</v>
+        <v>0.0227740347846467</v>
       </c>
       <c r="I93" s="5">
-        <v>12.0689655172414</v>
+        <v>12.7272727272727</v>
       </c>
       <c r="J93" s="5">
-        <v>0.48998901748753909</v>
+        <v>0.46464475796232152</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7659,17 +7659,17 @@
         <v>5929</v>
       </c>
       <c r="F94" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
-        <v>0.020924126606031299</v>
+        <v>0.020087161541790102</v>
       </c>
       <c r="I94" s="5">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J94" s="5">
-        <v>0.42165626581210991</v>
+        <v>0.40479001517962554</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -7752,17 +7752,17 @@
         <v>1344</v>
       </c>
       <c r="F97" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5">
-        <v>0.0036560932450021202</v>
+        <v>0.0073121864900042403</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>0.074404761904761904</v>
+        <v>0.14880952380952381</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.032217740376560999</v>
+        <v>0.038661288451873103</v>
       </c>
       <c r="I98" s="5">
-        <v>30</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J98" s="5">
-        <v>0.32393909944930355</v>
+        <v>0.3887269193391642</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7814,17 +7814,17 @@
         <v>1295</v>
       </c>
       <c r="F99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5">
-        <v>0</v>
+        <v>0.0038229660864678499</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
       </c>
       <c r="J99" s="5">
-        <v>0</v>
+        <v>0.077220077220077218</v>
       </c>
       <c r="K99" s="5"/>
     </row>
@@ -7876,17 +7876,17 @@
         <v>1057</v>
       </c>
       <c r="F101" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5">
-        <v>0.00939333167384474</v>
+        <v>0.0140899975107671</v>
       </c>
       <c r="I101" s="5">
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J101" s="5">
-        <v>0.1892147587511826</v>
+        <v>0.28382213812677387</v>
       </c>
       <c r="K101" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.022788213935752401</v>
+        <v>0.015192142623835</v>
       </c>
       <c r="I103" s="5">
         <v>0</v>
       </c>
       <c r="J103" s="5">
-        <v>0.45836516424751722</v>
+        <v>0.30557677616501144</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.016101274771624</v>
+        <v>0.0146034817696125</v>
       </c>
       <c r="I104" s="5">
-        <v>4.6511627906976702</v>
+        <v>2.5641025641025599</v>
       </c>
       <c r="J104" s="5">
-        <v>1.6165413533834587</v>
+        <v>1.4661654135338347</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8031,17 +8031,17 @@
         <v>2639</v>
       </c>
       <c r="F106" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>0.15962441314553999</v>
+        <v>0.15023474178403801</v>
       </c>
       <c r="I106" s="5">
-        <v>12.9411764705882</v>
+        <v>11.25</v>
       </c>
       <c r="J106" s="5">
-        <v>3.2209170140204622</v>
+        <v>3.0314513073133762</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -8124,17 +8124,17 @@
         <v>3948</v>
       </c>
       <c r="F109" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>0.0200375202566806</v>
+        <v>0.025046900320850801</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>0.40526849037487339</v>
+        <v>0.50658561296859173</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.031385486767002903</v>
+        <v>0.037224647095747597</v>
       </c>
       <c r="I110" s="5">
-        <v>4.6511627906976702</v>
+        <v>1.9607843137254899</v>
       </c>
       <c r="J110" s="5">
-        <v>0.63393778564057202</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8217,17 +8217,17 @@
         <v>595</v>
       </c>
       <c r="F112" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
-        <v>0.033315010077790502</v>
+        <v>0.024986257558342901</v>
       </c>
       <c r="I112" s="5">
         <v>0</v>
       </c>
       <c r="J112" s="5">
-        <v>0.67226890756302526</v>
+        <v>0.50420168067226889</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.040711276896477598</v>
+        <v>0.038166822090447701</v>
       </c>
       <c r="I113" s="5">
-        <v>15.625</v>
+        <v>20</v>
       </c>
       <c r="J113" s="5">
-        <v>0.82368082368082363</v>
+        <v>0.77220077220077221</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8403,17 +8403,17 @@
         <v>1974</v>
       </c>
       <c r="F118" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5">
-        <v>0.0150393278423076</v>
+        <v>0.010026218561538401</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
       </c>
       <c r="J118" s="5">
-        <v>0.1519756838905775</v>
+        <v>0.10131712259371835</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.21115095472996301</v>
+        <v>0.20022935362324101</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>4.2490842490842491</v>
+        <v>4.0293040293040292</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8496,17 +8496,17 @@
         <v>1197</v>
       </c>
       <c r="F121" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5">
-        <v>0.033212247016087201</v>
+        <v>0.029060716139076299</v>
       </c>
       <c r="I121" s="5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J121" s="5">
-        <v>0.66833751044277356</v>
+        <v>0.58479532163742687</v>
       </c>
       <c r="K121" s="5"/>
     </row>
@@ -8527,17 +8527,17 @@
         <v>980</v>
       </c>
       <c r="F122" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>0.035429942350422398</v>
+        <v>0.030368522014647799</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>0.7142857142857143</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>378</v>
+        <v>518</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>0.83355752649522097</v>
+        <v>1.14228253630827</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>84.375</v>
+        <v>115.625</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8627,7 +8627,7 @@
         <v>0.022563418718950599</v>
       </c>
       <c r="I125" s="5">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J125" s="5">
         <v>0.45351473922902497</v>
@@ -8682,17 +8682,17 @@
         <v>126</v>
       </c>
       <c r="F127" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5">
-        <v>0.030674140932340499</v>
+        <v>0.023005605699255399</v>
       </c>
       <c r="I127" s="5">
         <v>0</v>
       </c>
       <c r="J127" s="5">
-        <v>3.1746031746031744</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="K127" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.0309387168307825</v>
+        <v>0.0325459228999141</v>
       </c>
       <c r="I129" s="5">
-        <v>1.2987012987013</v>
+        <v>1.2345679012345701</v>
       </c>
       <c r="J129" s="5">
-        <v>0.62076749435665912</v>
+        <v>0.65301515640116092</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.15431990516340399</v>
+        <v>0.14029082287582201</v>
       </c>
       <c r="I130" s="5">
-        <v>15.909090909090899</v>
+        <v>12.5</v>
       </c>
       <c r="J130" s="5">
-        <v>3.0964109781843772</v>
+        <v>2.8149190710767065</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8875,7 +8875,7 @@
         <v>0.033511750934432302</v>
       </c>
       <c r="I133" s="5">
-        <v>13.953488372093</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="J133" s="5">
         <v>0.6728211547488655</v>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.023066353110717398</v>
+        <v>0.025263148645071402</v>
       </c>
       <c r="I135" s="5">
-        <v>0</v>
+        <v>4.3478260869565197</v>
       </c>
       <c r="J135" s="5">
-        <v>0.46875</v>
+        <v>0.5133928571428571</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.028670831288698701</v>
+        <v>0.0275681070083642</v>
       </c>
       <c r="I138" s="5">
-        <v>3.8461538461538498</v>
+        <v>4</v>
       </c>
       <c r="J138" s="5">
-        <v>0.57675244010647742</v>
+        <v>0.55456965394853597</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.025188409301575801</v>
+        <v>0.024348795658189901</v>
       </c>
       <c r="I140" s="5">
-        <v>13.3333333333333</v>
+        <v>13.7931034482759</v>
       </c>
       <c r="J140" s="5">
-        <v>0.50628638933423342</v>
+        <v>0.48941017635642559</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9147,17 +9147,17 @@
         <v>2205</v>
       </c>
       <c r="F142" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
-        <v>0.0178358433567057</v>
+        <v>0.0156063629371175</v>
       </c>
       <c r="I142" s="5">
         <v>0</v>
       </c>
       <c r="J142" s="5">
-        <v>0.36281179138321995</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="K142" s="5"/>
     </row>
@@ -9178,17 +9178,17 @@
         <v>889</v>
       </c>
       <c r="F143" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5">
-        <v>0.066722639547620505</v>
+        <v>0.061162419585318803</v>
       </c>
       <c r="I143" s="5">
         <v>0</v>
       </c>
       <c r="J143" s="5">
-        <v>1.3498312710911136</v>
+        <v>1.2373453318335208</v>
       </c>
       <c r="K143" s="5"/>
     </row>
@@ -9271,17 +9271,17 @@
         <v>11956</v>
       </c>
       <c r="F146" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="5">
-        <v>0.0016721960616438399</v>
+        <v>0.00083609803082191801</v>
       </c>
       <c r="I146" s="5">
         <v>0</v>
       </c>
       <c r="J146" s="5">
-        <v>0.016728002676480429</v>
+        <v>0.0083640013382402147</v>
       </c>
       <c r="K146" s="5"/>
     </row>
@@ -9302,17 +9302,17 @@
         <v>7966</v>
       </c>
       <c r="F147" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>0.026910875560982199</v>
+        <v>0.0256592069302389</v>
       </c>
       <c r="I147" s="5">
-        <v>4.6511627906976702</v>
+        <v>4.8780487804878003</v>
       </c>
       <c r="J147" s="5">
-        <v>0.53979412503138335</v>
+        <v>0.51468742154155167</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -9581,17 +9581,17 @@
         <v>686</v>
       </c>
       <c r="F156" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="5">
-        <v>0.0072543145035509904</v>
+        <v>0.014508629007102</v>
       </c>
       <c r="I156" s="5">
         <v>0</v>
       </c>
       <c r="J156" s="5">
-        <v>0.1457725947521866</v>
+        <v>0.29154518950437319</v>
       </c>
       <c r="K156" s="5"/>
     </row>
@@ -9612,17 +9612,17 @@
         <v>133</v>
       </c>
       <c r="F157" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>0.33981498961676398</v>
+        <v>0.41532943175382298</v>
       </c>
       <c r="I157" s="5">
         <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>6.7669172932330826</v>
+        <v>8.2706766917293226</v>
       </c>
       <c r="K157" s="5"/>
     </row>
@@ -9767,17 +9767,17 @@
         <v>1204</v>
       </c>
       <c r="F162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="5">
-        <v>0.0041347601012189303</v>
+        <v>0</v>
       </c>
       <c r="I162" s="5">
         <v>0</v>
       </c>
       <c r="J162" s="5">
-        <v>0.083056478405315617</v>
+        <v>0</v>
       </c>
       <c r="K162" s="5"/>
     </row>
@@ -9798,17 +9798,17 @@
         <v>2667</v>
       </c>
       <c r="F163" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5">
-        <v>0.0129175601312424</v>
+        <v>0.011072194398207801</v>
       </c>
       <c r="I163" s="5">
         <v>0</v>
       </c>
       <c r="J163" s="5">
-        <v>0.26246719160104987</v>
+        <v>0.22497187851518563</v>
       </c>
       <c r="K163" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.0220934757965973</v>
+        <v>0.026342221142096701</v>
       </c>
       <c r="I164" s="5">
-        <v>19.230769230769202</v>
+        <v>19.354838709677399</v>
       </c>
       <c r="J164" s="5">
-        <v>0.44217687074829937</v>
+        <v>0.52721088435374142</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9860,17 +9860,17 @@
         <v>182</v>
       </c>
       <c r="F165" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5">
-        <v>0.060393767363208103</v>
+        <v>0.049413082388079399</v>
       </c>
       <c r="I165" s="5">
-        <v>9.0909090909090899</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J165" s="5">
-        <v>6.0439560439560438</v>
+        <v>4.9450549450549453</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -9891,17 +9891,17 @@
         <v>1379</v>
       </c>
       <c r="F166" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5">
-        <v>0.0142583179462319</v>
+        <v>0.017822897432789898</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>0.29006526468455401</v>
+        <v>0.36258158085569253</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -10046,17 +10046,17 @@
         <v>1617</v>
       </c>
       <c r="F171" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5">
-        <v>0.0091453377068370506</v>
+        <v>0.012193783609116099</v>
       </c>
       <c r="I171" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J171" s="5">
-        <v>0.1855287569573284</v>
+        <v>0.24737167594310452</v>
       </c>
       <c r="K171" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.020189009507004599</v>
+        <v>0.018170108556304101</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.41288191577208916</v>
+        <v>0.37159372419488024</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.41575431691565701</v>
+        <v>0.42499330173600502</v>
       </c>
       <c r="I174" s="5">
-        <v>4.07407407407407</v>
+        <v>3.6231884057971002</v>
       </c>
       <c r="J174" s="5">
-        <v>41.925465838509318</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.075584714458733396</v>
+        <v>0.071138554784690305</v>
       </c>
       <c r="I176" s="5">
-        <v>3.52941176470588</v>
+        <v>3.75</v>
       </c>
       <c r="J176" s="5">
-        <v>1.5351273252663897</v>
+        <v>1.4448257178977786</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.21452190257091799</v>
+        <v>0.20375736265696501</v>
       </c>
       <c r="I177" s="5">
-        <v>22.580645161290299</v>
+        <v>22.075471698113201</v>
       </c>
       <c r="J177" s="5">
-        <v>2.1556053465193541</v>
+        <v>2.0474387699915013</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.051048917280058503</v>
+        <v>0.044150414944915499</v>
       </c>
       <c r="I180" s="5">
-        <v>16.2162162162162</v>
+        <v>15.625</v>
       </c>
       <c r="J180" s="5">
-        <v>1.0283490828237909</v>
+        <v>0.88938299055030567</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.027500136006107401</v>
+        <v>0.026902306962496399</v>
       </c>
       <c r="I181" s="5">
-        <v>6.5217391304347796</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J181" s="5">
-        <v>0.57242409158785468</v>
+        <v>0.55998008959681433</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10387,17 +10387,17 @@
         <v>2128</v>
       </c>
       <c r="F182" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5">
-        <v>0.027970984765137</v>
+        <v>0.032632815559326497</v>
       </c>
       <c r="I182" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J182" s="5">
-        <v>0.28195488721804507</v>
+        <v>0.3289473684210526</v>
       </c>
       <c r="K182" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.216603903032076</v>
+        <v>0.197055952540099</v>
       </c>
       <c r="I184" s="5">
-        <v>18.6317321688501</v>
+        <v>19.359999999999999</v>
       </c>
       <c r="J184" s="5">
-        <v>4.4128982528263103</v>
+        <v>4.0146454265159299</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>1897</v>
       </c>
       <c r="F185" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5">
-        <v>0.041845709637851503</v>
+        <v>0.031384282228388703</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>0.84343700579862946</v>
+        <v>0.63257775434897201</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.28861566605835398</v>
+        <v>0.26730250918019799</v>
       </c>
       <c r="I190" s="5">
-        <v>16.615384615384599</v>
+        <v>18.272425249169402</v>
       </c>
       <c r="J190" s="5">
-        <v>5.8181167203723589</v>
+        <v>5.3884711779448615</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10666,17 +10666,17 @@
         <v>182</v>
       </c>
       <c r="F191" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5">
-        <v>0.058479221269424397</v>
+        <v>0.063795514112099397</v>
       </c>
       <c r="I191" s="5">
         <v>0</v>
       </c>
       <c r="J191" s="5">
-        <v>6.0439560439560438</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.264056652154462</v>
+        <v>0.25969207939157901</v>
       </c>
       <c r="I193" s="5">
-        <v>2.4793388429752099</v>
+        <v>3.3613445378151301</v>
       </c>
       <c r="J193" s="5">
-        <v>5.3350970017636685</v>
+        <v>5.2469135802469129</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.081534013544430295</v>
+        <v>0.071749931919098703</v>
       </c>
       <c r="I194" s="5">
-        <v>32</v>
+        <v>27.272727272727298</v>
       </c>
       <c r="J194" s="5">
-        <v>0.81913499344692009</v>
+        <v>0.72083879423328967</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.055857600357488602</v>
+        <v>0.0403416002581862</v>
       </c>
       <c r="I195" s="5">
-        <v>16.6666666666667</v>
+        <v>23.076923076923102</v>
       </c>
       <c r="J195" s="5">
-        <v>1.1228945726762321</v>
+        <v>0.81097941359950088</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.15416129510904</v>
+        <v>0.143562706070294</v>
       </c>
       <c r="I196" s="5">
-        <v>13.125</v>
+        <v>15.4362416107383</v>
       </c>
       <c r="J196" s="5">
-        <v>3.1440361564157993</v>
+        <v>2.9278836706622124</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.34469086561588602</v>
+        <v>0.32260018030569698</v>
       </c>
       <c r="I197" s="5">
-        <v>16.4640883977901</v>
+        <v>16.765053128689502</v>
       </c>
       <c r="J197" s="5">
-        <v>3.539165460873646</v>
+        <v>3.3123460169723513</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.026767789426723199</v>
+        <v>0.022306491188936</v>
       </c>
       <c r="I199" s="5">
         <v>0</v>
       </c>
       <c r="J199" s="5">
-        <v>0.54249547920433994</v>
+        <v>0.45207956600361665</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>1470</v>
+        <v>1379</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.54745769213437401</v>
+        <v>0.51356745404986504</v>
       </c>
       <c r="I201" s="5">
-        <v>17.278911564625901</v>
+        <v>18.4191443074692</v>
       </c>
       <c r="J201" s="5">
-        <v>5.5219563502498028</v>
+        <v>5.1801209571391009</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.69871650479916503</v>
+        <v>0.65279147631471302</v>
       </c>
       <c r="I202" s="5">
-        <v>15.962441314554001</v>
+        <v>16.750418760469</v>
       </c>
       <c r="J202" s="5">
-        <v>6.9950738916256157</v>
+        <v>6.5353037766830866</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1885</v>
+        <v>1783</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.81122651423928505</v>
+        <v>0.76732990710272897</v>
       </c>
       <c r="I203" s="5">
-        <v>16.551724137931</v>
+        <v>17.162086371284399</v>
       </c>
       <c r="J203" s="5">
-        <v>8.1626466894730001</v>
+        <v>7.7209544017667691</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>1400</v>
+        <v>1304</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.47252854072386002</v>
+        <v>0.44012658364565199</v>
       </c>
       <c r="I204" s="5">
-        <v>13.785714285714301</v>
+        <v>14.0337423312883</v>
       </c>
       <c r="J204" s="5">
-        <v>4.7460844803037494</v>
+        <v>4.4206386873686352</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>1046</v>
+        <v>951</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.56161194440149098</v>
+        <v>0.51060512344724496</v>
       </c>
       <c r="I205" s="5">
-        <v>13.957934990439799</v>
+        <v>14.6161934805468</v>
       </c>
       <c r="J205" s="5">
-        <v>5.6537484460299448</v>
+        <v>5.1402626885033245</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.042694832118993803</v>
+        <v>0.044336941046647399</v>
       </c>
       <c r="I206" s="5">
-        <v>3.8461538461538498</v>
+        <v>3.7037037037037002</v>
       </c>
       <c r="J206" s="5">
-        <v>0.85780270537776315</v>
+        <v>0.8907951171230617</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11255,17 +11255,17 @@
         <v>1344</v>
       </c>
       <c r="F210" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="5">
-        <v>0</v>
+        <v>0.0073434918303653396</v>
       </c>
       <c r="I210" s="5">
         <v>0</v>
       </c>
       <c r="J210" s="5">
-        <v>0</v>
+        <v>0.074404761904761904</v>
       </c>
       <c r="K210" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.039478878799842097</v>
+        <v>0.0332453716209197</v>
       </c>
       <c r="I211" s="5">
-        <v>21.052631578947398</v>
+        <v>25</v>
       </c>
       <c r="J211" s="5">
-        <v>0.80782312925170074</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11379,17 +11379,17 @@
         <v>1211</v>
       </c>
       <c r="F214" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="5">
-        <v>0.036592952197406797</v>
+        <v>0.028461185042427499</v>
       </c>
       <c r="I214" s="5">
-        <v>11.1111111111111</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J214" s="5">
-        <v>0.74318744838976047</v>
+        <v>0.57803468208092479</v>
       </c>
       <c r="K214" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.10075735948546601</v>
+        <v>0.111952621650517</v>
       </c>
       <c r="I215" s="5">
-        <v>22.2222222222222</v>
+        <v>20</v>
       </c>
       <c r="J215" s="5">
-        <v>2.0247469066366706</v>
+        <v>2.2497187851518561</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.071141979875004202</v>
+        <v>0.073660280047570706</v>
       </c>
       <c r="I217" s="5">
-        <v>1.76991150442478</v>
+        <v>1.70940170940171</v>
       </c>
       <c r="J217" s="5">
-        <v>1.4374761480727642</v>
+        <v>1.4883602595089684</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11503,17 +11503,17 @@
         <v>4424</v>
       </c>
       <c r="F218" s="4">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="5">
-        <v>0.056284882555964103</v>
+        <v>0.052907789602606198</v>
       </c>
       <c r="I218" s="5">
-        <v>14</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="J218" s="5">
-        <v>1.1301989150090417</v>
+        <v>1.0623869801084991</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.041429692660729898</v>
+        <v>0.034524743883941597</v>
       </c>
       <c r="I219" s="5">
-        <v>22.2222222222222</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="J219" s="5">
-        <v>0.82949308755760376</v>
+        <v>0.69124423963133641</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.093826834048052102</v>
+        <v>0.090414949173577494</v>
       </c>
       <c r="I221" s="5">
-        <v>13.636363636363599</v>
+        <v>13.679245283018901</v>
       </c>
       <c r="J221" s="5">
-        <v>1.8876018876018876</v>
+        <v>1.8189618189618191</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11658,17 +11658,17 @@
         <v>658</v>
       </c>
       <c r="F223" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="5">
-        <v>0.037638131944235299</v>
+        <v>0.045165758333082402</v>
       </c>
       <c r="I223" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J223" s="5">
-        <v>0.75987841945288759</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="K223" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.024750122760608902</v>
+        <v>0.0237601178501845</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
       </c>
       <c r="J224" s="5">
-        <v>0.5016051364365971</v>
+        <v>0.4815409309791332</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.372666260726633</v>
+        <v>0.32941035546371999</v>
       </c>
       <c r="I228" s="5">
-        <v>1.78571428571429</v>
+        <v>2.0202020202020199</v>
       </c>
       <c r="J228" s="5">
-        <v>7.5829383886255926</v>
+        <v>6.702775897088693</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.113025347780131</v>
+        <v>0.10393788263198001</v>
       </c>
       <c r="I229" s="5">
-        <v>2.5125628140703502</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="J229" s="5">
-        <v>11.463133640552996</v>
+        <v>10.541474654377881</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11875,17 +11875,17 @@
         <v>952</v>
       </c>
       <c r="F230" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="5">
-        <v>0.0154651930056087</v>
+        <v>0.020620257340811601</v>
       </c>
       <c r="I230" s="5">
         <v>0</v>
       </c>
       <c r="J230" s="5">
-        <v>0.31512605042016806</v>
+        <v>0.42016806722689076</v>
       </c>
       <c r="K230" s="5"/>
     </row>
@@ -11937,17 +11937,17 @@
         <v>217</v>
       </c>
       <c r="F232" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="5">
-        <v>0.082631728747578403</v>
+        <v>0.096403683538841503</v>
       </c>
       <c r="I232" s="5">
-        <v>5.5555555555555598</v>
+        <v>9.5238095238095202</v>
       </c>
       <c r="J232" s="5">
-        <v>8.2949308755760374</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -11999,17 +11999,17 @@
         <v>462</v>
       </c>
       <c r="F234" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="5">
-        <v>0.0214509416963405</v>
+        <v>0.0107254708481702</v>
       </c>
       <c r="I234" s="5">
         <v>0</v>
       </c>
       <c r="J234" s="5">
-        <v>0.4329004329004329</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="K234" s="5"/>
     </row>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.102066109677325</v>
+        <v>0.082624945929263297</v>
       </c>
       <c r="I235" s="5">
         <v>0</v>
       </c>
       <c r="J235" s="5">
-        <v>10.344827586206897</v>
+        <v>8.3743842364532011</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12061,17 +12061,17 @@
         <v>714</v>
       </c>
       <c r="F236" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="5">
-        <v>0.034385767043305399</v>
+        <v>0.0275086136346443</v>
       </c>
       <c r="I236" s="5">
         <v>0</v>
       </c>
       <c r="J236" s="5">
-        <v>0.70028011204481799</v>
+        <v>0.56022408963585435</v>
       </c>
       <c r="K236" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.11516401274815601</v>
+        <v>0.10765331626458</v>
       </c>
       <c r="I238" s="5">
-        <v>2.1739130434782599</v>
+        <v>2.32558139534884</v>
       </c>
       <c r="J238" s="5">
-        <v>2.341364099083814</v>
+        <v>2.1886664404479133</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12154,17 +12154,17 @@
         <v>2611</v>
       </c>
       <c r="F239" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="5">
-        <v>0.053340038938228397</v>
+        <v>0.049530036156926402</v>
       </c>
       <c r="I239" s="5">
         <v>0</v>
       </c>
       <c r="J239" s="5">
-        <v>0.53619302949061665</v>
+        <v>0.49789352738414405</v>
       </c>
       <c r="K239" s="5"/>
     </row>
@@ -12185,17 +12185,17 @@
         <v>3332</v>
       </c>
       <c r="F240" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="5">
-        <v>0.041509338860005303</v>
+        <v>0.040026862472147998</v>
       </c>
       <c r="I240" s="5">
-        <v>10.714285714285699</v>
+        <v>14.814814814814801</v>
       </c>
       <c r="J240" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.81032412965186074</v>
       </c>
       <c r="K240" s="5"/>
     </row>
@@ -12247,17 +12247,17 @@
         <v>1218</v>
       </c>
       <c r="F242" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="5">
-        <v>0.016310552927744301</v>
+        <v>0.0081552764638721294</v>
       </c>
       <c r="I242" s="5">
         <v>0</v>
       </c>
       <c r="J242" s="5">
-        <v>0.32840722495894908</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="K242" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.067547300283240699</v>
+        <v>0.072126778268545202</v>
       </c>
       <c r="I245" s="5">
-        <v>3.3898305084745801</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="J245" s="5">
-        <v>6.7972350230414742</v>
+        <v>7.2580645161290329</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.064334379769505096</v>
+        <v>0.063811336031541599</v>
       </c>
       <c r="I247" s="5">
-        <v>11.3821138211382</v>
+        <v>13.934426229508199</v>
       </c>
       <c r="J247" s="5">
-        <v>6.5321295804567177</v>
+        <v>6.4790228359001594</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.094708277915264899</v>
+        <v>0.085100191749948206</v>
       </c>
       <c r="I248" s="5">
-        <v>7.2463768115942004</v>
+        <v>4.8387096774193497</v>
       </c>
       <c r="J248" s="5">
-        <v>1.921470342522974</v>
+        <v>1.7265385686438317</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12557,17 +12557,17 @@
         <v>1414</v>
       </c>
       <c r="F252" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="5">
-        <v>0.0137485864734532</v>
+        <v>0.0103114398550899</v>
       </c>
       <c r="I252" s="5">
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J252" s="5">
-        <v>0.28288543140028288</v>
+        <v>0.21216407355021216</v>
       </c>
       <c r="K252" s="5"/>
     </row>
@@ -12619,17 +12619,17 @@
         <v>1659</v>
       </c>
       <c r="F254" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="5">
-        <v>0.084002100052501305</v>
+        <v>0.075001875046876207</v>
       </c>
       <c r="I254" s="5">
-        <v>21.428571428571399</v>
+        <v>20</v>
       </c>
       <c r="J254" s="5">
-        <v>1.6877637130801686</v>
+        <v>1.5069318866787222</v>
       </c>
       <c r="K254" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>1009</v>
+        <v>918</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.34356737342572802</v>
+        <v>0.31258161427633102</v>
       </c>
       <c r="I256" s="5">
-        <v>13.776015857284399</v>
+        <v>14.161220043573</v>
       </c>
       <c r="J256" s="5">
-        <v>6.8934891029582568</v>
+        <v>6.2717770034843205</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.086453504344768894</v>
+        <v>0.080689937388450997</v>
       </c>
       <c r="I257" s="5">
-        <v>17.7777777777778</v>
+        <v>21.428571428571399</v>
       </c>
       <c r="J257" s="5">
-        <v>1.7327685791297651</v>
+        <v>1.6172506738544474</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.30943745889617802</v>
+        <v>0.28940500632300897</v>
       </c>
       <c r="I258" s="5">
-        <v>12.6721763085399</v>
+        <v>12.960235640647999</v>
       </c>
       <c r="J258" s="5">
-        <v>3.1428571428571432</v>
+        <v>2.9393939393939394</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>827</v>
+        <v>778</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.45703965413095898</v>
+        <v>0.42995991646177301</v>
       </c>
       <c r="I259" s="5">
-        <v>21.281741233373602</v>
+        <v>21.593830334190201</v>
       </c>
       <c r="J259" s="5">
-        <v>4.6549589102780589</v>
+        <v>4.3791511876618259</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12836,17 +12836,17 @@
         <v>1106</v>
       </c>
       <c r="F261" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="5">
-        <v>0.040398236841396498</v>
+        <v>0.031420850876641697</v>
       </c>
       <c r="I261" s="5">
         <v>0</v>
       </c>
       <c r="J261" s="5">
-        <v>0.81374321880651002</v>
+        <v>0.63291139240506333</v>
       </c>
       <c r="K261" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.30192236176926501</v>
+        <v>0.29455840172611197</v>
       </c>
       <c r="I262" s="5">
-        <v>17.0731707317073</v>
+        <v>20</v>
       </c>
       <c r="J262" s="5">
-        <v>30.82706766917293</v>
+        <v>30.075187969924812</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.020316502078813501</v>
+        <v>0.0159629659190678</v>
       </c>
       <c r="I263" s="5">
         <v>0</v>
       </c>
       <c r="J263" s="5">
-        <v>0.40816326530612246</v>
+        <v>0.32069970845481049</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -12929,17 +12929,17 @@
         <v>1708</v>
       </c>
       <c r="F264" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="5">
-        <v>0.046316935208397303</v>
+        <v>0.034737701406297901</v>
       </c>
       <c r="I264" s="5">
-        <v>12.5</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J264" s="5">
-        <v>0.46838407494145201</v>
+        <v>0.35128805620608899</v>
       </c>
       <c r="K264" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.39294455969354702</v>
+        <v>0.36440668664317799</v>
       </c>
       <c r="I270" s="5">
-        <v>10.055865921787699</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="J270" s="5">
-        <v>7.9661771250556308</v>
+        <v>7.387627948375612</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13146,17 +13146,17 @@
         <v>1757</v>
       </c>
       <c r="F271" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="5">
-        <v>0.0140580541403781</v>
+        <v>0.016869664968453699</v>
       </c>
       <c r="I271" s="5">
         <v>0</v>
       </c>
       <c r="J271" s="5">
-        <v>0.28457598178713717</v>
+        <v>0.34149117814456459</v>
       </c>
       <c r="K271" s="5"/>
     </row>
@@ -13177,17 +13177,17 @@
         <v>1589</v>
       </c>
       <c r="F272" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="5">
-        <v>0.021660493426040199</v>
+        <v>0.0154717810186002</v>
       </c>
       <c r="I272" s="5">
-        <v>57.142857142857103</v>
+        <v>80</v>
       </c>
       <c r="J272" s="5">
-        <v>0.44052863436123352</v>
+        <v>0.31466331025802391</v>
       </c>
       <c r="K272" s="5"/>
     </row>
@@ -13208,17 +13208,17 @@
         <v>2317</v>
       </c>
       <c r="F273" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="5">
-        <v>0.025616449175897501</v>
+        <v>0.019212336881923101</v>
       </c>
       <c r="I273" s="5">
         <v>0</v>
       </c>
       <c r="J273" s="5">
-        <v>0.5179110919292188</v>
+        <v>0.38843331894691413</v>
       </c>
       <c r="K273" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.021645165801969998</v>
+        <v>0.018315140293974699</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.43800539083557954</v>
+        <v>0.37061994609164423</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13301,17 +13301,17 @@
         <v>4466</v>
       </c>
       <c r="F276" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="5">
-        <v>0.0066526812523007199</v>
+        <v>0.0055439010435839303</v>
       </c>
       <c r="I276" s="5">
         <v>0</v>
       </c>
       <c r="J276" s="5">
-        <v>0.13434841021047916</v>
+        <v>0.11195700850873264</v>
       </c>
       <c r="K276" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.023505778353167101</v>
+        <v>0.020793573158570899</v>
       </c>
       <c r="I278" s="5">
-        <v>11.538461538461499</v>
+        <v>8.6956521739130395</v>
       </c>
       <c r="J278" s="5">
-        <v>0.47255543438749542</v>
+        <v>0.41802980734278444</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13394,17 +13394,17 @@
         <v>2037</v>
       </c>
       <c r="F279" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="5">
-        <v>0.0144107792628886</v>
+        <v>0.012008982719073901</v>
       </c>
       <c r="I279" s="5">
-        <v>16.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="J279" s="5">
-        <v>0.29455081001472755</v>
+        <v>0.24545900834560627</v>
       </c>
       <c r="K279" s="5"/>
     </row>
@@ -13425,17 +13425,17 @@
         <v>756</v>
       </c>
       <c r="F280" s="4">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="5">
-        <v>1.42113055893395</v>
+        <v>0.95182697900692703</v>
       </c>
       <c r="I280" s="5">
         <v>0</v>
       </c>
       <c r="J280" s="5">
-        <v>28.439153439153444</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="K280" s="5"/>
     </row>
@@ -13456,17 +13456,17 @@
         <v>791</v>
       </c>
       <c r="F281" s="4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="5">
-        <v>0.068518066345420806</v>
+        <v>0.064780717272034202</v>
       </c>
       <c r="I281" s="5">
         <v>0</v>
       </c>
       <c r="J281" s="5">
-        <v>6.9532237673830597</v>
+        <v>6.5739570164348917</v>
       </c>
       <c r="K281" s="5"/>
     </row>
@@ -13487,17 +13487,17 @@
         <v>2002</v>
       </c>
       <c r="F282" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="5">
-        <v>0.026693586744450201</v>
+        <v>0.024266897040409199</v>
       </c>
       <c r="I282" s="5">
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>0.5494505494505495</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="K282" s="5"/>
     </row>
@@ -13611,17 +13611,17 @@
         <v>2100</v>
       </c>
       <c r="F286" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="5">
-        <v>0.011815359021499199</v>
+        <v>0.0141784308257991</v>
       </c>
       <c r="I286" s="5">
         <v>0</v>
       </c>
       <c r="J286" s="5">
-        <v>0.23809523809523811</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.0231833947279304</v>
+        <v>0.024839351494211199</v>
       </c>
       <c r="I288" s="5">
-        <v>3.5714285714285698</v>
+        <v>0</v>
       </c>
       <c r="J288" s="5">
-        <v>0.46403712296983757</v>
+        <v>0.49718263175339744</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13704,17 +13704,17 @@
         <v>308</v>
       </c>
       <c r="F289" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="5">
-        <v>0.0096321482580259896</v>
+        <v>0.00642143217201732</v>
       </c>
       <c r="I289" s="5">
         <v>0</v>
       </c>
       <c r="J289" s="5">
-        <v>0.97402597402597402</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K289" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.032472307806915797</v>
+        <v>0.024831764793523899</v>
       </c>
       <c r="I290" s="5">
-        <v>2.9411764705882399</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J290" s="5">
-        <v>0.65460146322680013</v>
+        <v>0.50057758952637654</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.0144067963682741</v>
+        <v>0.012890291487403199</v>
       </c>
       <c r="I291" s="5">
         <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>0.28998778998779001</v>
+        <v>0.25946275946275943</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.012079786057696801</v>
+        <v>0.011150571745566299</v>
       </c>
       <c r="I292" s="5">
         <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>0.24340011233851341</v>
+        <v>0.22467702677401233</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0075171720398786003</v>
+        <v>0.0056378790299089496</v>
       </c>
       <c r="I295" s="5">
         <v>0</v>
       </c>
       <c r="J295" s="5">
-        <v>0.15097188148707302</v>
+        <v>0.11322891111530478</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.018932236980111299</v>
+        <v>0.0196895264593158</v>
       </c>
       <c r="I297" s="5">
-        <v>4</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J297" s="5">
-        <v>0.37993920972644379</v>
+        <v>0.39513677811550157</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.062281352697975197</v>
+        <v>0.055655676879041702</v>
       </c>
       <c r="I302" s="5">
-        <v>6.3829787234042596</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="J302" s="5">
-        <v>1.2668463611859839</v>
+        <v>1.1320754716981132</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14138,17 +14138,17 @@
         <v>4977</v>
       </c>
       <c r="F303" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="5">
-        <v>0.0089469979839431196</v>
+        <v>0.0099411088710479097</v>
       </c>
       <c r="I303" s="5">
         <v>0</v>
       </c>
       <c r="J303" s="5">
-        <v>0.18083182640144665</v>
+        <v>0.20092425155716293</v>
       </c>
       <c r="K303" s="5"/>
     </row>
@@ -14169,17 +14169,17 @@
         <v>6279</v>
       </c>
       <c r="F304" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="5">
-        <v>0.0031570140960679401</v>
+        <v>0.0055247746681188897</v>
       </c>
       <c r="I304" s="5">
-        <v>0</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J304" s="5">
-        <v>0.063704411530498481</v>
+        <v>0.11148272017837235</v>
       </c>
       <c r="K304" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0114132233605856</v>
+        <v>0.012364325307301</v>
       </c>
       <c r="I306" s="5">
-        <v>8.3333333333333304</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J306" s="5">
-        <v>0.22857142857142859</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14324,17 +14324,17 @@
         <v>1603</v>
       </c>
       <c r="F309" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="5">
-        <v>0.0061988594098685802</v>
+        <v>0.0092982891148028803</v>
       </c>
       <c r="I309" s="5">
         <v>0</v>
       </c>
       <c r="J309" s="5">
-        <v>0.12476606363069245</v>
+        <v>0.18714909544603867</v>
       </c>
       <c r="K309" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.020367161734176499</v>
+        <v>0.024731553534357201</v>
       </c>
       <c r="I310" s="5">
-        <v>7.1428571428571397</v>
+        <v>11.764705882352899</v>
       </c>
       <c r="J310" s="5">
-        <v>0.40816326530612246</v>
+        <v>0.49562682215743437</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.037089994708998701</v>
+        <v>0.031034485368754</v>
       </c>
       <c r="I311" s="5">
-        <v>4.0816326530612201</v>
+        <v>4.8780487804878003</v>
       </c>
       <c r="J311" s="5">
-        <v>0.37333333333333335</v>
+        <v>0.31238095238095237</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14417,17 +14417,17 @@
         <v>3185</v>
       </c>
       <c r="F312" s="4">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="5">
-        <v>0.109734552118426</v>
+        <v>0.097193460447748306</v>
       </c>
       <c r="I312" s="5">
         <v>0</v>
       </c>
       <c r="J312" s="5">
-        <v>2.197802197802198</v>
+        <v>1.946624803767661</v>
       </c>
       <c r="K312" s="5"/>
     </row>
@@ -14448,17 +14448,17 @@
         <v>266</v>
       </c>
       <c r="F313" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="5">
-        <v>0.40886113589057399</v>
+        <v>0.18584597085935201</v>
       </c>
       <c r="I313" s="5">
         <v>0</v>
       </c>
       <c r="J313" s="5">
-        <v>4.1353383458646613</v>
+        <v>1.8796992481203008</v>
       </c>
       <c r="K313" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.037930419470087802</v>
+        <v>0.0266319966492106</v>
       </c>
       <c r="I314" s="5">
-        <v>4.2553191489361701</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="J314" s="5">
-        <v>0.76212096643424676</v>
+        <v>0.53510621047510942</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.032659349470805898</v>
+        <v>0.029280796077274299</v>
       </c>
       <c r="I317" s="5">
-        <v>2.29885057471264</v>
+        <v>2.5641025641025599</v>
       </c>
       <c r="J317" s="5">
-        <v>0.65655422232284355</v>
+        <v>0.58863482001358391</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14820,17 +14820,17 @@
         <v>1533</v>
       </c>
       <c r="F325" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="5">
-        <v>0.0064097017245302503</v>
+        <v>0.0096145525867953694</v>
       </c>
       <c r="I325" s="5">
         <v>0</v>
       </c>
       <c r="J325" s="5">
-        <v>0.13046314416177429</v>
+        <v>0.19569471624266144</v>
       </c>
       <c r="K325" s="5"/>
     </row>
@@ -14913,17 +14913,17 @@
         <v>1764</v>
       </c>
       <c r="F328" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="5">
-        <v>0.0140196218627591</v>
+        <v>0.0112156974902073</v>
       </c>
       <c r="I328" s="5">
         <v>0</v>
       </c>
       <c r="J328" s="5">
-        <v>0.28344671201814059</v>
+        <v>0.22675736961451248</v>
       </c>
       <c r="K328" s="5"/>
     </row>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.030156411253032402</v>
+        <v>0.033507123614480397</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.61517429938482571</v>
+        <v>0.68352699931647298</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -15099,17 +15099,17 @@
         <v>1799</v>
       </c>
       <c r="F334" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="5">
-        <v>0.016540499412812298</v>
+        <v>0.0137837495106769</v>
       </c>
       <c r="I334" s="5">
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>0.33351862145636463</v>
+        <v>0.27793218454697055</v>
       </c>
       <c r="K334" s="5"/>
     </row>
@@ -15254,17 +15254,17 @@
         <v>1190</v>
       </c>
       <c r="F339" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="5">
-        <v>0.012461783862820699</v>
+        <v>0.020769639771367799</v>
       </c>
       <c r="I339" s="5">
         <v>0</v>
       </c>
       <c r="J339" s="5">
-        <v>0.25210084033613445</v>
+        <v>0.42016806722689076</v>
       </c>
       <c r="K339" s="5"/>
     </row>
@@ -15285,17 +15285,17 @@
         <v>1015</v>
       </c>
       <c r="F340" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="5">
-        <v>0.0147117237726744</v>
+        <v>0.0098078158484496292</v>
       </c>
       <c r="I340" s="5">
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>0.29556650246305421</v>
+        <v>0.19704433497536944</v>
       </c>
       <c r="K340" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.023010193515727501</v>
+        <v>0.020133919326261501</v>
       </c>
       <c r="I342" s="5">
-        <v>25</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J342" s="5">
-        <v>0.23134759976865238</v>
+        <v>0.20242914979757085</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.021660305756876101</v>
+        <v>0.020793893526601</v>
       </c>
       <c r="I346" s="5">
-        <v>0</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J346" s="5">
-        <v>0.43660495983234371</v>
+        <v>0.41914076143904999</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.0160806723475296</v>
+        <v>0.014618793043208801</v>
       </c>
       <c r="I355" s="5">
         <v>0</v>
       </c>
       <c r="J355" s="5">
-        <v>0.32602252519264968</v>
+        <v>0.29638411381149971</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15781,17 +15781,17 @@
         <v>2100</v>
       </c>
       <c r="F356" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="5">
-        <v>0.014149408318908799</v>
+        <v>0.016507643038726899</v>
       </c>
       <c r="I356" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J356" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="K356" s="5"/>
     </row>
@@ -15874,17 +15874,17 @@
         <v>854</v>
       </c>
       <c r="F359" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359" s="4"/>
       <c r="H359" s="5">
-        <v>0.0057753059468325296</v>
+        <v>0</v>
       </c>
       <c r="I359" s="5">
         <v>0</v>
       </c>
       <c r="J359" s="5">
-        <v>0.117096018735363</v>
+        <v>0</v>
       </c>
       <c r="K359" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.0058443304150643501</v>
+        <v>0</v>
       </c>
       <c r="I363" s="5">
         <v>0</v>
       </c>
       <c r="J363" s="5">
-        <v>0.11806375442739078</v>
+        <v>0</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.097711943312040306</v>
+        <v>0.099591019144964099</v>
       </c>
       <c r="I364" s="5">
-        <v>2.8846153846153801</v>
+        <v>2.8301886792452802</v>
       </c>
       <c r="J364" s="5">
-        <v>1.9574628270280443</v>
+        <v>1.9951063429324301</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.032041963104272903</v>
+        <v>0.0284817449815759</v>
       </c>
       <c r="I365" s="5">
-        <v>7.4074074074074101</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="J365" s="5">
-        <v>0.64178749702876159</v>
+        <v>0.57047777513667697</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16184,17 +16184,17 @@
         <v>700</v>
       </c>
       <c r="F369" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G369" s="4"/>
       <c r="H369" s="5">
-        <v>0.0212086078669796</v>
+        <v>0.0141390719113197</v>
       </c>
       <c r="I369" s="5">
         <v>0</v>
       </c>
       <c r="J369" s="5">
-        <v>0.4285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K369" s="5"/>
     </row>
@@ -16215,17 +16215,17 @@
         <v>1057</v>
       </c>
       <c r="F370" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="5">
-        <v>0.027767750534529199</v>
+        <v>0.037023667379372301</v>
       </c>
       <c r="I370" s="5">
         <v>0</v>
       </c>
       <c r="J370" s="5">
-        <v>0.56764427625354774</v>
+        <v>0.7568590350047304</v>
       </c>
       <c r="K370" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.017862964269605701</v>
+        <v>0.015630093735905001</v>
       </c>
       <c r="I371" s="5">
         <v>0</v>
       </c>
       <c r="J371" s="5">
-        <v>0.36052275799909872</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16339,17 +16339,17 @@
         <v>1883</v>
       </c>
       <c r="F374" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="5">
-        <v>0.018410539244694501</v>
+        <v>0.0105203081398254</v>
       </c>
       <c r="I374" s="5">
         <v>0</v>
       </c>
       <c r="J374" s="5">
-        <v>0.37174721189591076</v>
+        <v>0.21242697822623471</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -16370,17 +16370,17 @@
         <v>3479</v>
       </c>
       <c r="F375" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="5">
-        <v>0.0128397724792317</v>
+        <v>0.014266413865813</v>
       </c>
       <c r="I375" s="5">
         <v>0</v>
       </c>
       <c r="J375" s="5">
-        <v>0.25869502730669736</v>
+        <v>0.28743891922966369</v>
       </c>
       <c r="K375" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.0076527823330053597</v>
+        <v>0.0054662730950038301</v>
       </c>
       <c r="I382" s="5">
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>0.15455950540958269</v>
+        <v>0.11039964672113049</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.042971312189826201</v>
+        <v>0.042160532714546402</v>
       </c>
       <c r="I383" s="5">
-        <v>1.88679245283019</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="J383" s="5">
-        <v>0.861368438160247</v>
+        <v>0.84511620347797811</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16866,17 +16866,17 @@
         <v>1435</v>
       </c>
       <c r="F391" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="5">
-        <v>0.030975948896567899</v>
+        <v>0.037859493095805198</v>
       </c>
       <c r="I391" s="5">
         <v>0</v>
       </c>
       <c r="J391" s="5">
-        <v>0.62717770034843201</v>
+        <v>0.76655052264808365</v>
       </c>
       <c r="K391" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.104155879449746</v>
+        <v>0.097571312358095103</v>
       </c>
       <c r="I392" s="5">
-        <v>2.29885057471264</v>
+        <v>3.0674846625766898</v>
       </c>
       <c r="J392" s="5">
-        <v>2.0958805107203085</v>
+        <v>1.9633823175138521</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -17021,17 +17021,17 @@
         <v>9065</v>
       </c>
       <c r="F396" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G396" s="4"/>
       <c r="H396" s="5">
-        <v>0.0043931712546018504</v>
+        <v>0.0054914640682523098</v>
       </c>
       <c r="I396" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J396" s="5">
-        <v>0.044125758411472697</v>
+        <v>0.055157198014340873</v>
       </c>
       <c r="K396" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.0106821629243489</v>
+        <v>0.0124625234117404</v>
       </c>
       <c r="I397" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J397" s="5">
-        <v>0.22263450834879409</v>
+        <v>0.25974025974025972</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.0023057962337124302</v>
+        <v>0.0030743949782832398</v>
       </c>
       <c r="I398" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J398" s="5">
-        <v>0.046132554205751186</v>
+        <v>0.061510072274334929</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17114,17 +17114,17 @@
         <v>798</v>
       </c>
       <c r="F399" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="5">
-        <v>0.093344534677494595</v>
+        <v>0.105790472634494</v>
       </c>
       <c r="I399" s="5">
-        <v>20</v>
+        <v>17.647058823529399</v>
       </c>
       <c r="J399" s="5">
-        <v>1.8796992481203008</v>
+        <v>2.1303258145363406</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -17238,17 +17238,17 @@
         <v>2380</v>
       </c>
       <c r="F403" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="5">
-        <v>0.0041740756509471002</v>
+        <v>0.0020870378254735501</v>
       </c>
       <c r="I403" s="5">
         <v>0</v>
       </c>
       <c r="J403" s="5">
-        <v>0.084033613445378158</v>
+        <v>0.042016806722689079</v>
       </c>
       <c r="K403" s="5"/>
     </row>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.0227586952440017</v>
+        <v>0.023896630006201701</v>
       </c>
       <c r="I408" s="5">
-        <v>10</v>
+        <v>9.5238095238095202</v>
       </c>
       <c r="J408" s="5">
-        <v>0.45568466621098197</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17424,17 +17424,17 @@
         <v>1351</v>
       </c>
       <c r="F409" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G409" s="4"/>
       <c r="H409" s="5">
-        <v>0.014556994271822801</v>
+        <v>0.018196242839778401</v>
       </c>
       <c r="I409" s="5">
         <v>0</v>
       </c>
       <c r="J409" s="5">
-        <v>0.29607698001480381</v>
+        <v>0.37009622501850481</v>
       </c>
       <c r="K409" s="5"/>
     </row>
@@ -17455,17 +17455,17 @@
         <v>2044</v>
       </c>
       <c r="F410" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="5">
-        <v>0.046114825916532202</v>
+        <v>0.029125153210441401</v>
       </c>
       <c r="I410" s="5">
         <v>0</v>
       </c>
       <c r="J410" s="5">
-        <v>0.92954990215264188</v>
+        <v>0.58708414872798431</v>
       </c>
       <c r="K410" s="5"/>
     </row>
@@ -17486,17 +17486,17 @@
         <v>5943</v>
       </c>
       <c r="F411" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="5">
-        <v>0.014233588254108099</v>
+        <v>0.011721778562206599</v>
       </c>
       <c r="I411" s="5">
         <v>0</v>
       </c>
       <c r="J411" s="5">
-        <v>0.28605081608615174</v>
+        <v>0.23557126030624262</v>
       </c>
       <c r="K411" s="5"/>
     </row>
@@ -17517,17 +17517,17 @@
         <v>1288</v>
       </c>
       <c r="F412" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G412" s="4"/>
       <c r="H412" s="5">
-        <v>0.0309506491898668</v>
+        <v>0.038688311487333399</v>
       </c>
       <c r="I412" s="5">
         <v>0</v>
       </c>
       <c r="J412" s="5">
-        <v>0.3105590062111801</v>
+        <v>0.38819875776397517</v>
       </c>
       <c r="K412" s="5"/>
     </row>
@@ -17579,17 +17579,17 @@
         <v>273</v>
       </c>
       <c r="F414" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="4"/>
       <c r="H414" s="5">
-        <v>0.0181110205560083</v>
+        <v>0</v>
       </c>
       <c r="I414" s="5">
         <v>0</v>
       </c>
       <c r="J414" s="5">
-        <v>0.36630036630036628</v>
+        <v>0</v>
       </c>
       <c r="K414" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.020717530967529402</v>
+        <v>0.022789284064282399</v>
       </c>
       <c r="I418" s="5">
-        <v>5</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J418" s="5">
-        <v>2.0855057351407713</v>
+        <v>2.2940563086548487</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17920,17 +17920,17 @@
         <v>966</v>
       </c>
       <c r="F425" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G425" s="4"/>
       <c r="H425" s="5">
-        <v>0.0050052805710024103</v>
+        <v>0</v>
       </c>
       <c r="I425" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J425" s="5">
-        <v>0.10351966873706005</v>
+        <v>0</v>
       </c>
       <c r="K425" s="5"/>
     </row>
@@ -18013,17 +18013,17 @@
         <v>637</v>
       </c>
       <c r="F428" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G428" s="4"/>
       <c r="H428" s="5">
-        <v>0.023526643924244198</v>
+        <v>0.015684429282829499</v>
       </c>
       <c r="I428" s="5">
         <v>0</v>
       </c>
       <c r="J428" s="5">
-        <v>0.47095761381475665</v>
+        <v>0.31397174254317112</v>
       </c>
       <c r="K428" s="5"/>
     </row>
@@ -18044,17 +18044,17 @@
         <v>5054</v>
       </c>
       <c r="F429" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="5">
-        <v>0.0137043425145902</v>
+        <v>0.017619868947330301</v>
       </c>
       <c r="I429" s="5">
         <v>0</v>
       </c>
       <c r="J429" s="5">
-        <v>0.2770083102493075</v>
+        <v>0.35615354174910963</v>
       </c>
       <c r="K429" s="5"/>
     </row>
@@ -18168,17 +18168,17 @@
         <v>1022</v>
       </c>
       <c r="F433" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G433" s="4"/>
       <c r="H433" s="5">
-        <v>0.034082333179151401</v>
+        <v>0.0243445236993938</v>
       </c>
       <c r="I433" s="5">
         <v>0</v>
       </c>
       <c r="J433" s="5">
-        <v>0.68493150684931503</v>
+        <v>0.48923679060665359</v>
       </c>
       <c r="K433" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.051810685068422901</v>
+        <v>0.051154853611860597</v>
       </c>
       <c r="I438" s="5">
-        <v>2.5316455696202498</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J438" s="5">
-        <v>1.0392002104709288</v>
+        <v>1.0260457774269929</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>3080</v>
       </c>
       <c r="F439" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="5">
-        <v>0.011349817592217299</v>
+        <v>0.0129712201053912</v>
       </c>
       <c r="I439" s="5">
         <v>0</v>
       </c>
       <c r="J439" s="5">
-        <v>0.22727272727272727</v>
+        <v>0.25974025974025972</v>
       </c>
       <c r="K439" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.088734598582674101</v>
+        <v>0.085804682591736695</v>
       </c>
       <c r="I443" s="5">
-        <v>10.849056603773599</v>
+        <v>10.7317073170732</v>
       </c>
       <c r="J443" s="5">
-        <v>1.8005775437404452</v>
+        <v>1.7411245116358078</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18509,17 +18509,17 @@
         <v>2436</v>
       </c>
       <c r="F444" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="5">
-        <v>0.024419428096994</v>
+        <v>0.020349523414161599</v>
       </c>
       <c r="I444" s="5">
-        <v>66.6666666666667</v>
+        <v>60</v>
       </c>
       <c r="J444" s="5">
-        <v>0.24630541871921183</v>
+        <v>0.20525451559934318</v>
       </c>
       <c r="K444" s="5"/>
     </row>
@@ -18540,17 +18540,17 @@
         <v>1260</v>
       </c>
       <c r="F445" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G445" s="4"/>
       <c r="H445" s="5">
-        <v>0.0038998518056313899</v>
+        <v>0.0077997036112627703</v>
       </c>
       <c r="I445" s="5">
         <v>0</v>
       </c>
       <c r="J445" s="5">
-        <v>0.079365079365079361</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="K445" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.18754112069654599</v>
+        <v>0.138350007071223</v>
       </c>
       <c r="I446" s="5">
-        <v>6.5573770491803298</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="J446" s="5">
-        <v>18.944099378881987</v>
+        <v>13.975155279503104</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.021583477507176499</v>
+        <v>0.015903615005287999</v>
       </c>
       <c r="I447" s="5">
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>0.4329004329004329</v>
+        <v>0.31897926634768742</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18757,17 +18757,17 @@
         <v>3458</v>
       </c>
       <c r="F452" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="5">
-        <v>0.0129542255244302</v>
+        <v>0.0115148671328269</v>
       </c>
       <c r="I452" s="5">
-        <v>11.1111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="J452" s="5">
-        <v>0.26026604973973394</v>
+        <v>0.23134759976865238</v>
       </c>
       <c r="K452" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.190716270328009</v>
+        <v>0.18610216701362201</v>
       </c>
       <c r="I453" s="5">
-        <v>15.322580645161301</v>
+        <v>19.008264462809901</v>
       </c>
       <c r="J453" s="5">
-        <v>3.8677479725514665</v>
+        <v>3.7741734248284469</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.035913412761831201</v>
+        <v>0.033668824464216797</v>
       </c>
       <c r="I459" s="5">
-        <v>3.125</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="J459" s="5">
-        <v>0.7187780772686434</v>
+        <v>0.67385444743935319</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.015603691209192401</v>
+        <v>0.019348577099398599</v>
       </c>
       <c r="I460" s="5">
-        <v>0</v>
+        <v>6.4516129032258096</v>
       </c>
       <c r="J460" s="5">
-        <v>0.31355825912454532</v>
+        <v>0.38881224131443626</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19098,17 +19098,17 @@
         <v>4522</v>
       </c>
       <c r="F463" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="5">
-        <v>0.022005347299393799</v>
+        <v>0.023105614664363401</v>
       </c>
       <c r="I463" s="5">
-        <v>10</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J463" s="5">
-        <v>0.44228217602830611</v>
+        <v>0.46439628482972134</v>
       </c>
       <c r="K463" s="5"/>
     </row>
@@ -19160,17 +19160,17 @@
         <v>1820</v>
       </c>
       <c r="F465" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G465" s="4"/>
       <c r="H465" s="5">
-        <v>0.024291170159647001</v>
+        <v>0.021592151253019502</v>
       </c>
       <c r="I465" s="5">
-        <v>11.1111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="J465" s="5">
-        <v>0.49450549450549447</v>
+        <v>0.43956043956043955</v>
       </c>
       <c r="K465" s="5"/>
     </row>
@@ -19222,17 +19222,17 @@
         <v>2674</v>
       </c>
       <c r="F467" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G467" s="4"/>
       <c r="H467" s="5">
-        <v>0.022212267835525601</v>
+        <v>0.0111061339177628</v>
       </c>
       <c r="I467" s="5">
-        <v>16.6666666666667</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J467" s="5">
-        <v>0.22438294689603588</v>
+        <v>0.11219147344801794</v>
       </c>
       <c r="K467" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.037040390488027701</v>
+        <v>0.057618385203598702</v>
       </c>
       <c r="I468" s="5">
-        <v>11.1111111111111</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J468" s="5">
-        <v>0.74750830564784054</v>
+        <v>1.1627906976744187</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19284,17 +19284,17 @@
         <v>826</v>
       </c>
       <c r="F469" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G469" s="4"/>
       <c r="H469" s="5">
-        <v>0</v>
+        <v>0.011816280471233301</v>
       </c>
       <c r="I469" s="5">
         <v>0</v>
       </c>
       <c r="J469" s="5">
-        <v>0</v>
+        <v>0.24213075060532688</v>
       </c>
       <c r="K469" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.016777876021562901</v>
+        <v>0.014261194618328501</v>
       </c>
       <c r="I470" s="5">
-        <v>25</v>
+        <v>23.529411764705898</v>
       </c>
       <c r="J470" s="5">
-        <v>0.33732501264968795</v>
+        <v>0.28672626075223479</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19408,17 +19408,17 @@
         <v>1302</v>
       </c>
       <c r="F473" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G473" s="4"/>
       <c r="H473" s="5">
-        <v>0.022794620469569201</v>
+        <v>0.026593723881163999</v>
       </c>
       <c r="I473" s="5">
         <v>0</v>
       </c>
       <c r="J473" s="5">
-        <v>0.46082949308755761</v>
+        <v>0.53763440860215062</v>
       </c>
       <c r="K473" s="5"/>
     </row>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.094263930235922902</v>
+        <v>0.092071745811831696</v>
       </c>
       <c r="I474" s="5">
-        <v>20.930232558139501</v>
+        <v>21.428571428571399</v>
       </c>
       <c r="J474" s="5">
-        <v>1.8959435626102292</v>
+        <v>1.8518518518518516</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19563,17 +19563,17 @@
         <v>1204</v>
       </c>
       <c r="F478" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G478" s="4"/>
       <c r="H478" s="5">
-        <v>0.016488182095483101</v>
+        <v>0.012366136571612301</v>
       </c>
       <c r="I478" s="5">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J478" s="5">
-        <v>0.33222591362126247</v>
+        <v>0.24916943521594684</v>
       </c>
       <c r="K478" s="5"/>
     </row>
@@ -19594,17 +19594,17 @@
         <v>2037</v>
       </c>
       <c r="F479" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G479" s="4"/>
       <c r="H479" s="5">
-        <v>0.016657108659079</v>
+        <v>0.0237958695129699</v>
       </c>
       <c r="I479" s="5">
         <v>0</v>
       </c>
       <c r="J479" s="5">
-        <v>0.3436426116838488</v>
+        <v>0.49091801669121254</v>
       </c>
       <c r="K479" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>827</v>
+        <v>755</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.206442452356602</v>
+        <v>0.18846922796763499</v>
       </c>
       <c r="I482" s="5">
-        <v>7.2551390568319203</v>
+        <v>7.1523178807947003</v>
       </c>
       <c r="J482" s="5">
-        <v>4.2118665648077407</v>
+        <v>3.8451744334097273</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19718,17 +19718,17 @@
         <v>3080</v>
       </c>
       <c r="F483" s="4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="5">
-        <v>0.038661911251582699</v>
+        <v>0.0273855204698711</v>
       </c>
       <c r="I483" s="5">
         <v>0</v>
       </c>
       <c r="J483" s="5">
-        <v>0.77922077922077926</v>
+        <v>0.55194805194805197</v>
       </c>
       <c r="K483" s="5"/>
     </row>
@@ -19780,17 +19780,17 @@
         <v>1071</v>
       </c>
       <c r="F485" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485" s="4"/>
       <c r="H485" s="5">
-        <v>0.0046474664336736797</v>
+        <v>0</v>
       </c>
       <c r="I485" s="5">
         <v>0</v>
       </c>
       <c r="J485" s="5">
-        <v>0.093370681605975725</v>
+        <v>0</v>
       </c>
       <c r="K485" s="5"/>
     </row>
@@ -19811,17 +19811,17 @@
         <v>1428</v>
       </c>
       <c r="F486" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G486" s="4"/>
       <c r="H486" s="5">
-        <v>0.010459156991946401</v>
+        <v>0.0069727713279642998</v>
       </c>
       <c r="I486" s="5">
         <v>0</v>
       </c>
       <c r="J486" s="5">
-        <v>0.21008403361344538</v>
+        <v>0.14005602240896359</v>
       </c>
       <c r="K486" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.0072909325102680604</v>
+        <v>0.0048606216735120403</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.14880952380952381</v>
+        <v>0.099206349206349201</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19873,17 +19873,17 @@
         <v>1540</v>
       </c>
       <c r="F488" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G488" s="4"/>
       <c r="H488" s="5">
-        <v>0.035536258290447501</v>
+        <v>0.0290751204194571</v>
       </c>
       <c r="I488" s="5">
         <v>0</v>
       </c>
       <c r="J488" s="5">
-        <v>0.7142857142857143</v>
+        <v>0.58441558441558439</v>
       </c>
       <c r="K488" s="5"/>
     </row>
@@ -20121,17 +20121,17 @@
         <v>2366</v>
       </c>
       <c r="F496" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G496" s="4"/>
       <c r="H496" s="5">
-        <v>0.0084227194434267003</v>
+        <v>0.0042113597217133501</v>
       </c>
       <c r="I496" s="5">
         <v>0</v>
       </c>
       <c r="J496" s="5">
-        <v>0.16906170752324598</v>
+        <v>0.08453085376162299</v>
       </c>
       <c r="K496" s="5"/>
     </row>
@@ -20307,17 +20307,17 @@
         <v>1197</v>
       </c>
       <c r="F502" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G502" s="4"/>
       <c r="H502" s="5">
-        <v>0.045690740148453403</v>
+        <v>0.037383332848734602</v>
       </c>
       <c r="I502" s="5">
         <v>0</v>
       </c>
       <c r="J502" s="5">
-        <v>0.91896407685881365</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="K502" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.011400509887804699</v>
+        <v>0.0099754461518291402</v>
       </c>
       <c r="I503" s="5">
         <v>0</v>
       </c>
       <c r="J503" s="5">
-        <v>0.22811519817507844</v>
+        <v>0.19960079840319359</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.0151287837718579</v>
+        <v>0.018490735721159699</v>
       </c>
       <c r="I504" s="5">
-        <v>5.5555555555555598</v>
+        <v>4.5454545454545503</v>
       </c>
       <c r="J504" s="5">
-        <v>0.30359251138471915</v>
+        <v>0.3710575139146568</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20431,17 +20431,17 @@
         <v>1393</v>
       </c>
       <c r="F506" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G506" s="4"/>
       <c r="H506" s="5">
-        <v>0.0106923663632411</v>
+        <v>0.0071282442421607096</v>
       </c>
       <c r="I506" s="5">
         <v>0</v>
       </c>
       <c r="J506" s="5">
-        <v>0.21536252692031585</v>
+        <v>0.14357501794687724</v>
       </c>
       <c r="K506" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.0123258265888939</v>
+        <v>0.010429545575217899</v>
       </c>
       <c r="I507" s="5">
         <v>0</v>
       </c>
       <c r="J507" s="5">
-        <v>0.24728932851436183</v>
+        <v>0.20924481643522919</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20524,17 +20524,17 @@
         <v>518</v>
       </c>
       <c r="F509" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G509" s="4"/>
       <c r="H509" s="5">
-        <v>0.048229960451432401</v>
+        <v>0.038583968361145901</v>
       </c>
       <c r="I509" s="5">
         <v>0</v>
       </c>
       <c r="J509" s="5">
-        <v>0.96525096525096521</v>
+        <v>0.77220077220077221</v>
       </c>
       <c r="K509" s="5"/>
     </row>
@@ -20586,17 +20586,17 @@
         <v>4620</v>
       </c>
       <c r="F511" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G511" s="4"/>
       <c r="H511" s="5">
-        <v>0.025750133578817901</v>
+        <v>0.023604289113916401</v>
       </c>
       <c r="I511" s="5">
         <v>0</v>
       </c>
       <c r="J511" s="5">
-        <v>0.25974025974025972</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="K511" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.022663916778097599</v>
+        <v>0.021404810290425499</v>
       </c>
       <c r="I513" s="5">
         <v>0</v>
       </c>
       <c r="J513" s="5">
-        <v>0.45431600201918221</v>
+        <v>0.42907622412922769</v>
       </c>
       <c r="K513" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>30/12/2023</t>
+    <t>31/12/2023</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4807,17 +4807,17 @@
         <v>1078</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>0.0045835606015464901</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>0.0927643784786642</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -4900,17 +4900,17 @@
         <v>490</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
-        <v>0.030359455958549199</v>
+        <v>0.040479274611399003</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0.61224489795918369</v>
+        <v>0.81632653061224492</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.019936310134556798</v>
+        <v>0.017278135449949199</v>
       </c>
       <c r="I15" s="5">
-        <v>13.3333333333333</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="J15" s="5">
-        <v>0.20064205457463882</v>
+        <v>0.17388978063135366</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.21751827757749101</v>
+        <v>0.189321463817446</v>
       </c>
       <c r="I17" s="5">
-        <v>7.4074074074074101</v>
+        <v>6.3829787234042596</v>
       </c>
       <c r="J17" s="5">
-        <v>4.4505494505494507</v>
+        <v>3.8736263736263736</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5341,7 +5341,7 @@
         <v>0.016115964240234999</v>
       </c>
       <c r="I19" s="5">
-        <v>19.354838709677399</v>
+        <v>17.741935483871</v>
       </c>
       <c r="J19" s="5">
         <v>0.32539099401700433</v>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.020505009080789699</v>
+        <v>0.0181615794715566</v>
       </c>
       <c r="I20" s="5">
-        <v>20</v>
+        <v>22.580645161290299</v>
       </c>
       <c r="J20" s="5">
-        <v>0.41220115416323161</v>
+        <v>0.3650924508302909</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5396,17 +5396,17 @@
         <v>1953</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
-        <v>0.0025262030410432199</v>
+        <v>0.0075786091231296602</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>0.051203277009728626</v>
+        <v>0.15360983102918588</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -5520,17 +5520,17 @@
         <v>1078</v>
       </c>
       <c r="F25" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5">
-        <v>0.0411854075524885</v>
+        <v>0.050337720341930403</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>0.83487940630797774</v>
+        <v>1.0204081632653061</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5589,7 +5589,7 @@
         <v>0.049793357566100697</v>
       </c>
       <c r="I27" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5">
         <v>1.0060362173038229</v>
@@ -5644,17 +5644,17 @@
         <v>1155</v>
       </c>
       <c r="F29" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>0.051702966457700499</v>
+        <v>0.043085805381417097</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <v>1.0389610389610389</v>
+        <v>0.86580086580086579</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.0098820088147518591</v>
+        <v>0.0082350073456265507</v>
       </c>
       <c r="I30" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" s="5">
-        <v>0.19980019980019981</v>
+        <v>0.1665001665001665</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.099220700219954702</v>
+        <v>0.0955115151650031</v>
       </c>
       <c r="I33" s="5">
-        <v>19.6261682242991</v>
+        <v>19.417475728155299</v>
       </c>
       <c r="J33" s="5">
-        <v>2.0112781954887216</v>
+        <v>1.9360902255639099</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.045624042312404502</v>
+        <v>0.044511260792589803</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0.92238470191226096</v>
+        <v>0.89988751406074252</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.016572835771790799</v>
+        <v>0.012889983378059499</v>
       </c>
       <c r="I36" s="5">
-        <v>3.7037037037037002</v>
+        <v>4.7619047619047601</v>
       </c>
       <c r="J36" s="5">
-        <v>0.33222591362126247</v>
+        <v>0.2583979328165375</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -6016,17 +6016,17 @@
         <v>875</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5">
-        <v>0.0056842727541438296</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <v>0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -6109,17 +6109,17 @@
         <v>427</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>0.0023098689149390799</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0.23419203747072601</v>
+        <v>0</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.033599763457665299</v>
+        <v>0.0311997803535463</v>
       </c>
       <c r="I45" s="5">
-        <v>17.1428571428571</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="J45" s="5">
-        <v>0.69252077562326864</v>
+        <v>0.64305500593589238</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6171,17 +6171,17 @@
         <v>959</v>
       </c>
       <c r="F46" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
-        <v>0.046300107004691698</v>
+        <v>0.056589019672401</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>0.93847758081334731</v>
+        <v>1.1470281543274243</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -6326,17 +6326,17 @@
         <v>1330</v>
       </c>
       <c r="F51" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
-        <v>0.0111231818232378</v>
+        <v>0.0074154545488252102</v>
       </c>
       <c r="I51" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J51" s="5">
-        <v>0.22556390977443611</v>
+        <v>0.15037593984962408</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -6512,17 +6512,17 @@
         <v>2576</v>
       </c>
       <c r="F57" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
-        <v>0.0038388747490335599</v>
+        <v>0.0057583121235503503</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <v>0.077639751552795025</v>
+        <v>0.11645962732919254</v>
       </c>
       <c r="K57" s="5"/>
     </row>
@@ -6543,17 +6543,17 @@
         <v>833</v>
       </c>
       <c r="F58" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>0.023862788963460099</v>
+        <v>0.017897091722595099</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0.48019207683073228</v>
+        <v>0.36014405762304924</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.059717726760104103</v>
+        <v>0.0593983806276972</v>
       </c>
       <c r="I63" s="5">
-        <v>13.1016042780749</v>
+        <v>13.1720430107527</v>
       </c>
       <c r="J63" s="5">
-        <v>1.2131828208122486</v>
+        <v>1.2066952121448034</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6729,17 +6729,17 @@
         <v>6286</v>
       </c>
       <c r="F64" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>0.020650031213316399</v>
+        <v>0.019855799243573499</v>
       </c>
       <c r="I64" s="5">
-        <v>7.6923076923076898</v>
+        <v>8</v>
       </c>
       <c r="J64" s="5">
-        <v>0.41361756283805279</v>
+        <v>0.39770919503658919</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.0088774806217280094</v>
+        <v>0.0101456921391177</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0.089126559714795009</v>
+        <v>0.10185892538833714</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -6946,17 +6946,17 @@
         <v>3801</v>
       </c>
       <c r="F71" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
-        <v>0.0052555166501336899</v>
+        <v>0.0039416374876002696</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <v>0.10523546435148645</v>
+        <v>0.078926598263614839</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -7039,17 +7039,17 @@
         <v>4956</v>
       </c>
       <c r="F74" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>0.0181077046271221</v>
+        <v>0.016095737446330801</v>
       </c>
       <c r="I74" s="5">
-        <v>5.5555555555555598</v>
+        <v>6.25</v>
       </c>
       <c r="J74" s="5">
-        <v>0.36319612590799033</v>
+        <v>0.32284100080710249</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -7070,17 +7070,17 @@
         <v>9058</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
-        <v>0.00055116947138438303</v>
+        <v>0.00110233894276877</v>
       </c>
       <c r="I75" s="5">
         <v>0</v>
       </c>
       <c r="J75" s="5">
-        <v>0.011039964672113049</v>
+        <v>0.022079929344226097</v>
       </c>
       <c r="K75" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.106548752713664</v>
+        <v>0.10506890892597399</v>
       </c>
       <c r="I76" s="5">
-        <v>18.0555555555556</v>
+        <v>16.901408450704199</v>
       </c>
       <c r="J76" s="5">
-        <v>2.1428571428571428</v>
+        <v>2.1130952380952381</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7163,17 +7163,17 @@
         <v>679</v>
       </c>
       <c r="F78" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5">
-        <v>0.029465712959757199</v>
+        <v>0.036832141199696501</v>
       </c>
       <c r="I78" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J78" s="5">
-        <v>0.5891016200294551</v>
+        <v>0.73637702503681879</v>
       </c>
       <c r="K78" s="5"/>
     </row>
@@ -7380,17 +7380,17 @@
         <v>469</v>
       </c>
       <c r="F85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5">
-        <v>0.021335153933135599</v>
+        <v>0.0106675769665678</v>
       </c>
       <c r="I85" s="5">
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <v>0.42643923240938164</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K85" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.0110529273678134</v>
+        <v>0.010627814776743599</v>
       </c>
       <c r="I88" s="5">
-        <v>3.8461538461538498</v>
+        <v>4</v>
       </c>
       <c r="J88" s="5">
-        <v>0.22214627477785376</v>
+        <v>0.21360218728639782</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7504,17 +7504,17 @@
         <v>17339</v>
       </c>
       <c r="F89" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5">
-        <v>0.0017255630080704599</v>
+        <v>0.0034511260161409199</v>
       </c>
       <c r="I89" s="5">
         <v>33.3333333333333</v>
       </c>
       <c r="J89" s="5">
-        <v>0.01730203587288771</v>
+        <v>0.034604071745775421</v>
       </c>
       <c r="K89" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.021991831605403699</v>
+        <v>0.0224406444953099</v>
       </c>
       <c r="I90" s="5">
-        <v>8.1632653061224492</v>
+        <v>8</v>
       </c>
       <c r="J90" s="5">
-        <v>2.2082018927444795</v>
+        <v>2.253267237494367</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.0165629343888339</v>
+        <v>0.017391081108275599</v>
       </c>
       <c r="I93" s="5">
-        <v>7.5</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J93" s="5">
-        <v>0.33792346033623383</v>
+        <v>0.35481963335304556</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.025774192301248802</v>
+        <v>0.032217740376560999</v>
       </c>
       <c r="I98" s="5">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="J98" s="5">
-        <v>0.25915127955944284</v>
+        <v>0.32393909944930355</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7845,17 +7845,17 @@
         <v>1379</v>
       </c>
       <c r="F100" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5">
-        <v>0.036219154862240401</v>
+        <v>0.043462985834688501</v>
       </c>
       <c r="I100" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J100" s="5">
-        <v>0.72516316171138506</v>
+        <v>0.8701957940536621</v>
       </c>
       <c r="K100" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.022788213935752401</v>
+        <v>0.030384285247669899</v>
       </c>
       <c r="I103" s="5">
-        <v>16.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="J103" s="5">
-        <v>0.45836516424751722</v>
+        <v>0.61115355233002289</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.0097356545130749903</v>
+        <v>0.0101101027635779</v>
       </c>
       <c r="I104" s="5">
         <v>0</v>
       </c>
       <c r="J104" s="5">
-        <v>0.97744360902255645</v>
+        <v>1.0150375939849625</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8031,17 +8031,17 @@
         <v>2639</v>
       </c>
       <c r="F106" s="4">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>0.11079812206572801</v>
+        <v>0.10140845070422499</v>
       </c>
       <c r="I106" s="5">
-        <v>20.338983050847499</v>
+        <v>20.370370370370399</v>
       </c>
       <c r="J106" s="5">
-        <v>2.2356953391436152</v>
+        <v>2.0462296324365288</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -8124,17 +8124,17 @@
         <v>3948</v>
       </c>
       <c r="F109" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>0.0137757951764679</v>
+        <v>0.0112711051443829</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>0.2786220871327254</v>
+        <v>0.22796352583586624</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.051092652876516403</v>
+        <v>0.049632862794330199</v>
       </c>
       <c r="I110" s="5">
-        <v>5.71428571428571</v>
+        <v>7.3529411764705896</v>
       </c>
       <c r="J110" s="5">
-        <v>1.0319917440660475</v>
+        <v>1.0025062656641603</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8217,17 +8217,17 @@
         <v>595</v>
       </c>
       <c r="F112" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
-        <v>0.024986257558342901</v>
+        <v>0.041643762597238197</v>
       </c>
       <c r="I112" s="5">
-        <v>66.6666666666667</v>
+        <v>40</v>
       </c>
       <c r="J112" s="5">
-        <v>0.50420168067226889</v>
+        <v>0.84033613445378152</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.048344641314567102</v>
+        <v>0.040711276896477598</v>
       </c>
       <c r="I113" s="5">
-        <v>39.473684210526301</v>
+        <v>50</v>
       </c>
       <c r="J113" s="5">
-        <v>0.9781209781209782</v>
+        <v>0.82368082368082363</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8403,17 +8403,17 @@
         <v>1974</v>
       </c>
       <c r="F118" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5">
-        <v>0.0050131092807692099</v>
+        <v>0</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
       </c>
       <c r="J118" s="5">
-        <v>0.050658561296859174</v>
+        <v>0</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -8434,17 +8434,17 @@
         <v>238</v>
       </c>
       <c r="F119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5">
-        <v>0.0041701070049457497</v>
+        <v>0</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
       </c>
       <c r="J119" s="5">
-        <v>0.42016806722689076</v>
+        <v>0</v>
       </c>
       <c r="K119" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.12377814587618501</v>
+        <v>0.10921601106722199</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>2.4908424908424909</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8496,17 +8496,17 @@
         <v>1197</v>
       </c>
       <c r="F121" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5">
-        <v>0.033212247016087201</v>
+        <v>0.020757654385054499</v>
       </c>
       <c r="I121" s="5">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="J121" s="5">
-        <v>0.66833751044277356</v>
+        <v>0.41771094402673348</v>
       </c>
       <c r="K121" s="5"/>
     </row>
@@ -8527,17 +8527,17 @@
         <v>980</v>
       </c>
       <c r="F122" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>0.025307101678873099</v>
+        <v>0.015184261007323899</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>0.51020408163265307</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -8558,17 +8558,17 @@
         <v>3619</v>
       </c>
       <c r="F123" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
-        <v>0.011040147496370599</v>
+        <v>0.0138001843704632</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
       </c>
       <c r="J123" s="5">
-        <v>0.22105554020447638</v>
+        <v>0.27631942525559544</v>
       </c>
       <c r="K123" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>455</v>
+        <v>585</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>1.0033562818924</v>
+        <v>1.29002950529022</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>101.5625</v>
+        <v>130.58035714285714</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8620,17 +8620,17 @@
         <v>8820</v>
       </c>
       <c r="F125" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>0.0152303076352917</v>
+        <v>0.0146662221673179</v>
       </c>
       <c r="I125" s="5">
-        <v>22.2222222222222</v>
+        <v>19.230769230769202</v>
       </c>
       <c r="J125" s="5">
-        <v>0.30612244897959184</v>
+        <v>0.29478458049886624</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.035760335038177202</v>
+        <v>0.028126106209802298</v>
       </c>
       <c r="I129" s="5">
-        <v>2.2471910112359601</v>
+        <v>2.8571428571428599</v>
       </c>
       <c r="J129" s="5">
-        <v>0.71751048049016442</v>
+        <v>0.56433408577878108</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.108725387728762</v>
+        <v>0.101710846584971</v>
       </c>
       <c r="I130" s="5">
-        <v>16.129032258064498</v>
+        <v>17.241379310344801</v>
       </c>
       <c r="J130" s="5">
-        <v>2.1815622800844476</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8868,17 +8868,17 @@
         <v>6391</v>
       </c>
       <c r="F133" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5">
-        <v>0.0241596343945907</v>
+        <v>0.0249389774395775</v>
       </c>
       <c r="I133" s="5">
-        <v>9.67741935483871</v>
+        <v>9.375</v>
       </c>
       <c r="J133" s="5">
-        <v>0.48505711156313569</v>
+        <v>0.50070411516194646</v>
       </c>
       <c r="K133" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.016540864205018501</v>
+        <v>0.015438139924683901</v>
       </c>
       <c r="I138" s="5">
-        <v>6.6666666666666696</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J138" s="5">
-        <v>0.33274179236912155</v>
+        <v>0.3105590062111801</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9054,17 +9054,17 @@
         <v>2114</v>
       </c>
       <c r="F139" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>0.0164986553595882</v>
+        <v>0.0094278030626218194</v>
       </c>
       <c r="I139" s="5">
         <v>0</v>
       </c>
       <c r="J139" s="5">
-        <v>0.33112582781456956</v>
+        <v>0.1892147587511826</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.0218299547280324</v>
+        <v>0.020150727441260601</v>
       </c>
       <c r="I140" s="5">
-        <v>13.461538461538501</v>
+        <v>10.4166666666667</v>
       </c>
       <c r="J140" s="5">
-        <v>0.43878153742300224</v>
+        <v>0.40502911146738668</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9147,17 +9147,17 @@
         <v>2205</v>
       </c>
       <c r="F142" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
-        <v>0.0044589608391764303</v>
+        <v>0.0089179216783528605</v>
       </c>
       <c r="I142" s="5">
         <v>0</v>
       </c>
       <c r="J142" s="5">
-        <v>0.090702947845804988</v>
+        <v>0.18140589569160998</v>
       </c>
       <c r="K142" s="5"/>
     </row>
@@ -9240,17 +9240,17 @@
         <v>1169</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5">
-        <v>0</v>
+        <v>0.0084473728670383507</v>
       </c>
       <c r="I145" s="5">
         <v>0</v>
       </c>
       <c r="J145" s="5">
-        <v>0</v>
+        <v>0.085543199315654406</v>
       </c>
       <c r="K145" s="5"/>
     </row>
@@ -9302,17 +9302,17 @@
         <v>7966</v>
       </c>
       <c r="F147" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>0.021278366722637099</v>
+        <v>0.020026698091893801</v>
       </c>
       <c r="I147" s="5">
-        <v>8.8235294117647101</v>
+        <v>6.25</v>
       </c>
       <c r="J147" s="5">
-        <v>0.42681395932714034</v>
+        <v>0.40170725583730854</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -9364,17 +9364,17 @@
         <v>4914</v>
       </c>
       <c r="F149" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5">
-        <v>0.0050596174726806002</v>
+        <v>0.0070834644617528298</v>
       </c>
       <c r="I149" s="5">
         <v>0</v>
       </c>
       <c r="J149" s="5">
-        <v>0.10175010175010174</v>
+        <v>0.14245014245014245</v>
       </c>
       <c r="K149" s="5"/>
     </row>
@@ -9457,17 +9457,17 @@
         <v>476</v>
       </c>
       <c r="F152" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="5">
-        <v>0.0209093475238105</v>
+        <v>0.0104546737619053</v>
       </c>
       <c r="I152" s="5">
         <v>0</v>
       </c>
       <c r="J152" s="5">
-        <v>0.42016806722689076</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K152" s="5"/>
     </row>
@@ -9519,17 +9519,17 @@
         <v>952</v>
       </c>
       <c r="F154" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5">
-        <v>0.031430397384990899</v>
+        <v>0.026191997820825801</v>
       </c>
       <c r="I154" s="5">
-        <v>16.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="J154" s="5">
-        <v>0.63025210084033612</v>
+        <v>0.52521008403361347</v>
       </c>
       <c r="K154" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.034839711833095699</v>
+        <v>0.035689460902195602</v>
       </c>
       <c r="I164" s="5">
-        <v>17.0731707317073</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J164" s="5">
-        <v>0.69727891156462585</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9860,17 +9860,17 @@
         <v>182</v>
       </c>
       <c r="F165" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5">
-        <v>0.021961369950257499</v>
+        <v>0.016471027462693098</v>
       </c>
       <c r="I165" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J165" s="5">
-        <v>2.197802197802198</v>
+        <v>1.6483516483516485</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -9891,17 +9891,17 @@
         <v>1379</v>
       </c>
       <c r="F166" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5">
-        <v>0.0071291589731159403</v>
+        <v>0.0035645794865579701</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>0.14503263234227701</v>
+        <v>0.072516316171138503</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.0161512076056037</v>
+        <v>0.020189009507004599</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.33030553261767132</v>
+        <v>0.41288191577208916</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.18631952721035</v>
+        <v>0.19555851203069799</v>
       </c>
       <c r="I174" s="5">
-        <v>9.9173553719008307</v>
+        <v>7.8740157480314998</v>
       </c>
       <c r="J174" s="5">
-        <v>18.788819875776397</v>
+        <v>19.720496894409941</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.044461596740431403</v>
+        <v>0.048018524479665897</v>
       </c>
       <c r="I176" s="5">
-        <v>0</v>
+        <v>1.8518518518518501</v>
       </c>
       <c r="J176" s="5">
-        <v>0.90301607368611159</v>
+        <v>0.97525735958100057</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.108414294847668</v>
+        <v>0.10495426416104101</v>
       </c>
       <c r="I177" s="5">
-        <v>21.985815602836901</v>
+        <v>22.710622710622701</v>
       </c>
       <c r="J177" s="5">
-        <v>1.0893919493162327</v>
+        <v>1.0546241211465657</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10263,17 +10263,17 @@
         <v>945</v>
       </c>
       <c r="F178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5">
-        <v>0.0052592826338487397</v>
+        <v>0.0105185652676975</v>
       </c>
       <c r="I178" s="5">
         <v>0</v>
       </c>
       <c r="J178" s="5">
-        <v>0.10582010582010583</v>
+        <v>0.21164021164021166</v>
       </c>
       <c r="K178" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.0455301154119441</v>
+        <v>0.042770714477886898</v>
       </c>
       <c r="I180" s="5">
-        <v>15.1515151515152</v>
+        <v>19.354838709677399</v>
       </c>
       <c r="J180" s="5">
-        <v>0.91717620900500285</v>
+        <v>0.86158977209560872</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.022717503657219199</v>
+        <v>0.021521845569997099</v>
       </c>
       <c r="I181" s="5">
-        <v>15.789473684210501</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J181" s="5">
-        <v>0.4728720756595321</v>
+        <v>0.44798407167745147</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10387,17 +10387,17 @@
         <v>2128</v>
       </c>
       <c r="F182" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5">
-        <v>0.037294646353516002</v>
+        <v>0.032632815559326497</v>
       </c>
       <c r="I182" s="5">
-        <v>25</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J182" s="5">
-        <v>0.37593984962406013</v>
+        <v>0.3289473684210526</v>
       </c>
       <c r="K182" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.13242160010694601</v>
+        <v>0.12895341534224</v>
       </c>
       <c r="I184" s="5">
-        <v>17.1428571428571</v>
+        <v>15.8924205378973</v>
       </c>
       <c r="J184" s="5">
-        <v>2.6978417266187051</v>
+        <v>2.6271839671120247</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10542,17 +10542,17 @@
         <v>1435</v>
       </c>
       <c r="F187" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5">
-        <v>0.017248873648550701</v>
+        <v>0.0137990989188406</v>
       </c>
       <c r="I187" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J187" s="5">
-        <v>0.34843205574912894</v>
+        <v>0.27874564459930312</v>
       </c>
       <c r="K187" s="5"/>
     </row>
@@ -10573,17 +10573,17 @@
         <v>1134</v>
       </c>
       <c r="F188" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5">
-        <v>0.0130904330751609</v>
+        <v>0.0174539107668812</v>
       </c>
       <c r="I188" s="5">
-        <v>66.6666666666667</v>
+        <v>75</v>
       </c>
       <c r="J188" s="5">
-        <v>0.26455026455026454</v>
+        <v>0.35273368606701938</v>
       </c>
       <c r="K188" s="5"/>
     </row>
@@ -10604,17 +10604,17 @@
         <v>721</v>
       </c>
       <c r="F189" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5">
-        <v>0.096165074218830499</v>
+        <v>0.054951470982188902</v>
       </c>
       <c r="I189" s="5">
-        <v>7.1428571428571397</v>
+        <v>12.5</v>
       </c>
       <c r="J189" s="5">
-        <v>1.9417475728155338</v>
+        <v>1.1095700416088765</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.17494549604152501</v>
+        <v>0.17583354424478201</v>
       </c>
       <c r="I190" s="5">
-        <v>17.7664974619289</v>
+        <v>17.6767676767677</v>
       </c>
       <c r="J190" s="5">
-        <v>3.5266738274257072</v>
+        <v>3.5445757250268528</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.122208037360743</v>
+        <v>0.120025750979301</v>
       </c>
       <c r="I193" s="5">
-        <v>10.714285714285699</v>
+        <v>12.7272727272727</v>
       </c>
       <c r="J193" s="5">
-        <v>2.4691358024691357</v>
+        <v>2.4250440917107583</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.045659047584880999</v>
+        <v>0.042397687043103802</v>
       </c>
       <c r="I194" s="5">
-        <v>25</v>
+        <v>23.076923076923102</v>
       </c>
       <c r="J194" s="5">
-        <v>0.45871559633027525</v>
+        <v>0.42595019659239847</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.0310320001986048</v>
+        <v>0.034135200218465299</v>
       </c>
       <c r="I195" s="5">
         <v>0</v>
       </c>
       <c r="J195" s="5">
-        <v>0.62383031815346235</v>
+        <v>0.68621334996880845</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.105022382293034</v>
+        <v>0.093460285159855605</v>
       </c>
       <c r="I196" s="5">
-        <v>9.1743119266054993</v>
+        <v>9.2783505154639201</v>
       </c>
       <c r="J196" s="5">
-        <v>2.1418746315582626</v>
+        <v>1.9060719198270779</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.20605277160021501</v>
+        <v>0.20033966333033801</v>
       </c>
       <c r="I197" s="5">
-        <v>18.669131238447299</v>
+        <v>18.441064638783299</v>
       </c>
       <c r="J197" s="5">
-        <v>2.11567791638966</v>
+        <v>2.0570177153807045</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.0044612982377872003</v>
+        <v>0.0089225964755743903</v>
       </c>
       <c r="I199" s="5">
         <v>0</v>
       </c>
       <c r="J199" s="5">
-        <v>0.090415913200723327</v>
+        <v>0.18083182640144665</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>1174</v>
+        <v>1130</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.437221313310037</v>
+        <v>0.42083482456587901</v>
       </c>
       <c r="I201" s="5">
-        <v>13.96933560477</v>
+        <v>14.070796460177</v>
       </c>
       <c r="J201" s="5">
-        <v>4.4100522144171892</v>
+        <v>4.2447691671988279</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11014,7 +11014,7 @@
         <v>0.48877351744167002</v>
       </c>
       <c r="I202" s="5">
-        <v>17.673378076062601</v>
+        <v>16.107382550335601</v>
       </c>
       <c r="J202" s="5">
         <v>4.8932676518883413</v>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1331</v>
+        <v>1290</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.57280768724269904</v>
+        <v>0.55516297260937797</v>
       </c>
       <c r="I203" s="5">
-        <v>15.4019534184823</v>
+        <v>14.9612403100775</v>
       </c>
       <c r="J203" s="5">
-        <v>5.7636513229117048</v>
+        <v>5.5861083445199844</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11076,7 +11076,7 @@
         <v>0.29634289911110601</v>
       </c>
       <c r="I204" s="5">
-        <v>15.375854214123001</v>
+        <v>13.781321184510301</v>
       </c>
       <c r="J204" s="5">
         <v>2.9764729812190658</v>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.447786196587805</v>
+        <v>0.4391955741113</v>
       </c>
       <c r="I205" s="5">
-        <v>13.3093525179856</v>
+        <v>13.2029339853301</v>
       </c>
       <c r="J205" s="5">
-        <v>4.5078644397600129</v>
+        <v>4.4213826279660555</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.036126396408379398</v>
+        <v>0.031200069625418499</v>
       </c>
       <c r="I206" s="5">
         <v>0</v>
       </c>
       <c r="J206" s="5">
-        <v>0.72583305839656875</v>
+        <v>0.62685582316067312</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11193,17 +11193,17 @@
         <v>1463</v>
       </c>
       <c r="F208" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="5">
-        <v>0.037347385004006403</v>
+        <v>0.0475330354596444</v>
       </c>
       <c r="I208" s="5">
-        <v>9.0909090909090899</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J208" s="5">
-        <v>0.75187969924812026</v>
+        <v>0.9569377990430622</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.035323207347227097</v>
+        <v>0.041556714526149598</v>
       </c>
       <c r="I211" s="5">
-        <v>35.294117647058798</v>
+        <v>35</v>
       </c>
       <c r="J211" s="5">
-        <v>0.72278911564625847</v>
+        <v>0.85034013605442182</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.0839644662378881</v>
+        <v>0.078366835155362205</v>
       </c>
       <c r="I215" s="5">
-        <v>13.3333333333333</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J215" s="5">
-        <v>1.6872890888638921</v>
+        <v>1.5748031496062991</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.047847703278763899</v>
+        <v>0.041551952847347598</v>
       </c>
       <c r="I217" s="5">
-        <v>3.9473684210526301</v>
+        <v>4.5454545454545503</v>
       </c>
       <c r="J217" s="5">
-        <v>0.9667981172878769</v>
+        <v>0.83958783869736675</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11510,7 +11510,7 @@
         <v>0.061913370811560502</v>
       </c>
       <c r="I218" s="5">
-        <v>12.7272727272727</v>
+        <v>14.545454545454501</v>
       </c>
       <c r="J218" s="5">
         <v>1.2432188065099457</v>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.039128043068467198</v>
+        <v>0.0460329918452555</v>
       </c>
       <c r="I219" s="5">
-        <v>35.294117647058798</v>
+        <v>30</v>
       </c>
       <c r="J219" s="5">
-        <v>0.78341013824884798</v>
+        <v>0.92165898617511521</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11565,17 +11565,17 @@
         <v>2639</v>
       </c>
       <c r="F220" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="5">
-        <v>0.012997888771495301</v>
+        <v>0.0167115712776368</v>
       </c>
       <c r="I220" s="5">
         <v>0</v>
       </c>
       <c r="J220" s="5">
-        <v>0.2652519893899204</v>
+        <v>0.34103827207275483</v>
       </c>
       <c r="K220" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.062693384568471205</v>
+        <v>0.060134470912615201</v>
       </c>
       <c r="I221" s="5">
-        <v>17.687074829932001</v>
+        <v>17.021276595744698</v>
       </c>
       <c r="J221" s="5">
-        <v>1.2612612612612613</v>
+        <v>1.2097812097812097</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11627,17 +11627,17 @@
         <v>175</v>
       </c>
       <c r="F222" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="5">
-        <v>0.056695449056304303</v>
+        <v>0.051025904150673797</v>
       </c>
       <c r="I222" s="5">
-        <v>10</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J222" s="5">
-        <v>5.7142857142857144</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="K222" s="5"/>
     </row>
@@ -11658,17 +11658,17 @@
         <v>658</v>
       </c>
       <c r="F223" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="5">
-        <v>0.112914395832706</v>
+        <v>0.105386769443859</v>
       </c>
       <c r="I223" s="5">
-        <v>6.6666666666666696</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J223" s="5">
-        <v>2.2796352583586628</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="K223" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.024750122760608902</v>
+        <v>0.021780108029335801</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
       </c>
       <c r="J224" s="5">
-        <v>0.5016051364365971</v>
+        <v>0.44141252006420545</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11751,17 +11751,17 @@
         <v>1169</v>
       </c>
       <c r="F226" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="5">
-        <v>0.0084523351688987908</v>
+        <v>0.012678502753348199</v>
       </c>
       <c r="I226" s="5">
         <v>0</v>
       </c>
       <c r="J226" s="5">
-        <v>0.17108639863130881</v>
+        <v>0.25662959794696322</v>
       </c>
       <c r="K226" s="5"/>
     </row>
@@ -11782,17 +11782,17 @@
         <v>714</v>
       </c>
       <c r="F227" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="5">
-        <v>0.041752200688911299</v>
+        <v>0.027834800459274198</v>
       </c>
       <c r="I227" s="5">
         <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.56022408963585435</v>
       </c>
       <c r="K227" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.20297001700289799</v>
+        <v>0.222934280970396</v>
       </c>
       <c r="I228" s="5">
-        <v>6.5573770491803298</v>
+        <v>4.4776119402985097</v>
       </c>
       <c r="J228" s="5">
-        <v>4.1299932295192958</v>
+        <v>4.5362220717670949</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.060204456606501998</v>
+        <v>0.070427854898172104</v>
       </c>
       <c r="I229" s="5">
-        <v>3.7735849056603801</v>
+        <v>4.0322580645161299</v>
       </c>
       <c r="J229" s="5">
-        <v>6.1059907834101379</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11875,17 +11875,17 @@
         <v>952</v>
       </c>
       <c r="F230" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="5">
-        <v>0.0154651930056087</v>
+        <v>0.0103101286704058</v>
       </c>
       <c r="I230" s="5">
         <v>0</v>
       </c>
       <c r="J230" s="5">
-        <v>0.31512605042016806</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K230" s="5"/>
     </row>
@@ -11906,17 +11906,17 @@
         <v>2023</v>
       </c>
       <c r="F231" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="5">
-        <v>0.085347327043641702</v>
+        <v>0.080470336926862202</v>
       </c>
       <c r="I231" s="5">
-        <v>45.714285714285701</v>
+        <v>42.424242424242401</v>
       </c>
       <c r="J231" s="5">
-        <v>1.7301038062283738</v>
+        <v>1.6312407315867523</v>
       </c>
       <c r="K231" s="5"/>
     </row>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.0777646549922478</v>
+        <v>0.082624945929263297</v>
       </c>
       <c r="I235" s="5">
         <v>0</v>
       </c>
       <c r="J235" s="5">
-        <v>7.8817733990147785</v>
+        <v>8.3743842364532011</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.104315228938547</v>
+        <v>0.089293835971395896</v>
       </c>
       <c r="I238" s="5">
-        <v>4</v>
+        <v>5.6074766355140202</v>
       </c>
       <c r="J238" s="5">
-        <v>2.1208008143875126</v>
+        <v>1.815405497115711</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12185,17 +12185,17 @@
         <v>3332</v>
       </c>
       <c r="F240" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="5">
-        <v>0.041509338860005303</v>
+        <v>0.040026862472147998</v>
       </c>
       <c r="I240" s="5">
-        <v>17.8571428571429</v>
+        <v>18.518518518518501</v>
       </c>
       <c r="J240" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.81032412965186074</v>
       </c>
       <c r="K240" s="5"/>
     </row>
@@ -12216,17 +12216,17 @@
         <v>196</v>
       </c>
       <c r="F241" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="5">
-        <v>0.035090533576627697</v>
+        <v>0.040103466944717399</v>
       </c>
       <c r="I241" s="5">
         <v>0</v>
       </c>
       <c r="J241" s="5">
-        <v>3.5714285714285712</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="K241" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>0.934605907842193</v>
+        <v>1.0478914724291299</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>18.857142857142858</v>
+        <v>21.142857142857142</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12309,17 +12309,17 @@
         <v>1001</v>
       </c>
       <c r="F244" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="5">
-        <v>0.0049390033091322198</v>
+        <v>0</v>
       </c>
       <c r="I244" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J244" s="5">
-        <v>0.099900099900099903</v>
+        <v>0</v>
       </c>
       <c r="K244" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.035490954386109497</v>
+        <v>0.038925562875087902</v>
       </c>
       <c r="I245" s="5">
-        <v>3.2258064516128999</v>
+        <v>2.9411764705882399</v>
       </c>
       <c r="J245" s="5">
-        <v>3.5714285714285712</v>
+        <v>3.9170506912442393</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.049689155106528299</v>
+        <v>0.047596980154674499</v>
       </c>
       <c r="I247" s="5">
-        <v>13.6842105263158</v>
+        <v>12.0879120879121</v>
       </c>
       <c r="J247" s="5">
-        <v>5.0451407328730751</v>
+        <v>4.8327137546468402</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.068629186895119501</v>
+        <v>0.0617662682056076</v>
       </c>
       <c r="I248" s="5">
-        <v>12</v>
+        <v>15.5555555555556</v>
       </c>
       <c r="J248" s="5">
-        <v>1.3923698134224449</v>
+        <v>1.2531328320802004</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12464,17 +12464,17 @@
         <v>91</v>
       </c>
       <c r="F249" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="5">
-        <v>0.034209085933223901</v>
+        <v>0.022806057288815899</v>
       </c>
       <c r="I249" s="5">
         <v>0</v>
       </c>
       <c r="J249" s="5">
-        <v>3.296703296703297</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="K249" s="5"/>
     </row>
@@ -12619,17 +12619,17 @@
         <v>1659</v>
       </c>
       <c r="F254" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="5">
-        <v>0.036000900022500601</v>
+        <v>0.057001425035625899</v>
       </c>
       <c r="I254" s="5">
-        <v>16.6666666666667</v>
+        <v>21.052631578947398</v>
       </c>
       <c r="J254" s="5">
-        <v>0.72332730560578662</v>
+        <v>1.1452682338758287</v>
       </c>
       <c r="K254" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.257420152933449</v>
+        <v>0.26491121558495201</v>
       </c>
       <c r="I256" s="5">
-        <v>15.7407407407407</v>
+        <v>16.195372750642701</v>
       </c>
       <c r="J256" s="5">
-        <v>5.1649928263988523</v>
+        <v>5.3152968504474964</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.071083992461254394</v>
+        <v>0.059556858548618599</v>
       </c>
       <c r="I257" s="5">
-        <v>18.918918918918902</v>
+        <v>22.580645161290299</v>
       </c>
       <c r="J257" s="5">
-        <v>1.4247208317289179</v>
+        <v>1.1936850211782826</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.22760275902280799</v>
+        <v>0.21481608716759401</v>
       </c>
       <c r="I258" s="5">
-        <v>14.9812734082397</v>
+        <v>15.2777777777778</v>
       </c>
       <c r="J258" s="5">
-        <v>2.3116883116883113</v>
+        <v>2.1818181818181821</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.29898240977611701</v>
+        <v>0.28903475104049697</v>
       </c>
       <c r="I259" s="5">
-        <v>20.887245841035099</v>
+        <v>21.606118546845099</v>
       </c>
       <c r="J259" s="5">
-        <v>3.0451424068445343</v>
+        <v>2.9438252842508161</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12874,7 +12874,7 @@
         <v>0.25037464146719501</v>
       </c>
       <c r="I262" s="5">
-        <v>22.0588235294118</v>
+        <v>23.529411764705898</v>
       </c>
       <c r="J262" s="5">
         <v>25.563909774436087</v>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.0159629659190678</v>
+        <v>0.020316502078813501</v>
       </c>
       <c r="I263" s="5">
-        <v>36.363636363636402</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J263" s="5">
-        <v>0.32069970845481049</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.19317944834096201</v>
+        <v>0.21952210038745701</v>
       </c>
       <c r="I270" s="5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="J270" s="5">
-        <v>3.9163328882955053</v>
+        <v>4.4503782821539826</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13146,17 +13146,17 @@
         <v>1757</v>
       </c>
       <c r="F271" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="5">
-        <v>0.0084348324842268597</v>
+        <v>0.0056232216561512404</v>
       </c>
       <c r="I271" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J271" s="5">
-        <v>0.17074558907228229</v>
+        <v>0.11383039271485487</v>
       </c>
       <c r="K271" s="5"/>
     </row>
@@ -13177,17 +13177,17 @@
         <v>1589</v>
       </c>
       <c r="F272" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="5">
-        <v>0.0185661372223202</v>
+        <v>0.0154717810186002</v>
       </c>
       <c r="I272" s="5">
-        <v>33.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="J272" s="5">
-        <v>0.37759597230962871</v>
+        <v>0.31466331025802391</v>
       </c>
       <c r="K272" s="5"/>
     </row>
@@ -13208,17 +13208,17 @@
         <v>2317</v>
       </c>
       <c r="F273" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="5">
-        <v>0.0128082245879487</v>
+        <v>0.0149429286859402</v>
       </c>
       <c r="I273" s="5">
-        <v>0</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J273" s="5">
-        <v>0.2589555459646094</v>
+        <v>0.30211480362537763</v>
       </c>
       <c r="K273" s="5"/>
     </row>
@@ -13239,17 +13239,17 @@
         <v>1617</v>
       </c>
       <c r="F274" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="5">
-        <v>0.0092678978554084392</v>
+        <v>0.012357197140544601</v>
       </c>
       <c r="I274" s="5">
         <v>0</v>
       </c>
       <c r="J274" s="5">
-        <v>0.1855287569573284</v>
+        <v>0.24737167594310452</v>
       </c>
       <c r="K274" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.0049950382619930898</v>
+        <v>0.00333002550799539</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.10107816711590296</v>
+        <v>0.067385444743935319</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.0242512963420226</v>
+        <v>0.026455959645842901</v>
       </c>
       <c r="I277" s="5">
-        <v>54.545454545454497</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="J277" s="5">
-        <v>0.49107142857142855</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.0180813679639747</v>
+        <v>0.016273231167577201</v>
       </c>
       <c r="I278" s="5">
-        <v>30</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J278" s="5">
-        <v>0.36350418029807341</v>
+        <v>0.32715376226826609</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13456,17 +13456,17 @@
         <v>791</v>
       </c>
       <c r="F281" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="5">
-        <v>0.032390358636017101</v>
+        <v>0.037373490733865901</v>
       </c>
       <c r="I281" s="5">
-        <v>3.8461538461538498</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="J281" s="5">
-        <v>3.2869785082174459</v>
+        <v>3.7926675094816691</v>
       </c>
       <c r="K281" s="5"/>
     </row>
@@ -13518,17 +13518,17 @@
         <v>2632</v>
       </c>
       <c r="F283" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="5">
-        <v>0.0056084201080555604</v>
+        <v>0.0093473668467592697</v>
       </c>
       <c r="I283" s="5">
         <v>0</v>
       </c>
       <c r="J283" s="5">
-        <v>0.11398176291793312</v>
+        <v>0.1899696048632219</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -13580,17 +13580,17 @@
         <v>1869</v>
       </c>
       <c r="F285" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="5">
-        <v>0.013274395019446999</v>
+        <v>0.010619516015557599</v>
       </c>
       <c r="I285" s="5">
         <v>0</v>
       </c>
       <c r="J285" s="5">
-        <v>0.26752273943285176</v>
+        <v>0.21401819154628141</v>
       </c>
       <c r="K285" s="5"/>
     </row>
@@ -13611,17 +13611,17 @@
         <v>2100</v>
       </c>
       <c r="F286" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="5">
-        <v>0.0070892154128995404</v>
+        <v>0.0094522872171993802</v>
       </c>
       <c r="I286" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J286" s="5">
-        <v>0.14285714285714285</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.035603070475035997</v>
+        <v>0.033119135325614897</v>
       </c>
       <c r="I288" s="5">
-        <v>6.9767441860465098</v>
+        <v>7.5</v>
       </c>
       <c r="J288" s="5">
-        <v>0.71262843884653637</v>
+        <v>0.66291017567119659</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.015281086026783901</v>
+        <v>0.018146289656805901</v>
       </c>
       <c r="I290" s="5">
         <v>0</v>
       </c>
       <c r="J290" s="5">
-        <v>0.30804774740084712</v>
+        <v>0.36580670003850596</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.0090990292852257508</v>
+        <v>0.0106155341660967</v>
       </c>
       <c r="I291" s="5">
         <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>0.18315018315018314</v>
+        <v>0.21367521367521369</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.0157966433062189</v>
+        <v>0.0167258576183494</v>
       </c>
       <c r="I292" s="5">
         <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>0.3182924545965175</v>
+        <v>0.33701554016101853</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0046982325249241199</v>
+        <v>0.0056378790299089496</v>
       </c>
       <c r="I295" s="5">
         <v>0</v>
       </c>
       <c r="J295" s="5">
-        <v>0.094357425929420646</v>
+        <v>0.11322891111530478</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.015145789584088999</v>
+        <v>0.015903079063293499</v>
       </c>
       <c r="I297" s="5">
-        <v>15</v>
+        <v>9.5238095238095202</v>
       </c>
       <c r="J297" s="5">
-        <v>0.303951367781155</v>
+        <v>0.31914893617021273</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.031803243930880902</v>
+        <v>0.0291529736033075</v>
       </c>
       <c r="I302" s="5">
-        <v>4.1666666666666696</v>
+        <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>0.64690026954177904</v>
+        <v>0.59299191374663074</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14138,17 +14138,17 @@
         <v>4977</v>
       </c>
       <c r="F303" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="5">
-        <v>0.0039764435484191604</v>
+        <v>0.0049705544355239601</v>
       </c>
       <c r="I303" s="5">
         <v>0</v>
       </c>
       <c r="J303" s="5">
-        <v>0.080369700622865178</v>
+        <v>0.10046212577858146</v>
       </c>
       <c r="K303" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0114132233605856</v>
+        <v>0.0095110194671546508</v>
       </c>
       <c r="I306" s="5">
         <v>0</v>
       </c>
       <c r="J306" s="5">
-        <v>0.22857142857142859</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14262,17 +14262,17 @@
         <v>1862</v>
       </c>
       <c r="F307" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="5">
-        <v>0.0079819076759345495</v>
+        <v>0.0053212717839563701</v>
       </c>
       <c r="I307" s="5">
         <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>0.1611170784103115</v>
+        <v>0.10741138560687433</v>
       </c>
       <c r="K307" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.014547972667269</v>
+        <v>0.0101835808670883</v>
       </c>
       <c r="I310" s="5">
-        <v>10</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J310" s="5">
-        <v>0.29154518950437319</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.036333056041468102</v>
+        <v>0.034819178706407002</v>
       </c>
       <c r="I311" s="5">
-        <v>4.1666666666666696</v>
+        <v>4.3478260869565197</v>
       </c>
       <c r="J311" s="5">
-        <v>0.36571428571428571</v>
+        <v>0.35047619047619044</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.042772600679035197</v>
+        <v>0.039544479873070297</v>
       </c>
       <c r="I314" s="5">
-        <v>9.4339622641509404</v>
+        <v>10.2040816326531</v>
       </c>
       <c r="J314" s="5">
-        <v>0.85941300470244852</v>
+        <v>0.79455164585698068</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14579,7 +14579,7 @@
         <v>0.024025268576225001</v>
       </c>
       <c r="I317" s="5">
-        <v>6.25</v>
+        <v>10.9375</v>
       </c>
       <c r="J317" s="5">
         <v>0.48298241642140216</v>
@@ -14913,17 +14913,17 @@
         <v>1764</v>
       </c>
       <c r="F328" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="5">
-        <v>0.0056078487451036501</v>
+        <v>0.0084117731176554696</v>
       </c>
       <c r="I328" s="5">
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J328" s="5">
-        <v>0.11337868480725624</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="K328" s="5"/>
     </row>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.0134028494457922</v>
+        <v>0.016753561807240198</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.27341079972658922</v>
+        <v>0.34176349965823649</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -15068,17 +15068,17 @@
         <v>518</v>
       </c>
       <c r="F333" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="5">
-        <v>0.0095554791117226593</v>
+        <v>0</v>
       </c>
       <c r="I333" s="5">
         <v>0</v>
       </c>
       <c r="J333" s="5">
-        <v>0.19305019305019305</v>
+        <v>0</v>
       </c>
       <c r="K333" s="5"/>
     </row>
@@ -15099,17 +15099,17 @@
         <v>1799</v>
       </c>
       <c r="F334" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="5">
-        <v>0.011026999608541499</v>
+        <v>0.0082702497064061405</v>
       </c>
       <c r="I334" s="5">
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>0.22234574763757642</v>
+        <v>0.16675931072818231</v>
       </c>
       <c r="K334" s="5"/>
     </row>
@@ -15192,17 +15192,17 @@
         <v>1351</v>
       </c>
       <c r="F337" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="5">
-        <v>0.0036776198444366799</v>
+        <v>0.011032859533309999</v>
       </c>
       <c r="I337" s="5">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J337" s="5">
-        <v>0.074019245003700954</v>
+        <v>0.22205773501110287</v>
       </c>
       <c r="K337" s="5"/>
     </row>
@@ -15254,17 +15254,17 @@
         <v>1190</v>
       </c>
       <c r="F339" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="5">
-        <v>0.045693207497009197</v>
+        <v>0.041539279542735598</v>
       </c>
       <c r="I339" s="5">
-        <v>9.0909090909090899</v>
+        <v>10</v>
       </c>
       <c r="J339" s="5">
-        <v>0.92436974789915971</v>
+        <v>0.84033613445378152</v>
       </c>
       <c r="K339" s="5"/>
     </row>
@@ -15285,17 +15285,17 @@
         <v>1015</v>
       </c>
       <c r="F340" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="5">
-        <v>0.0196156316968993</v>
+        <v>0.0147117237726744</v>
       </c>
       <c r="I340" s="5">
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>0.39408866995073888</v>
+        <v>0.29556650246305421</v>
       </c>
       <c r="K340" s="5"/>
     </row>
@@ -15316,17 +15316,17 @@
         <v>1106</v>
       </c>
       <c r="F341" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="5">
-        <v>0.071299341372334096</v>
+        <v>0.062386923700792303</v>
       </c>
       <c r="I341" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J341" s="5">
-        <v>1.4466546112115732</v>
+        <v>1.2658227848101267</v>
       </c>
       <c r="K341" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.023010193515727501</v>
+        <v>0.017257645136795601</v>
       </c>
       <c r="I342" s="5">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="J342" s="5">
-        <v>0.23134759976865238</v>
+        <v>0.17351069982648931</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15440,17 +15440,17 @@
         <v>1022</v>
       </c>
       <c r="F345" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="5">
-        <v>0.0097290933944320403</v>
+        <v>0</v>
       </c>
       <c r="I345" s="5">
         <v>0</v>
       </c>
       <c r="J345" s="5">
-        <v>0.19569471624266144</v>
+        <v>0</v>
       </c>
       <c r="K345" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.021660305756876101</v>
+        <v>0.024259542447701201</v>
       </c>
       <c r="I346" s="5">
-        <v>12</v>
+        <v>10.714285714285699</v>
       </c>
       <c r="J346" s="5">
-        <v>0.43660495983234371</v>
+        <v>0.48899755501222492</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.0119038407742258</v>
+        <v>0.013391820871004</v>
       </c>
       <c r="I349" s="5">
         <v>0</v>
       </c>
       <c r="J349" s="5">
-        <v>0.24110910186859552</v>
+        <v>0.27124773960216997</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15719,17 +15719,17 @@
         <v>602</v>
       </c>
       <c r="F354" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="5">
-        <v>0</v>
+        <v>0.016450344634720102</v>
       </c>
       <c r="I354" s="5">
         <v>0</v>
       </c>
       <c r="J354" s="5">
-        <v>0</v>
+        <v>0.33222591362126247</v>
       </c>
       <c r="K354" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.0058475172172835098</v>
+        <v>0.0087712758259252607</v>
       </c>
       <c r="I355" s="5">
         <v>0</v>
       </c>
       <c r="J355" s="5">
-        <v>0.11855364552459988</v>
+        <v>0.17783046828689983</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15781,17 +15781,17 @@
         <v>2100</v>
       </c>
       <c r="F356" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="5">
-        <v>0.0070747041594543996</v>
+        <v>0.0047164694396362701</v>
       </c>
       <c r="I356" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J356" s="5">
-        <v>0.14285714285714285</v>
+        <v>0.095238095238095233</v>
       </c>
       <c r="K356" s="5"/>
     </row>
@@ -15905,17 +15905,17 @@
         <v>749</v>
       </c>
       <c r="F360" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G360" s="4"/>
       <c r="H360" s="5">
-        <v>0.026490417091617102</v>
+        <v>0.019867812818712801</v>
       </c>
       <c r="I360" s="5">
         <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>0.53404539385847793</v>
+        <v>0.40053404539385851</v>
       </c>
       <c r="K360" s="5"/>
     </row>
@@ -15936,17 +15936,17 @@
         <v>812</v>
       </c>
       <c r="F361" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="5">
-        <v>0</v>
+        <v>0.0121614554829922</v>
       </c>
       <c r="I361" s="5">
         <v>0</v>
       </c>
       <c r="J361" s="5">
-        <v>0</v>
+        <v>0.12315270935960591</v>
       </c>
       <c r="K361" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.017532991245192999</v>
+        <v>0.0233773216602574</v>
       </c>
       <c r="I363" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J363" s="5">
-        <v>0.35419126328217237</v>
+        <v>0.47225501770956313</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.034762902909091203</v>
+        <v>0.0319442891597055</v>
       </c>
       <c r="I364" s="5">
-        <v>2.7027027027027</v>
+        <v>2.9411764705882399</v>
       </c>
       <c r="J364" s="5">
-        <v>0.69640504423113114</v>
+        <v>0.63993977037455296</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.0178010906134849</v>
+        <v>0.018987829987717201</v>
       </c>
       <c r="I365" s="5">
-        <v>6.6666666666666696</v>
+        <v>6.25</v>
       </c>
       <c r="J365" s="5">
-        <v>0.3565486094604231</v>
+        <v>0.38031851675778461</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16215,17 +16215,17 @@
         <v>1057</v>
       </c>
       <c r="F370" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="5">
-        <v>0.037023667379372301</v>
+        <v>0.032395708956950701</v>
       </c>
       <c r="I370" s="5">
         <v>0</v>
       </c>
       <c r="J370" s="5">
-        <v>0.7568590350047304</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="K370" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.0089314821348028609</v>
+        <v>0.0066986116011021404</v>
       </c>
       <c r="I371" s="5">
         <v>0</v>
       </c>
       <c r="J371" s="5">
-        <v>0.18026137899954936</v>
+        <v>0.13519603424966201</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16277,17 +16277,17 @@
         <v>4312</v>
       </c>
       <c r="F372" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="5">
-        <v>0.00687311204203595</v>
+        <v>0.0080186307157086092</v>
       </c>
       <c r="I372" s="5">
         <v>0</v>
       </c>
       <c r="J372" s="5">
-        <v>0.13914656771799627</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.012539858837017699</v>
+        <v>0.014331267242305899</v>
       </c>
       <c r="I376" s="5">
         <v>0</v>
       </c>
       <c r="J376" s="5">
-        <v>0.12547051442910914</v>
+        <v>0.14339487363326761</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.021891045832553</v>
+        <v>0.0267557226842314</v>
       </c>
       <c r="I383" s="5">
         <v>0</v>
       </c>
       <c r="J383" s="5">
-        <v>0.43881033642125794</v>
+        <v>0.53632374451487075</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16804,17 +16804,17 @@
         <v>2387</v>
       </c>
       <c r="F389" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" s="4"/>
       <c r="H389" s="5">
-        <v>0.0020528274619046501</v>
+        <v>0</v>
       </c>
       <c r="I389" s="5">
         <v>0</v>
       </c>
       <c r="J389" s="5">
-        <v>0.041893590280687051</v>
+        <v>0</v>
       </c>
       <c r="K389" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.094578327316435701</v>
+        <v>0.093381133299772004</v>
       </c>
       <c r="I392" s="5">
-        <v>3.16455696202532</v>
+        <v>5.1282051282051304</v>
       </c>
       <c r="J392" s="5">
-        <v>1.9031558660563719</v>
+        <v>1.8790652854733798</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -17021,17 +17021,17 @@
         <v>9065</v>
       </c>
       <c r="F396" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G396" s="4"/>
       <c r="H396" s="5">
-        <v>0.0054914640682523098</v>
+        <v>0.0032948784409513798</v>
       </c>
       <c r="I396" s="5">
-        <v>80</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="J396" s="5">
-        <v>0.055157198014340873</v>
+        <v>0.033094318808604521</v>
       </c>
       <c r="K396" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.017803604873914899</v>
+        <v>0.016023244386523399</v>
       </c>
       <c r="I397" s="5">
-        <v>10</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J397" s="5">
-        <v>0.3710575139146568</v>
+        <v>0.33395176252319109</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.0030743949782832398</v>
+        <v>0.0023057962337124302</v>
       </c>
       <c r="I398" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J398" s="5">
-        <v>0.061510072274334929</v>
+        <v>0.046132554205751186</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17114,17 +17114,17 @@
         <v>798</v>
       </c>
       <c r="F399" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="5">
-        <v>0.11823641059149299</v>
+        <v>0.105790472634494</v>
       </c>
       <c r="I399" s="5">
-        <v>15.789473684210501</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J399" s="5">
-        <v>2.3809523809523809</v>
+        <v>2.1303258145363406</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -17176,17 +17176,17 @@
         <v>2289</v>
       </c>
       <c r="F401" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="5">
-        <v>0.0151833937053988</v>
+        <v>0.0173524499490272</v>
       </c>
       <c r="I401" s="5">
         <v>0</v>
       </c>
       <c r="J401" s="5">
-        <v>0.3058103975535168</v>
+        <v>0.34949759720401924</v>
       </c>
       <c r="K401" s="5"/>
     </row>
@@ -17238,17 +17238,17 @@
         <v>2380</v>
       </c>
       <c r="F403" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="5">
-        <v>0.0125222269528413</v>
+        <v>0.010435189127367701</v>
       </c>
       <c r="I403" s="5">
         <v>0</v>
       </c>
       <c r="J403" s="5">
-        <v>0.25210084033613445</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K403" s="5"/>
     </row>
@@ -17269,17 +17269,17 @@
         <v>2289</v>
       </c>
       <c r="F404" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G404" s="4"/>
       <c r="H404" s="5">
-        <v>0.0086305478240231298</v>
+        <v>0.00647291086801735</v>
       </c>
       <c r="I404" s="5">
         <v>0</v>
       </c>
       <c r="J404" s="5">
-        <v>0.17474879860200962</v>
+        <v>0.13106159895150721</v>
       </c>
       <c r="K404" s="5"/>
     </row>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.0227586952440017</v>
+        <v>0.019344890957401401</v>
       </c>
       <c r="I408" s="5">
-        <v>5</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J408" s="5">
-        <v>0.45568466621098197</v>
+        <v>0.38733196627933469</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17486,17 +17486,17 @@
         <v>5943</v>
       </c>
       <c r="F411" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="5">
-        <v>0.0058608892811033196</v>
+        <v>0.0050236193838028497</v>
       </c>
       <c r="I411" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J411" s="5">
-        <v>0.11778563015312131</v>
+        <v>0.10095911155981827</v>
       </c>
       <c r="K411" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.0155381482256471</v>
+        <v>0.011394642032141199</v>
       </c>
       <c r="I418" s="5">
-        <v>13.3333333333333</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J418" s="5">
-        <v>1.5641293013555788</v>
+        <v>1.1470281543274243</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.0092904239618614801</v>
+        <v>0.010617627384984601</v>
       </c>
       <c r="I423" s="5">
-        <v>14.285714285714301</v>
+        <v>12.5</v>
       </c>
       <c r="J423" s="5">
-        <v>0.1890359168241966</v>
+        <v>0.21604104779908181</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17889,17 +17889,17 @@
         <v>7476</v>
       </c>
       <c r="F424" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="5">
-        <v>0.010379002240567099</v>
+        <v>0.0090816269604962196</v>
       </c>
       <c r="I424" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J424" s="5">
-        <v>0.1070090957731407</v>
+        <v>0.093632958801498134</v>
       </c>
       <c r="K424" s="5"/>
     </row>
@@ -18044,17 +18044,17 @@
         <v>5054</v>
       </c>
       <c r="F429" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="5">
-        <v>0.0137043425145902</v>
+        <v>0.0117465792982202</v>
       </c>
       <c r="I429" s="5">
         <v>0</v>
       </c>
       <c r="J429" s="5">
-        <v>0.2770083102493075</v>
+        <v>0.23743569449940641</v>
       </c>
       <c r="K429" s="5"/>
     </row>
@@ -18230,17 +18230,17 @@
         <v>1085</v>
       </c>
       <c r="F435" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="5">
-        <v>0.0063867680763784497</v>
+        <v>0.0045619771974131796</v>
       </c>
       <c r="I435" s="5">
-        <v>14.285714285714301</v>
+        <v>20</v>
       </c>
       <c r="J435" s="5">
-        <v>0.64516129032258063</v>
+        <v>0.46082949308755761</v>
       </c>
       <c r="K435" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.036726561567489699</v>
+        <v>0.031479909914991097</v>
       </c>
       <c r="I438" s="5">
-        <v>12.5</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J438" s="5">
-        <v>0.73664825046040516</v>
+        <v>0.63141278610891871</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>3080</v>
       </c>
       <c r="F439" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="5">
-        <v>0.0064856100526955798</v>
+        <v>0.0048642075395216901</v>
       </c>
       <c r="I439" s="5">
         <v>0</v>
       </c>
       <c r="J439" s="5">
-        <v>0.12987012987012986</v>
+        <v>0.097402597402597407</v>
       </c>
       <c r="K439" s="5"/>
     </row>
@@ -18447,17 +18447,17 @@
         <v>1526</v>
       </c>
       <c r="F442" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G442" s="4"/>
       <c r="H442" s="5">
-        <v>0.0065196698439191</v>
+        <v>0</v>
       </c>
       <c r="I442" s="5">
         <v>0</v>
       </c>
       <c r="J442" s="5">
-        <v>0.13106159895150721</v>
+        <v>0</v>
       </c>
       <c r="K442" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.084130444882629704</v>
+        <v>0.082874766600799399</v>
       </c>
       <c r="I443" s="5">
-        <v>12.437810945273601</v>
+        <v>15.1515151515152</v>
       </c>
       <c r="J443" s="5">
-        <v>1.7071513504331577</v>
+        <v>1.6816714795311705</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.18446667609496301</v>
+        <v>0.20291334370445999</v>
       </c>
       <c r="I446" s="5">
-        <v>13.3333333333333</v>
+        <v>13.636363636363599</v>
       </c>
       <c r="J446" s="5">
-        <v>18.633540372670808</v>
+        <v>20.496894409937887</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.010223752503399399</v>
+        <v>0.0079518075026439802</v>
       </c>
       <c r="I447" s="5">
-        <v>11.1111111111111</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J447" s="5">
-        <v>0.20505809979494191</v>
+        <v>0.15948963317384371</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18757,17 +18757,17 @@
         <v>3458</v>
       </c>
       <c r="F452" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="5">
-        <v>0.0100755087412235</v>
+        <v>0.0129542255244302</v>
       </c>
       <c r="I452" s="5">
         <v>0</v>
       </c>
       <c r="J452" s="5">
-        <v>0.20242914979757085</v>
+        <v>0.26026604973973394</v>
       </c>
       <c r="K452" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.10766241066903701</v>
+        <v>0.100741255697456</v>
       </c>
       <c r="I453" s="5">
-        <v>24.285714285714299</v>
+        <v>20.610687022900802</v>
       </c>
       <c r="J453" s="5">
-        <v>2.1834061135371177</v>
+        <v>2.0430442919525889</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18912,17 +18912,17 @@
         <v>483</v>
       </c>
       <c r="F457" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G457" s="4"/>
       <c r="H457" s="5">
-        <v>0.040703768151336597</v>
+        <v>0.020351884075668299</v>
       </c>
       <c r="I457" s="5">
         <v>0</v>
       </c>
       <c r="J457" s="5">
-        <v>0.82815734989648038</v>
+        <v>0.41407867494824019</v>
       </c>
       <c r="K457" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.035913412761831201</v>
+        <v>0.037035706910638497</v>
       </c>
       <c r="I459" s="5">
-        <v>9.375</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J459" s="5">
-        <v>0.7187780772686434</v>
+        <v>0.74123989218328845</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.011858805318986299</v>
+        <v>0.013107100615721699</v>
       </c>
       <c r="I460" s="5">
-        <v>15.789473684210501</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J460" s="5">
-        <v>0.23830427693465445</v>
+        <v>0.26338893766461807</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19036,17 +19036,17 @@
         <v>12698</v>
       </c>
       <c r="F461" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="5">
-        <v>0.0152852282378523</v>
+        <v>0.014501370379500901</v>
       </c>
       <c r="I461" s="5">
-        <v>5.1282051282051304</v>
+        <v>10.8108108108108</v>
       </c>
       <c r="J461" s="5">
-        <v>0.30713498188691135</v>
+        <v>0.29138446999527484</v>
       </c>
       <c r="K461" s="5"/>
     </row>
@@ -19098,17 +19098,17 @@
         <v>4522</v>
       </c>
       <c r="F463" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="5">
-        <v>0.023105614664363401</v>
+        <v>0.022005347299393799</v>
       </c>
       <c r="I463" s="5">
-        <v>9.5238095238095202</v>
+        <v>10</v>
       </c>
       <c r="J463" s="5">
-        <v>0.46439628482972134</v>
+        <v>0.44228217602830611</v>
       </c>
       <c r="K463" s="5"/>
     </row>
@@ -19160,17 +19160,17 @@
         <v>1820</v>
       </c>
       <c r="F465" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G465" s="4"/>
       <c r="H465" s="5">
-        <v>0.010796075626509799</v>
+        <v>0.0080970567198823205</v>
       </c>
       <c r="I465" s="5">
         <v>0</v>
       </c>
       <c r="J465" s="5">
-        <v>0.21978021978021978</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="K465" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.034982591016470603</v>
+        <v>0.032924791544913498</v>
       </c>
       <c r="I468" s="5">
         <v>0</v>
       </c>
       <c r="J468" s="5">
-        <v>0.70598006644518274</v>
+        <v>0.66445182724252494</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.0125834070161722</v>
+        <v>0.0109056194140159</v>
       </c>
       <c r="I470" s="5">
-        <v>6.6666666666666696</v>
+        <v>0</v>
       </c>
       <c r="J470" s="5">
-        <v>0.25299375948726599</v>
+        <v>0.21926125822229717</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19346,17 +19346,17 @@
         <v>5502</v>
       </c>
       <c r="F471" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="5">
-        <v>0.021759273530387702</v>
+        <v>0.017226091544890298</v>
       </c>
       <c r="I471" s="5">
-        <v>4.1666666666666696</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J471" s="5">
-        <v>0.43620501635768816</v>
+        <v>0.34532897128316975</v>
       </c>
       <c r="K471" s="5"/>
     </row>
@@ -19408,17 +19408,17 @@
         <v>1302</v>
       </c>
       <c r="F473" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G473" s="4"/>
       <c r="H473" s="5">
-        <v>0.026593723881163999</v>
+        <v>0.022794620469569201</v>
       </c>
       <c r="I473" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J473" s="5">
-        <v>0.53763440860215062</v>
+        <v>0.46082949308755761</v>
       </c>
       <c r="K473" s="5"/>
     </row>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.046035872905915799</v>
+        <v>0.039459319633642097</v>
       </c>
       <c r="I474" s="5">
-        <v>14.285714285714301</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J474" s="5">
-        <v>0.92592592592592582</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19470,17 +19470,17 @@
         <v>1505</v>
       </c>
       <c r="F475" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G475" s="4"/>
       <c r="H475" s="5">
-        <v>0.019859526946068101</v>
+        <v>0.0066198423153560502</v>
       </c>
       <c r="I475" s="5">
         <v>0</v>
       </c>
       <c r="J475" s="5">
-        <v>0.3986710963455149</v>
+        <v>0.13289036544850499</v>
       </c>
       <c r="K475" s="5"/>
     </row>
@@ -19501,17 +19501,17 @@
         <v>14</v>
       </c>
       <c r="F476" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G476" s="4"/>
       <c r="H476" s="5">
-        <v>0.060598715307235498</v>
+        <v>0</v>
       </c>
       <c r="I476" s="5">
         <v>0</v>
       </c>
       <c r="J476" s="5">
-        <v>7.1428571428571423</v>
+        <v>0</v>
       </c>
       <c r="K476" s="5"/>
     </row>
@@ -19594,17 +19594,17 @@
         <v>2037</v>
       </c>
       <c r="F479" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G479" s="4"/>
       <c r="H479" s="5">
-        <v>0.019036695610375999</v>
+        <v>0.016657108659079</v>
       </c>
       <c r="I479" s="5">
         <v>0</v>
       </c>
       <c r="J479" s="5">
-        <v>0.39273441335297005</v>
+        <v>0.3436426116838488</v>
       </c>
       <c r="K479" s="5"/>
     </row>
@@ -19625,17 +19625,17 @@
         <v>1750</v>
       </c>
       <c r="F480" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G480" s="4"/>
       <c r="H480" s="5">
-        <v>0.014268754851376599</v>
+        <v>0.0114150038811013</v>
       </c>
       <c r="I480" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J480" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="K480" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.16200864761721201</v>
+        <v>0.14753021685943399</v>
       </c>
       <c r="I482" s="5">
-        <v>6.6255778120184896</v>
+        <v>6.4297800338409496</v>
       </c>
       <c r="J482" s="5">
-        <v>3.3053221288515409</v>
+        <v>3.009931245225363</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19811,17 +19811,17 @@
         <v>1428</v>
       </c>
       <c r="F486" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G486" s="4"/>
       <c r="H486" s="5">
-        <v>0.0139455426559286</v>
+        <v>0.010459156991946401</v>
       </c>
       <c r="I486" s="5">
         <v>0</v>
       </c>
       <c r="J486" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K486" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.0072909325102680604</v>
+        <v>0.0145818650205361</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.14880952380952381</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19873,17 +19873,17 @@
         <v>1540</v>
       </c>
       <c r="F488" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G488" s="4"/>
       <c r="H488" s="5">
-        <v>0.0226139825484666</v>
+        <v>0.019383413612971401</v>
       </c>
       <c r="I488" s="5">
         <v>0</v>
       </c>
       <c r="J488" s="5">
-        <v>0.45454545454545453</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="K488" s="5"/>
     </row>
@@ -19935,17 +19935,17 @@
         <v>9058</v>
       </c>
       <c r="F490" s="4">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="5">
-        <v>0.037368550627791701</v>
+        <v>0.032972250553933803</v>
       </c>
       <c r="I490" s="5">
-        <v>10.294117647058799</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J490" s="5">
-        <v>0.7507175977036874</v>
+        <v>0.66239788032678293</v>
       </c>
       <c r="K490" s="5"/>
     </row>
@@ -19966,17 +19966,17 @@
         <v>1806</v>
       </c>
       <c r="F491" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="5">
-        <v>0.00274389072729568</v>
+        <v>0.0054877814545913504</v>
       </c>
       <c r="I491" s="5">
         <v>0</v>
       </c>
       <c r="J491" s="5">
-        <v>0.05537098560354374</v>
+        <v>0.11074197120708748</v>
       </c>
       <c r="K491" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0048668059500179004</v>
+        <v>0.0034762899642985</v>
       </c>
       <c r="I492" s="5">
-        <v>42.857142857142897</v>
+        <v>60</v>
       </c>
       <c r="J492" s="5">
-        <v>0.097370983446932818</v>
+        <v>0.069550702462094868</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20121,17 +20121,17 @@
         <v>2366</v>
       </c>
       <c r="F496" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G496" s="4"/>
       <c r="H496" s="5">
-        <v>0.0084227194434267003</v>
+        <v>0.00631703958257002</v>
       </c>
       <c r="I496" s="5">
         <v>0</v>
       </c>
       <c r="J496" s="5">
-        <v>0.16906170752324598</v>
+        <v>0.12679628064243448</v>
       </c>
       <c r="K496" s="5"/>
     </row>
@@ -20152,17 +20152,17 @@
         <v>1302</v>
       </c>
       <c r="F497" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="5">
-        <v>0.0038143626009375701</v>
+        <v>0.0076287252018751401</v>
       </c>
       <c r="I497" s="5">
         <v>0</v>
       </c>
       <c r="J497" s="5">
-        <v>0.076804915514592939</v>
+        <v>0.15360983102918588</v>
       </c>
       <c r="K497" s="5"/>
     </row>
@@ -20183,17 +20183,17 @@
         <v>1855</v>
       </c>
       <c r="F498" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G498" s="4"/>
       <c r="H498" s="5">
-        <v>0.037634206267708199</v>
+        <v>0.0322578910866071</v>
       </c>
       <c r="I498" s="5">
         <v>0</v>
       </c>
       <c r="J498" s="5">
-        <v>0.37735849056603776</v>
+        <v>0.32345013477088952</v>
       </c>
       <c r="K498" s="5"/>
     </row>
@@ -20245,17 +20245,17 @@
         <v>2408</v>
       </c>
       <c r="F500" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G500" s="4"/>
       <c r="H500" s="5">
-        <v>0.00412139995713744</v>
+        <v>0.0082427999142748801</v>
       </c>
       <c r="I500" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J500" s="5">
-        <v>0.041528239202657809</v>
+        <v>0.083056478405315617</v>
       </c>
       <c r="K500" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.021012199683136001</v>
+        <v>0.0243741516324378</v>
       </c>
       <c r="I504" s="5">
-        <v>4</v>
+        <v>3.4482758620689702</v>
       </c>
       <c r="J504" s="5">
-        <v>0.42165626581210991</v>
+        <v>0.48912126834204755</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.0123258265888939</v>
+        <v>0.0113776860820559</v>
       </c>
       <c r="I507" s="5">
         <v>0</v>
       </c>
       <c r="J507" s="5">
-        <v>0.24728932851436183</v>
+        <v>0.2282670724747955</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20493,17 +20493,17 @@
         <v>2037</v>
       </c>
       <c r="F508" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G508" s="4"/>
       <c r="H508" s="5">
-        <v>0</v>
+        <v>0.0024419129946400002</v>
       </c>
       <c r="I508" s="5">
         <v>0</v>
       </c>
       <c r="J508" s="5">
-        <v>0</v>
+        <v>0.049091801669121256</v>
       </c>
       <c r="K508" s="5"/>
     </row>
@@ -20524,17 +20524,17 @@
         <v>518</v>
       </c>
       <c r="F509" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G509" s="4"/>
       <c r="H509" s="5">
-        <v>0.0096459920902864892</v>
+        <v>0</v>
       </c>
       <c r="I509" s="5">
         <v>0</v>
       </c>
       <c r="J509" s="5">
-        <v>0.19305019305019305</v>
+        <v>0</v>
       </c>
       <c r="K509" s="5"/>
     </row>
@@ -20586,17 +20586,17 @@
         <v>4620</v>
       </c>
       <c r="F511" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G511" s="4"/>
       <c r="H511" s="5">
-        <v>0.0085833778596059798</v>
+        <v>0.0064375333947044901</v>
       </c>
       <c r="I511" s="5">
         <v>0</v>
       </c>
       <c r="J511" s="5">
-        <v>0.086580086580086577</v>
+        <v>0.064935064935064929</v>
       </c>
       <c r="K511" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.10828315793980001</v>
+        <v>0.109542264427472</v>
       </c>
       <c r="I513" s="5">
-        <v>2.32558139534884</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="J513" s="5">
-        <v>2.1706208985360931</v>
+        <v>2.1958606764260473</v>
       </c>
       <c r="K513" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>06/01/2024</t>
+    <t>07/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4807,17 +4807,17 @@
         <v>1078</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5">
-        <v>0.0145052267166936</v>
+        <v>0.0096701511444623901</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0.27829313543599254</v>
+        <v>0.1855287569573284</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -4900,17 +4900,17 @@
         <v>490</v>
       </c>
       <c r="F5" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
-        <v>0.070564516129032306</v>
+        <v>0.080645161290322606</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1.4285714285714286</v>
+        <v>1.6326530612244898</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -4993,17 +4993,17 @@
         <v>1519</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>0.0032358375480117398</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
+        <v>0.065832784726793936</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -5148,17 +5148,17 @@
         <v>2520</v>
       </c>
       <c r="F13" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>0.012515666933071601</v>
+        <v>0.0143036193520818</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0.27777777777777779</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.011060315587671401</v>
+        <v>0.0098313916334857206</v>
       </c>
       <c r="I15" s="5">
-        <v>22.2222222222222</v>
+        <v>25</v>
       </c>
       <c r="J15" s="5">
-        <v>0.1203852327447833</v>
+        <v>0.1070090957731407</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.24624173551175199</v>
+        <v>0.25855382228733897</v>
       </c>
       <c r="I17" s="5">
-        <v>9.28571428571429</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="J17" s="5">
-        <v>3.8461538461538463</v>
+        <v>4.0384615384615383</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5303,17 +5303,17 @@
         <v>1344</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5">
-        <v>0.021720872310231999</v>
+        <v>0.028961163080309299</v>
       </c>
       <c r="I18" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J18" s="5">
-        <v>0.2232142857142857</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.025045855230693598</v>
+        <v>0.024246519425458701</v>
       </c>
       <c r="I19" s="5">
-        <v>14.893617021276601</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J19" s="5">
-        <v>0.49333473286449042</v>
+        <v>0.47759000734753859</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.0132682939256158</v>
+        <v>0.0143297574396651</v>
       </c>
       <c r="I20" s="5">
-        <v>8</v>
+        <v>7.4074074074074101</v>
       </c>
       <c r="J20" s="5">
-        <v>0.29442939583087974</v>
+        <v>0.31798374749735014</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5396,17 +5396,17 @@
         <v>1953</v>
       </c>
       <c r="F21" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
-        <v>0.023834556399181101</v>
+        <v>0.0185379883104742</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>0.46082949308755761</v>
+        <v>0.35842293906810035</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.029234808131954199</v>
+        <v>0.040928731384735899</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>2.9154518950437316</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5520,17 +5520,17 @@
         <v>1078</v>
       </c>
       <c r="F25" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5">
-        <v>0.041701804298065998</v>
+        <v>0.027801202865377302</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>0.83487940630797774</v>
+        <v>0.55658627087198509</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5582,17 +5582,17 @@
         <v>994</v>
       </c>
       <c r="F27" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5">
-        <v>0.071265001282769996</v>
+        <v>0.080767001453805998</v>
       </c>
       <c r="I27" s="5">
-        <v>6.6666666666666696</v>
+        <v>11.764705882352899</v>
       </c>
       <c r="J27" s="5">
-        <v>1.5090543259557343</v>
+        <v>1.7102615694164991</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -5682,7 +5682,7 @@
         <v>0.0049946806650916801</v>
       </c>
       <c r="I30" s="5">
-        <v>66.6666666666667</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J30" s="5">
         <v>0.099900099900099903</v>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.148366494718742</v>
+        <v>0.15622697126013299</v>
       </c>
       <c r="I33" s="5">
-        <v>19.205298013244999</v>
+        <v>18.238993710691801</v>
       </c>
       <c r="J33" s="5">
-        <v>2.8383458646616542</v>
+        <v>2.988721804511278</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.0282198256692049</v>
+        <v>0.033863790803045898</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0.56242969628796402</v>
+        <v>0.67491563554555678</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5830,17 +5830,17 @@
         <v>8596</v>
       </c>
       <c r="F35" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5">
-        <v>0.0037897305880524898</v>
+        <v>0.0048725107560674899</v>
       </c>
       <c r="I35" s="5">
-        <v>14.285714285714301</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J35" s="5">
-        <v>0.081433224755700334</v>
+        <v>0.10469986040018613</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.018239926857893302</v>
+        <v>0.0176699291435841</v>
       </c>
       <c r="I36" s="5">
-        <v>3.125</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="J36" s="5">
-        <v>0.39374923095853331</v>
+        <v>0.38144456749107913</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5954,17 +5954,17 @@
         <v>1281</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5">
-        <v>0.016840828905598699</v>
+        <v>0.025261243358398099</v>
       </c>
       <c r="I39" s="5">
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <v>0.156128024980484</v>
+        <v>0.23419203747072601</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -6016,17 +6016,17 @@
         <v>875</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>0.0052850211929349796</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <v>0</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.058646225199061201</v>
+        <v>0.058035327019904298</v>
       </c>
       <c r="I45" s="5">
-        <v>11.9791666666667</v>
+        <v>11.0526315789474</v>
       </c>
       <c r="J45" s="5">
-        <v>0.94974277799762563</v>
+        <v>0.93984962406015038</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6171,17 +6171,17 @@
         <v>959</v>
       </c>
       <c r="F46" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
-        <v>0.099265954389906194</v>
+        <v>0.083592382644131602</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>1.9812304483837331</v>
+        <v>1.6684045881126173</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -6202,17 +6202,17 @@
         <v>658</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5">
-        <v>0.0075281364098317496</v>
+        <v>0.030112545639326999</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>0.1519756838905775</v>
+        <v>0.60790273556231</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -6450,17 +6450,17 @@
         <v>238</v>
       </c>
       <c r="F55" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5">
-        <v>0.022915369720394301</v>
+        <v>0.019096141433661899</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>2.5210084033613445</v>
+        <v>2.1008403361344539</v>
       </c>
       <c r="K55" s="5"/>
     </row>
@@ -6512,17 +6512,17 @@
         <v>2576</v>
       </c>
       <c r="F57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
-        <v>0.0092003260595555497</v>
+        <v>0.0073602608476444403</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <v>0.19409937888198758</v>
+        <v>0.15527950310559005</v>
       </c>
       <c r="K57" s="5"/>
     </row>
@@ -6543,17 +6543,17 @@
         <v>833</v>
       </c>
       <c r="F58" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>0.0178369700933468</v>
+        <v>0.023782626791129101</v>
       </c>
       <c r="I58" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J58" s="5">
-        <v>0.36014405762304924</v>
+        <v>0.48019207683073228</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.026114929430338399</v>
+        <v>0.027697652426116499</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <v>0.56390977443609014</v>
+        <v>0.59808612440191389</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.084824762072701898</v>
+        <v>0.092920071316154706</v>
       </c>
       <c r="I63" s="5">
-        <v>13.900414937759299</v>
+        <v>12.5</v>
       </c>
       <c r="J63" s="5">
-        <v>1.5635136888542882</v>
+        <v>1.7127286882055275</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.016407739909555501</v>
+        <v>0.012621338391965799</v>
       </c>
       <c r="I70" s="5">
-        <v>7.6923076923076898</v>
+        <v>10</v>
       </c>
       <c r="J70" s="5">
-        <v>0.16552075375604786</v>
+        <v>0.12732365673542145</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -7039,17 +7039,17 @@
         <v>4956</v>
       </c>
       <c r="F74" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>0.018184297858798899</v>
+        <v>0.020002727644678801</v>
       </c>
       <c r="I74" s="5">
-        <v>5</v>
+        <v>4.5454545454545503</v>
       </c>
       <c r="J74" s="5">
-        <v>0.40355125100887806</v>
+        <v>0.44390637610976597</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -7077,7 +7077,7 @@
         <v>0.0033890082841886802</v>
       </c>
       <c r="I75" s="5">
-        <v>28.571428571428601</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J75" s="5">
         <v>0.077279752704791344</v>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.085911812751522196</v>
+        <v>0.10186686369109101</v>
       </c>
       <c r="I76" s="5">
-        <v>11.4285714285714</v>
+        <v>9.6385542168674707</v>
       </c>
       <c r="J76" s="5">
-        <v>2.083333333333333</v>
+        <v>2.4702380952380953</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7163,17 +7163,17 @@
         <v>679</v>
       </c>
       <c r="F78" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5">
-        <v>0.074887201153262903</v>
+        <v>0.068646601057157697</v>
       </c>
       <c r="I78" s="5">
-        <v>8.3333333333333304</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J78" s="5">
-        <v>1.7673048600883652</v>
+        <v>1.6200294550810017</v>
       </c>
       <c r="K78" s="5"/>
     </row>
@@ -7194,17 +7194,17 @@
         <v>1932</v>
       </c>
       <c r="F79" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
-        <v>0.010491197884974501</v>
+        <v>0.015736796827461801</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="5">
-        <v>0.20703933747412009</v>
+        <v>0.3105590062111801</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -7349,17 +7349,17 @@
         <v>399</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5">
-        <v>0</v>
+        <v>0.0098820088147518591</v>
       </c>
       <c r="I84" s="5">
         <v>0</v>
       </c>
       <c r="J84" s="5">
-        <v>0</v>
+        <v>0.25062656641604009</v>
       </c>
       <c r="K84" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.021663493222808299</v>
+        <v>0.022824037502601601</v>
       </c>
       <c r="I88" s="5">
-        <v>3.5714285714285698</v>
+        <v>6.7796610169491496</v>
       </c>
       <c r="J88" s="5">
-        <v>0.4784688995215311</v>
+        <v>0.50410116199589883</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7504,17 +7504,17 @@
         <v>17339</v>
       </c>
       <c r="F89" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5">
-        <v>0.0044392291722465298</v>
+        <v>0.0034527338006361901</v>
       </c>
       <c r="I89" s="5">
-        <v>11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="J89" s="5">
-        <v>0.051906107618663128</v>
+        <v>0.040371417036737987</v>
       </c>
       <c r="K89" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.0184257615597575</v>
+        <v>0.0188445288679338</v>
       </c>
       <c r="I90" s="5">
-        <v>6.8181818181818201</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J90" s="5">
-        <v>1.9828751689950428</v>
+        <v>2.0279405137449302</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7566,17 +7566,17 @@
         <v>1428</v>
       </c>
       <c r="F91" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
-        <v>0.0090747944559055709</v>
+        <v>0.012099725941207401</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="5">
-        <v>0.21008403361344538</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -7690,17 +7690,17 @@
         <v>1365</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5">
-        <v>0</v>
+        <v>0.0040979239917057998</v>
       </c>
       <c r="I95" s="5">
         <v>0</v>
       </c>
       <c r="J95" s="5">
-        <v>0</v>
+        <v>0.073260073260073263</v>
       </c>
       <c r="K95" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.025723638094135699</v>
+        <v>0.0192927285706017</v>
       </c>
       <c r="I98" s="5">
         <v>50</v>
       </c>
       <c r="J98" s="5">
-        <v>0.25915127955944284</v>
+        <v>0.1943634596695821</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7845,17 +7845,17 @@
         <v>1379</v>
       </c>
       <c r="F100" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5">
-        <v>0.031986238809259</v>
+        <v>0.0248781857405347</v>
       </c>
       <c r="I100" s="5">
         <v>0</v>
       </c>
       <c r="J100" s="5">
-        <v>0.65264684554024655</v>
+        <v>0.50761421319796951</v>
       </c>
       <c r="K100" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.030766811498582999</v>
+        <v>0.0239297422766757</v>
       </c>
       <c r="I103" s="5">
-        <v>11.1111111111111</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J103" s="5">
-        <v>0.6875477463712758</v>
+        <v>0.53475935828876997</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.0095695540955851206</v>
+        <v>0.0106737334143065</v>
       </c>
       <c r="I104" s="5">
-        <v>7.6923076923076898</v>
+        <v>6.8965517241379297</v>
       </c>
       <c r="J104" s="5">
-        <v>0.97744360902255645</v>
+        <v>1.0902255639097744</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8031,17 +8031,17 @@
         <v>2639</v>
       </c>
       <c r="F106" s="4">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>0.100546555901039</v>
+        <v>0.11192918487096799</v>
       </c>
       <c r="I106" s="5">
-        <v>1.88679245283019</v>
+        <v>1.6949152542372901</v>
       </c>
       <c r="J106" s="5">
-        <v>2.008336491095112</v>
+        <v>2.2356953391436152</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -8124,17 +8124,17 @@
         <v>3948</v>
       </c>
       <c r="F109" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>0.0085990754765423397</v>
+        <v>0.0110559541841259</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>0.1773049645390071</v>
+        <v>0.22796352583586624</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.030791359944399601</v>
+        <v>0.034456998033018597</v>
       </c>
       <c r="I110" s="5">
-        <v>9.5238095238095202</v>
+        <v>6.3829787234042596</v>
       </c>
       <c r="J110" s="5">
-        <v>0.61919504643962853</v>
+        <v>0.69290874244434619</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8186,17 +8186,17 @@
         <v>6923</v>
       </c>
       <c r="F111" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5">
-        <v>0.0059746118825736499</v>
+        <v>0.0066384576473040597</v>
       </c>
       <c r="I111" s="5">
-        <v>11.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="J111" s="5">
-        <v>0.130001444460494</v>
+        <v>0.14444604940054889</v>
       </c>
       <c r="K111" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.0584960142942988</v>
+        <v>0.073120017867873505</v>
       </c>
       <c r="I113" s="5">
-        <v>47.727272727272698</v>
+        <v>43.636363636363598</v>
       </c>
       <c r="J113" s="5">
-        <v>1.1325611325611324</v>
+        <v>1.4157014157014158</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.115347120414952</v>
+        <v>0.11906799526704701</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>2.271062271062271</v>
+        <v>2.3443223443223444</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8558,17 +8558,17 @@
         <v>3619</v>
       </c>
       <c r="F123" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
-        <v>0.0087609146394883597</v>
+        <v>0.0073007621995736403</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
       </c>
       <c r="J123" s="5">
-        <v>0.16579165515335728</v>
+        <v>0.13815971262779772</v>
       </c>
       <c r="K123" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>0.28823612303198798</v>
+        <v>0.0064052471784886199</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>30.133928571428569</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8620,17 +8620,17 @@
         <v>8820</v>
       </c>
       <c r="F125" s="4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>0.0109715747396733</v>
+        <v>0.015673678199533199</v>
       </c>
       <c r="I125" s="5">
-        <v>19.047619047619001</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="J125" s="5">
-        <v>0.23809523809523811</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.028803867552904101</v>
+        <v>0.031492228524508399</v>
       </c>
       <c r="I129" s="5">
-        <v>5.3333333333333304</v>
+        <v>6.0975609756097597</v>
       </c>
       <c r="J129" s="5">
-        <v>0.60464366333440822</v>
+        <v>0.66107707191228637</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.101341080295916</v>
+        <v>0.11669578943166101</v>
       </c>
       <c r="I130" s="5">
-        <v>6.0606060606060597</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="J130" s="5">
-        <v>2.322308233638283</v>
+        <v>2.6741731175228711</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.0234676727220712</v>
+        <v>0.022350164497210698</v>
       </c>
       <c r="I135" s="5">
-        <v>4.7619047619047601</v>
+        <v>5</v>
       </c>
       <c r="J135" s="5">
-        <v>0.46875</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -8961,17 +8961,17 @@
         <v>3661</v>
       </c>
       <c r="F136" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5">
-        <v>0.016272106819407502</v>
+        <v>0.020921280196381099</v>
       </c>
       <c r="I136" s="5">
-        <v>14.285714285714301</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J136" s="5">
-        <v>0.19120458891013384</v>
+        <v>0.24583447145588638</v>
       </c>
       <c r="K136" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.0239107857396074</v>
+        <v>0.025989984499573199</v>
       </c>
       <c r="I138" s="5">
-        <v>26.086956521739101</v>
+        <v>24</v>
       </c>
       <c r="J138" s="5">
-        <v>0.51020408163265307</v>
+        <v>0.55456965394853597</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.023880512875119799</v>
+        <v>0.026229415780869299</v>
       </c>
       <c r="I140" s="5">
-        <v>9.8360655737704903</v>
+        <v>8.9552238805970106</v>
       </c>
       <c r="J140" s="5">
-        <v>0.51472449582313728</v>
+        <v>0.56535313475656068</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9116,17 +9116,17 @@
         <v>1197</v>
       </c>
       <c r="F141" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5">
-        <v>0.030378516313263298</v>
+        <v>0.0265812017741054</v>
       </c>
       <c r="I141" s="5">
         <v>0</v>
       </c>
       <c r="J141" s="5">
-        <v>0.66833751044277356</v>
+        <v>0.58479532163742687</v>
       </c>
       <c r="K141" s="5"/>
     </row>
@@ -9147,17 +9147,17 @@
         <v>2205</v>
       </c>
       <c r="F142" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
-        <v>0.0234482532223762</v>
+        <v>0.018758602577901001</v>
       </c>
       <c r="I142" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J142" s="5">
-        <v>0.45351473922902497</v>
+        <v>0.36281179138321995</v>
       </c>
       <c r="K142" s="5"/>
     </row>
@@ -9240,17 +9240,17 @@
         <v>1169</v>
       </c>
       <c r="F145" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5">
-        <v>0.0074026368192350103</v>
+        <v>0</v>
       </c>
       <c r="I145" s="5">
         <v>0</v>
       </c>
       <c r="J145" s="5">
-        <v>0.085543199315654406</v>
+        <v>0</v>
       </c>
       <c r="K145" s="5"/>
     </row>
@@ -9364,17 +9364,17 @@
         <v>4914</v>
       </c>
       <c r="F149" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5">
-        <v>0.0093913291736005995</v>
+        <v>0.0075130633388804796</v>
       </c>
       <c r="I149" s="5">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="J149" s="5">
-        <v>0.20350020350020348</v>
+        <v>0.1628001628001628</v>
       </c>
       <c r="K149" s="5"/>
     </row>
@@ -9395,17 +9395,17 @@
         <v>714</v>
       </c>
       <c r="F150" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="5">
-        <v>0</v>
+        <v>0.0063957838992536103</v>
       </c>
       <c r="I150" s="5">
         <v>0</v>
       </c>
       <c r="J150" s="5">
-        <v>0</v>
+        <v>0.14005602240896359</v>
       </c>
       <c r="K150" s="5"/>
     </row>
@@ -9426,17 +9426,17 @@
         <v>217</v>
       </c>
       <c r="F151" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="5">
-        <v>0.040218790218790199</v>
+        <v>0.060328185328185298</v>
       </c>
       <c r="I151" s="5">
         <v>0</v>
       </c>
       <c r="J151" s="5">
-        <v>0.92165898617511521</v>
+        <v>1.3824884792626728</v>
       </c>
       <c r="K151" s="5"/>
     </row>
@@ -9612,17 +9612,17 @@
         <v>133</v>
       </c>
       <c r="F157" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>0.27769099934048402</v>
+        <v>0.31240237425804401</v>
       </c>
       <c r="I157" s="5">
         <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>6.0150375939849621</v>
+        <v>6.7669172932330826</v>
       </c>
       <c r="K157" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.033261138613861402</v>
+        <v>0.032487623762376197</v>
       </c>
       <c r="I164" s="5">
-        <v>4.6511627906976702</v>
+        <v>9.5238095238095202</v>
       </c>
       <c r="J164" s="5">
-        <v>0.73129251700680276</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9860,17 +9860,17 @@
         <v>182</v>
       </c>
       <c r="F165" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5">
-        <v>0.033443377972280197</v>
+        <v>0.028665752547668798</v>
       </c>
       <c r="I165" s="5">
         <v>0</v>
       </c>
       <c r="J165" s="5">
-        <v>3.8461538461538463</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -10046,17 +10046,17 @@
         <v>1617</v>
       </c>
       <c r="F171" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5">
-        <v>0.0091127244008383703</v>
+        <v>0.012150299201117799</v>
       </c>
       <c r="I171" s="5">
         <v>0</v>
       </c>
       <c r="J171" s="5">
-        <v>0.1855287569573284</v>
+        <v>0.24737167594310452</v>
       </c>
       <c r="K171" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.049636139521673103</v>
+        <v>0.046878576214913502</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.74318744838976047</v>
+        <v>0.70189925681255161</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.124088334162913</v>
+        <v>0.117117079434659</v>
       </c>
       <c r="I174" s="5">
-        <v>5.6179775280898898</v>
+        <v>5.9523809523809499</v>
       </c>
       <c r="J174" s="5">
-        <v>13.819875776397517</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10170,17 +10170,17 @@
         <v>1400</v>
       </c>
       <c r="F175" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="5">
-        <v>0.0226398861968387</v>
+        <v>0.0339598292952581</v>
       </c>
       <c r="I175" s="5">
         <v>0</v>
       </c>
       <c r="J175" s="5">
-        <v>0.4285714285714286</v>
+        <v>0.64285714285714279</v>
       </c>
       <c r="K175" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.065879787504745393</v>
+        <v>0.0667032848485547</v>
       </c>
       <c r="I176" s="5">
-        <v>12.5</v>
+        <v>12.3456790123457</v>
       </c>
       <c r="J176" s="5">
-        <v>1.4448257178977786</v>
+        <v>1.4628860393715009</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.12894738195282501</v>
+        <v>0.12973847018566401</v>
       </c>
       <c r="I177" s="5">
-        <v>22.085889570552101</v>
+        <v>22.256097560975601</v>
       </c>
       <c r="J177" s="5">
-        <v>1.2593679981457158</v>
+        <v>1.2670941821834196</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10294,17 +10294,17 @@
         <v>280</v>
       </c>
       <c r="F179" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5">
-        <v>0.054851425771393902</v>
+        <v>0.051194664053301003</v>
       </c>
       <c r="I179" s="5">
-        <v>6.6666666666666696</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J179" s="5">
-        <v>5.3571428571428568</v>
+        <v>5</v>
       </c>
       <c r="K179" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.034391906238691802</v>
+        <v>0.032896605967444301</v>
       </c>
       <c r="I180" s="5">
-        <v>8.6956521739130395</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J180" s="5">
-        <v>0.63924402445803219</v>
+        <v>0.61145080600333523</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.0305420509222133</v>
+        <v>0.038373346030473099</v>
       </c>
       <c r="I181" s="5">
         <v>0</v>
       </c>
       <c r="J181" s="5">
-        <v>0.48531607765057239</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.177000655810122</v>
+        <v>0.174353210103561</v>
       </c>
       <c r="I184" s="5">
-        <v>16.6666666666667</v>
+        <v>16.268980477223401</v>
       </c>
       <c r="J184" s="5">
-        <v>3.0061664953751284</v>
+        <v>2.96120246659815</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10542,17 +10542,17 @@
         <v>1435</v>
       </c>
       <c r="F187" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5">
-        <v>0.0195331575349155</v>
+        <v>0.022788683790734801</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>0.41811846689895471</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="K187" s="5"/>
     </row>
@@ -10573,17 +10573,17 @@
         <v>1134</v>
       </c>
       <c r="F188" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5">
-        <v>0.0127678047036593</v>
+        <v>0.017023739604879001</v>
       </c>
       <c r="I188" s="5">
-        <v>66.6666666666667</v>
+        <v>25</v>
       </c>
       <c r="J188" s="5">
-        <v>0.26455026455026454</v>
+        <v>0.35273368606701938</v>
       </c>
       <c r="K188" s="5"/>
     </row>
@@ -10604,17 +10604,17 @@
         <v>721</v>
       </c>
       <c r="F189" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5">
-        <v>0.0193714606727063</v>
+        <v>0.038742921345412497</v>
       </c>
       <c r="I189" s="5">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J189" s="5">
-        <v>0.41608876560332869</v>
+        <v>0.83217753120665738</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.18546836790618301</v>
+        <v>0.20216052101773899</v>
       </c>
       <c r="I190" s="5">
-        <v>18</v>
+        <v>17.431192660550501</v>
       </c>
       <c r="J190" s="5">
-        <v>3.580379520229144</v>
+        <v>3.9026136770497675</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10666,17 +10666,17 @@
         <v>182</v>
       </c>
       <c r="F191" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5">
-        <v>0.079664770645125296</v>
+        <v>0.0849757553548003</v>
       </c>
       <c r="I191" s="5">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="J191" s="5">
-        <v>8.2417582417582409</v>
+        <v>8.791208791208792</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.17119642155582401</v>
+        <v>0.182170551142736</v>
       </c>
       <c r="I193" s="5">
-        <v>10.2564102564103</v>
+        <v>8.4337349397590398</v>
       </c>
       <c r="J193" s="5">
-        <v>3.4391534391534391</v>
+        <v>3.6596119929453259</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10766,7 +10766,7 @@
         <v>0.058460191949864501</v>
       </c>
       <c r="I194" s="5">
-        <v>22.8571428571429</v>
+        <v>20</v>
       </c>
       <c r="J194" s="5">
         <v>0.57339449541284404</v>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.081194486894339904</v>
+        <v>0.078294683790970598</v>
       </c>
       <c r="I195" s="5">
-        <v>14.285714285714301</v>
+        <v>18.518518518518501</v>
       </c>
       <c r="J195" s="5">
-        <v>1.7467248908296942</v>
+        <v>1.6843418590143482</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.1257332232175</v>
+        <v>0.13499777650721001</v>
       </c>
       <c r="I196" s="5">
-        <v>9.4736842105263204</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="J196" s="5">
-        <v>1.8667714678718805</v>
+        <v>2.0043230497150719</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.26344554418836802</v>
+        <v>0.27638672881516502</v>
       </c>
       <c r="I197" s="5">
-        <v>16.140350877193001</v>
+        <v>14.5484949832776</v>
       </c>
       <c r="J197" s="5">
-        <v>2.2290876383403075</v>
+        <v>2.338586680223691</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10883,17 +10883,17 @@
         <v>1568</v>
       </c>
       <c r="F198" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="5">
-        <v>0.024021787761499699</v>
+        <v>0.033029958172062099</v>
       </c>
       <c r="I198" s="5">
-        <v>12.5</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J198" s="5">
-        <v>0.51020408163265307</v>
+        <v>0.70153061224489799</v>
       </c>
       <c r="K198" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.033684939944564202</v>
+        <v>0.028872805666769301</v>
       </c>
       <c r="I199" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J199" s="5">
-        <v>0.63291139240506333</v>
+        <v>0.54249547920433994</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10945,17 +10945,17 @@
         <v>147</v>
       </c>
       <c r="F200" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="5">
-        <v>0.027541949832338399</v>
+        <v>0.034427437290423003</v>
       </c>
       <c r="I200" s="5">
         <v>0</v>
       </c>
       <c r="J200" s="5">
-        <v>2.7210884353741496</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="K200" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.41902409731360801</v>
+        <v>0.42547682643489498</v>
       </c>
       <c r="I201" s="5">
-        <v>12.800769971126099</v>
+        <v>12.8909952606635</v>
       </c>
       <c r="J201" s="5">
-        <v>3.9029337740881256</v>
+        <v>3.9630367003493481</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.41942091186702601</v>
+        <v>0.40314201802743899</v>
       </c>
       <c r="I202" s="5">
-        <v>12.328767123287699</v>
+        <v>12.589073634204301</v>
       </c>
       <c r="J202" s="5">
-        <v>4.7947454844006563</v>
+        <v>4.6086480569239185</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.58951347430550605</v>
+        <v>0.58458218288546004</v>
       </c>
       <c r="I203" s="5">
-        <v>13.992395437262401</v>
+        <v>13.1901840490798</v>
       </c>
       <c r="J203" s="5">
-        <v>5.6943662581734724</v>
+        <v>5.6467327761659378</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.30524852479415199</v>
+        <v>0.298443621375174</v>
       </c>
       <c r="I204" s="5">
-        <v>11.8895966029724</v>
+        <v>12.8121606948969</v>
       </c>
       <c r="J204" s="5">
-        <v>3.1934368431758084</v>
+        <v>3.122245575971252</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.43071018712209602</v>
+        <v>0.432913308283846</v>
       </c>
       <c r="I205" s="5">
-        <v>12.659846547314601</v>
+        <v>11.577608142493601</v>
       </c>
       <c r="J205" s="5">
-        <v>4.2267985514296527</v>
+        <v>4.2484190043781416</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.033065606887723399</v>
+        <v>0.039363817723480202</v>
       </c>
       <c r="I206" s="5">
         <v>0</v>
       </c>
       <c r="J206" s="5">
-        <v>0.69284064665127021</v>
+        <v>0.8248102936324645</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11162,17 +11162,17 @@
         <v>308</v>
       </c>
       <c r="F207" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="5">
-        <v>0.023776858934273601</v>
+        <v>0.028532230721128399</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>3.2467532467532463</v>
+        <v>3.8961038961038961</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -11193,17 +11193,17 @@
         <v>1463</v>
       </c>
       <c r="F208" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="5">
-        <v>0.053650407240122502</v>
+        <v>0.050297256787614798</v>
       </c>
       <c r="I208" s="5">
-        <v>12.5</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J208" s="5">
-        <v>1.0936431989063569</v>
+        <v>1.0252904989747096</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -11224,17 +11224,17 @@
         <v>2058</v>
       </c>
       <c r="F209" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="5">
-        <v>0.013485667432652599</v>
+        <v>0.016182800919183098</v>
       </c>
       <c r="I209" s="5">
         <v>0</v>
       </c>
       <c r="J209" s="5">
-        <v>0.24295432458697766</v>
+        <v>0.29154518950437319</v>
       </c>
       <c r="K209" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.058972074616523602</v>
+        <v>0.0568659290945049</v>
       </c>
       <c r="I211" s="5">
-        <v>7.1428571428571397</v>
+        <v>3.7037037037037002</v>
       </c>
       <c r="J211" s="5">
-        <v>1.1904761904761905</v>
+        <v>1.1479591836734695</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.064430754285884198</v>
+        <v>0.0594745424177393</v>
       </c>
       <c r="I215" s="5">
-        <v>7.6923076923076898</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J215" s="5">
-        <v>1.4623172103487065</v>
+        <v>1.3498312710911136</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.027993284342809899</v>
+        <v>0.0320898625393186</v>
       </c>
       <c r="I217" s="5">
-        <v>12.1951219512195</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="J217" s="5">
-        <v>0.52156214222109143</v>
+        <v>0.5978883093753975</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11503,17 +11503,17 @@
         <v>4424</v>
       </c>
       <c r="F218" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="5">
-        <v>0.066460867153893599</v>
+        <v>0.063023236094209401</v>
       </c>
       <c r="I218" s="5">
-        <v>13.7931034482759</v>
+        <v>10.909090909090899</v>
       </c>
       <c r="J218" s="5">
-        <v>1.3110307414104883</v>
+        <v>1.2432188065099457</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.060813114782582299</v>
+        <v>0.067328805652144594</v>
       </c>
       <c r="I219" s="5">
-        <v>35.714285714285701</v>
+        <v>38.709677419354797</v>
       </c>
       <c r="J219" s="5">
-        <v>1.2903225806451613</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.063146472062914794</v>
+        <v>0.061135437920783797</v>
       </c>
       <c r="I221" s="5">
-        <v>11.4649681528662</v>
+        <v>11.842105263157899</v>
       </c>
       <c r="J221" s="5">
-        <v>1.3470613470613471</v>
+        <v>1.3041613041613043</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11627,17 +11627,17 @@
         <v>175</v>
       </c>
       <c r="F222" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="5">
-        <v>0.022764523766162802</v>
+        <v>0.0284556547077035</v>
       </c>
       <c r="I222" s="5">
         <v>0</v>
       </c>
       <c r="J222" s="5">
-        <v>2.2857142857142856</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="K222" s="5"/>
     </row>
@@ -11658,17 +11658,17 @@
         <v>658</v>
       </c>
       <c r="F223" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="5">
-        <v>0.072783911844125998</v>
+        <v>0.0946190853973638</v>
       </c>
       <c r="I223" s="5">
-        <v>0</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="J223" s="5">
-        <v>1.5197568389057752</v>
+        <v>1.9756838905775076</v>
       </c>
       <c r="K223" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.017816400940286799</v>
+        <v>0.019912448109732299</v>
       </c>
       <c r="I224" s="5">
-        <v>5.8823529411764701</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J224" s="5">
-        <v>0.34109149277688605</v>
+        <v>0.3812199036918138</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11751,17 +11751,17 @@
         <v>1169</v>
       </c>
       <c r="F226" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="5">
-        <v>0.016662015187426799</v>
+        <v>0.012496511390570101</v>
       </c>
       <c r="I226" s="5">
         <v>0</v>
       </c>
       <c r="J226" s="5">
-        <v>0.34217279726261762</v>
+        <v>0.25662959794696322</v>
       </c>
       <c r="K226" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.31601384011634498</v>
+        <v>0.29666605398677298</v>
       </c>
       <c r="I228" s="5">
-        <v>8.1632653061224492</v>
+        <v>9.7826086956521703</v>
       </c>
       <c r="J228" s="5">
-        <v>6.6350710900473935</v>
+        <v>6.2288422477995935</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.078559623844882603</v>
+        <v>0.072158469309373599</v>
       </c>
       <c r="I229" s="5">
-        <v>5.92592592592593</v>
+        <v>8.0645161290322598</v>
       </c>
       <c r="J229" s="5">
-        <v>7.7764976958525338</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11937,17 +11937,17 @@
         <v>217</v>
       </c>
       <c r="F232" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="5">
-        <v>0.073771594464526705</v>
+        <v>0.078111100021263605</v>
       </c>
       <c r="I232" s="5">
-        <v>5.8823529411764701</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J232" s="5">
-        <v>7.8341013824884786</v>
+        <v>8.2949308755760374</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -12092,17 +12092,17 @@
         <v>3122</v>
       </c>
       <c r="F237" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="5">
-        <v>0.018686058643080702</v>
+        <v>0.021800401750260798</v>
       </c>
       <c r="I237" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J237" s="5">
-        <v>0.19218449711723257</v>
+        <v>0.22421524663677131</v>
       </c>
       <c r="K237" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.088635989523420805</v>
+        <v>0.095454142563683994</v>
       </c>
       <c r="I238" s="5">
-        <v>3.2967032967033001</v>
+        <v>2.0408163265306101</v>
       </c>
       <c r="J238" s="5">
-        <v>1.5439429928741093</v>
+        <v>1.66270783847981</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12185,17 +12185,17 @@
         <v>3332</v>
       </c>
       <c r="F240" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="5">
-        <v>0.036718699511788203</v>
+        <v>0.035249951531316603</v>
       </c>
       <c r="I240" s="5">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J240" s="5">
-        <v>0.75030012004801916</v>
+        <v>0.72028811524609848</v>
       </c>
       <c r="K240" s="5"/>
     </row>
@@ -12247,17 +12247,17 @@
         <v>1218</v>
       </c>
       <c r="F242" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="5">
-        <v>0.0280517273852985</v>
+        <v>0.036066506638240903</v>
       </c>
       <c r="I242" s="5">
-        <v>14.285714285714301</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J242" s="5">
-        <v>0.57471264367816088</v>
+        <v>0.73891625615763545</v>
       </c>
       <c r="K242" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>0.78214860823556498</v>
+        <v>0.69013112491373396</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>19.428571428571427</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.045450360631130698</v>
+        <v>0.051277329942814101</v>
       </c>
       <c r="I245" s="5">
-        <v>2.5641025641025599</v>
+        <v>2.2727272727272698</v>
       </c>
       <c r="J245" s="5">
-        <v>4.4930875576036868</v>
+        <v>5.0691244239631335</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.097727513455088899</v>
+        <v>0.102409070985872</v>
       </c>
       <c r="I247" s="5">
-        <v>11.377245508982</v>
+        <v>12.5714285714286</v>
       </c>
       <c r="J247" s="5">
-        <v>8.8688263409453008</v>
+        <v>9.2936802973977688</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.076204369231941599</v>
+        <v>0.073482784616515098</v>
       </c>
       <c r="I248" s="5">
-        <v>7.1428571428571397</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J248" s="5">
-        <v>1.5594541910331383</v>
+        <v>1.5037593984962405</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12619,17 +12619,17 @@
         <v>1659</v>
       </c>
       <c r="F254" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="5">
-        <v>0.071089723433633706</v>
+        <v>0.062887063037445207</v>
       </c>
       <c r="I254" s="5">
-        <v>38.461538461538503</v>
+        <v>47.826086956521699</v>
       </c>
       <c r="J254" s="5">
-        <v>1.567209162145871</v>
+        <v>1.3863773357444245</v>
       </c>
       <c r="K254" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.31382657608018599</v>
+        <v>0.31348434426330501</v>
       </c>
       <c r="I256" s="5">
-        <v>15.3762268266085</v>
+        <v>15.8296943231441</v>
       </c>
       <c r="J256" s="5">
-        <v>6.264945002391201</v>
+        <v>6.2581130012980797</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.070069918415889595</v>
+        <v>0.087113952625160002</v>
       </c>
       <c r="I257" s="5">
-        <v>18.918918918918902</v>
+        <v>15.2173913043478</v>
       </c>
       <c r="J257" s="5">
-        <v>1.4247208317289179</v>
+        <v>1.771274547554871</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.29684831611137902</v>
+        <v>0.30957766071306703</v>
       </c>
       <c r="I258" s="5">
-        <v>11.835334476843901</v>
+        <v>10.6907894736842</v>
       </c>
       <c r="J258" s="5">
-        <v>2.5238095238095237</v>
+        <v>2.6320346320346322</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.341551529979364</v>
+        <v>0.34655333062759702</v>
       </c>
       <c r="I259" s="5">
-        <v>20.5020920502092</v>
+        <v>19.793814432989699</v>
       </c>
       <c r="J259" s="5">
-        <v>2.6905324777665203</v>
+        <v>2.729933580997411</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12836,17 +12836,17 @@
         <v>1106</v>
       </c>
       <c r="F261" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="5">
-        <v>0.071599447420735193</v>
+        <v>0.075811179621954897</v>
       </c>
       <c r="I261" s="5">
-        <v>5.8823529411764701</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J261" s="5">
-        <v>1.5370705244122964</v>
+        <v>1.62748643761302</v>
       </c>
       <c r="K261" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.33475637612438802</v>
+        <v>0.31900313489500498</v>
       </c>
       <c r="I262" s="5">
-        <v>12.9411764705882</v>
+        <v>9.8765432098765409</v>
       </c>
       <c r="J262" s="5">
-        <v>31.954887218045116</v>
+        <v>30.451127819548873</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.0199806321072773</v>
+        <v>0.021312674247762502</v>
       </c>
       <c r="I263" s="5">
-        <v>20</v>
+        <v>31.25</v>
       </c>
       <c r="J263" s="5">
-        <v>0.43731778425655976</v>
+        <v>0.46647230320699706</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -12960,17 +12960,17 @@
         <v>2499</v>
       </c>
       <c r="F265" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="5">
-        <v>0</v>
+        <v>0.0034984239600060201</v>
       </c>
       <c r="I265" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J265" s="5">
-        <v>0</v>
+        <v>0.040016006402561026</v>
       </c>
       <c r="K265" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.46037697689333401</v>
+        <v>0.42578217516146499</v>
       </c>
       <c r="I270" s="5">
-        <v>10.9826589595376</v>
+        <v>8.75</v>
       </c>
       <c r="J270" s="5">
-        <v>7.6991544281263913</v>
+        <v>7.1206052514463725</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13177,17 +13177,17 @@
         <v>1589</v>
       </c>
       <c r="F272" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="5">
-        <v>0.014144771738746099</v>
+        <v>0.017680964673432598</v>
       </c>
       <c r="I272" s="5">
         <v>0</v>
       </c>
       <c r="J272" s="5">
-        <v>0.25173064820641916</v>
+        <v>0.31466331025802391</v>
       </c>
       <c r="K272" s="5"/>
     </row>
@@ -13215,7 +13215,7 @@
         <v>0.0066936793816825199</v>
       </c>
       <c r="I273" s="5">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="J273" s="5">
         <v>0.1294777729823047</v>
@@ -13239,17 +13239,17 @@
         <v>1617</v>
       </c>
       <c r="F274" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="5">
-        <v>0.014316351277448</v>
+        <v>0.011453081021958401</v>
       </c>
       <c r="I274" s="5">
         <v>0</v>
       </c>
       <c r="J274" s="5">
-        <v>0.30921459492888065</v>
+        <v>0.24737167594310452</v>
       </c>
       <c r="K274" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.015387787636220399</v>
+        <v>0.013849008872598399</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.33692722371967659</v>
+        <v>0.30323450134770891</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13301,17 +13301,17 @@
         <v>4466</v>
       </c>
       <c r="F276" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="5">
-        <v>0.014717169956142801</v>
+        <v>0.015849259952769201</v>
       </c>
       <c r="I276" s="5">
-        <v>38.461538461538503</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J276" s="5">
-        <v>0.29108822212270491</v>
+        <v>0.31347962382445138</v>
       </c>
       <c r="K276" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.0404208257076452</v>
+        <v>0.042666427135847701</v>
       </c>
       <c r="I277" s="5">
-        <v>27.7777777777778</v>
+        <v>26.315789473684202</v>
       </c>
       <c r="J277" s="5">
-        <v>0.80357142857142849</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.010709045931097999</v>
+        <v>0.0131803642228898</v>
       </c>
       <c r="I278" s="5">
-        <v>7.6923076923076898</v>
+        <v>6.25</v>
       </c>
       <c r="J278" s="5">
-        <v>0.23627771719374771</v>
+        <v>0.29080334423845872</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13394,17 +13394,17 @@
         <v>2037</v>
       </c>
       <c r="F279" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="5">
-        <v>0.013150558109686201</v>
+        <v>0.0105204464877489</v>
       </c>
       <c r="I279" s="5">
         <v>0</v>
       </c>
       <c r="J279" s="5">
-        <v>0.24545900834560627</v>
+        <v>0.19636720667648502</v>
       </c>
       <c r="K279" s="5"/>
     </row>
@@ -13456,17 +13456,17 @@
         <v>791</v>
       </c>
       <c r="F281" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="5">
-        <v>0.044316868139590501</v>
+        <v>0.053180241767508601</v>
       </c>
       <c r="I281" s="5">
         <v>0</v>
       </c>
       <c r="J281" s="5">
-        <v>4.4247787610619467</v>
+        <v>5.3097345132743365</v>
       </c>
       <c r="K281" s="5"/>
     </row>
@@ -13487,17 +13487,17 @@
         <v>2002</v>
       </c>
       <c r="F282" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="5">
-        <v>0.00863943947316698</v>
+        <v>0.0107992993414587</v>
       </c>
       <c r="I282" s="5">
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>0.19980019980019981</v>
+        <v>0.24975024975024976</v>
       </c>
       <c r="K282" s="5"/>
     </row>
@@ -13518,17 +13518,17 @@
         <v>2632</v>
       </c>
       <c r="F283" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="5">
-        <v>0.0096053175037700902</v>
+        <v>0.0057631905022620502</v>
       </c>
       <c r="I283" s="5">
-        <v>20</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J283" s="5">
-        <v>0.1899696048632219</v>
+        <v>0.11398176291793312</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -13549,17 +13549,17 @@
         <v>1827</v>
       </c>
       <c r="F284" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="5">
-        <v>0.0029710883393695899</v>
+        <v>0.0059421766787391903</v>
       </c>
       <c r="I284" s="5">
         <v>0</v>
       </c>
       <c r="J284" s="5">
-        <v>0.054734537493158188</v>
+        <v>0.10946907498631638</v>
       </c>
       <c r="K284" s="5"/>
     </row>
@@ -13611,17 +13611,17 @@
         <v>2100</v>
       </c>
       <c r="F286" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="5">
-        <v>0.015545848037114601</v>
+        <v>0.0133250126032411</v>
       </c>
       <c r="I286" s="5">
-        <v>14.285714285714301</v>
+        <v>0</v>
       </c>
       <c r="J286" s="5">
-        <v>0.33333333333333337</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.020317135980414298</v>
+        <v>0.0239451959769168</v>
       </c>
       <c r="I288" s="5">
-        <v>10.714285714285699</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J288" s="5">
-        <v>0.46403712296983757</v>
+        <v>0.54690089492873717</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.0178680870604674</v>
+        <v>0.0142944696483739</v>
       </c>
       <c r="I290" s="5">
         <v>0</v>
       </c>
       <c r="J290" s="5">
-        <v>0.38505968425105891</v>
+        <v>0.30804774740084712</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.011146897752785399</v>
+        <v>0.010491197884974501</v>
       </c>
       <c r="I291" s="5">
         <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>0.25946275946275943</v>
+        <v>0.24420024420024419</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.019934597186795001</v>
+        <v>0.0208013188036122</v>
       </c>
       <c r="I292" s="5">
-        <v>4.3478260869565197</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="J292" s="5">
-        <v>0.43063096798352368</v>
+        <v>0.44935405354802466</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13828,17 +13828,17 @@
         <v>3115</v>
       </c>
       <c r="F293" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="5">
-        <v>0.0151541097187852</v>
+        <v>0.013638698746906701</v>
       </c>
       <c r="I293" s="5">
         <v>0</v>
       </c>
       <c r="J293" s="5">
-        <v>0.32102728731942215</v>
+        <v>0.28892455858747995</v>
       </c>
       <c r="K293" s="5"/>
     </row>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0064894370506064798</v>
+        <v>0.0055623746148055599</v>
       </c>
       <c r="I295" s="5">
-        <v>28.571428571428601</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J295" s="5">
-        <v>0.13210039630118892</v>
+        <v>0.11322891111530478</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.022771105537173798</v>
+        <v>0.022081072036047401</v>
       </c>
       <c r="I297" s="5">
-        <v>3.0303030303030298</v>
+        <v>3.125</v>
       </c>
       <c r="J297" s="5">
-        <v>0.50151975683890582</v>
+        <v>0.48632218844984804</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14045,17 +14045,17 @@
         <v>1974</v>
       </c>
       <c r="F300" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="5">
-        <v>0.0099729235126631201</v>
+        <v>0.012466154390828901</v>
       </c>
       <c r="I300" s="5">
         <v>0</v>
       </c>
       <c r="J300" s="5">
-        <v>0.2026342451874367</v>
+        <v>0.25329280648429586</v>
       </c>
       <c r="K300" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.0222207989292189</v>
+        <v>0.019606587290487299</v>
       </c>
       <c r="I302" s="5">
         <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>0.4582210242587601</v>
+        <v>0.40431266846361186</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14138,17 +14138,17 @@
         <v>4977</v>
       </c>
       <c r="F303" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="5">
-        <v>0.00270318976392143</v>
+        <v>0.0018021265092809499</v>
       </c>
       <c r="I303" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J303" s="5">
-        <v>0.06027727546714888</v>
+        <v>0.040184850311432589</v>
       </c>
       <c r="K303" s="5"/>
     </row>
@@ -14169,17 +14169,17 @@
         <v>6279</v>
       </c>
       <c r="F304" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="5">
-        <v>0.00353491542007874</v>
+        <v>0.0042418985040944901</v>
       </c>
       <c r="I304" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J304" s="5">
-        <v>0.079630514413123119</v>
+        <v>0.095556617295747728</v>
       </c>
       <c r="K304" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0043635767016421897</v>
+        <v>0.0052362920419706301</v>
       </c>
       <c r="I306" s="5">
         <v>0</v>
       </c>
       <c r="J306" s="5">
-        <v>0.095238095238095233</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.026390829714490801</v>
+        <v>0.0277103712002153</v>
       </c>
       <c r="I310" s="5">
-        <v>15</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J310" s="5">
-        <v>0.58309037900874638</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.065600802715276907</v>
+        <v>0.068582657384153103</v>
       </c>
       <c r="I311" s="5">
-        <v>2.2727272727272698</v>
+        <v>2.1739130434782599</v>
       </c>
       <c r="J311" s="5">
-        <v>0.67047619047619045</v>
+        <v>0.70095238095238088</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14417,17 +14417,17 @@
         <v>3185</v>
       </c>
       <c r="F312" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="5">
-        <v>0.118161925601751</v>
+        <v>0.12107950401167</v>
       </c>
       <c r="I312" s="5">
-        <v>4.9382716049382704</v>
+        <v>4.8192771084337398</v>
       </c>
       <c r="J312" s="5">
-        <v>2.5431711145996858</v>
+        <v>2.60596546310832</v>
       </c>
       <c r="K312" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.034749408705540198</v>
+        <v>0.041403550798090397</v>
       </c>
       <c r="I314" s="5">
-        <v>2.12765957446809</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="J314" s="5">
-        <v>0.76212096643424676</v>
+        <v>0.90805902383654935</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14541,17 +14541,17 @@
         <v>1001</v>
       </c>
       <c r="F316" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="5">
-        <v>0.0103353831843316</v>
+        <v>0.015503074776497301</v>
       </c>
       <c r="I316" s="5">
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J316" s="5">
-        <v>0.19980019980019981</v>
+        <v>0.29970029970029971</v>
       </c>
       <c r="K316" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.0270468528245504</v>
+        <v>0.033991315036259198</v>
       </c>
       <c r="I317" s="5">
-        <v>8.1081081081081106</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="J317" s="5">
-        <v>0.55844841898724618</v>
+        <v>0.70183382386235005</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14603,17 +14603,17 @@
         <v>1344</v>
       </c>
       <c r="F318" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G318" s="4"/>
       <c r="H318" s="5">
-        <v>0.0462304820683518</v>
+        <v>0.057788102585439698</v>
       </c>
       <c r="I318" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J318" s="5">
-        <v>0.29761904761904762</v>
+        <v>0.37202380952380948</v>
       </c>
       <c r="K318" s="5"/>
     </row>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.036194640297664699</v>
+        <v>0.025336248208365299</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.68352699931647298</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -15006,17 +15006,17 @@
         <v>882</v>
       </c>
       <c r="F331" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="5">
-        <v>0.043912078261081698</v>
+        <v>0.048791198067868601</v>
       </c>
       <c r="I331" s="5">
-        <v>11.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="J331" s="5">
-        <v>1.0204081632653061</v>
+        <v>1.1337868480725624</v>
       </c>
       <c r="K331" s="5"/>
     </row>
@@ -15192,17 +15192,17 @@
         <v>1351</v>
       </c>
       <c r="F337" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="5">
-        <v>0.015786416104670301</v>
+        <v>0.0094718496628021492</v>
       </c>
       <c r="I337" s="5">
-        <v>40</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J337" s="5">
-        <v>0.37009622501850481</v>
+        <v>0.22205773501110287</v>
       </c>
       <c r="K337" s="5"/>
     </row>
@@ -15254,17 +15254,17 @@
         <v>1190</v>
       </c>
       <c r="F339" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="5">
-        <v>0.0292392775392224</v>
+        <v>0.025062237890762101</v>
       </c>
       <c r="I339" s="5">
         <v>0</v>
       </c>
       <c r="J339" s="5">
-        <v>0.58823529411764708</v>
+        <v>0.50420168067226889</v>
       </c>
       <c r="K339" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.0254568802876062</v>
+        <v>0.028285422541784601</v>
       </c>
       <c r="I342" s="5">
-        <v>44.4444444444444</v>
+        <v>50</v>
       </c>
       <c r="J342" s="5">
-        <v>0.26026604973973394</v>
+        <v>0.2891844997108155</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15378,17 +15378,17 @@
         <v>3178</v>
       </c>
       <c r="F343" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="5">
-        <v>0.0082897774609240592</v>
+        <v>0.0124346661913861</v>
       </c>
       <c r="I343" s="5">
-        <v>50</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="J343" s="5">
-        <v>0.06293266205160479</v>
+        <v>0.094398993077407178</v>
       </c>
       <c r="K343" s="5"/>
     </row>
@@ -15440,17 +15440,17 @@
         <v>1022</v>
       </c>
       <c r="F345" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="5">
-        <v>0.038548684847368599</v>
+        <v>0.042831872052631802</v>
       </c>
       <c r="I345" s="5">
-        <v>55.5555555555556</v>
+        <v>50</v>
       </c>
       <c r="J345" s="5">
-        <v>0.88062622309197647</v>
+        <v>0.97847358121330719</v>
       </c>
       <c r="K345" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.034654327415818101</v>
+        <v>0.035520685601213603</v>
       </c>
       <c r="I346" s="5">
-        <v>0</v>
+        <v>2.4390243902439002</v>
       </c>
       <c r="J346" s="5">
-        <v>0.69856793573174991</v>
+        <v>0.71603213412504363</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15533,17 +15533,17 @@
         <v>1358</v>
       </c>
       <c r="F348" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="5">
-        <v>0.054745239119383698</v>
+        <v>0.078207484456262494</v>
       </c>
       <c r="I348" s="5">
         <v>100</v>
       </c>
       <c r="J348" s="5">
-        <v>0.51546391752577314</v>
+        <v>0.73637702503681879</v>
       </c>
       <c r="K348" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.015601548921777</v>
+        <v>0.014041394029599299</v>
       </c>
       <c r="I349" s="5">
-        <v>10</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J349" s="5">
-        <v>0.30138637733574442</v>
+        <v>0.27124773960216997</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15595,17 +15595,17 @@
         <v>2317</v>
       </c>
       <c r="F350" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="5">
-        <v>0.0023552742834666799</v>
+        <v>0.0094210971338667196</v>
       </c>
       <c r="I350" s="5">
         <v>0</v>
       </c>
       <c r="J350" s="5">
-        <v>0.043159257660768238</v>
+        <v>0.17263703064307295</v>
       </c>
       <c r="K350" s="5"/>
     </row>
@@ -15626,17 +15626,17 @@
         <v>952</v>
       </c>
       <c r="F351" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="5">
-        <v>0.00495785820525533</v>
+        <v>0.014873574615765999</v>
       </c>
       <c r="I351" s="5">
         <v>0</v>
       </c>
       <c r="J351" s="5">
-        <v>0.10504201680672269</v>
+        <v>0.31512605042016806</v>
       </c>
       <c r="K351" s="5"/>
     </row>
@@ -15719,17 +15719,17 @@
         <v>602</v>
       </c>
       <c r="F354" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="5">
-        <v>0.025328639092221598</v>
+        <v>0.0084428796974071896</v>
       </c>
       <c r="I354" s="5">
-        <v>33.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="J354" s="5">
-        <v>0.49833887043189368</v>
+        <v>0.16611295681063123</v>
       </c>
       <c r="K354" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.0046015798757573396</v>
+        <v>0.00153385995858578</v>
       </c>
       <c r="I355" s="5">
         <v>0</v>
       </c>
       <c r="J355" s="5">
-        <v>0.088915234143449914</v>
+        <v>0.029638411381149969</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15936,17 +15936,17 @@
         <v>812</v>
       </c>
       <c r="F361" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="5">
-        <v>0.0233470302577512</v>
+        <v>0.0116735151288756</v>
       </c>
       <c r="I361" s="5">
         <v>0</v>
       </c>
       <c r="J361" s="5">
-        <v>0.24630541871921183</v>
+        <v>0.12315270935960591</v>
       </c>
       <c r="K361" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.034465327880152601</v>
+        <v>0.028721106566793799</v>
       </c>
       <c r="I363" s="5">
-        <v>16.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="J363" s="5">
-        <v>0.70838252656434475</v>
+        <v>0.59031877213695394</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.092774459986375402</v>
+        <v>0.097192291414298096</v>
       </c>
       <c r="I364" s="5">
-        <v>4.7619047619047601</v>
+        <v>6.3636363636363598</v>
       </c>
       <c r="J364" s="5">
-        <v>1.9762845849802373</v>
+        <v>2.0703933747412009</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.016966675187707999</v>
+        <v>0.0180977868668885</v>
       </c>
       <c r="I365" s="5">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="J365" s="5">
-        <v>0.3565486094604231</v>
+        <v>0.38031851675778461</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16153,17 +16153,17 @@
         <v>1645</v>
       </c>
       <c r="F368" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="5">
-        <v>0.010257541216082799</v>
+        <v>0.012821926520103499</v>
       </c>
       <c r="I368" s="5">
         <v>0</v>
       </c>
       <c r="J368" s="5">
-        <v>0.24316109422492402</v>
+        <v>0.303951367781155</v>
       </c>
       <c r="K368" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.0091713459638052795</v>
+        <v>0.0160498554366592</v>
       </c>
       <c r="I371" s="5">
-        <v>50</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J371" s="5">
-        <v>0.18026137899954936</v>
+        <v>0.31545741324921134</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16277,17 +16277,17 @@
         <v>4312</v>
       </c>
       <c r="F372" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="5">
-        <v>0.0086731880780834703</v>
+        <v>0.0074341612097858301</v>
       </c>
       <c r="I372" s="5">
         <v>0</v>
       </c>
       <c r="J372" s="5">
-        <v>0.16233766233766234</v>
+        <v>0.13914656771799627</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -16308,17 +16308,17 @@
         <v>1911</v>
       </c>
       <c r="F373" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G373" s="4"/>
       <c r="H373" s="5">
-        <v>0.0078321006477147202</v>
+        <v>0.0130535010795245</v>
       </c>
       <c r="I373" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J373" s="5">
-        <v>0.15698587127158556</v>
+        <v>0.2616431187859759</v>
       </c>
       <c r="K373" s="5"/>
     </row>
@@ -16346,7 +16346,7 @@
         <v>0.0116404949538454</v>
       </c>
       <c r="I374" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J374" s="5">
         <v>0.26553372278279341</v>
@@ -16370,17 +16370,17 @@
         <v>3479</v>
       </c>
       <c r="F375" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="5">
-        <v>0.0088996475739560703</v>
+        <v>0.0133494713609341</v>
       </c>
       <c r="I375" s="5">
-        <v>0</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J375" s="5">
-        <v>0.17246335153779821</v>
+        <v>0.25869502730669736</v>
       </c>
       <c r="K375" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.013592289094396699</v>
+        <v>0.0152913252311963</v>
       </c>
       <c r="I376" s="5">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J376" s="5">
-        <v>0.14339487363326761</v>
+        <v>0.16131923283742605</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.014694296465343501</v>
+        <v>0.015824626962677599</v>
       </c>
       <c r="I382" s="5">
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>0.28703908147493928</v>
+        <v>0.30911901081916537</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.0211169031759822</v>
+        <v>0.0135751520417029</v>
       </c>
       <c r="I383" s="5">
-        <v>3.5714285714285698</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J383" s="5">
-        <v>0.45506257110352671</v>
+        <v>0.29254022428083865</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16742,17 +16742,17 @@
         <v>7679</v>
       </c>
       <c r="F387" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387" s="4"/>
       <c r="H387" s="5">
-        <v>0</v>
+        <v>0.0021749485080940702</v>
       </c>
       <c r="I387" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J387" s="5">
-        <v>0</v>
+        <v>0.013022528975126969</v>
       </c>
       <c r="K387" s="5"/>
     </row>
@@ -16835,17 +16835,17 @@
         <v>917</v>
       </c>
       <c r="F390" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G390" s="4"/>
       <c r="H390" s="5">
-        <v>0.0049295080350980998</v>
+        <v>0.0098590160701961908</v>
       </c>
       <c r="I390" s="5">
         <v>0</v>
       </c>
       <c r="J390" s="5">
-        <v>0.10905125408942204</v>
+        <v>0.21810250817884408</v>
       </c>
       <c r="K390" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.084479029891094501</v>
+        <v>0.101978257511393</v>
       </c>
       <c r="I392" s="5">
-        <v>7.1428571428571397</v>
+        <v>4.14201183431953</v>
       </c>
       <c r="J392" s="5">
-        <v>1.6863406408094435</v>
+        <v>2.0356540592628281</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -16928,17 +16928,17 @@
         <v>6335</v>
       </c>
       <c r="F393" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G393" s="4"/>
       <c r="H393" s="5">
-        <v>0.0051064289210626303</v>
+        <v>0.0065654086127948097</v>
       </c>
       <c r="I393" s="5">
-        <v>28.571428571428601</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="J393" s="5">
-        <v>0.11049723756906078</v>
+        <v>0.1420678768745067</v>
       </c>
       <c r="K393" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.0144598173725066</v>
+        <v>0.012049847810422201</v>
       </c>
       <c r="I397" s="5">
         <v>0</v>
       </c>
       <c r="J397" s="5">
-        <v>0.22263450834879409</v>
+        <v>0.1855287569573284</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.011026895896373101</v>
+        <v>0.012324177766534701</v>
       </c>
       <c r="I398" s="5">
-        <v>17.647058823529399</v>
+        <v>26.315789473684202</v>
       </c>
       <c r="J398" s="5">
-        <v>0.26141780716592339</v>
+        <v>0.29217284330309085</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17114,17 +17114,17 @@
         <v>798</v>
       </c>
       <c r="F399" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="5">
-        <v>0.063507243561486196</v>
+        <v>0.078450124399482998</v>
       </c>
       <c r="I399" s="5">
-        <v>41.176470588235297</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J399" s="5">
-        <v>2.1303258145363406</v>
+        <v>2.6315789473684208</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -17145,17 +17145,17 @@
         <v>987</v>
       </c>
       <c r="F400" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G400" s="4"/>
       <c r="H400" s="5">
-        <v>0.0097378568924551094</v>
+        <v>0.014606785338682701</v>
       </c>
       <c r="I400" s="5">
         <v>0</v>
       </c>
       <c r="J400" s="5">
-        <v>0.2026342451874367</v>
+        <v>0.303951367781155</v>
       </c>
       <c r="K400" s="5"/>
     </row>
@@ -17183,7 +17183,7 @@
         <v>0.023985704520106</v>
       </c>
       <c r="I401" s="5">
-        <v>16.6666666666667</v>
+        <v>25</v>
       </c>
       <c r="J401" s="5">
         <v>0.52424639580602883</v>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.0145387931347819</v>
+        <v>0.016615763582607902</v>
       </c>
       <c r="I408" s="5">
-        <v>21.428571428571399</v>
+        <v>18.75</v>
       </c>
       <c r="J408" s="5">
-        <v>0.31897926634768742</v>
+        <v>0.36454773296878556</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17455,17 +17455,17 @@
         <v>2044</v>
       </c>
       <c r="F410" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="5">
-        <v>0.044739673965512802</v>
+        <v>0.047094393647908198</v>
       </c>
       <c r="I410" s="5">
         <v>0</v>
       </c>
       <c r="J410" s="5">
-        <v>0.92954990215264188</v>
+        <v>0.97847358121330719</v>
       </c>
       <c r="K410" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.017137242655739501</v>
+        <v>0.0190413807285994</v>
       </c>
       <c r="I418" s="5">
-        <v>22.2222222222222</v>
+        <v>20</v>
       </c>
       <c r="J418" s="5">
-        <v>1.8769551616266946</v>
+        <v>2.0855057351407713</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.0133665417637597</v>
+        <v>0.014851713070844199</v>
       </c>
       <c r="I423" s="5">
         <v>0</v>
       </c>
       <c r="J423" s="5">
-        <v>0.24304617877396706</v>
+        <v>0.27005130974885228</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17889,17 +17889,17 @@
         <v>7476</v>
       </c>
       <c r="F424" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="5">
-        <v>0.0067398388504530896</v>
+        <v>0.0084247985630663599</v>
       </c>
       <c r="I424" s="5">
         <v>0</v>
       </c>
       <c r="J424" s="5">
-        <v>0.053504547886570351</v>
+        <v>0.066880684858212941</v>
       </c>
       <c r="K424" s="5"/>
     </row>
@@ -18013,17 +18013,17 @@
         <v>637</v>
       </c>
       <c r="F428" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G428" s="4"/>
       <c r="H428" s="5">
-        <v>0.0139790733272291</v>
+        <v>0.020968609990843701</v>
       </c>
       <c r="I428" s="5">
         <v>0</v>
       </c>
       <c r="J428" s="5">
-        <v>0.31397174254317112</v>
+        <v>0.47095761381475665</v>
       </c>
       <c r="K428" s="5"/>
     </row>
@@ -18230,17 +18230,17 @@
         <v>1085</v>
       </c>
       <c r="F435" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="5">
-        <v>0.0045881367301450699</v>
+        <v>0.0055057640761740799</v>
       </c>
       <c r="I435" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J435" s="5">
-        <v>0.46082949308755761</v>
+        <v>0.55299539170506917</v>
       </c>
       <c r="K435" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.031731052301588403</v>
+        <v>0.034081500620224602</v>
       </c>
       <c r="I438" s="5">
-        <v>7.4074074074074101</v>
+        <v>5.1724137931034502</v>
       </c>
       <c r="J438" s="5">
-        <v>0.71033938437253352</v>
+        <v>0.7629571165482768</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>3080</v>
       </c>
       <c r="F439" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="5">
-        <v>0.0057833722265115597</v>
+        <v>0.00722921528313945</v>
       </c>
       <c r="I439" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J439" s="5">
-        <v>0.12987012987012986</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="K439" s="5"/>
     </row>
@@ -18416,17 +18416,17 @@
         <v>2548</v>
       </c>
       <c r="F441" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="5">
-        <v>0.020671663696837601</v>
+        <v>0.018604497327153899</v>
       </c>
       <c r="I441" s="5">
         <v>0</v>
       </c>
       <c r="J441" s="5">
-        <v>0.39246467817896385</v>
+        <v>0.35321821036106754</v>
       </c>
       <c r="K441" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.088879473907196901</v>
+        <v>0.0934846279956527</v>
       </c>
       <c r="I443" s="5">
-        <v>17.098445595854901</v>
+        <v>12.807881773399</v>
       </c>
       <c r="J443" s="5">
-        <v>1.6392050280278581</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18509,17 +18509,17 @@
         <v>2436</v>
       </c>
       <c r="F444" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="5">
-        <v>0.022225267907083599</v>
+        <v>0.025929479224930801</v>
       </c>
       <c r="I444" s="5">
-        <v>33.3333333333333</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J444" s="5">
-        <v>0.24630541871921183</v>
+        <v>0.28735632183908044</v>
       </c>
       <c r="K444" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.21156123375459501</v>
+        <v>0.19980783187934001</v>
       </c>
       <c r="I446" s="5">
-        <v>18.0555555555556</v>
+        <v>20.588235294117599</v>
       </c>
       <c r="J446" s="5">
-        <v>22.36024844720497</v>
+        <v>21.118012422360248</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.0095071041836012008</v>
+        <v>0.0085563937652410795</v>
       </c>
       <c r="I447" s="5">
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>0.22784233310549099</v>
+        <v>0.20505809979494191</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.15747074595775201</v>
+        <v>0.158326565229261</v>
       </c>
       <c r="I453" s="5">
-        <v>26.086956521739101</v>
+        <v>25.4054054054054</v>
       </c>
       <c r="J453" s="5">
-        <v>2.8696194635059262</v>
+        <v>2.8852152214597631</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18850,17 +18850,17 @@
         <v>910</v>
       </c>
       <c r="F455" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="5">
-        <v>0.020509244541977299</v>
+        <v>0.025636555677471601</v>
       </c>
       <c r="I455" s="5">
         <v>0</v>
       </c>
       <c r="J455" s="5">
-        <v>0.43956043956043955</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="K455" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.0156329292020712</v>
+        <v>0.018639261740931098</v>
       </c>
       <c r="I460" s="5">
-        <v>15.384615384615399</v>
+        <v>12.9032258064516</v>
       </c>
       <c r="J460" s="5">
-        <v>0.32610058948952714</v>
+        <v>0.38881224131443626</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19043,7 +19043,7 @@
         <v>0.018741000783585999</v>
       </c>
       <c r="I461" s="5">
-        <v>7.5471698113207504</v>
+        <v>3.7735849056603801</v>
       </c>
       <c r="J461" s="5">
         <v>0.41738856512836664</v>
@@ -19098,17 +19098,17 @@
         <v>4522</v>
       </c>
       <c r="F463" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G463" s="4"/>
       <c r="H463" s="5">
-        <v>0.025487176764190499</v>
+        <v>0.0286730738597143</v>
       </c>
       <c r="I463" s="5">
-        <v>20.8333333333333</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J463" s="5">
-        <v>0.53073861123396726</v>
+        <v>0.59708093763821313</v>
       </c>
       <c r="K463" s="5"/>
     </row>
@@ -19222,17 +19222,17 @@
         <v>2674</v>
       </c>
       <c r="F467" s="4">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G467" s="4"/>
       <c r="H467" s="5">
-        <v>0.046285403512290699</v>
+        <v>0.14657044445558701</v>
       </c>
       <c r="I467" s="5">
-        <v>66.6666666666667</v>
+        <v>89.473684210526301</v>
       </c>
       <c r="J467" s="5">
-        <v>0.44876589379207177</v>
+        <v>1.4210919970082274</v>
       </c>
       <c r="K467" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.0111815757449259</v>
+        <v>0.0149087676599012</v>
       </c>
       <c r="I468" s="5">
         <v>0</v>
       </c>
       <c r="J468" s="5">
-        <v>0.24916943521594684</v>
+        <v>0.33222591362126247</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.031167527143125501</v>
+        <v>0.0320098927415884</v>
       </c>
       <c r="I470" s="5">
-        <v>5.4054054054054097</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J470" s="5">
-        <v>0.62405127340192279</v>
+        <v>0.64091752403440716</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19353,7 +19353,7 @@
         <v>0.0173432259093921</v>
       </c>
       <c r="I471" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J471" s="5">
         <v>0.36350418029807341</v>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.0513185664158472</v>
+        <v>0.0449037456138663</v>
       </c>
       <c r="I474" s="5">
         <v>0</v>
       </c>
       <c r="J474" s="5">
-        <v>1.0582010582010581</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19625,17 +19625,17 @@
         <v>1750</v>
       </c>
       <c r="F480" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G480" s="4"/>
       <c r="H480" s="5">
-        <v>0.0154548358181275</v>
+        <v>0.0128790298484396</v>
       </c>
       <c r="I480" s="5">
         <v>0</v>
       </c>
       <c r="J480" s="5">
-        <v>0.34285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K480" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.181738727934772</v>
+        <v>0.17968019865395701</v>
       </c>
       <c r="I482" s="5">
-        <v>5.6634304207119701</v>
+        <v>6.3829787234042596</v>
       </c>
       <c r="J482" s="5">
-        <v>3.1474407944996181</v>
+        <v>3.1117901706137001</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19718,17 +19718,17 @@
         <v>3080</v>
       </c>
       <c r="F483" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="5">
-        <v>0.031326124346812999</v>
+        <v>0.032817844553804099</v>
       </c>
       <c r="I483" s="5">
         <v>0</v>
       </c>
       <c r="J483" s="5">
-        <v>0.68181818181818177</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K483" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.012661112658580401</v>
+        <v>0.00506444506343217</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.248015873015873</v>
+        <v>0.099206349206349201</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19935,17 +19935,17 @@
         <v>9058</v>
       </c>
       <c r="F490" s="4">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="5">
-        <v>0.028111515257524901</v>
+        <v>0.0327967678004457</v>
       </c>
       <c r="I490" s="5">
-        <v>1.8518518518518501</v>
+        <v>1.5873015873015901</v>
       </c>
       <c r="J490" s="5">
-        <v>0.59615809229410466</v>
+        <v>0.69551777434312212</v>
       </c>
       <c r="K490" s="5"/>
     </row>
@@ -19966,17 +19966,17 @@
         <v>1806</v>
       </c>
       <c r="F491" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="5">
-        <v>0.011259295956223899</v>
+        <v>0.0084444719671678894</v>
       </c>
       <c r="I491" s="5">
         <v>0</v>
       </c>
       <c r="J491" s="5">
-        <v>0.22148394241417496</v>
+        <v>0.16611295681063123</v>
       </c>
       <c r="K491" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0083591920960256194</v>
+        <v>0.0095533623954578498</v>
       </c>
       <c r="I492" s="5">
-        <v>21.428571428571399</v>
+        <v>18.75</v>
       </c>
       <c r="J492" s="5">
-        <v>0.19474196689386564</v>
+        <v>0.22256224787870357</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20090,17 +20090,17 @@
         <v>7840</v>
       </c>
       <c r="F495" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G495" s="4"/>
       <c r="H495" s="5">
-        <v>0.0012271760592676899</v>
+        <v>0.0024543521185353902</v>
       </c>
       <c r="I495" s="5">
         <v>0</v>
       </c>
       <c r="J495" s="5">
-        <v>0.012755102040816327</v>
+        <v>0.025510204081632654</v>
       </c>
       <c r="K495" s="5"/>
     </row>
@@ -20152,17 +20152,17 @@
         <v>1302</v>
       </c>
       <c r="F497" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="5">
-        <v>0.02904454343793</v>
+        <v>0.025413975508188701</v>
       </c>
       <c r="I497" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J497" s="5">
-        <v>0.61443932411674351</v>
+        <v>0.53763440860215062</v>
       </c>
       <c r="K497" s="5"/>
     </row>
@@ -20245,17 +20245,17 @@
         <v>2408</v>
       </c>
       <c r="F500" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G500" s="4"/>
       <c r="H500" s="5">
-        <v>0.0042753678954073997</v>
+        <v>0</v>
       </c>
       <c r="I500" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J500" s="5">
-        <v>0.041528239202657809</v>
+        <v>0</v>
       </c>
       <c r="K500" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.0161178537465951</v>
+        <v>0.020147317183243901</v>
       </c>
       <c r="I503" s="5">
-        <v>8.3333333333333304</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J503" s="5">
-        <v>0.34217279726261762</v>
+        <v>0.42771599657827203</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.026118078199158502</v>
+        <v>0.0236695083679874</v>
       </c>
       <c r="I504" s="5">
         <v>0</v>
       </c>
       <c r="J504" s="5">
-        <v>0.53972002023950072</v>
+        <v>0.48912126834204755</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20400,17 +20400,17 @@
         <v>2331</v>
       </c>
       <c r="F505" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G505" s="4"/>
       <c r="H505" s="5">
-        <v>0.019985077808569601</v>
+        <v>0.022205642009521801</v>
       </c>
       <c r="I505" s="5">
         <v>0</v>
       </c>
       <c r="J505" s="5">
-        <v>0.38610038610038611</v>
+        <v>0.42900042900042895</v>
       </c>
       <c r="K505" s="5"/>
     </row>
@@ -20431,17 +20431,17 @@
         <v>1393</v>
       </c>
       <c r="F506" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G506" s="4"/>
       <c r="H506" s="5">
-        <v>0.016739427377668301</v>
+        <v>0.0133915419021346</v>
       </c>
       <c r="I506" s="5">
         <v>0</v>
       </c>
       <c r="J506" s="5">
-        <v>0.35893754486719309</v>
+        <v>0.28715003589375449</v>
       </c>
       <c r="K506" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.016160208718073499</v>
+        <v>0.018853576837752399</v>
       </c>
       <c r="I507" s="5">
-        <v>22.2222222222222</v>
+        <v>19.047619047619001</v>
       </c>
       <c r="J507" s="5">
-        <v>0.3424006087121933</v>
+        <v>0.39946737683089217</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20493,17 +20493,17 @@
         <v>2037</v>
       </c>
       <c r="F508" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G508" s="4"/>
       <c r="H508" s="5">
-        <v>0.0025703504929932199</v>
+        <v>0</v>
       </c>
       <c r="I508" s="5">
         <v>0</v>
       </c>
       <c r="J508" s="5">
-        <v>0.049091801669121256</v>
+        <v>0</v>
       </c>
       <c r="K508" s="5"/>
     </row>
@@ -20586,17 +20586,17 @@
         <v>4620</v>
       </c>
       <c r="F511" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G511" s="4"/>
       <c r="H511" s="5">
-        <v>0.020110203917467699</v>
+        <v>0.0221212243092145</v>
       </c>
       <c r="I511" s="5">
-        <v>10</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J511" s="5">
-        <v>0.21645021645021645</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="K511" s="5"/>
     </row>
@@ -20617,17 +20617,17 @@
         <v>4788</v>
       </c>
       <c r="F512" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G512" s="4"/>
       <c r="H512" s="5">
-        <v>0.0075890887875956301</v>
+        <v>0.0085377248860450897</v>
       </c>
       <c r="I512" s="5">
-        <v>25</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J512" s="5">
-        <v>0.16708437761069339</v>
+        <v>0.18796992481203006</v>
       </c>
       <c r="K512" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.0119499492670336</v>
+        <v>0.010863590242757799</v>
       </c>
       <c r="I513" s="5">
         <v>0</v>
       </c>
       <c r="J513" s="5">
-        <v>0.27763755678950025</v>
+        <v>0.25239777889954568</v>
       </c>
       <c r="K513" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>07/01/2024</t>
+    <t>08/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4869,17 +4869,17 @@
         <v>2184</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>0.00233506283654093</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>0.045787545787545784</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -4900,17 +4900,17 @@
         <v>490</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
-        <v>0.080645161290322606</v>
+        <v>0.070564516129032306</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1.6326530612244898</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -4993,17 +4993,17 @@
         <v>1519</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
-        <v>0.0032358375480117398</v>
+        <v>0.0064716750960234796</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>0.065832784726793936</v>
+        <v>0.13166556945358787</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -5148,17 +5148,17 @@
         <v>2520</v>
       </c>
       <c r="F13" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
-        <v>0.0143036193520818</v>
+        <v>0.016091571771092002</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0.31746031746031744</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.0098313916334857206</v>
+        <v>0.0122892395418571</v>
       </c>
       <c r="I15" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J15" s="5">
-        <v>0.1070090957731407</v>
+        <v>0.13376136971642588</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.25855382228733897</v>
+        <v>0.291972343535363</v>
       </c>
       <c r="I17" s="5">
-        <v>8.1632653061224492</v>
+        <v>8.4337349397590398</v>
       </c>
       <c r="J17" s="5">
-        <v>4.0384615384615383</v>
+        <v>4.5604395604395602</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5303,17 +5303,17 @@
         <v>1344</v>
       </c>
       <c r="F18" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5">
-        <v>0.028961163080309299</v>
+        <v>0.050682035390541301</v>
       </c>
       <c r="I18" s="5">
-        <v>25</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J18" s="5">
-        <v>0.29761904761904762</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.024246519425458701</v>
+        <v>0.026644526841163401</v>
       </c>
       <c r="I19" s="5">
-        <v>14.285714285714301</v>
+        <v>17</v>
       </c>
       <c r="J19" s="5">
-        <v>0.47759000734753859</v>
+        <v>0.52482418389839403</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.0143297574396651</v>
+        <v>0.015921952710738999</v>
       </c>
       <c r="I20" s="5">
-        <v>7.4074074074074101</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J20" s="5">
-        <v>0.31798374749735014</v>
+        <v>0.35331527499705567</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.040928731384735899</v>
+        <v>0.052622654637517599</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J24" s="5">
-        <v>4.0816326530612246</v>
+        <v>5.2478134110787176</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5613,17 +5613,17 @@
         <v>5054</v>
       </c>
       <c r="F28" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5">
-        <v>0.0126981593111067</v>
+        <v>0.018140227587295301</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>0.2770083102493075</v>
+        <v>0.39572615749901069</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -5644,17 +5644,17 @@
         <v>1155</v>
       </c>
       <c r="F29" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
-        <v>0.026687304849083299</v>
+        <v>0.045749665455571402</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <v>0.60606060606060608</v>
+        <v>1.0389610389610389</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.0049946806650916801</v>
+        <v>0.0066595742201222396</v>
       </c>
       <c r="I30" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J30" s="5">
-        <v>0.099900099900099903</v>
+        <v>0.13320013320013319</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.15622697126013299</v>
+        <v>0.16998280520756601</v>
       </c>
       <c r="I33" s="5">
-        <v>18.238993710691801</v>
+        <v>17.341040462427699</v>
       </c>
       <c r="J33" s="5">
-        <v>2.988721804511278</v>
+        <v>3.2518796992481205</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.033863790803045898</v>
+        <v>0.037250169883350497</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="J34" s="5">
-        <v>0.67491563554555678</v>
+        <v>0.74240719910011244</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.0176699291435841</v>
+        <v>0.018809924572202499</v>
       </c>
       <c r="I36" s="5">
-        <v>3.2258064516128999</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5">
-        <v>0.38144456749107913</v>
+        <v>0.40605389442598738</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5892,17 +5892,17 @@
         <v>1589</v>
       </c>
       <c r="F37" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
-        <v>0.0151061965618297</v>
+        <v>0.0060424786247318604</v>
       </c>
       <c r="I37" s="5">
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <v>0.31466331025802391</v>
+        <v>0.12586532410320958</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -5923,17 +5923,17 @@
         <v>1407</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5">
-        <v>0.0073578644534210398</v>
+        <v>0.014715728906842101</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>0.071073205401563616</v>
+        <v>0.14214641080312723</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -5954,17 +5954,17 @@
         <v>1281</v>
       </c>
       <c r="F39" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5">
-        <v>0.025261243358398099</v>
+        <v>0.033681657811197502</v>
       </c>
       <c r="I39" s="5">
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <v>0.23419203747072601</v>
+        <v>0.31225604996096801</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -5985,17 +5985,17 @@
         <v>133</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5">
-        <v>0.0061492295015434604</v>
+        <v>0.0122984590030869</v>
       </c>
       <c r="I40" s="5">
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <v>0.75187969924812026</v>
+        <v>1.5037593984962405</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -6109,17 +6109,17 @@
         <v>427</v>
       </c>
       <c r="F44" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>0.0091457837936711195</v>
+        <v>0.0137186756905067</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0.93676814988290402</v>
+        <v>1.405152224824356</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.058035327019904298</v>
+        <v>0.064755206990630004</v>
       </c>
       <c r="I45" s="5">
-        <v>11.0526315789474</v>
+        <v>9.9056603773584904</v>
       </c>
       <c r="J45" s="5">
-        <v>0.93984962406015038</v>
+        <v>1.0486743173723783</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6171,17 +6171,17 @@
         <v>959</v>
       </c>
       <c r="F46" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
-        <v>0.083592382644131602</v>
+        <v>0.078367858728873294</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>1.6684045881126173</v>
+        <v>1.5641293013555788</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -6202,17 +6202,17 @@
         <v>658</v>
       </c>
       <c r="F47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5">
-        <v>0.030112545639326999</v>
+        <v>0.0376406820491587</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>0.60790273556231</v>
+        <v>0.75987841945288759</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -6233,17 +6233,17 @@
         <v>1148</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5">
-        <v>0.0084850387554145194</v>
+        <v>0.0212125968885363</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>0.17421602787456447</v>
+        <v>0.43554006968641112</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -6295,17 +6295,17 @@
         <v>2856</v>
       </c>
       <c r="F50" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5">
-        <v>0.0135180804325786</v>
+        <v>0.018587360594795502</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.38515406162464988</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -6357,17 +6357,17 @@
         <v>896</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5">
-        <v>0</v>
+        <v>0.0057698410408793203</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <v>0</v>
+        <v>0.11160714285714285</v>
       </c>
       <c r="K52" s="5"/>
     </row>
@@ -6419,17 +6419,17 @@
         <v>308</v>
       </c>
       <c r="F54" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5">
-        <v>0.0064490124949617101</v>
+        <v>0.0096735187424425596</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>0.64935064935064934</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="K54" s="5"/>
     </row>
@@ -6543,17 +6543,17 @@
         <v>833</v>
       </c>
       <c r="F58" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
-        <v>0.023782626791129101</v>
+        <v>0.083239193768951794</v>
       </c>
       <c r="I58" s="5">
-        <v>25</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J58" s="5">
-        <v>0.48019207683073228</v>
+        <v>1.680672268907563</v>
       </c>
       <c r="K58" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.027697652426116499</v>
+        <v>0.030863098417672701</v>
       </c>
       <c r="I60" s="5">
-        <v>0</v>
+        <v>2.5641025641025599</v>
       </c>
       <c r="J60" s="5">
-        <v>0.59808612440191389</v>
+        <v>0.66643882433356116</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.092920071316154706</v>
+        <v>0.100663410592501</v>
       </c>
       <c r="I63" s="5">
-        <v>12.5</v>
+        <v>12.412587412587399</v>
       </c>
       <c r="J63" s="5">
-        <v>1.7127286882055275</v>
+        <v>1.8554560788893213</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6729,17 +6729,17 @@
         <v>6286</v>
       </c>
       <c r="F64" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>0.00603637367869439</v>
+        <v>0.0075454670983679901</v>
       </c>
       <c r="I64" s="5">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="J64" s="5">
-        <v>0.12726694241170855</v>
+        <v>0.15908367801463569</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -6822,17 +6822,17 @@
         <v>371</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5">
-        <v>0</v>
+        <v>0.0137174211248285</v>
       </c>
       <c r="I67" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J67" s="5">
-        <v>0</v>
+        <v>0.26954177897574128</v>
       </c>
       <c r="K67" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.012621338391965799</v>
+        <v>0.0113592045527692</v>
       </c>
       <c r="I70" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0.12732365673542145</v>
+        <v>0.11459129106187931</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -6946,17 +6946,17 @@
         <v>3801</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
-        <v>0.0012046465627217301</v>
+        <v>0.0024092931254434602</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <v>0.026308866087871613</v>
+        <v>0.052617732175743226</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -7039,17 +7039,17 @@
         <v>4956</v>
       </c>
       <c r="F74" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
-        <v>0.020002727644678801</v>
+        <v>0.021821157430558701</v>
       </c>
       <c r="I74" s="5">
-        <v>4.5454545454545503</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="J74" s="5">
-        <v>0.44390637610976597</v>
+        <v>0.48426150121065376</v>
       </c>
       <c r="K74" s="5"/>
     </row>
@@ -7070,17 +7070,17 @@
         <v>9058</v>
       </c>
       <c r="F75" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
-        <v>0.0033890082841886802</v>
+        <v>0.00387315232478706</v>
       </c>
       <c r="I75" s="5">
-        <v>42.857142857142897</v>
+        <v>50</v>
       </c>
       <c r="J75" s="5">
-        <v>0.077279752704791344</v>
+        <v>0.088319717376904389</v>
       </c>
       <c r="K75" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.10186686369109101</v>
+        <v>0.108003421744771</v>
       </c>
       <c r="I76" s="5">
-        <v>9.6385542168674707</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J76" s="5">
-        <v>2.4702380952380953</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7194,17 +7194,17 @@
         <v>1932</v>
       </c>
       <c r="F79" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
-        <v>0.015736796827461801</v>
+        <v>0.0236051952411926</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="5">
-        <v>0.3105590062111801</v>
+        <v>0.46583850931677018</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.022824037502601601</v>
+        <v>0.0247582779689237</v>
       </c>
       <c r="I88" s="5">
-        <v>6.7796610169491496</v>
+        <v>6.25</v>
       </c>
       <c r="J88" s="5">
-        <v>0.50410116199589883</v>
+        <v>0.54682159945317843</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.0188445288679338</v>
+        <v>0.020938365408815302</v>
       </c>
       <c r="I90" s="5">
-        <v>6.6666666666666696</v>
+        <v>8</v>
       </c>
       <c r="J90" s="5">
-        <v>2.0279405137449302</v>
+        <v>2.253267237494367</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7566,17 +7566,17 @@
         <v>1428</v>
       </c>
       <c r="F91" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
-        <v>0.012099725941207401</v>
+        <v>0.0090747944559055709</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="5">
-        <v>0.28011204481792717</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.028801843317972399</v>
+        <v>0.0292900101538702</v>
       </c>
       <c r="I93" s="5">
-        <v>13.559322033898299</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="J93" s="5">
-        <v>0.49843710399594493</v>
+        <v>0.50688519050435077</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7659,17 +7659,17 @@
         <v>5929</v>
       </c>
       <c r="F94" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
-        <v>0.0055867259391685397</v>
+        <v>0.00478862223357303</v>
       </c>
       <c r="I94" s="5">
-        <v>42.857142857142897</v>
+        <v>50</v>
       </c>
       <c r="J94" s="5">
-        <v>0.11806375442739078</v>
+        <v>0.10119750379490638</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -7690,17 +7690,17 @@
         <v>1365</v>
       </c>
       <c r="F95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5">
-        <v>0.0040979239917057998</v>
+        <v>0.0081958479834115996</v>
       </c>
       <c r="I95" s="5">
         <v>0</v>
       </c>
       <c r="J95" s="5">
-        <v>0.073260073260073263</v>
+        <v>0.14652014652014653</v>
       </c>
       <c r="K95" s="5"/>
     </row>
@@ -7752,17 +7752,17 @@
         <v>1344</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5">
-        <v>0</v>
+        <v>0.0039849686980708799</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>0</v>
+        <v>0.074404761904761904</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.0192927285706017</v>
+        <v>0.025723638094135699</v>
       </c>
       <c r="I98" s="5">
         <v>50</v>
       </c>
       <c r="J98" s="5">
-        <v>0.1943634596695821</v>
+        <v>0.25915127955944284</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7938,17 +7938,17 @@
         <v>1309</v>
       </c>
       <c r="F103" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
-        <v>0.0239297422766757</v>
+        <v>0.020511207665721998</v>
       </c>
       <c r="I103" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J103" s="5">
-        <v>0.53475935828876997</v>
+        <v>0.45836516424751722</v>
       </c>
       <c r="K103" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.0106737334143065</v>
+        <v>0.0139862713704706</v>
       </c>
       <c r="I104" s="5">
-        <v>6.8965517241379297</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J104" s="5">
-        <v>1.0902255639097744</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8031,17 +8031,17 @@
         <v>2639</v>
       </c>
       <c r="F106" s="4">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>0.11192918487096799</v>
+        <v>0.12710602349753999</v>
       </c>
       <c r="I106" s="5">
-        <v>1.6949152542372901</v>
+        <v>1.4925373134328399</v>
       </c>
       <c r="J106" s="5">
-        <v>2.2356953391436152</v>
+        <v>2.5388404698749527</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.034456998033018597</v>
+        <v>0.039588891357085203</v>
       </c>
       <c r="I110" s="5">
-        <v>6.3829787234042596</v>
+        <v>5.5555555555555598</v>
       </c>
       <c r="J110" s="5">
-        <v>0.69290874244434619</v>
+        <v>0.79610791685095095</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8186,17 +8186,17 @@
         <v>6923</v>
       </c>
       <c r="F111" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5">
-        <v>0.0066384576473040597</v>
+        <v>0.0073023034120344599</v>
       </c>
       <c r="I111" s="5">
-        <v>10</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J111" s="5">
-        <v>0.14444604940054889</v>
+        <v>0.15889065434060379</v>
       </c>
       <c r="K111" s="5"/>
     </row>
@@ -8217,17 +8217,17 @@
         <v>595</v>
       </c>
       <c r="F112" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
-        <v>0.020613739744664499</v>
+        <v>0.027484986326219301</v>
       </c>
       <c r="I112" s="5">
         <v>0</v>
       </c>
       <c r="J112" s="5">
-        <v>0.50420168067226889</v>
+        <v>0.67226890756302526</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -8255,7 +8255,7 @@
         <v>0.073120017867873505</v>
       </c>
       <c r="I113" s="5">
-        <v>43.636363636363598</v>
+        <v>38.181818181818201</v>
       </c>
       <c r="J113" s="5">
         <v>1.4157014157014158</v>
@@ -8403,17 +8403,17 @@
         <v>1974</v>
       </c>
       <c r="F118" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5">
-        <v>0.0048137326164080898</v>
+        <v>0.0096274652328161795</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
       </c>
       <c r="J118" s="5">
-        <v>0.050658561296859174</v>
+        <v>0.10131712259371835</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.11906799526704701</v>
+        <v>0.12650974497123799</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>2.3443223443223444</v>
+        <v>2.4908424908424909</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8558,17 +8558,17 @@
         <v>3619</v>
       </c>
       <c r="F123" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
-        <v>0.0073007621995736403</v>
+        <v>0.0087609146394883597</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
       </c>
       <c r="J123" s="5">
-        <v>0.13815971262779772</v>
+        <v>0.16579165515335728</v>
       </c>
       <c r="K123" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>0.0064052471784886199</v>
+        <v>0.0106754119641477</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>0.6696428571428571</v>
+        <v>1.1160714285714286</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8682,17 +8682,17 @@
         <v>126</v>
       </c>
       <c r="F127" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5">
-        <v>0.0115419463184077</v>
+        <v>0.017312919477611498</v>
       </c>
       <c r="I127" s="5">
         <v>0</v>
       </c>
       <c r="J127" s="5">
-        <v>1.5873015873015872</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="K127" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.031492228524508399</v>
+        <v>0.039941363006693598</v>
       </c>
       <c r="I129" s="5">
-        <v>6.0975609756097597</v>
+        <v>5.7692307692307701</v>
       </c>
       <c r="J129" s="5">
-        <v>0.66107707191228637</v>
+        <v>0.83843921315704606</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.11669578943166101</v>
+        <v>0.122837673085959</v>
       </c>
       <c r="I130" s="5">
-        <v>7.8947368421052602</v>
+        <v>7.5</v>
       </c>
       <c r="J130" s="5">
-        <v>2.6741731175228711</v>
+        <v>2.8149190710767065</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.022350164497210698</v>
+        <v>0.0234676727220712</v>
       </c>
       <c r="I135" s="5">
-        <v>5</v>
+        <v>9.5238095238095202</v>
       </c>
       <c r="J135" s="5">
-        <v>0.4464285714285714</v>
+        <v>0.46875</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.025989984499573199</v>
+        <v>0.029108782639522001</v>
       </c>
       <c r="I138" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J138" s="5">
-        <v>0.55456965394853597</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9054,17 +9054,17 @@
         <v>2114</v>
       </c>
       <c r="F139" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>0.023888536090601299</v>
+        <v>0.029860670113251601</v>
       </c>
       <c r="I139" s="5">
-        <v>8.3333333333333304</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J139" s="5">
-        <v>0.56764427625354774</v>
+        <v>0.70955534531693476</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.026229415780869299</v>
+        <v>0.028186834868993899</v>
       </c>
       <c r="I140" s="5">
-        <v>8.9552238805970106</v>
+        <v>9.7222222222222197</v>
       </c>
       <c r="J140" s="5">
-        <v>0.56535313475656068</v>
+        <v>0.60754366720108011</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9178,17 +9178,17 @@
         <v>889</v>
       </c>
       <c r="F143" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5">
-        <v>0.052369425565589801</v>
+        <v>0.046550600502746502</v>
       </c>
       <c r="I143" s="5">
-        <v>11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="J143" s="5">
-        <v>1.0123734533183353</v>
+        <v>0.89988751406074252</v>
       </c>
       <c r="K143" s="5"/>
     </row>
@@ -9302,17 +9302,17 @@
         <v>7966</v>
       </c>
       <c r="F147" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>0.018935852432901999</v>
+        <v>0.017160616267317401</v>
       </c>
       <c r="I147" s="5">
-        <v>12.5</v>
+        <v>13.7931034482759</v>
       </c>
       <c r="J147" s="5">
-        <v>0.40170725583730854</v>
+        <v>0.36404720060256091</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -9395,17 +9395,17 @@
         <v>714</v>
       </c>
       <c r="F150" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="5">
-        <v>0.0063957838992536103</v>
+        <v>0.0127915677985072</v>
       </c>
       <c r="I150" s="5">
         <v>0</v>
       </c>
       <c r="J150" s="5">
-        <v>0.14005602240896359</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="K150" s="5"/>
     </row>
@@ -9612,17 +9612,17 @@
         <v>133</v>
       </c>
       <c r="F157" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5">
-        <v>0.31240237425804401</v>
+        <v>0.38182512409316499</v>
       </c>
       <c r="I157" s="5">
         <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>6.7669172932330826</v>
+        <v>8.2706766917293226</v>
       </c>
       <c r="K157" s="5"/>
     </row>
@@ -9798,17 +9798,17 @@
         <v>2667</v>
       </c>
       <c r="F163" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5">
-        <v>0.0066678891130040503</v>
+        <v>0.0100018336695061</v>
       </c>
       <c r="I163" s="5">
         <v>0</v>
       </c>
       <c r="J163" s="5">
-        <v>0.14998125234345708</v>
+        <v>0.22497187851518563</v>
       </c>
       <c r="K163" s="5"/>
     </row>
@@ -9891,17 +9891,17 @@
         <v>1379</v>
       </c>
       <c r="F166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5">
-        <v>0.0040198904177872101</v>
+        <v>0</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>0.072516316171138503</v>
+        <v>0</v>
       </c>
       <c r="K166" s="5"/>
     </row>
@@ -10046,17 +10046,17 @@
         <v>1617</v>
       </c>
       <c r="F171" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5">
-        <v>0.012150299201117799</v>
+        <v>0.015187874001397299</v>
       </c>
       <c r="I171" s="5">
         <v>0</v>
       </c>
       <c r="J171" s="5">
-        <v>0.24737167594310452</v>
+        <v>0.30921459492888065</v>
       </c>
       <c r="K171" s="5"/>
     </row>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.046878576214913502</v>
+        <v>0.044121012908153803</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.70189925681255161</v>
+        <v>0.66061106523534263</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.117117079434659</v>
+        <v>0.13942509456506999</v>
       </c>
       <c r="I174" s="5">
-        <v>5.9523809523809499</v>
+        <v>6</v>
       </c>
       <c r="J174" s="5">
-        <v>13.043478260869565</v>
+        <v>15.527950310559005</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.0667032848485547</v>
+        <v>0.069997274223791997</v>
       </c>
       <c r="I176" s="5">
-        <v>12.3456790123457</v>
+        <v>11.764705882352899</v>
       </c>
       <c r="J176" s="5">
-        <v>1.4628860393715009</v>
+        <v>1.5351273252663897</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.12973847018566401</v>
+        <v>0.13962707309615699</v>
       </c>
       <c r="I177" s="5">
-        <v>22.256097560975601</v>
+        <v>21.246458923512701</v>
       </c>
       <c r="J177" s="5">
-        <v>1.2670941821834196</v>
+        <v>1.3636714826547169</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10263,17 +10263,17 @@
         <v>945</v>
       </c>
       <c r="F178" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5">
-        <v>0.0095332974245797009</v>
+        <v>0.019066594849159402</v>
       </c>
       <c r="I178" s="5">
         <v>0</v>
       </c>
       <c r="J178" s="5">
-        <v>0.21164021164021166</v>
+        <v>0.42328042328042331</v>
       </c>
       <c r="K178" s="5"/>
     </row>
@@ -10325,17 +10325,17 @@
         <v>3598</v>
       </c>
       <c r="F180" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5">
-        <v>0.032896605967444301</v>
+        <v>0.041868407594929102</v>
       </c>
       <c r="I180" s="5">
-        <v>9.0909090909090899</v>
+        <v>10.714285714285699</v>
       </c>
       <c r="J180" s="5">
-        <v>0.61145080600333523</v>
+        <v>0.77821011673151752</v>
       </c>
       <c r="K180" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.038373346030473099</v>
+        <v>0.046987770649558898</v>
       </c>
       <c r="I181" s="5">
         <v>0</v>
       </c>
       <c r="J181" s="5">
-        <v>0.6097560975609756</v>
+        <v>0.74664011946241915</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.174353210103561</v>
+        <v>0.18872505822489499</v>
       </c>
       <c r="I184" s="5">
-        <v>16.268980477223401</v>
+        <v>15.831663326653301</v>
       </c>
       <c r="J184" s="5">
-        <v>2.96120246659815</v>
+        <v>3.205292908530319</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>1897</v>
       </c>
       <c r="F185" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5">
-        <v>0.055370846242710603</v>
+        <v>0.062921416184898396</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>1.1597258829731154</v>
+        <v>1.3178703215603584</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -10604,17 +10604,17 @@
         <v>721</v>
       </c>
       <c r="F189" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5">
-        <v>0.038742921345412497</v>
+        <v>0.064571535575687497</v>
       </c>
       <c r="I189" s="5">
-        <v>33.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="J189" s="5">
-        <v>0.83217753120665738</v>
+        <v>1.3869625520110958</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.20216052101773899</v>
+        <v>0.226271408845543</v>
       </c>
       <c r="I190" s="5">
-        <v>17.431192660550501</v>
+        <v>16.8032786885246</v>
       </c>
       <c r="J190" s="5">
-        <v>3.9026136770497675</v>
+        <v>4.3680630146795556</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10666,17 +10666,17 @@
         <v>182</v>
       </c>
       <c r="F191" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5">
-        <v>0.0849757553548003</v>
+        <v>0.090286740064475401</v>
       </c>
       <c r="I191" s="5">
-        <v>6.25</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J191" s="5">
-        <v>8.791208791208792</v>
+        <v>9.3406593406593412</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.182170551142736</v>
+        <v>0.19533950664703001</v>
       </c>
       <c r="I193" s="5">
-        <v>8.4337349397590398</v>
+        <v>7.8651685393258397</v>
       </c>
       <c r="J193" s="5">
-        <v>3.6596119929453259</v>
+        <v>3.9241622574955906</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.058460191949864501</v>
+        <v>0.061800774346999703</v>
       </c>
       <c r="I194" s="5">
-        <v>20</v>
+        <v>18.918918918918902</v>
       </c>
       <c r="J194" s="5">
-        <v>0.57339449541284404</v>
+        <v>0.60615989515072088</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.078294683790970598</v>
+        <v>0.084094289997709196</v>
       </c>
       <c r="I195" s="5">
-        <v>18.518518518518501</v>
+        <v>13.7931034482759</v>
       </c>
       <c r="J195" s="5">
-        <v>1.6843418590143482</v>
+        <v>1.8091079226450406</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.13499777650721001</v>
+        <v>0.142938822184105</v>
       </c>
       <c r="I196" s="5">
-        <v>10.7843137254902</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J196" s="5">
-        <v>2.0043230497150719</v>
+        <v>2.1222244055806643</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.27638672881516502</v>
+        <v>0.30134472773827398</v>
       </c>
       <c r="I197" s="5">
-        <v>14.5484949832776</v>
+        <v>13.8036809815951</v>
       </c>
       <c r="J197" s="5">
-        <v>2.338586680223691</v>
+        <v>2.5497634038559305</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10883,17 +10883,17 @@
         <v>1568</v>
       </c>
       <c r="F198" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="5">
-        <v>0.033029958172062099</v>
+        <v>0.0300272347018746</v>
       </c>
       <c r="I198" s="5">
-        <v>9.0909090909090899</v>
+        <v>0</v>
       </c>
       <c r="J198" s="5">
-        <v>0.70153061224489799</v>
+        <v>0.63775510204081631</v>
       </c>
       <c r="K198" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.028872805666769301</v>
+        <v>0.033684939944564202</v>
       </c>
       <c r="I199" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J199" s="5">
-        <v>0.54249547920433994</v>
+        <v>0.63291139240506333</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>1055</v>
+        <v>1108</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.42547682643489498</v>
+        <v>0.44685149164915999</v>
       </c>
       <c r="I201" s="5">
-        <v>12.8909952606635</v>
+        <v>11.7328519855596</v>
       </c>
       <c r="J201" s="5">
-        <v>3.9630367003493481</v>
+        <v>4.1621276435896473</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.40314201802743899</v>
+        <v>0.459639355470714</v>
       </c>
       <c r="I202" s="5">
-        <v>12.589073634204301</v>
+        <v>10.625</v>
       </c>
       <c r="J202" s="5">
-        <v>4.6086480569239185</v>
+        <v>5.2545155993431854</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>1304</v>
+        <v>1391</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.58458218288546004</v>
+        <v>0.62358421502582395</v>
       </c>
       <c r="I203" s="5">
-        <v>13.1901840490798</v>
+        <v>13.0841121495327</v>
       </c>
       <c r="J203" s="5">
-        <v>5.6467327761659378</v>
+        <v>6.0234703156800764</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>921</v>
+        <v>1002</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.298443621375174</v>
+        <v>0.32469110599123102</v>
       </c>
       <c r="I204" s="5">
-        <v>12.8121606948969</v>
+        <v>12.375249500998001</v>
       </c>
       <c r="J204" s="5">
-        <v>3.122245575971252</v>
+        <v>3.3968404637602547</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>786</v>
+        <v>892</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.432913308283846</v>
+        <v>0.49129601907021703</v>
       </c>
       <c r="I205" s="5">
-        <v>11.577608142493601</v>
+        <v>10.426008968609899</v>
       </c>
       <c r="J205" s="5">
-        <v>4.2484190043781416</v>
+        <v>4.821361007513107</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.039363817723480202</v>
+        <v>0.044087475850297798</v>
       </c>
       <c r="I206" s="5">
-        <v>0</v>
+        <v>3.5714285714285698</v>
       </c>
       <c r="J206" s="5">
-        <v>0.8248102936324645</v>
+        <v>0.92378752886836024</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11162,17 +11162,17 @@
         <v>308</v>
       </c>
       <c r="F207" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="5">
-        <v>0.028532230721128399</v>
+        <v>0.035665288401410401</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>3.8961038961038961</v>
+        <v>4.8701298701298708</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -11224,17 +11224,17 @@
         <v>2058</v>
       </c>
       <c r="F209" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="5">
-        <v>0.016182800919183098</v>
+        <v>0.0215770678922441</v>
       </c>
       <c r="I209" s="5">
         <v>0</v>
       </c>
       <c r="J209" s="5">
-        <v>0.29154518950437319</v>
+        <v>0.3887269193391642</v>
       </c>
       <c r="K209" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.0568659290945049</v>
+        <v>0.061078220138542298</v>
       </c>
       <c r="I211" s="5">
-        <v>3.7037037037037002</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="J211" s="5">
-        <v>1.1479591836734695</v>
+        <v>1.2329931972789114</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11379,17 +11379,17 @@
         <v>1211</v>
       </c>
       <c r="F214" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="5">
-        <v>0.044707087292620101</v>
+        <v>0.036578525966689202</v>
       </c>
       <c r="I214" s="5">
-        <v>9.0909090909090899</v>
+        <v>0</v>
       </c>
       <c r="J214" s="5">
-        <v>0.90834021469859627</v>
+        <v>0.74318744838976047</v>
       </c>
       <c r="K214" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.0594745424177393</v>
+        <v>0.054518330549594297</v>
       </c>
       <c r="I215" s="5">
-        <v>8.3333333333333304</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J215" s="5">
-        <v>1.3498312710911136</v>
+        <v>1.2373453318335208</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.0320898625393186</v>
+        <v>0.034138151637573</v>
       </c>
       <c r="I217" s="5">
-        <v>10.6382978723404</v>
+        <v>10</v>
       </c>
       <c r="J217" s="5">
-        <v>0.5978883093753975</v>
+        <v>0.63605139295255064</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11503,17 +11503,17 @@
         <v>4424</v>
       </c>
       <c r="F218" s="4">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="5">
-        <v>0.063023236094209401</v>
+        <v>0.076773760332946001</v>
       </c>
       <c r="I218" s="5">
-        <v>10.909090909090899</v>
+        <v>7.4626865671641802</v>
       </c>
       <c r="J218" s="5">
-        <v>1.2432188065099457</v>
+        <v>1.5144665461121156</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.067328805652144594</v>
+        <v>0.065156908695623794</v>
       </c>
       <c r="I219" s="5">
-        <v>38.709677419354797</v>
+        <v>36.6666666666667</v>
       </c>
       <c r="J219" s="5">
-        <v>1.4285714285714286</v>
+        <v>1.3824884792626728</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11565,17 +11565,17 @@
         <v>2639</v>
       </c>
       <c r="F220" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="5">
-        <v>0.020224264623266899</v>
+        <v>0.022471405136963201</v>
       </c>
       <c r="I220" s="5">
         <v>0</v>
       </c>
       <c r="J220" s="5">
-        <v>0.34103827207275483</v>
+        <v>0.37893141341417202</v>
       </c>
       <c r="K220" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.061135437920783797</v>
+        <v>0.068777367660881703</v>
       </c>
       <c r="I221" s="5">
-        <v>11.842105263157899</v>
+        <v>12.8654970760234</v>
       </c>
       <c r="J221" s="5">
-        <v>1.3041613041613043</v>
+        <v>1.4671814671814671</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11627,17 +11627,17 @@
         <v>175</v>
       </c>
       <c r="F222" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="5">
-        <v>0.0284556547077035</v>
+        <v>0.039837916590784901</v>
       </c>
       <c r="I222" s="5">
         <v>0</v>
       </c>
       <c r="J222" s="5">
-        <v>2.8571428571428572</v>
+        <v>4</v>
       </c>
       <c r="K222" s="5"/>
     </row>
@@ -11658,17 +11658,17 @@
         <v>658</v>
       </c>
       <c r="F223" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="5">
-        <v>0.0946190853973638</v>
+        <v>0.065505520659713407</v>
       </c>
       <c r="I223" s="5">
-        <v>15.384615384615399</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J223" s="5">
-        <v>1.9756838905775076</v>
+        <v>1.3677811550151975</v>
       </c>
       <c r="K223" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.019912448109732299</v>
+        <v>0.025152566033346001</v>
       </c>
       <c r="I224" s="5">
-        <v>5.2631578947368398</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="J224" s="5">
-        <v>0.3812199036918138</v>
+        <v>0.4815409309791332</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11782,17 +11782,17 @@
         <v>714</v>
       </c>
       <c r="F227" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="5">
-        <v>0.0067024577912720602</v>
+        <v>0.0134049155825441</v>
       </c>
       <c r="I227" s="5">
         <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>0.14005602240896359</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="K227" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.29666605398677298</v>
+        <v>0.32891236420272602</v>
       </c>
       <c r="I228" s="5">
-        <v>9.7826086956521703</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J228" s="5">
-        <v>6.2288422477995935</v>
+        <v>6.9058903182125935</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.072158469309373599</v>
+        <v>0.080887316403249407</v>
       </c>
       <c r="I229" s="5">
-        <v>8.0645161290322598</v>
+        <v>8.6330935251798593</v>
       </c>
       <c r="J229" s="5">
-        <v>7.1428571428571423</v>
+        <v>8.0069124423963132</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11906,17 +11906,17 @@
         <v>2023</v>
       </c>
       <c r="F231" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="5">
-        <v>0.061145406323963598</v>
+        <v>0.058597681060465201</v>
       </c>
       <c r="I231" s="5">
-        <v>45.8333333333333</v>
+        <v>60.869565217391298</v>
       </c>
       <c r="J231" s="5">
-        <v>1.1863568956994563</v>
+        <v>1.1369253583786456</v>
       </c>
       <c r="K231" s="5"/>
     </row>
@@ -11937,17 +11937,17 @@
         <v>217</v>
       </c>
       <c r="F232" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="5">
-        <v>0.078111100021263605</v>
+        <v>0.086790111134737294</v>
       </c>
       <c r="I232" s="5">
-        <v>11.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="J232" s="5">
-        <v>8.2949308755760374</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.091161026837806303</v>
+        <v>0.100277129521587</v>
       </c>
       <c r="I235" s="5">
-        <v>5</v>
+        <v>4.5454545454545503</v>
       </c>
       <c r="J235" s="5">
-        <v>9.8522167487684733</v>
+        <v>10.83743842364532</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12092,17 +12092,17 @@
         <v>3122</v>
       </c>
       <c r="F237" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="5">
-        <v>0.021800401750260798</v>
+        <v>0.018686058643080702</v>
       </c>
       <c r="I237" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J237" s="5">
-        <v>0.22421524663677131</v>
+        <v>0.19218449711723257</v>
       </c>
       <c r="K237" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.095454142563683994</v>
+        <v>0.0935060988378945</v>
       </c>
       <c r="I238" s="5">
-        <v>2.0408163265306101</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="J238" s="5">
-        <v>1.66270783847981</v>
+        <v>1.6287750254496098</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12154,17 +12154,17 @@
         <v>2611</v>
       </c>
       <c r="F239" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="5">
-        <v>0.054141069971918802</v>
+        <v>0.064969283966302596</v>
       </c>
       <c r="I239" s="5">
         <v>0</v>
       </c>
       <c r="J239" s="5">
-        <v>0.57449253159708924</v>
+        <v>0.68939103791650702</v>
       </c>
       <c r="K239" s="5"/>
     </row>
@@ -12185,17 +12185,17 @@
         <v>3332</v>
       </c>
       <c r="F240" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="5">
-        <v>0.035249951531316603</v>
+        <v>0.036718699511788203</v>
       </c>
       <c r="I240" s="5">
-        <v>8.3333333333333304</v>
+        <v>4</v>
       </c>
       <c r="J240" s="5">
-        <v>0.72028811524609848</v>
+        <v>0.75030012004801916</v>
       </c>
       <c r="K240" s="5"/>
     </row>
@@ -12216,17 +12216,17 @@
         <v>196</v>
       </c>
       <c r="F241" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="5">
-        <v>0.029511292988116802</v>
+        <v>0.034429841819469599</v>
       </c>
       <c r="I241" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J241" s="5">
-        <v>3.0612244897959182</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="K241" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>0.69013112491373396</v>
+        <v>0.78214860823556498</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>17.142857142857142</v>
+        <v>19.428571428571427</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.051277329942814101</v>
+        <v>0.062931268566181003</v>
       </c>
       <c r="I245" s="5">
-        <v>2.2727272727272698</v>
+        <v>1.8518518518518501</v>
       </c>
       <c r="J245" s="5">
-        <v>5.0691244239631335</v>
+        <v>6.2211981566820276</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.102409070985872</v>
+        <v>0.100653486911828</v>
       </c>
       <c r="I247" s="5">
-        <v>12.5714285714286</v>
+        <v>12.790697674418601</v>
       </c>
       <c r="J247" s="5">
-        <v>9.2936802973977688</v>
+        <v>9.1343600637280939</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.073482784616515098</v>
+        <v>0.070761200001088598</v>
       </c>
       <c r="I248" s="5">
-        <v>5.5555555555555598</v>
+        <v>5.7692307692307701</v>
       </c>
       <c r="J248" s="5">
-        <v>1.5037593984962405</v>
+        <v>1.4480646059593427</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12495,17 +12495,17 @@
         <v>1162</v>
       </c>
       <c r="F250" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="5">
-        <v>0.036000288002304003</v>
+        <v>0.04000032000256</v>
       </c>
       <c r="I250" s="5">
         <v>0</v>
       </c>
       <c r="J250" s="5">
-        <v>0.77452667814113596</v>
+        <v>0.86058519793459543</v>
       </c>
       <c r="K250" s="5"/>
     </row>
@@ -12557,17 +12557,17 @@
         <v>1414</v>
       </c>
       <c r="F252" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="5">
-        <v>0.016736849857067301</v>
+        <v>0.020084219828480802</v>
       </c>
       <c r="I252" s="5">
         <v>0</v>
       </c>
       <c r="J252" s="5">
-        <v>0.3536067892503536</v>
+        <v>0.42432814710042432</v>
       </c>
       <c r="K252" s="5"/>
     </row>
@@ -12619,17 +12619,17 @@
         <v>1659</v>
       </c>
       <c r="F254" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="5">
-        <v>0.062887063037445207</v>
+        <v>0.073823943565696507</v>
       </c>
       <c r="I254" s="5">
-        <v>47.826086956521699</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="J254" s="5">
-        <v>1.3863773357444245</v>
+        <v>1.62748643761302</v>
       </c>
       <c r="K254" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>916</v>
+        <v>991</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.31348434426330501</v>
+        <v>0.339151730529405</v>
       </c>
       <c r="I256" s="5">
-        <v>15.8296943231441</v>
+        <v>13.9253279515641</v>
       </c>
       <c r="J256" s="5">
-        <v>6.2581130012980797</v>
+        <v>6.7705130832820943</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.087113952625160002</v>
+        <v>0.077645044731120896</v>
       </c>
       <c r="I257" s="5">
-        <v>15.2173913043478</v>
+        <v>14.634146341463399</v>
       </c>
       <c r="J257" s="5">
-        <v>1.771274547554871</v>
+        <v>1.5787447054293418</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.30957766071306703</v>
+        <v>0.33401800234830897</v>
       </c>
       <c r="I258" s="5">
-        <v>10.6907894736842</v>
+        <v>10.2134146341463</v>
       </c>
       <c r="J258" s="5">
-        <v>2.6320346320346322</v>
+        <v>2.83982683982684</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.34655333062759702</v>
+        <v>0.38942590761245499</v>
       </c>
       <c r="I259" s="5">
-        <v>19.793814432989699</v>
+        <v>18.5321100917431</v>
       </c>
       <c r="J259" s="5">
-        <v>2.729933580997411</v>
+        <v>3.0676573229764719</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12805,17 +12805,17 @@
         <v>910</v>
       </c>
       <c r="F260" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="5">
-        <v>0.016159700937801301</v>
+        <v>0.021546267917068401</v>
       </c>
       <c r="I260" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J260" s="5">
-        <v>0.32967032967032966</v>
+        <v>0.43956043956043955</v>
       </c>
       <c r="K260" s="5"/>
     </row>
@@ -12836,17 +12836,17 @@
         <v>1106</v>
       </c>
       <c r="F261" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="5">
-        <v>0.075811179621954897</v>
+        <v>0.0800229118231746</v>
       </c>
       <c r="I261" s="5">
-        <v>5.5555555555555598</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J261" s="5">
-        <v>1.62748643761302</v>
+        <v>1.7179023508137432</v>
       </c>
       <c r="K261" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.31900313489500498</v>
+        <v>0.34263299673907899</v>
       </c>
       <c r="I262" s="5">
-        <v>9.8765432098765409</v>
+        <v>9.1954022988505706</v>
       </c>
       <c r="J262" s="5">
-        <v>30.451127819548873</v>
+        <v>32.706766917293237</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12898,17 +12898,17 @@
         <v>3430</v>
       </c>
       <c r="F263" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="5">
-        <v>0.021312674247762502</v>
+        <v>0.0226447163882477</v>
       </c>
       <c r="I263" s="5">
-        <v>31.25</v>
+        <v>29.411764705882401</v>
       </c>
       <c r="J263" s="5">
-        <v>0.46647230320699706</v>
+        <v>0.49562682215743437</v>
       </c>
       <c r="K263" s="5"/>
     </row>
@@ -12929,17 +12929,17 @@
         <v>1708</v>
       </c>
       <c r="F264" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="5">
-        <v>0.033153384131685198</v>
+        <v>0.049730076197527902</v>
       </c>
       <c r="I264" s="5">
         <v>33.3333333333333</v>
       </c>
       <c r="J264" s="5">
-        <v>0.35128805620608899</v>
+        <v>0.52693208430913352</v>
       </c>
       <c r="K264" s="5"/>
     </row>
@@ -12991,17 +12991,17 @@
         <v>1218</v>
       </c>
       <c r="F266" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="5">
-        <v>0.032647121923008803</v>
+        <v>0.0279832473625789</v>
       </c>
       <c r="I266" s="5">
         <v>0</v>
       </c>
       <c r="J266" s="5">
-        <v>0.57471264367816088</v>
+        <v>0.49261083743842365</v>
       </c>
       <c r="K266" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.42578217516146499</v>
+        <v>0.49497177862520297</v>
       </c>
       <c r="I270" s="5">
-        <v>8.75</v>
+        <v>6.9892473118279597</v>
       </c>
       <c r="J270" s="5">
-        <v>7.1206052514463725</v>
+        <v>8.2777036048064083</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13146,17 +13146,17 @@
         <v>1757</v>
       </c>
       <c r="F271" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="5">
-        <v>0.0116385982472271</v>
+        <v>0.014548247809033899</v>
       </c>
       <c r="I271" s="5">
         <v>0</v>
       </c>
       <c r="J271" s="5">
-        <v>0.22766078542970974</v>
+        <v>0.28457598178713717</v>
       </c>
       <c r="K271" s="5"/>
     </row>
@@ -13208,17 +13208,17 @@
         <v>2317</v>
       </c>
       <c r="F273" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="5">
-        <v>0.0066936793816825199</v>
+        <v>0.011156132302804199</v>
       </c>
       <c r="I273" s="5">
         <v>0</v>
       </c>
       <c r="J273" s="5">
-        <v>0.1294777729823047</v>
+        <v>0.21579628830384118</v>
       </c>
       <c r="K273" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.013849008872598399</v>
+        <v>0.0123102301089763</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.30323450134770891</v>
+        <v>0.26954177897574128</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13301,17 +13301,17 @@
         <v>4466</v>
       </c>
       <c r="F276" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="5">
-        <v>0.015849259952769201</v>
+        <v>0.0169813499493956</v>
       </c>
       <c r="I276" s="5">
-        <v>42.857142857142897</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="J276" s="5">
-        <v>0.31347962382445138</v>
+        <v>0.33587102552619796</v>
       </c>
       <c r="K276" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.042666427135847701</v>
+        <v>0.038175224279442602</v>
       </c>
       <c r="I277" s="5">
-        <v>26.315789473684202</v>
+        <v>23.529411764705898</v>
       </c>
       <c r="J277" s="5">
-        <v>0.8482142857142857</v>
+        <v>0.7589285714285714</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.0131803642228898</v>
+        <v>0.014004136986820501</v>
       </c>
       <c r="I278" s="5">
-        <v>6.25</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J278" s="5">
-        <v>0.29080334423845872</v>
+        <v>0.30897855325336243</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13401,7 +13401,7 @@
         <v>0.0105204464877489</v>
       </c>
       <c r="I279" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J279" s="5">
         <v>0.19636720667648502</v>
@@ -13425,17 +13425,17 @@
         <v>756</v>
       </c>
       <c r="F280" s="4">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="5">
-        <v>1.0014378185439401</v>
+        <v>1.2531959293510799</v>
       </c>
       <c r="I280" s="5">
-        <v>2.7932960893854699</v>
+        <v>2.2321428571428599</v>
       </c>
       <c r="J280" s="5">
-        <v>23.677248677248677</v>
+        <v>29.629629629629626</v>
       </c>
       <c r="K280" s="5"/>
     </row>
@@ -13487,17 +13487,17 @@
         <v>2002</v>
       </c>
       <c r="F282" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="5">
-        <v>0.0107992993414587</v>
+        <v>0.0151190190780422</v>
       </c>
       <c r="I282" s="5">
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>0.24975024975024976</v>
+        <v>0.34965034965034963</v>
       </c>
       <c r="K282" s="5"/>
     </row>
@@ -13518,17 +13518,17 @@
         <v>2632</v>
       </c>
       <c r="F283" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="5">
-        <v>0.0057631905022620502</v>
+        <v>0.0076842540030160698</v>
       </c>
       <c r="I283" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J283" s="5">
-        <v>0.11398176291793312</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -13580,17 +13580,17 @@
         <v>1869</v>
       </c>
       <c r="F285" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="5">
-        <v>0.0024464891657227299</v>
+        <v>0.0048929783314454597</v>
       </c>
       <c r="I285" s="5">
         <v>0</v>
       </c>
       <c r="J285" s="5">
-        <v>0.053504547886570351</v>
+        <v>0.1070090957731407</v>
       </c>
       <c r="K285" s="5"/>
     </row>
@@ -13611,17 +13611,17 @@
         <v>2100</v>
       </c>
       <c r="F286" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="5">
-        <v>0.0133250126032411</v>
+        <v>0.0244291897726087</v>
       </c>
       <c r="I286" s="5">
-        <v>0</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J286" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -13642,17 +13642,17 @@
         <v>420</v>
       </c>
       <c r="F287" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="5">
-        <v>0.028936301554843901</v>
+        <v>0.038581735406458602</v>
       </c>
       <c r="I287" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J287" s="5">
-        <v>0.7142857142857143</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="K287" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.0239451959769168</v>
+        <v>0.0312013159699219</v>
       </c>
       <c r="I288" s="5">
-        <v>9.0909090909090899</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="J288" s="5">
-        <v>0.54690089492873717</v>
+        <v>0.71262843884653637</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13704,17 +13704,17 @@
         <v>308</v>
       </c>
       <c r="F289" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="5">
-        <v>0.015826641301836201</v>
+        <v>0.018991969562203399</v>
       </c>
       <c r="I289" s="5">
         <v>0</v>
       </c>
       <c r="J289" s="5">
-        <v>1.6233766233766231</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="K289" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.0142944696483739</v>
+        <v>0.019654895766514101</v>
       </c>
       <c r="I290" s="5">
         <v>0</v>
       </c>
       <c r="J290" s="5">
-        <v>0.30804774740084712</v>
+        <v>0.42356565267616481</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.010491197884974501</v>
+        <v>0.013769697224028999</v>
       </c>
       <c r="I291" s="5">
-        <v>0</v>
+        <v>4.7619047619047601</v>
       </c>
       <c r="J291" s="5">
-        <v>0.24420024420024419</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13797,17 +13797,17 @@
         <v>5341</v>
       </c>
       <c r="F292" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="5">
-        <v>0.0208013188036122</v>
+        <v>0.022534762037246501</v>
       </c>
       <c r="I292" s="5">
-        <v>4.1666666666666696</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J292" s="5">
-        <v>0.44935405354802466</v>
+        <v>0.48680022467702683</v>
       </c>
       <c r="K292" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.022081072036047401</v>
+        <v>0.022771105537173798</v>
       </c>
       <c r="I297" s="5">
-        <v>3.125</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="J297" s="5">
-        <v>0.48632218844984804</v>
+        <v>0.50151975683890582</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14014,17 +14014,17 @@
         <v>756</v>
       </c>
       <c r="F299" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="5">
-        <v>0.020928529073215001</v>
+        <v>0.013952352715476599</v>
       </c>
       <c r="I299" s="5">
         <v>0</v>
       </c>
       <c r="J299" s="5">
-        <v>0.3968253968253968</v>
+        <v>0.26455026455026454</v>
       </c>
       <c r="K299" s="5"/>
     </row>
@@ -14045,17 +14045,17 @@
         <v>1974</v>
       </c>
       <c r="F300" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="5">
-        <v>0.012466154390828901</v>
+        <v>0.0099729235126631201</v>
       </c>
       <c r="I300" s="5">
         <v>0</v>
       </c>
       <c r="J300" s="5">
-        <v>0.25329280648429586</v>
+        <v>0.2026342451874367</v>
       </c>
       <c r="K300" s="5"/>
     </row>
@@ -14076,17 +14076,17 @@
         <v>455</v>
       </c>
       <c r="F301" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G301" s="4"/>
       <c r="H301" s="5">
-        <v>0.029410034703841001</v>
+        <v>0.0392133796051213</v>
       </c>
       <c r="I301" s="5">
         <v>0</v>
       </c>
       <c r="J301" s="5">
-        <v>0.65934065934065933</v>
+        <v>0.87912087912087911</v>
       </c>
       <c r="K301" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.019606587290487299</v>
+        <v>0.0222207989292189</v>
       </c>
       <c r="I302" s="5">
         <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>0.40431266846361186</v>
+        <v>0.4582210242587601</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14200,17 +14200,17 @@
         <v>1155</v>
       </c>
       <c r="F305" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="5">
-        <v>0.0038232584102126902</v>
+        <v>0</v>
       </c>
       <c r="I305" s="5">
         <v>0</v>
       </c>
       <c r="J305" s="5">
-        <v>0.086580086580086577</v>
+        <v>0</v>
       </c>
       <c r="K305" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0052362920419706301</v>
+        <v>0.0069817227226274996</v>
       </c>
       <c r="I306" s="5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J306" s="5">
-        <v>0.1142857142857143</v>
+        <v>0.15238095238095239</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14262,17 +14262,17 @@
         <v>1862</v>
       </c>
       <c r="F307" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="5">
-        <v>0.015613615072343099</v>
+        <v>0.0130113458936192</v>
       </c>
       <c r="I307" s="5">
         <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>0.32223415682062301</v>
+        <v>0.26852846401718583</v>
       </c>
       <c r="K307" s="5"/>
     </row>
@@ -14293,17 +14293,17 @@
         <v>1540</v>
       </c>
       <c r="F308" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G308" s="4"/>
       <c r="H308" s="5">
-        <v>0.019185817843450099</v>
+        <v>0.015988181536208401</v>
       </c>
       <c r="I308" s="5">
-        <v>16.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="J308" s="5">
-        <v>0.38961038961038963</v>
+        <v>0.32467532467532467</v>
       </c>
       <c r="K308" s="5"/>
     </row>
@@ -14324,17 +14324,17 @@
         <v>1603</v>
       </c>
       <c r="F309" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="5">
-        <v>0.0029616028194458799</v>
+        <v>0.0059232056388917702</v>
       </c>
       <c r="I309" s="5">
         <v>0</v>
       </c>
       <c r="J309" s="5">
-        <v>0.062383031815346227</v>
+        <v>0.12476606363069245</v>
       </c>
       <c r="K309" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.0277103712002153</v>
+        <v>0.030349454171664399</v>
       </c>
       <c r="I310" s="5">
-        <v>14.285714285714301</v>
+        <v>8.6956521739130395</v>
       </c>
       <c r="J310" s="5">
-        <v>0.61224489795918369</v>
+        <v>0.67055393586005829</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.068582657384153103</v>
+        <v>0.070819048385810296</v>
       </c>
       <c r="I311" s="5">
-        <v>2.1739130434782599</v>
+        <v>2.1052631578947398</v>
       </c>
       <c r="J311" s="5">
-        <v>0.70095238095238088</v>
+        <v>0.72380952380952379</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14417,17 +14417,17 @@
         <v>3185</v>
       </c>
       <c r="F312" s="4">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="5">
-        <v>0.12107950401167</v>
+        <v>0.194018964259664</v>
       </c>
       <c r="I312" s="5">
-        <v>4.8192771084337398</v>
+        <v>3.0075187969924801</v>
       </c>
       <c r="J312" s="5">
-        <v>2.60596546310832</v>
+        <v>4.1758241758241752</v>
       </c>
       <c r="K312" s="5"/>
     </row>
@@ -14448,17 +14448,17 @@
         <v>266</v>
       </c>
       <c r="F313" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="5">
-        <v>0.175202943409449</v>
+        <v>0.26280441511417402</v>
       </c>
       <c r="I313" s="5">
-        <v>16.6666666666667</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J313" s="5">
-        <v>2.2556390977443606</v>
+        <v>3.3834586466165413</v>
       </c>
       <c r="K313" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.041403550798090397</v>
+        <v>0.034010059584145699</v>
       </c>
       <c r="I314" s="5">
-        <v>1.78571428571429</v>
+        <v>2.1739130434782599</v>
       </c>
       <c r="J314" s="5">
-        <v>0.90805902383654935</v>
+        <v>0.74590562672287986</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14541,17 +14541,17 @@
         <v>1001</v>
       </c>
       <c r="F316" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="5">
-        <v>0.015503074776497301</v>
+        <v>0.0103353831843316</v>
       </c>
       <c r="I316" s="5">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="J316" s="5">
-        <v>0.29970029970029971</v>
+        <v>0.19980019980019981</v>
       </c>
       <c r="K316" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.033991315036259198</v>
+        <v>0.037646295147684999</v>
       </c>
       <c r="I317" s="5">
-        <v>3.2258064516128999</v>
+        <v>3.8834951456310698</v>
       </c>
       <c r="J317" s="5">
-        <v>0.70183382386235005</v>
+        <v>0.77729982642819406</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14820,17 +14820,17 @@
         <v>1533</v>
       </c>
       <c r="F325" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="5">
-        <v>0.0100962169475098</v>
+        <v>0.0067308112983398404</v>
       </c>
       <c r="I325" s="5">
         <v>0</v>
       </c>
       <c r="J325" s="5">
-        <v>0.19569471624266144</v>
+        <v>0.13046314416177429</v>
       </c>
       <c r="K325" s="5"/>
     </row>
@@ -14920,7 +14920,7 @@
         <v>0.014949292001530799</v>
       </c>
       <c r="I328" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J328" s="5">
         <v>0.28344671201814059</v>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.025336248208365299</v>
+        <v>0.021716784178598798</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.4784688995215311</v>
+        <v>0.41011619958988382</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -14975,17 +14975,17 @@
         <v>1477</v>
       </c>
       <c r="F330" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="5">
-        <v>0.0135055744258443</v>
+        <v>0.016881968032305301</v>
       </c>
       <c r="I330" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J330" s="5">
-        <v>0.27081922816519971</v>
+        <v>0.33852403520649971</v>
       </c>
       <c r="K330" s="5"/>
     </row>
@@ -15006,17 +15006,17 @@
         <v>882</v>
       </c>
       <c r="F331" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="5">
-        <v>0.048791198067868601</v>
+        <v>0.043912078261081698</v>
       </c>
       <c r="I331" s="5">
-        <v>10</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J331" s="5">
-        <v>1.1337868480725624</v>
+        <v>1.0204081632653061</v>
       </c>
       <c r="K331" s="5"/>
     </row>
@@ -15192,17 +15192,17 @@
         <v>1351</v>
       </c>
       <c r="F337" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="5">
-        <v>0.0094718496628021492</v>
+        <v>0.0126291328837362</v>
       </c>
       <c r="I337" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J337" s="5">
-        <v>0.22205773501110287</v>
+        <v>0.29607698001480381</v>
       </c>
       <c r="K337" s="5"/>
     </row>
@@ -15223,17 +15223,17 @@
         <v>1967</v>
       </c>
       <c r="F338" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="5">
-        <v>0.00267802864955049</v>
+        <v>0.0053560572991009896</v>
       </c>
       <c r="I338" s="5">
         <v>0</v>
       </c>
       <c r="J338" s="5">
-        <v>0.050838840874428061</v>
+        <v>0.10167768174885612</v>
       </c>
       <c r="K338" s="5"/>
     </row>
@@ -15285,17 +15285,17 @@
         <v>1015</v>
       </c>
       <c r="F340" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="5">
-        <v>0.0041390728476821204</v>
+        <v>0.0124172185430464</v>
       </c>
       <c r="I340" s="5">
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>0.09852216748768472</v>
+        <v>0.29556650246305421</v>
       </c>
       <c r="K340" s="5"/>
     </row>
@@ -15316,17 +15316,17 @@
         <v>1106</v>
       </c>
       <c r="F341" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="5">
-        <v>0.012203418787773399</v>
+        <v>0.0152542734847167</v>
       </c>
       <c r="I341" s="5">
         <v>0</v>
       </c>
       <c r="J341" s="5">
-        <v>0.36166365280289331</v>
+        <v>0.45207956600361665</v>
       </c>
       <c r="K341" s="5"/>
     </row>
@@ -15347,17 +15347,17 @@
         <v>3458</v>
       </c>
       <c r="F342" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="5">
-        <v>0.028285422541784601</v>
+        <v>0.0254568802876062</v>
       </c>
       <c r="I342" s="5">
-        <v>50</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="J342" s="5">
-        <v>0.2891844997108155</v>
+        <v>0.26026604973973394</v>
       </c>
       <c r="K342" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.035520685601213603</v>
+        <v>0.034654327415818101</v>
       </c>
       <c r="I346" s="5">
-        <v>2.4390243902439002</v>
+        <v>2.5</v>
       </c>
       <c r="J346" s="5">
-        <v>0.71603213412504363</v>
+        <v>0.69856793573174991</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15533,17 +15533,17 @@
         <v>1358</v>
       </c>
       <c r="F348" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="5">
-        <v>0.078207484456262494</v>
+        <v>0.086028232901888699</v>
       </c>
       <c r="I348" s="5">
         <v>100</v>
       </c>
       <c r="J348" s="5">
-        <v>0.73637702503681879</v>
+        <v>0.81001472754050086</v>
       </c>
       <c r="K348" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.014041394029599299</v>
+        <v>0.017161703813954699</v>
       </c>
       <c r="I349" s="5">
-        <v>11.1111111111111</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J349" s="5">
-        <v>0.27124773960216997</v>
+        <v>0.33152501506931886</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.00153385995858578</v>
+        <v>0.0076692997929289101</v>
       </c>
       <c r="I355" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J355" s="5">
-        <v>0.029638411381149969</v>
+        <v>0.14819205690574985</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15812,17 +15812,17 @@
         <v>994</v>
       </c>
       <c r="F357" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="5">
-        <v>0.0050399923392116398</v>
+        <v>0.0100799846784233</v>
       </c>
       <c r="I357" s="5">
         <v>0</v>
       </c>
       <c r="J357" s="5">
-        <v>0.1006036217303823</v>
+        <v>0.2012072434607646</v>
       </c>
       <c r="K357" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.028721106566793799</v>
+        <v>0.034465327880152601</v>
       </c>
       <c r="I363" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J363" s="5">
-        <v>0.59031877213695394</v>
+        <v>0.70838252656434475</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.097192291414298096</v>
+        <v>0.098959423985467102</v>
       </c>
       <c r="I364" s="5">
-        <v>6.3636363636363598</v>
+        <v>6.25</v>
       </c>
       <c r="J364" s="5">
-        <v>2.0703933747412009</v>
+        <v>2.1080368906455864</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.0180977868668885</v>
+        <v>0.021491121904430099</v>
       </c>
       <c r="I365" s="5">
-        <v>18.75</v>
+        <v>10.526315789473699</v>
       </c>
       <c r="J365" s="5">
-        <v>0.38031851675778461</v>
+        <v>0.45162823864986923</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16153,17 +16153,17 @@
         <v>1645</v>
       </c>
       <c r="F368" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="5">
-        <v>0.012821926520103499</v>
+        <v>0.015386311824124199</v>
       </c>
       <c r="I368" s="5">
         <v>0</v>
       </c>
       <c r="J368" s="5">
-        <v>0.303951367781155</v>
+        <v>0.36474164133738601</v>
       </c>
       <c r="K368" s="5"/>
     </row>
@@ -16215,17 +16215,17 @@
         <v>1057</v>
       </c>
       <c r="F370" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="5">
-        <v>0.018963007912315099</v>
+        <v>0.023703759890393802</v>
       </c>
       <c r="I370" s="5">
         <v>0</v>
       </c>
       <c r="J370" s="5">
-        <v>0.3784295175023652</v>
+        <v>0.47303689687795647</v>
       </c>
       <c r="K370" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.0160498554366592</v>
+        <v>0.018342691927610601</v>
       </c>
       <c r="I371" s="5">
-        <v>42.857142857142897</v>
+        <v>37.5</v>
       </c>
       <c r="J371" s="5">
-        <v>0.31545741324921134</v>
+        <v>0.36052275799909872</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16308,17 +16308,17 @@
         <v>1911</v>
       </c>
       <c r="F373" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G373" s="4"/>
       <c r="H373" s="5">
-        <v>0.0130535010795245</v>
+        <v>0.015664201295429399</v>
       </c>
       <c r="I373" s="5">
-        <v>20</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J373" s="5">
-        <v>0.2616431187859759</v>
+        <v>0.31397174254317112</v>
       </c>
       <c r="K373" s="5"/>
     </row>
@@ -16339,17 +16339,17 @@
         <v>1883</v>
       </c>
       <c r="F374" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="5">
-        <v>0.0116404949538454</v>
+        <v>0.00698429697230726</v>
       </c>
       <c r="I374" s="5">
-        <v>20</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J374" s="5">
-        <v>0.26553372278279341</v>
+        <v>0.15932023366967604</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.0152913252311963</v>
+        <v>0.027184578188793499</v>
       </c>
       <c r="I376" s="5">
-        <v>33.3333333333333</v>
+        <v>18.75</v>
       </c>
       <c r="J376" s="5">
-        <v>0.16131923283742605</v>
+        <v>0.28678974726653522</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16463,17 +16463,17 @@
         <v>1463</v>
       </c>
       <c r="F378" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G378" s="4"/>
       <c r="H378" s="5">
-        <v>0</v>
+        <v>0.0035638553787487302</v>
       </c>
       <c r="I378" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J378" s="5">
-        <v>0</v>
+        <v>0.068352699931647304</v>
       </c>
       <c r="K378" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.015824626962677599</v>
+        <v>0.016954957460011699</v>
       </c>
       <c r="I382" s="5">
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>0.30911901081916537</v>
+        <v>0.33119894016339146</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.0135751520417029</v>
+        <v>0.015837677381986701</v>
       </c>
       <c r="I383" s="5">
-        <v>5.5555555555555598</v>
+        <v>4.7619047619047601</v>
       </c>
       <c r="J383" s="5">
-        <v>0.29254022428083865</v>
+        <v>0.34129692832764508</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16649,17 +16649,17 @@
         <v>2037</v>
       </c>
       <c r="F384" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G384" s="4"/>
       <c r="H384" s="5">
-        <v>0.011517977258905699</v>
+        <v>0.016125168162468</v>
       </c>
       <c r="I384" s="5">
         <v>0</v>
       </c>
       <c r="J384" s="5">
-        <v>0.24545900834560627</v>
+        <v>0.3436426116838488</v>
       </c>
       <c r="K384" s="5"/>
     </row>
@@ -16866,17 +16866,17 @@
         <v>1435</v>
       </c>
       <c r="F391" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="5">
-        <v>0.027875438602604299</v>
+        <v>0.031359868427929802</v>
       </c>
       <c r="I391" s="5">
-        <v>12.5</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="J391" s="5">
-        <v>0.55749128919860624</v>
+        <v>0.62717770034843201</v>
       </c>
       <c r="K391" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.101978257511393</v>
+        <v>0.117063798563374</v>
       </c>
       <c r="I392" s="5">
-        <v>4.14201183431953</v>
+        <v>3.6082474226804102</v>
       </c>
       <c r="J392" s="5">
-        <v>2.0356540592628281</v>
+        <v>2.3367863165502287</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.012324177766534701</v>
+        <v>0.0103782549612924</v>
       </c>
       <c r="I398" s="5">
-        <v>26.315789473684202</v>
+        <v>31.25</v>
       </c>
       <c r="J398" s="5">
-        <v>0.29217284330309085</v>
+        <v>0.24604028909733971</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17114,17 +17114,17 @@
         <v>798</v>
       </c>
       <c r="F399" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G399" s="4"/>
       <c r="H399" s="5">
-        <v>0.078450124399482998</v>
+        <v>0.089657285027980593</v>
       </c>
       <c r="I399" s="5">
-        <v>42.857142857142897</v>
+        <v>45.8333333333333</v>
       </c>
       <c r="J399" s="5">
-        <v>2.6315789473684208</v>
+        <v>3.007518796992481</v>
       </c>
       <c r="K399" s="5"/>
     </row>
@@ -17207,17 +17207,17 @@
         <v>791</v>
       </c>
       <c r="F402" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G402" s="4"/>
       <c r="H402" s="5">
-        <v>0</v>
+        <v>0.0058032916270108403</v>
       </c>
       <c r="I402" s="5">
         <v>0</v>
       </c>
       <c r="J402" s="5">
-        <v>0</v>
+        <v>0.12642225031605564</v>
       </c>
       <c r="K402" s="5"/>
     </row>
@@ -17331,17 +17331,17 @@
         <v>1918</v>
       </c>
       <c r="F406" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="5">
-        <v>0.0047098053437451401</v>
+        <v>0.0070647080156177097</v>
       </c>
       <c r="I406" s="5">
         <v>0</v>
       </c>
       <c r="J406" s="5">
-        <v>0.10427528675703858</v>
+        <v>0.15641293013555788</v>
       </c>
       <c r="K406" s="5"/>
     </row>
@@ -17393,17 +17393,17 @@
         <v>4389</v>
       </c>
       <c r="F408" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G408" s="4"/>
       <c r="H408" s="5">
-        <v>0.016615763582607902</v>
+        <v>0.0207697044782598</v>
       </c>
       <c r="I408" s="5">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="J408" s="5">
-        <v>0.36454773296878556</v>
+        <v>0.45568466621098197</v>
       </c>
       <c r="K408" s="5"/>
     </row>
@@ -17455,17 +17455,17 @@
         <v>2044</v>
       </c>
       <c r="F410" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="5">
-        <v>0.047094393647908198</v>
+        <v>0.044739673965512802</v>
       </c>
       <c r="I410" s="5">
         <v>0</v>
       </c>
       <c r="J410" s="5">
-        <v>0.97847358121330719</v>
+        <v>0.92954990215264188</v>
       </c>
       <c r="K410" s="5"/>
     </row>
@@ -17486,17 +17486,17 @@
         <v>5943</v>
       </c>
       <c r="F411" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="5">
-        <v>0.00674967643738578</v>
+        <v>0.0075933859920590098</v>
       </c>
       <c r="I411" s="5">
-        <v>12.5</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J411" s="5">
-        <v>0.13461214874642438</v>
+        <v>0.15143866733972741</v>
       </c>
       <c r="K411" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.0190413807285994</v>
+        <v>0.019993449765029401</v>
       </c>
       <c r="I418" s="5">
-        <v>20</v>
+        <v>19.047619047619001</v>
       </c>
       <c r="J418" s="5">
-        <v>2.0855057351407713</v>
+        <v>2.1897810218978102</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17827,17 +17827,17 @@
         <v>3234</v>
       </c>
       <c r="F422" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="5">
-        <v>0.0045096709894368496</v>
+        <v>0.0060128946525824598</v>
       </c>
       <c r="I422" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J422" s="5">
-        <v>0.0927643784786642</v>
+        <v>0.12368583797155226</v>
       </c>
       <c r="K422" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.014851713070844199</v>
+        <v>0.016336884377928601</v>
       </c>
       <c r="I423" s="5">
         <v>0</v>
       </c>
       <c r="J423" s="5">
-        <v>0.27005130974885228</v>
+        <v>0.29705644072373749</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17982,17 +17982,17 @@
         <v>2723</v>
       </c>
       <c r="F427" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G427" s="4"/>
       <c r="H427" s="5">
-        <v>0.010688458907456301</v>
+        <v>0.0122153816085215</v>
       </c>
       <c r="I427" s="5">
         <v>0</v>
       </c>
       <c r="J427" s="5">
-        <v>0.25706940874035988</v>
+        <v>0.29379360998898274</v>
       </c>
       <c r="K427" s="5"/>
     </row>
@@ -18044,17 +18044,17 @@
         <v>5054</v>
       </c>
       <c r="F429" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="5">
-        <v>0.0098400596701218399</v>
+        <v>0.0118080716041462</v>
       </c>
       <c r="I429" s="5">
-        <v>10</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J429" s="5">
-        <v>0.19786307874950534</v>
+        <v>0.23743569449940641</v>
       </c>
       <c r="K429" s="5"/>
     </row>
@@ -18199,17 +18199,17 @@
         <v>1001</v>
       </c>
       <c r="F434" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G434" s="4"/>
       <c r="H434" s="5">
-        <v>0.0045975531821964297</v>
+        <v>0.0091951063643928698</v>
       </c>
       <c r="I434" s="5">
         <v>0</v>
       </c>
       <c r="J434" s="5">
-        <v>0.099900099900099903</v>
+        <v>0.19980019980019981</v>
       </c>
       <c r="K434" s="5"/>
     </row>
@@ -18230,17 +18230,17 @@
         <v>1085</v>
       </c>
       <c r="F435" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="5">
-        <v>0.0055057640761740799</v>
+        <v>0.0064233914222030898</v>
       </c>
       <c r="I435" s="5">
-        <v>16.6666666666667</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J435" s="5">
-        <v>0.55299539170506917</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="K435" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.034081500620224602</v>
+        <v>0.037019561018519803</v>
       </c>
       <c r="I438" s="5">
-        <v>5.1724137931034502</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="J438" s="5">
-        <v>0.7629571165482768</v>
+        <v>0.82872928176795579</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.0934846279956527</v>
+        <v>0.095326689631035105</v>
       </c>
       <c r="I443" s="5">
-        <v>12.807881773399</v>
+        <v>12.56038647343</v>
       </c>
       <c r="J443" s="5">
-        <v>1.7241379310344827</v>
+        <v>1.7581110922371326</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.19980783187934001</v>
+        <v>0.27620494406849899</v>
       </c>
       <c r="I446" s="5">
-        <v>20.588235294117599</v>
+        <v>24.468085106383</v>
       </c>
       <c r="J446" s="5">
-        <v>21.118012422360248</v>
+        <v>29.19254658385093</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.0085563937652410795</v>
+        <v>0.0095071041836012008</v>
       </c>
       <c r="I447" s="5">
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>0.20505809979494191</v>
+        <v>0.22784233310549099</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18757,17 +18757,17 @@
         <v>3458</v>
       </c>
       <c r="F452" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="5">
-        <v>0.012843950285349799</v>
+        <v>0.0156981614598719</v>
       </c>
       <c r="I452" s="5">
-        <v>11.1111111111111</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J452" s="5">
-        <v>0.26026604973973394</v>
+        <v>0.31810294968189706</v>
       </c>
       <c r="K452" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.158326565229261</v>
+        <v>0.17544295065945201</v>
       </c>
       <c r="I453" s="5">
-        <v>25.4054054054054</v>
+        <v>24.390243902439</v>
       </c>
       <c r="J453" s="5">
-        <v>2.8852152214597631</v>
+        <v>3.1971303805364939</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.0318483699108544</v>
+        <v>0.037819939269139603</v>
       </c>
       <c r="I459" s="5">
-        <v>9.375</v>
+        <v>7.8947368421052602</v>
       </c>
       <c r="J459" s="5">
-        <v>0.7187780772686434</v>
+        <v>0.85354896675651393</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.018639261740931098</v>
+        <v>0.019841794756475</v>
       </c>
       <c r="I460" s="5">
-        <v>12.9032258064516</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J460" s="5">
-        <v>0.38881224131443626</v>
+        <v>0.41389690204439983</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19105,7 +19105,7 @@
         <v>0.0286730738597143</v>
       </c>
       <c r="I463" s="5">
-        <v>22.2222222222222</v>
+        <v>14.814814814814801</v>
       </c>
       <c r="J463" s="5">
         <v>0.59708093763821313</v>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.0149087676599012</v>
+        <v>0.016772363617388798</v>
       </c>
       <c r="I468" s="5">
         <v>0</v>
       </c>
       <c r="J468" s="5">
-        <v>0.33222591362126247</v>
+        <v>0.37375415282392027</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.0320098927415884</v>
+        <v>0.029482795946199802</v>
       </c>
       <c r="I470" s="5">
-        <v>5.2631578947368398</v>
+        <v>22.8571428571429</v>
       </c>
       <c r="J470" s="5">
-        <v>0.64091752403440716</v>
+        <v>0.59031877213695394</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19346,17 +19346,17 @@
         <v>5502</v>
       </c>
       <c r="F471" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="5">
-        <v>0.0173432259093921</v>
+        <v>0.016476064613922401</v>
       </c>
       <c r="I471" s="5">
-        <v>20</v>
+        <v>21.052631578947398</v>
       </c>
       <c r="J471" s="5">
-        <v>0.36350418029807341</v>
+        <v>0.34532897128316975</v>
       </c>
       <c r="K471" s="5"/>
     </row>
@@ -19377,17 +19377,17 @@
         <v>21</v>
       </c>
       <c r="F472" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G472" s="4"/>
       <c r="H472" s="5">
-        <v>0</v>
+        <v>0.040771394789415702</v>
       </c>
       <c r="I472" s="5">
         <v>0</v>
       </c>
       <c r="J472" s="5">
-        <v>0</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="K472" s="5"/>
     </row>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.0449037456138663</v>
+        <v>0.047042019214526602</v>
       </c>
       <c r="I474" s="5">
         <v>0</v>
       </c>
       <c r="J474" s="5">
-        <v>0.92592592592592582</v>
+        <v>0.9700176366843033</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19594,17 +19594,17 @@
         <v>2037</v>
       </c>
       <c r="F479" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G479" s="4"/>
       <c r="H479" s="5">
-        <v>0.0116835055189959</v>
+        <v>0.014604381898744899</v>
       </c>
       <c r="I479" s="5">
         <v>0</v>
       </c>
       <c r="J479" s="5">
-        <v>0.19636720667648502</v>
+        <v>0.24545900834560627</v>
       </c>
       <c r="K479" s="5"/>
     </row>
@@ -19656,17 +19656,17 @@
         <v>1757</v>
       </c>
       <c r="F481" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481" s="4"/>
       <c r="H481" s="5">
-        <v>0.00273986114383723</v>
+        <v>0</v>
       </c>
       <c r="I481" s="5">
         <v>0</v>
       </c>
       <c r="J481" s="5">
-        <v>0.056915196357427436</v>
+        <v>0</v>
       </c>
       <c r="K481" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.17968019865395701</v>
+        <v>0.195854357288929</v>
       </c>
       <c r="I482" s="5">
-        <v>6.3829787234042596</v>
+        <v>6.4564564564564604</v>
       </c>
       <c r="J482" s="5">
-        <v>3.1117901706137001</v>
+        <v>3.3919022154316276</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19718,17 +19718,17 @@
         <v>3080</v>
       </c>
       <c r="F483" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="5">
-        <v>0.032817844553804099</v>
+        <v>0.029834404139821899</v>
       </c>
       <c r="I483" s="5">
         <v>0</v>
       </c>
       <c r="J483" s="5">
-        <v>0.7142857142857143</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K483" s="5"/>
     </row>
@@ -19749,17 +19749,17 @@
         <v>1701</v>
       </c>
       <c r="F484" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G484" s="4"/>
       <c r="H484" s="5">
-        <v>0.0029844599172110802</v>
+        <v>0.0059689198344221603</v>
       </c>
       <c r="I484" s="5">
         <v>0</v>
       </c>
       <c r="J484" s="5">
-        <v>0.058788947677836566</v>
+        <v>0.11757789535567313</v>
       </c>
       <c r="K484" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.00506444506343217</v>
+        <v>0.0075966675951482602</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.099206349206349201</v>
+        <v>0.14880952380952381</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19873,17 +19873,17 @@
         <v>1540</v>
       </c>
       <c r="F488" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G488" s="4"/>
       <c r="H488" s="5">
-        <v>0.018349016645616299</v>
+        <v>0.021407186086552302</v>
       </c>
       <c r="I488" s="5">
         <v>0</v>
       </c>
       <c r="J488" s="5">
-        <v>0.38961038961038963</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="K488" s="5"/>
     </row>
@@ -19935,17 +19935,17 @@
         <v>9058</v>
       </c>
       <c r="F490" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="5">
-        <v>0.0327967678004457</v>
+        <v>0.035399685879846203</v>
       </c>
       <c r="I490" s="5">
-        <v>1.5873015873015901</v>
+        <v>0</v>
       </c>
       <c r="J490" s="5">
-        <v>0.69551777434312212</v>
+        <v>0.7507175977036874</v>
       </c>
       <c r="K490" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0095533623954578498</v>
+        <v>0.0071650217965933899</v>
       </c>
       <c r="I492" s="5">
-        <v>18.75</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J492" s="5">
-        <v>0.22256224787870357</v>
+        <v>0.16692168590902767</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20090,17 +20090,17 @@
         <v>7840</v>
       </c>
       <c r="F495" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G495" s="4"/>
       <c r="H495" s="5">
-        <v>0.0024543521185353902</v>
+        <v>0.0036815281778030898</v>
       </c>
       <c r="I495" s="5">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J495" s="5">
-        <v>0.025510204081632654</v>
+        <v>0.03826530612244898</v>
       </c>
       <c r="K495" s="5"/>
     </row>
@@ -20121,17 +20121,17 @@
         <v>2366</v>
       </c>
       <c r="F496" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G496" s="4"/>
       <c r="H496" s="5">
-        <v>0.0062333647079357004</v>
+        <v>0.012466729415871401</v>
       </c>
       <c r="I496" s="5">
-        <v>0</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J496" s="5">
-        <v>0.12679628064243448</v>
+        <v>0.25359256128486896</v>
       </c>
       <c r="K496" s="5"/>
     </row>
@@ -20152,17 +20152,17 @@
         <v>1302</v>
       </c>
       <c r="F497" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="5">
-        <v>0.025413975508188701</v>
+        <v>0.02904454343793</v>
       </c>
       <c r="I497" s="5">
-        <v>14.285714285714301</v>
+        <v>12.5</v>
       </c>
       <c r="J497" s="5">
-        <v>0.53763440860215062</v>
+        <v>0.61443932411674351</v>
       </c>
       <c r="K497" s="5"/>
     </row>
@@ -20183,17 +20183,17 @@
         <v>1855</v>
       </c>
       <c r="F498" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G498" s="4"/>
       <c r="H498" s="5">
-        <v>0.059985234403839099</v>
+        <v>0.055370985603543699</v>
       </c>
       <c r="I498" s="5">
         <v>0</v>
       </c>
       <c r="J498" s="5">
-        <v>0.70080862533692723</v>
+        <v>0.64690026954177904</v>
       </c>
       <c r="K498" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.020147317183243901</v>
+        <v>0.0228336261410097</v>
       </c>
       <c r="I503" s="5">
-        <v>6.6666666666666696</v>
+        <v>11.764705882352899</v>
       </c>
       <c r="J503" s="5">
-        <v>0.42771599657827203</v>
+        <v>0.48474479612204163</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.0236695083679874</v>
+        <v>0.0253018882554348</v>
       </c>
       <c r="I504" s="5">
-        <v>0</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="J504" s="5">
-        <v>0.48912126834204755</v>
+        <v>0.52285376960701635</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20462,17 +20462,17 @@
         <v>5257</v>
       </c>
       <c r="F507" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G507" s="4"/>
       <c r="H507" s="5">
-        <v>0.018853576837752399</v>
+        <v>0.019751366210978699</v>
       </c>
       <c r="I507" s="5">
-        <v>19.047619047619001</v>
+        <v>13.636363636363599</v>
       </c>
       <c r="J507" s="5">
-        <v>0.39946737683089217</v>
+        <v>0.41848963287045837</v>
       </c>
       <c r="K507" s="5"/>
     </row>
@@ -20617,17 +20617,17 @@
         <v>4788</v>
       </c>
       <c r="F512" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G512" s="4"/>
       <c r="H512" s="5">
-        <v>0.0085377248860450897</v>
+        <v>0.00664045268914618</v>
       </c>
       <c r="I512" s="5">
-        <v>22.2222222222222</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J512" s="5">
-        <v>0.18796992481203006</v>
+        <v>0.14619883040935672</v>
       </c>
       <c r="K512" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.010863590242757799</v>
+        <v>0.0130363082913093</v>
       </c>
       <c r="I513" s="5">
         <v>0</v>
       </c>
       <c r="J513" s="5">
-        <v>0.25239777889954568</v>
+        <v>0.30287733467945482</v>
       </c>
       <c r="K513" s="5"/>
     </row>

--- a/data/temp/temp.xlsx
+++ b/data/temp/temp.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -24,7 +24,7 @@
     <t>ACEH BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -33,7 +33,7 @@
     <t>ACEH BARAT DAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -42,7 +42,7 @@
     <t>ACEH BESAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -51,7 +51,7 @@
     <t>ACEH JAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -60,7 +60,7 @@
     <t>ACEH SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -69,7 +69,7 @@
     <t>ACEH SINGKIL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -78,7 +78,7 @@
     <t>ACEH TAMIANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -87,7 +87,7 @@
     <t>ACEH TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -96,7 +96,7 @@
     <t>ACEH TENGGARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -105,7 +105,7 @@
     <t>ACEH TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -114,7 +114,7 @@
     <t>ACEH UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -123,7 +123,7 @@
     <t>AGAM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -132,7 +132,7 @@
     <t>ALOR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -141,7 +141,7 @@
     <t>ASAHAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -150,7 +150,7 @@
     <t>ASMAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -159,7 +159,7 @@
     <t>BADUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -168,7 +168,7 @@
     <t>BALANGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -177,7 +177,7 @@
     <t>BANDUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -186,7 +186,7 @@
     <t>BANDUNG BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -195,7 +195,7 @@
     <t>BANGGAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -204,7 +204,7 @@
     <t>BANGGAI KEPULAUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -213,7 +213,7 @@
     <t>BANGGAI LAUT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -222,7 +222,7 @@
     <t>BANGKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -231,7 +231,7 @@
     <t>BANGKA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -240,7 +240,7 @@
     <t>BANGKA SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -249,7 +249,7 @@
     <t>BANGKA TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -258,7 +258,7 @@
     <t>BANGKALAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -267,7 +267,7 @@
     <t>BANGLI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -276,7 +276,7 @@
     <t>BANJAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -285,7 +285,7 @@
     <t>BANJARNEGARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -294,7 +294,7 @@
     <t>BANTAENG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -303,7 +303,7 @@
     <t>BANTUL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -312,7 +312,7 @@
     <t>BANYUASIN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -321,7 +321,7 @@
     <t>BANYUMAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -330,7 +330,7 @@
     <t>BANYUWANGI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -339,7 +339,7 @@
     <t>BARITO KUALA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -348,7 +348,7 @@
     <t>BARITO SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -357,7 +357,7 @@
     <t>BARITO TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -366,7 +366,7 @@
     <t>BARITO UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -375,7 +375,7 @@
     <t>BARRU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -384,7 +384,7 @@
     <t>BATANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -393,7 +393,7 @@
     <t>BATANGHARI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -402,7 +402,7 @@
     <t>BATU BARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -411,7 +411,7 @@
     <t>BEKASI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -420,7 +420,7 @@
     <t>BELITUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -429,7 +429,7 @@
     <t>BELITUNG TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -438,7 +438,7 @@
     <t>BELU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -447,7 +447,7 @@
     <t>BENER MERIAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -456,7 +456,7 @@
     <t>BENGKALIS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -465,7 +465,7 @@
     <t>BENGKAYANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -474,7 +474,7 @@
     <t>BENGKULU SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -483,7 +483,7 @@
     <t>BENGKULU TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -492,7 +492,7 @@
     <t>BENGKULU UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -501,7 +501,7 @@
     <t>BERAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -510,7 +510,7 @@
     <t>BIAK NUMFOR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -519,7 +519,7 @@
     <t>BIMA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -528,7 +528,7 @@
     <t>BINTAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -537,7 +537,7 @@
     <t>BIREUEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -546,7 +546,7 @@
     <t>BLITAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -555,7 +555,7 @@
     <t>BLORA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -564,7 +564,7 @@
     <t>BOALEMO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -573,7 +573,7 @@
     <t>BOGOR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -582,7 +582,7 @@
     <t>BOJONEGORO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -591,7 +591,7 @@
     <t>BOLAANG MONGONDOW</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -600,7 +600,7 @@
     <t>BOLAANG MONGONDOW SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -609,7 +609,7 @@
     <t>BOLAANG MONGONDOW TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -618,7 +618,7 @@
     <t>BOLAANG MONGONDOW UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -627,7 +627,7 @@
     <t>BOMBANA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -636,7 +636,7 @@
     <t>BONDOWOSO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -645,7 +645,7 @@
     <t>BONE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -654,7 +654,7 @@
     <t>BONE BOLANGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -663,7 +663,7 @@
     <t>BOVEN DIGOEL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -672,7 +672,7 @@
     <t>BOYOLALI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -681,7 +681,7 @@
     <t>BREBES</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -690,7 +690,7 @@
     <t>BULELENG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -699,7 +699,7 @@
     <t>BULUKUMBA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -708,7 +708,7 @@
     <t>BULUNGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -717,7 +717,7 @@
     <t>BUNGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -726,7 +726,7 @@
     <t>BUOL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -735,7 +735,7 @@
     <t>BURU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -744,7 +744,7 @@
     <t>BURU SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -753,7 +753,7 @@
     <t>BUTON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -762,7 +762,7 @@
     <t>BUTON SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -771,7 +771,7 @@
     <t>BUTON TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -780,7 +780,7 @@
     <t>BUTON UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -789,7 +789,7 @@
     <t>CIAMIS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -798,7 +798,7 @@
     <t>CIANJUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -807,7 +807,7 @@
     <t>CILACAP</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -816,7 +816,7 @@
     <t>CIREBON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -825,7 +825,7 @@
     <t>DAIRI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -834,7 +834,7 @@
     <t>DEIYAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -843,7 +843,7 @@
     <t>DELI SERDANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -852,7 +852,7 @@
     <t>DEMAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -861,7 +861,7 @@
     <t>DHARMASRAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -870,7 +870,7 @@
     <t>DOGIYAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -879,7 +879,7 @@
     <t>DOMPU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -888,7 +888,7 @@
     <t>DONGGALA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -897,7 +897,7 @@
     <t>EMPAT LAWANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -906,7 +906,7 @@
     <t>ENDE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -915,7 +915,7 @@
     <t>ENREKANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -924,7 +924,7 @@
     <t>FAK FAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -933,7 +933,7 @@
     <t>FLORES TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -942,7 +942,7 @@
     <t>GARUT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -951,7 +951,7 @@
     <t>GAYO LUES</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -960,13 +960,13 @@
     <t>GIANYAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -975,7 +975,7 @@
     <t>GORONTALO UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -984,7 +984,7 @@
     <t>GOWA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -993,7 +993,7 @@
     <t>GRESIK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1002,7 +1002,7 @@
     <t>GROBOGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1011,7 +1011,7 @@
     <t>GUNUNG MAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -1020,7 +1020,7 @@
     <t>GUNUNGKIDUL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1029,7 +1029,7 @@
     <t>HALMAHERA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1038,7 +1038,7 @@
     <t>HALMAHERA SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1047,7 +1047,7 @@
     <t>HALMAHERA TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1056,7 +1056,7 @@
     <t>HALMAHERA TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1065,7 +1065,7 @@
     <t>HALMAHERA UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1074,7 +1074,7 @@
     <t>HULU SUNGAI SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1083,7 +1083,7 @@
     <t>HULU SUNGAI TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1092,7 +1092,7 @@
     <t>HULU SUNGAI UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1101,7 +1101,7 @@
     <t>HUMBANG HASUNDUTAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1110,7 +1110,7 @@
     <t>INDRAGIRI HILIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1119,7 +1119,7 @@
     <t>INDRAGIRI HULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1128,7 +1128,7 @@
     <t>INDRAMAYU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1137,7 +1137,7 @@
     <t>INTAN JAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1146,7 +1146,7 @@
     <t>JAYAPURA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1155,7 +1155,7 @@
     <t>JAYAWIJAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1164,7 +1164,7 @@
     <t>JEMBER</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1173,7 +1173,7 @@
     <t>JEMBRANA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1182,7 +1182,7 @@
     <t>JENEPONTO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1191,7 +1191,7 @@
     <t>JEPARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1200,7 +1200,7 @@
     <t>JOMBANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -1209,7 +1209,7 @@
     <t>KAIMANA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1218,7 +1218,7 @@
     <t>KAMPAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1227,7 +1227,7 @@
     <t>KAPUAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1236,7 +1236,7 @@
     <t>KAPUAS HULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1245,7 +1245,7 @@
     <t>KARANGANYAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1254,7 +1254,7 @@
     <t>KARANGASEM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1263,7 +1263,7 @@
     <t>KARAWANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1272,7 +1272,7 @@
     <t>KARIMUN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1281,7 +1281,7 @@
     <t>KARO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -1290,7 +1290,7 @@
     <t>KATINGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1299,7 +1299,7 @@
     <t>KAUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1308,7 +1308,7 @@
     <t>KAYONG UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1317,7 +1317,7 @@
     <t>KEBUMEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1326,7 +1326,7 @@
     <t>KEDIRI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1335,7 +1335,7 @@
     <t>KEEROM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1344,7 +1344,7 @@
     <t>KENDAL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1353,7 +1353,7 @@
     <t>KEPAHIANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1362,7 +1362,7 @@
     <t>KEPULAUAN ANAMBAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1371,7 +1371,7 @@
     <t>KEPULAUAN ARU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1380,7 +1380,7 @@
     <t>KEPULAUAN MENTAWAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1389,7 +1389,7 @@
     <t>KEPULAUAN MERANTI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1398,7 +1398,7 @@
     <t>KEPULAUAN SANGIHE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1407,7 +1407,7 @@
     <t>KEPULAUAN SELAYAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1416,7 +1416,7 @@
     <t>KEPULAUAN SERIBU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -1425,7 +1425,7 @@
     <t>KEPULAUAN SULA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1434,7 +1434,7 @@
     <t>KEPULAUAN TALAUD</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1443,7 +1443,7 @@
     <t>KEPULAUAN TANIMBAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1452,7 +1452,7 @@
     <t>KEPULAUAN YAPEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1461,7 +1461,7 @@
     <t>KERINCI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -1470,7 +1470,7 @@
     <t>KETAPANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1479,7 +1479,7 @@
     <t>KLATEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1488,7 +1488,7 @@
     <t>KLUNGKUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1497,7 +1497,7 @@
     <t>KOLAKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1506,7 +1506,7 @@
     <t>KOLAKA TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1515,7 +1515,7 @@
     <t>KOLAKA UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1524,7 +1524,7 @@
     <t>KONAWE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1533,7 +1533,7 @@
     <t>KONAWE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1542,7 +1542,7 @@
     <t>KONAWE SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1551,7 +1551,7 @@
     <t>KONAWE UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -1560,7 +1560,7 @@
     <t>KOTA AMBON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1569,7 +1569,7 @@
     <t>KOTA BALIKPAPAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1578,7 +1578,7 @@
     <t>KOTA BANDA ACEH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -1587,7 +1587,7 @@
     <t>KOTA BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1596,7 +1596,7 @@
     <t>KOTA BANDUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1605,7 +1605,7 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1614,7 +1614,7 @@
     <t>KOTA BANJARBARU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -1623,7 +1623,7 @@
     <t>KOTA BANJARMASIN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -1632,7 +1632,7 @@
     <t>KOTA BATAM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1641,7 +1641,7 @@
     <t>KOTA BATU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1650,7 +1650,7 @@
     <t>KOTA BAU BAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1659,7 +1659,7 @@
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -1668,7 +1668,7 @@
     <t>KOTA BENGKULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1677,7 +1677,7 @@
     <t>KOTA BIMA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1686,7 +1686,7 @@
     <t>KOTA BINJAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1695,7 +1695,7 @@
     <t>KOTA BITUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1704,7 +1704,7 @@
     <t>KOTA BLITAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1713,7 +1713,7 @@
     <t>KOTA BOGOR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -1722,7 +1722,7 @@
     <t>KOTA BONTANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -1731,7 +1731,7 @@
     <t>KOTA BUKITTINGGI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -1740,7 +1740,7 @@
     <t>KOTA CILEGON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1749,7 +1749,7 @@
     <t>KOTA CIMAHI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1758,7 +1758,7 @@
     <t>KOTA CIREBON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -1767,7 +1767,7 @@
     <t>KOTA DENPASAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -1776,7 +1776,7 @@
     <t>KOTA DEPOK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -1785,7 +1785,7 @@
     <t>KOTA DUMAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -1794,7 +1794,7 @@
     <t>KOTA GORONTALO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1803,7 +1803,7 @@
     <t>KOTA GUNUNGSITOLI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1812,7 +1812,7 @@
     <t>KOTA JAKARTA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1821,7 +1821,7 @@
     <t>KOTA JAKARTA PUSAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1830,7 +1830,7 @@
     <t>KOTA JAKARTA SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1839,7 +1839,7 @@
     <t>KOTA JAKARTA TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -1848,7 +1848,7 @@
     <t>KOTA JAKARTA UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -1857,7 +1857,7 @@
     <t>KOTA JAMBI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -1866,7 +1866,7 @@
     <t>KOTA JAYAPURA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1875,7 +1875,7 @@
     <t>KOTA KEDIRI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -1884,7 +1884,7 @@
     <t>KOTA KENDARI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1893,7 +1893,7 @@
     <t>KOTA KOTAMOBAGU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -1902,7 +1902,7 @@
     <t>KOTA KUPANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1911,7 +1911,7 @@
     <t>KOTA LANGSA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -1920,7 +1920,7 @@
     <t>KOTA LHOKSEUMAWE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -1929,7 +1929,7 @@
     <t>KOTA LUBUK LINGGAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1938,7 +1938,7 @@
     <t>KOTA MADIUN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -1947,7 +1947,7 @@
     <t>KOTA MAGELANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -1956,7 +1956,7 @@
     <t>KOTA MAKASSAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -1965,7 +1965,7 @@
     <t>KOTA MALANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -1974,7 +1974,7 @@
     <t>KOTA MANADO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -1983,7 +1983,7 @@
     <t>KOTA MATARAM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -1992,7 +1992,7 @@
     <t>KOTA MEDAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2001,7 +2001,7 @@
     <t>KOTA METRO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2010,7 +2010,7 @@
     <t>KOTA MOJOKERTO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2019,7 +2019,7 @@
     <t>KOTA PADANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2028,7 +2028,7 @@
     <t>KOTA PADANG PANJANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2037,7 +2037,7 @@
     <t>KOTA PADANGSIDIMPUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2046,7 +2046,7 @@
     <t>KOTA PAGAR ALAM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2055,7 +2055,7 @@
     <t>KOTA PALANGKARAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2064,7 +2064,7 @@
     <t>KOTA PALEMBANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2073,7 +2073,7 @@
     <t>KOTA PALOPO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -2082,7 +2082,7 @@
     <t>KOTA PALU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. BANGKA BELITUNG</t>
@@ -2091,7 +2091,7 @@
     <t>KOTA PANGKAL PINANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2100,7 +2100,7 @@
     <t>KOTA PARE PARE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2109,7 +2109,7 @@
     <t>KOTA PARIAMAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2118,7 +2118,7 @@
     <t>KOTA PASURUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2127,7 +2127,7 @@
     <t>KOTA PAYAKUMBUH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2136,7 +2136,7 @@
     <t>KOTA PEKALONGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2145,7 +2145,7 @@
     <t>KOTA PEKANBARU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2154,7 +2154,7 @@
     <t>KOTA PEMATANGSIANTAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2163,7 +2163,7 @@
     <t>KOTA PONTIANAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2172,7 +2172,7 @@
     <t>KOTA PRABUMULIH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2181,7 +2181,7 @@
     <t>KOTA PROBOLINGGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2190,7 +2190,7 @@
     <t>KOTA SABANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2199,7 +2199,7 @@
     <t>KOTA SALATIGA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2208,7 +2208,7 @@
     <t>KOTA SAMARINDA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2217,7 +2217,7 @@
     <t>KOTA SAWAHLUNTO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2226,7 +2226,7 @@
     <t>KOTA SEMARANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2235,7 +2235,7 @@
     <t>KOTA SERANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2244,7 +2244,7 @@
     <t>KOTA SIBOLGA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2253,7 +2253,7 @@
     <t>KOTA SINGKAWANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2262,7 +2262,7 @@
     <t>KOTA SOLOK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2271,7 +2271,7 @@
     <t>KOTA SORONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -2280,7 +2280,7 @@
     <t>KOTA SUBULUSSALAM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2289,7 +2289,7 @@
     <t>KOTA SUKABUMI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -2298,7 +2298,7 @@
     <t>KOTA SUNGAI PENUH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2307,7 +2307,7 @@
     <t>KOTA SURABAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2316,7 +2316,7 @@
     <t>KOTA SURAKARTA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2325,7 +2325,7 @@
     <t>KOTA TANGERANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2334,7 +2334,7 @@
     <t>KOTA TANGERANG SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2343,7 +2343,7 @@
     <t>KOTA TANJUNG BALAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2352,7 +2352,7 @@
     <t>KOTA TANJUNG PINANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2361,7 +2361,7 @@
     <t>KOTA TARAKAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2370,7 +2370,7 @@
     <t>KOTA TASIKMALAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2379,7 +2379,7 @@
     <t>KOTA TEBING TINGGI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2388,7 +2388,7 @@
     <t>KOTA TEGAL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2397,7 +2397,7 @@
     <t>KOTA TERNATE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -2406,7 +2406,7 @@
     <t>KOTA TIDORE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -2415,7 +2415,7 @@
     <t>KOTA TOMOHON</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2424,7 +2424,7 @@
     <t>KOTA TUAL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2433,7 +2433,7 @@
     <t>KOTA YOGYAKARTA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -2442,7 +2442,7 @@
     <t>KOTABARU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2451,7 +2451,7 @@
     <t>KOTAWARINGIN BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2460,7 +2460,7 @@
     <t>KOTAWARINGIN TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -2469,7 +2469,7 @@
     <t>KUANTAN SINGINGI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2478,7 +2478,7 @@
     <t>KUBU RAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2487,7 +2487,7 @@
     <t>KUDUS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -2496,7 +2496,7 @@
     <t>KULON PROGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2505,7 +2505,7 @@
     <t>KUNINGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2514,7 +2514,7 @@
     <t>KUPANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2523,7 +2523,7 @@
     <t>KUTAI BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2532,7 +2532,7 @@
     <t>KUTAI KARTANEGARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2541,7 +2541,7 @@
     <t>KUTAI TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2550,7 +2550,7 @@
     <t>LABUHANBATU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2559,7 +2559,7 @@
     <t>LABUHANBATU SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2568,7 +2568,7 @@
     <t>LABUHANBATU UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -2577,7 +2577,7 @@
     <t>LAHAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -2586,7 +2586,7 @@
     <t>LAMANDAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2595,7 +2595,7 @@
     <t>LAMONGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2604,7 +2604,7 @@
     <t>LAMPUNG BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2613,7 +2613,7 @@
     <t>LAMPUNG SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2622,7 +2622,7 @@
     <t>LAMPUNG TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2631,7 +2631,7 @@
     <t>LAMPUNG TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -2640,7 +2640,7 @@
     <t>LAMPUNG UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -2649,7 +2649,7 @@
     <t>LANDAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2658,7 +2658,7 @@
     <t>LANGKAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2667,7 +2667,7 @@
     <t>LANNY JAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -2676,7 +2676,7 @@
     <t>LEBAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -2685,7 +2685,7 @@
     <t>LEBONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2694,7 +2694,7 @@
     <t>LEMBATA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -2703,7 +2703,7 @@
     <t>LIMA PULUH KOTA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -2712,7 +2712,7 @@
     <t>LINGGA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2721,7 +2721,7 @@
     <t>LOMBOK BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2730,7 +2730,7 @@
     <t>LOMBOK TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2739,7 +2739,7 @@
     <t>LOMBOK TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -2748,7 +2748,7 @@
     <t>LOMBOK UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2757,7 +2757,7 @@
     <t>LUMAJANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2766,7 +2766,7 @@
     <t>LUWU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2775,7 +2775,7 @@
     <t>LUWU TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -2784,7 +2784,7 @@
     <t>LUWU UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2793,7 +2793,7 @@
     <t>MADIUN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -2802,7 +2802,7 @@
     <t>MAGELANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2811,7 +2811,7 @@
     <t>MAGETAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -2820,7 +2820,7 @@
     <t>MAHAKAM ULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -2829,7 +2829,7 @@
     <t>MAJALENGKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2838,7 +2838,7 @@
     <t>MAJENE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2847,7 +2847,7 @@
     <t>MALAKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -2856,7 +2856,7 @@
     <t>MALANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -2865,7 +2865,7 @@
     <t>MALINAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2874,7 +2874,7 @@
     <t>MALUKU BARAT DAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2883,7 +2883,7 @@
     <t>MALUKU TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -2892,7 +2892,7 @@
     <t>MALUKU TENGGARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2901,7 +2901,7 @@
     <t>MAMASA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2910,7 +2910,7 @@
     <t>MAMBERAMO RAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -2919,7 +2919,7 @@
     <t>MAMBERAMO TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2928,7 +2928,7 @@
     <t>MAMUJU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -2937,7 +2937,7 @@
     <t>MAMUJU TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -2946,7 +2946,7 @@
     <t>MANDAILING NATAL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2955,7 +2955,7 @@
     <t>MANGGARAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2964,7 +2964,7 @@
     <t>MANGGARAI BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -2973,7 +2973,7 @@
     <t>MANGGARAI TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2982,7 +2982,7 @@
     <t>MANOKWARI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -2991,7 +2991,7 @@
     <t>MANOKWARI SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3000,7 +3000,7 @@
     <t>MAPPI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3009,7 +3009,7 @@
     <t>MAROS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3018,7 +3018,7 @@
     <t>MAYBRAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3027,7 +3027,7 @@
     <t>MELAWI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3036,7 +3036,7 @@
     <t>MEMPAWAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3045,7 +3045,7 @@
     <t>MERANGIN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3054,7 +3054,7 @@
     <t>MERAUKE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3063,7 +3063,7 @@
     <t>MESUJI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3072,7 +3072,7 @@
     <t>MIMIKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3081,7 +3081,7 @@
     <t>MINAHASA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3090,7 +3090,7 @@
     <t>MINAHASA SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3099,7 +3099,7 @@
     <t>MINAHASA TENGGARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -3108,7 +3108,7 @@
     <t>MINAHASA UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3117,7 +3117,7 @@
     <t>MOJOKERTO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3126,7 +3126,7 @@
     <t>MOROWALI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3135,7 +3135,7 @@
     <t>MOROWALI UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3144,7 +3144,7 @@
     <t>MUARA ENIM</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3153,7 +3153,7 @@
     <t>MUARO JAMBI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3162,7 +3162,7 @@
     <t>MUKO MUKO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3171,7 +3171,7 @@
     <t>MUNA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -3180,7 +3180,7 @@
     <t>MUNA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3189,7 +3189,7 @@
     <t>MURUNG RAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3198,7 +3198,7 @@
     <t>MUSI BANYUASIN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3207,7 +3207,7 @@
     <t>MUSI RAWAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3216,7 +3216,7 @@
     <t>MUSI RAWAS UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3225,7 +3225,7 @@
     <t>NABIRE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3234,7 +3234,7 @@
     <t>NAGAN RAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3243,7 +3243,7 @@
     <t>NAGEKEO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KEP. RIAU</t>
@@ -3252,7 +3252,7 @@
     <t>NATUNA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3261,7 +3261,7 @@
     <t>NDUGA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3270,7 +3270,7 @@
     <t>NGADA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3279,7 +3279,7 @@
     <t>NGANJUK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3288,7 +3288,7 @@
     <t>NGAWI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3297,7 +3297,7 @@
     <t>NIAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3306,7 +3306,7 @@
     <t>NIAS BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3315,7 +3315,7 @@
     <t>NIAS SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3324,7 +3324,7 @@
     <t>NIAS UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -3333,7 +3333,7 @@
     <t>NUNUKAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3342,7 +3342,7 @@
     <t>OGAN ILIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3351,7 +3351,7 @@
     <t>OGAN KOMERING ILIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3360,7 +3360,7 @@
     <t>OGAN KOMERING ULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3369,7 +3369,7 @@
     <t>OGAN KOMERING ULU SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3378,7 +3378,7 @@
     <t>OGAN KOMERING ULU TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3387,7 +3387,7 @@
     <t>PACITAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3396,7 +3396,7 @@
     <t>PADANG LAWAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3405,7 +3405,7 @@
     <t>PADANG LAWAS UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3414,7 +3414,7 @@
     <t>PADANG PARIAMAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>GORONTALO</t>
@@ -3423,7 +3423,7 @@
     <t>PAHUWATO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3432,7 +3432,7 @@
     <t>PAKPAK BHARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3441,7 +3441,7 @@
     <t>PAMEKASAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3450,7 +3450,7 @@
     <t>PANDEGLANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3459,7 +3459,7 @@
     <t>PANGANDARAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3468,7 +3468,7 @@
     <t>PANGKAJENE KEPULAUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3477,7 +3477,7 @@
     <t>PANIAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3486,7 +3486,7 @@
     <t>PARIGI MOUTONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3495,7 +3495,7 @@
     <t>PASAMAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3504,7 +3504,7 @@
     <t>PASAMAN BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3513,7 +3513,7 @@
     <t>PASANGKAYU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3522,7 +3522,7 @@
     <t>PASER</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3531,7 +3531,7 @@
     <t>PASURUAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3540,7 +3540,7 @@
     <t>PATI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3549,7 +3549,7 @@
     <t>PEGUNUNGAN ARFAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3558,7 +3558,7 @@
     <t>PEGUNUNGAN BINTANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3567,7 +3567,7 @@
     <t>PEKALONGAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3576,7 +3576,7 @@
     <t>PELALAWAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3585,7 +3585,7 @@
     <t>PEMALANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TIMUR</t>
@@ -3594,7 +3594,7 @@
     <t>PENAJAM PASER UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA SELATAN</t>
@@ -3603,7 +3603,7 @@
     <t>PENUKAL ABAB LEMATANG ILIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3612,7 +3612,7 @@
     <t>PESAWARAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3621,7 +3621,7 @@
     <t>PESISIR BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -3630,7 +3630,7 @@
     <t>PESISIR SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3639,7 +3639,7 @@
     <t>PIDIE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -3648,7 +3648,7 @@
     <t>PIDIE JAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3657,7 +3657,7 @@
     <t>PINRANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -3666,7 +3666,7 @@
     <t>POLEWALI MANDAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3675,7 +3675,7 @@
     <t>PONOROGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3684,7 +3684,7 @@
     <t>POSO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -3693,7 +3693,7 @@
     <t>PRINGSEWU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3702,7 +3702,7 @@
     <t>PROBOLINGGO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3711,7 +3711,7 @@
     <t>PULANG PISAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3720,7 +3720,7 @@
     <t>PULAU MOROTAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU UTARA</t>
@@ -3729,7 +3729,7 @@
     <t>PULAU TALIABU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3738,7 +3738,7 @@
     <t>PUNCAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3747,7 +3747,7 @@
     <t>PUNCAK JAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3756,7 +3756,7 @@
     <t>PURBALINGGA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -3765,7 +3765,7 @@
     <t>PURWAKARTA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3774,7 +3774,7 @@
     <t>PURWOREJO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -3783,7 +3783,7 @@
     <t>RAJA AMPAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3792,7 +3792,7 @@
     <t>REJANG LEBONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3801,7 +3801,7 @@
     <t>REMBANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3810,7 +3810,7 @@
     <t>ROKAN HILIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3819,7 +3819,7 @@
     <t>ROKAN HULU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3828,7 +3828,7 @@
     <t>ROTE NDAO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -3837,7 +3837,7 @@
     <t>SABU RAIJUA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3846,7 +3846,7 @@
     <t>SAMBAS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3855,7 +3855,7 @@
     <t>SAMOSIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3864,7 +3864,7 @@
     <t>SAMPANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3873,7 +3873,7 @@
     <t>SANGGAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -3882,7 +3882,7 @@
     <t>SARMI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -3891,7 +3891,7 @@
     <t>SAROLANGUN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -3900,7 +3900,7 @@
     <t>SEKADAU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BENGKULU</t>
@@ -3909,7 +3909,7 @@
     <t>SELUMA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -3918,7 +3918,7 @@
     <t>SEMARANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3927,7 +3927,7 @@
     <t>SERAM BAGIAN BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>MALUKU</t>
@@ -3936,7 +3936,7 @@
     <t>SERAM BAGIAN TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -3945,7 +3945,7 @@
     <t>SERANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -3954,7 +3954,7 @@
     <t>SERDANG BEDAGAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -3963,7 +3963,7 @@
     <t>SERUYAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>RIAU</t>
@@ -3972,7 +3972,7 @@
     <t>SIAK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -3981,7 +3981,7 @@
     <t>SIDENRENG RAPPANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -3990,7 +3990,7 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -3999,7 +3999,7 @@
     <t>SIGI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4008,7 +4008,7 @@
     <t>SIJUNJUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4017,7 +4017,7 @@
     <t>SIKKA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4026,7 +4026,7 @@
     <t>SIMALUNGUN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>ACEH</t>
@@ -4035,7 +4035,7 @@
     <t>SIMEULUE</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4044,7 +4044,7 @@
     <t>SINJAI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN BARAT</t>
@@ -4053,7 +4053,7 @@
     <t>SINTANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI UTARA</t>
@@ -4062,7 +4062,7 @@
     <t>SITARO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4071,7 +4071,7 @@
     <t>SITUBONDO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>DI YOGYAKARTA</t>
@@ -4080,7 +4080,7 @@
     <t>SLEMAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4089,7 +4089,7 @@
     <t>SOLOK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4098,7 +4098,7 @@
     <t>SOLOK SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4107,7 +4107,7 @@
     <t>SOPPENG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4116,7 +4116,7 @@
     <t>SORONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4125,7 +4125,7 @@
     <t>SORONG SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4134,7 +4134,7 @@
     <t>SRAGEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4143,7 +4143,7 @@
     <t>SUBANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4152,7 +4152,7 @@
     <t>SUKABUMI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN TENGAH</t>
@@ -4161,7 +4161,7 @@
     <t>SUKAMARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4170,7 +4170,7 @@
     <t>SUKOHARJO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4179,7 +4179,7 @@
     <t>SUMBA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4188,7 +4188,7 @@
     <t>SUMBA BARAT DAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4197,7 +4197,7 @@
     <t>SUMBA TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4206,7 +4206,7 @@
     <t>SUMBA TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4215,7 +4215,7 @@
     <t>SUMBAWA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTB</t>
@@ -4224,7 +4224,7 @@
     <t>SUMBAWA BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4233,7 +4233,7 @@
     <t>SUMEDANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4242,7 +4242,7 @@
     <t>SUMENEP</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4251,7 +4251,7 @@
     <t>SUPIORI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4260,7 +4260,7 @@
     <t>TABALONG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BALI</t>
@@ -4269,7 +4269,7 @@
     <t>TABANAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4278,7 +4278,7 @@
     <t>TAKALAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4287,7 +4287,7 @@
     <t>TAMBRAUW</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN UTARA</t>
@@ -4296,7 +4296,7 @@
     <t>TANA TIDUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4305,7 +4305,7 @@
     <t>TANA TORAJA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4314,7 +4314,7 @@
     <t>TANAH BUMBU</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -4323,7 +4323,7 @@
     <t>TANAH DATAR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4332,7 +4332,7 @@
     <t>TANAH LAUT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>BANTEN</t>
@@ -4341,7 +4341,7 @@
     <t>TANGERANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4350,7 +4350,7 @@
     <t>TANGGAMUS</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4359,7 +4359,7 @@
     <t>TANJUNG JABUNG BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4368,7 +4368,7 @@
     <t>TANJUNG JABUNG TIMUR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4377,7 +4377,7 @@
     <t>TAPANULI SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4386,7 +4386,7 @@
     <t>TAPANULI TENGAH</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4395,7 +4395,7 @@
     <t>TAPANULI UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>KALIMANTAN SELATAN</t>
@@ -4404,7 +4404,7 @@
     <t>TAPIN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
@@ -4413,7 +4413,7 @@
     <t>TASIKMALAYA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAMBI</t>
@@ -4422,7 +4422,7 @@
     <t>TEBO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4431,7 +4431,7 @@
     <t>TEGAL</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4440,7 +4440,7 @@
     <t>TELUK BINTUNI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA BARAT</t>
@@ -4449,7 +4449,7 @@
     <t>TELUK WONDAMA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4458,7 +4458,7 @@
     <t>TEMANGGUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4467,7 +4467,7 @@
     <t>TIMOR TENGAH SELATAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>NTT</t>
@@ -4476,7 +4476,7 @@
     <t>TIMOR TENGAH UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SUMATERA UTARA</t>
@@ -4485,7 +4485,7 @@
     <t>TOBA SAMOSIR</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4494,7 +4494,7 @@
     <t>TOJO UNA UNA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGAH</t>
@@ -4503,7 +4503,7 @@
     <t>TOLI TOLI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4512,7 +4512,7 @@
     <t>TOLIKARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4521,7 +4521,7 @@
     <t>TORAJA UTARA</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4530,7 +4530,7 @@
     <t>TRENGGALEK</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4539,7 +4539,7 @@
     <t>TUBAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4548,7 +4548,7 @@
     <t>TULANG BAWANG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4557,7 +4557,7 @@
     <t>TULANG BAWANG BARAT</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TIMUR</t>
@@ -4566,7 +4566,7 @@
     <t>TULUNGAGUNG</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
@@ -4575,7 +4575,7 @@
     <t>WAJO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>SULAWESI TENGGARA</t>
@@ -4584,7 +4584,7 @@
     <t>WAKATOBI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4593,7 +4593,7 @@
     <t>WAROPEN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>LAMPUNG</t>
@@ -4602,7 +4602,7 @@
     <t>WAY KANAN</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4611,7 +4611,7 @@
     <t>WONOGIRI</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
@@ -4620,7 +4620,7 @@
     <t>WONOSOBO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4629,7 +4629,7 @@
     <t>YAHUKIMO</t>
   </si>
   <si>
-    <t>23/01/2024</t>
+    <t>24/01/2024</t>
   </si>
   <si>
     <t>PAPUA</t>
@@ -4869,17 +4869,17 @@
         <v>2184</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>0.00467012567308186</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>0.091575091575091569</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -4931,17 +4931,17 @@
         <v>2485</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
-        <v>0.0082646677190343597</v>
+        <v>0.0041323338595171798</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.080482897384305835</v>
+        <v>0.040241448692152917</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -5179,17 +5179,17 @@
         <v>1043</v>
       </c>
       <c r="F14" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5">
-        <v>0.031108345924806699</v>
+        <v>0.035552395342636198</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>0.67114093959731547</v>
+        <v>0.76701821668264614</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -5210,17 +5210,17 @@
         <v>7476</v>
       </c>
       <c r="F15" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <v>0.0282652509462714</v>
+        <v>0.040554490488128599</v>
       </c>
       <c r="I15" s="5">
-        <v>21.739130434782599</v>
+        <v>18.181818181818201</v>
       </c>
       <c r="J15" s="5">
-        <v>0.30765115034777957</v>
+        <v>0.44141252006420545</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -5272,17 +5272,17 @@
         <v>3640</v>
       </c>
       <c r="F17" s="4">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
-        <v>0.160057128082639</v>
+        <v>0.14950391084642101</v>
       </c>
       <c r="I17" s="5">
-        <v>3.2967032967033001</v>
+        <v>2.3529411764705901</v>
       </c>
       <c r="J17" s="5">
-        <v>2.5</v>
+        <v>2.3351648351648353</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -5334,17 +5334,17 @@
         <v>19054</v>
       </c>
       <c r="F19" s="4">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
-        <v>0.023447183620223799</v>
+        <v>0.021049176204519099</v>
       </c>
       <c r="I19" s="5">
-        <v>22.727272727272702</v>
+        <v>21.518987341772199</v>
       </c>
       <c r="J19" s="5">
-        <v>0.46184528183058676</v>
+        <v>0.41461110527973127</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -5365,17 +5365,17 @@
         <v>8491</v>
       </c>
       <c r="F20" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
-        <v>0.012737562168591199</v>
+        <v>0.011676098654541899</v>
       </c>
       <c r="I20" s="5">
-        <v>29.1666666666667</v>
+        <v>36.363636363636402</v>
       </c>
       <c r="J20" s="5">
-        <v>0.28265221999764456</v>
+        <v>0.25909786833117415</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -5396,17 +5396,17 @@
         <v>1953</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
-        <v>0.0079448521330603792</v>
+        <v>0.00529656808870692</v>
       </c>
       <c r="I21" s="5">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5">
-        <v>0.15360983102918588</v>
+        <v>0.10240655401945725</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -5489,17 +5489,17 @@
         <v>343</v>
       </c>
       <c r="F24" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
-        <v>0.020464365692368001</v>
+        <v>0.029234808131954199</v>
       </c>
       <c r="I24" s="5">
-        <v>14.285714285714301</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>2.0408163265306123</v>
+        <v>2.9154518950437316</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5527,7 +5527,7 @@
         <v>0.013900601432688699</v>
       </c>
       <c r="I25" s="5">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J25" s="5">
         <v>0.27829313543599254</v>
@@ -5551,17 +5551,17 @@
         <v>1064</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5">
-        <v>0.0095927402142058898</v>
+        <v>0.014389110321308801</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>0.18796992481203006</v>
+        <v>0.28195488721804507</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -5613,17 +5613,17 @@
         <v>5054</v>
       </c>
       <c r="F28" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5">
-        <v>0.0072560910349181197</v>
+        <v>0.011791147931742</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>0.15829046299960428</v>
+        <v>0.25722200237435694</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -5675,17 +5675,17 @@
         <v>3003</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
-        <v>0.0016648935550305599</v>
+        <v>0.0133191484402445</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <v>0.033300033300033297</v>
+        <v>0.26640026640026637</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5768,17 +5768,17 @@
         <v>5320</v>
       </c>
       <c r="F33" s="4">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
-        <v>0.1424711373127</v>
+        <v>0.15524441169245901</v>
       </c>
       <c r="I33" s="5">
-        <v>5.5172413793103496</v>
+        <v>4.43037974683544</v>
       </c>
       <c r="J33" s="5">
-        <v>2.725563909774436</v>
+        <v>2.9699248120300754</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5799,17 +5799,17 @@
         <v>4445</v>
       </c>
       <c r="F34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
-        <v>0.033863790803045898</v>
+        <v>0.0282198256692049</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0.67491563554555678</v>
+        <v>0.56242969628796402</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5861,17 +5861,17 @@
         <v>8127</v>
       </c>
       <c r="F36" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
-        <v>0.011969952000492501</v>
+        <v>0.013109947429110799</v>
       </c>
       <c r="I36" s="5">
-        <v>4.7619047619047601</v>
+        <v>4.3478260869565197</v>
       </c>
       <c r="J36" s="5">
-        <v>0.2583979328165375</v>
+        <v>0.28300725975144581</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5892,17 +5892,17 @@
         <v>1589</v>
       </c>
       <c r="F37" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
-        <v>0.0151061965618297</v>
+        <v>0.018127435874195599</v>
       </c>
       <c r="I37" s="5">
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <v>0.31466331025802391</v>
+        <v>0.37759597230962871</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -5923,17 +5923,17 @@
         <v>1407</v>
       </c>
       <c r="F38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5">
-        <v>0.014715728906842101</v>
+        <v>0.0220735933602631</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>0.14214641080312723</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -6109,17 +6109,17 @@
         <v>427</v>
       </c>
       <c r="F44" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
-        <v>0.0137186756905067</v>
+        <v>0.011432229742088899</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>1.405152224824356</v>
+        <v>1.1709601873536302</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -6140,17 +6140,17 @@
         <v>20216</v>
       </c>
       <c r="F45" s="4">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
-        <v>0.046122812526345001</v>
+        <v>0.045206465257609699</v>
       </c>
       <c r="I45" s="5">
-        <v>6.6225165562913899</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="J45" s="5">
-        <v>0.74693312227938269</v>
+        <v>0.73209339137316976</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -6233,17 +6233,17 @@
         <v>1148</v>
       </c>
       <c r="F48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5">
-        <v>0.016970077510829001</v>
+        <v>0.0212125968885363</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>0.34843205574912894</v>
+        <v>0.43554006968641112</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -6264,17 +6264,17 @@
         <v>763</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5">
-        <v>0.0058127368690274097</v>
+        <v>0</v>
       </c>
       <c r="I49" s="5">
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <v>0.13106159895150721</v>
+        <v>0</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -6295,17 +6295,17 @@
         <v>2856</v>
       </c>
       <c r="F50" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5">
-        <v>0.016897600540723201</v>
+        <v>0.018587360594795502</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0.350140056022409</v>
+        <v>0.38515406162464988</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -6326,17 +6326,17 @@
         <v>1330</v>
       </c>
       <c r="F51" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
-        <v>0.0098872197797127397</v>
+        <v>0.0032957399265709101</v>
       </c>
       <c r="I51" s="5">
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <v>0.22556390977443611</v>
+        <v>0.07518796992481204</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -6357,17 +6357,17 @@
         <v>896</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5">
-        <v>0.0057698410408793203</v>
+        <v>0.011539682081758601</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <v>0.11160714285714285</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="K52" s="5"/>
     </row>
@@ -6481,17 +6481,17 @@
         <v>154</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5">
-        <v>0.0070870215374584499</v>
+        <v>0</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <v>0.64935064935064934</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5"/>
     </row>
@@ -6605,17 +6605,17 @@
         <v>5852</v>
       </c>
       <c r="F60" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
-        <v>0.020575398945115099</v>
+        <v>0.0237408449366713</v>
       </c>
       <c r="I60" s="5">
-        <v>7.6923076923076898</v>
+        <v>10</v>
       </c>
       <c r="J60" s="5">
-        <v>0.44429254955570752</v>
+        <v>0.51264524948735479</v>
       </c>
       <c r="K60" s="5"/>
     </row>
@@ -6698,17 +6698,17 @@
         <v>30828</v>
       </c>
       <c r="F63" s="4">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
-        <v>0.0749696029937158</v>
+        <v>0.077257407779908999</v>
       </c>
       <c r="I63" s="5">
-        <v>8.4507042253521103</v>
+        <v>7.7448747152619601</v>
       </c>
       <c r="J63" s="5">
-        <v>1.3818606461658234</v>
+        <v>1.424030102504217</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -6729,17 +6729,17 @@
         <v>6286</v>
       </c>
       <c r="F64" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
-        <v>0.0166000276164096</v>
+        <v>0.017354574326246399</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <v>0.34998409163219857</v>
+        <v>0.36589245943366211</v>
       </c>
       <c r="K64" s="5"/>
     </row>
@@ -6915,17 +6915,17 @@
         <v>7854</v>
       </c>
       <c r="F70" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
-        <v>0.0138834722311623</v>
+        <v>0.0189320075879486</v>
       </c>
       <c r="I70" s="5">
-        <v>9.0909090909090899</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="J70" s="5">
-        <v>0.14005602240896359</v>
+        <v>0.19098548510313218</v>
       </c>
       <c r="K70" s="5"/>
     </row>
@@ -6946,17 +6946,17 @@
         <v>3801</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
-        <v>0.0024092931254434602</v>
+        <v>0</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <v>0.052617732175743226</v>
+        <v>0</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -7070,17 +7070,17 @@
         <v>9058</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
-        <v>0.00048414404059838299</v>
+        <v>0</v>
       </c>
       <c r="I75" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J75" s="5">
-        <v>0.011039964672113049</v>
+        <v>0</v>
       </c>
       <c r="K75" s="5"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>3360</v>
       </c>
       <c r="F76" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
-        <v>0.0490924644294412</v>
+        <v>0.051547087650913301</v>
       </c>
       <c r="I76" s="5">
-        <v>2.5</v>
+        <v>4.7619047619047601</v>
       </c>
       <c r="J76" s="5">
-        <v>1.1904761904761905</v>
+        <v>1.25</v>
       </c>
       <c r="K76" s="5"/>
     </row>
@@ -7163,17 +7163,17 @@
         <v>679</v>
       </c>
       <c r="F78" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5">
-        <v>0.0312030004805262</v>
+        <v>0.043684200672736699</v>
       </c>
       <c r="I78" s="5">
         <v>0</v>
       </c>
       <c r="J78" s="5">
-        <v>0.73637702503681879</v>
+        <v>1.0309278350515463</v>
       </c>
       <c r="K78" s="5"/>
     </row>
@@ -7194,17 +7194,17 @@
         <v>1932</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
-        <v>0</v>
+        <v>0.0026227994712436299</v>
       </c>
       <c r="I79" s="5">
         <v>0</v>
       </c>
       <c r="J79" s="5">
-        <v>0</v>
+        <v>0.051759834368530024</v>
       </c>
       <c r="K79" s="5"/>
     </row>
@@ -7442,17 +7442,17 @@
         <v>1218</v>
       </c>
       <c r="F87" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
-        <v>0.0039706931083062103</v>
+        <v>0.0031765544866449698</v>
       </c>
       <c r="I87" s="5">
         <v>0</v>
       </c>
       <c r="J87" s="5">
-        <v>0.41050903119868637</v>
+        <v>0.32840722495894908</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -7473,17 +7473,17 @@
         <v>11704</v>
       </c>
       <c r="F88" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
-        <v>0.0112185947046686</v>
+        <v>0.010058050424875301</v>
       </c>
       <c r="I88" s="5">
-        <v>10.3448275862069</v>
+        <v>19.230769230769202</v>
       </c>
       <c r="J88" s="5">
-        <v>0.24777853725222146</v>
+        <v>0.22214627477785376</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -7535,17 +7535,17 @@
         <v>2219</v>
       </c>
       <c r="F90" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
-        <v>0.0234509692578731</v>
+        <v>0.025544805798754702</v>
       </c>
       <c r="I90" s="5">
-        <v>16.071428571428601</v>
+        <v>16.393442622950801</v>
       </c>
       <c r="J90" s="5">
-        <v>2.5236593059936907</v>
+        <v>2.7489860297431274</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -7628,17 +7628,17 @@
         <v>11837</v>
       </c>
       <c r="F93" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
-        <v>0.073225025384675499</v>
+        <v>0.0742013590564711</v>
       </c>
       <c r="I93" s="5">
-        <v>0</v>
+        <v>0.65789473684210498</v>
       </c>
       <c r="J93" s="5">
-        <v>1.2672129762608768</v>
+        <v>1.2841091492776886</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -7659,17 +7659,17 @@
         <v>5929</v>
       </c>
       <c r="F94" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
-        <v>0.0023943111167865198</v>
+        <v>0.0039905185279775299</v>
       </c>
       <c r="I94" s="5">
-        <v>66.6666666666667</v>
+        <v>80</v>
       </c>
       <c r="J94" s="5">
-        <v>0.050598751897453192</v>
+        <v>0.084331253162421987</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -7783,17 +7783,17 @@
         <v>3087</v>
       </c>
       <c r="F98" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
-        <v>0.016077273808834801</v>
+        <v>0.012861819047067799</v>
       </c>
       <c r="I98" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J98" s="5">
-        <v>0.16196954972465177</v>
+        <v>0.12957563977972142</v>
       </c>
       <c r="K98" s="5"/>
     </row>
@@ -7814,17 +7814,17 @@
         <v>1295</v>
       </c>
       <c r="F99" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5">
-        <v>0.00867952586643367</v>
+        <v>0.0115727011552449</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
       </c>
       <c r="J99" s="5">
-        <v>0.23166023166023164</v>
+        <v>0.30888030888030887</v>
       </c>
       <c r="K99" s="5"/>
     </row>
@@ -7845,17 +7845,17 @@
         <v>1379</v>
       </c>
       <c r="F100" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5">
-        <v>0.014216106137448401</v>
+        <v>0.017770132671810501</v>
       </c>
       <c r="I100" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J100" s="5">
-        <v>0.29006526468455401</v>
+        <v>0.36258158085569253</v>
       </c>
       <c r="K100" s="5"/>
     </row>
@@ -7969,17 +7969,17 @@
         <v>2660</v>
       </c>
       <c r="F104" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
-        <v>0.0202432875098916</v>
+        <v>0.0217155266015201</v>
       </c>
       <c r="I104" s="5">
-        <v>10.909090909090899</v>
+        <v>11.864406779661</v>
       </c>
       <c r="J104" s="5">
-        <v>2.0676691729323307</v>
+        <v>2.2180451127819549</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -8031,17 +8031,17 @@
         <v>2639</v>
       </c>
       <c r="F106" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
-        <v>0.073987088304538401</v>
+        <v>0.072089983476217007</v>
       </c>
       <c r="I106" s="5">
         <v>0</v>
       </c>
       <c r="J106" s="5">
-        <v>1.4778325123152709</v>
+        <v>1.4399393709738537</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -8124,17 +8124,17 @@
         <v>3948</v>
       </c>
       <c r="F109" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
-        <v>0.0049137574151670504</v>
+        <v>0.0036853180613752902</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>0.10131712259371835</v>
+        <v>0.07598784194528875</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>6783</v>
       </c>
       <c r="F110" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
-        <v>0.043987657063427998</v>
+        <v>0.045453912298875597</v>
       </c>
       <c r="I110" s="5">
-        <v>11.6666666666667</v>
+        <v>11.290322580645199</v>
       </c>
       <c r="J110" s="5">
-        <v>0.88456435205661221</v>
+        <v>0.91404983045849908</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -8248,17 +8248,17 @@
         <v>3885</v>
       </c>
       <c r="F113" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
-        <v>0.087744021441448106</v>
+        <v>0.089073476311773106</v>
       </c>
       <c r="I113" s="5">
-        <v>42.424242424242401</v>
+        <v>37.313432835820898</v>
       </c>
       <c r="J113" s="5">
-        <v>1.698841698841699</v>
+        <v>1.7245817245817245</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -8465,17 +8465,17 @@
         <v>1365</v>
       </c>
       <c r="F120" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
-        <v>0.15999761864009501</v>
+        <v>0.16743936834428499</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>3.1501831501831501</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -8527,17 +8527,17 @@
         <v>980</v>
       </c>
       <c r="F122" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
-        <v>0.0193165794201163</v>
+        <v>0.0144874345650872</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>0.40816326530612246</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="K122" s="5"/>
     </row>
@@ -8589,17 +8589,17 @@
         <v>448</v>
       </c>
       <c r="F124" s="4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
-        <v>0.044836730249420302</v>
+        <v>0.0128104943569772</v>
       </c>
       <c r="I124" s="5">
-        <v>4.7619047619047601</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J124" s="5">
-        <v>4.6875</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="K124" s="5"/>
     </row>
@@ -8620,17 +8620,17 @@
         <v>8820</v>
       </c>
       <c r="F125" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
-        <v>0.015673678199533199</v>
+        <v>0.018285957899455401</v>
       </c>
       <c r="I125" s="5">
-        <v>16.6666666666667</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J125" s="5">
-        <v>0.3401360544217687</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K125" s="5"/>
     </row>
@@ -8713,17 +8713,17 @@
         <v>1057</v>
       </c>
       <c r="F128" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5">
-        <v>0.00355757942296062</v>
+        <v>0.0071151588459212401</v>
       </c>
       <c r="I128" s="5">
         <v>0</v>
       </c>
       <c r="J128" s="5">
-        <v>0.0946073793755913</v>
+        <v>0.1892147587511826</v>
       </c>
       <c r="K128" s="5"/>
     </row>
@@ -8744,17 +8744,17 @@
         <v>12404</v>
       </c>
       <c r="F129" s="4">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
-        <v>0.025731455013927599</v>
+        <v>0.0322603316592526</v>
       </c>
       <c r="I129" s="5">
-        <v>4.4776119402985097</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="J129" s="5">
-        <v>0.54014833924540473</v>
+        <v>0.67720090293453727</v>
       </c>
       <c r="K129" s="5"/>
     </row>
@@ -8775,17 +8775,17 @@
         <v>1421</v>
       </c>
       <c r="F130" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
-        <v>0.092128254814469096</v>
+        <v>0.085986371160171104</v>
       </c>
       <c r="I130" s="5">
-        <v>6.6666666666666696</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J130" s="5">
-        <v>2.1111893033075297</v>
+        <v>1.9704433497536946</v>
       </c>
       <c r="K130" s="5"/>
     </row>
@@ -8837,17 +8837,17 @@
         <v>6496</v>
       </c>
       <c r="F132" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="5">
-        <v>0.0016222178963078301</v>
+        <v>0.000811108948153916</v>
       </c>
       <c r="I132" s="5">
         <v>100</v>
       </c>
       <c r="J132" s="5">
-        <v>0.030788177339901478</v>
+        <v>0.015394088669950739</v>
       </c>
       <c r="K132" s="5"/>
     </row>
@@ -8868,17 +8868,17 @@
         <v>6391</v>
       </c>
       <c r="F133" s="4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5">
-        <v>0.027885876317332501</v>
+        <v>0.031555070569613</v>
       </c>
       <c r="I133" s="5">
-        <v>7.8947368421052602</v>
+        <v>4.6511627906976702</v>
       </c>
       <c r="J133" s="5">
-        <v>0.59458613675481142</v>
+        <v>0.6728211547488655</v>
       </c>
       <c r="K133" s="5"/>
     </row>
@@ -8930,17 +8930,17 @@
         <v>4480</v>
       </c>
       <c r="F135" s="4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
-        <v>0.0491703618938635</v>
+        <v>0.041347804319839802</v>
       </c>
       <c r="I135" s="5">
-        <v>9.0909090909090899</v>
+        <v>8.1081081081081106</v>
       </c>
       <c r="J135" s="5">
-        <v>0.9821428571428571</v>
+        <v>0.82589285714285721</v>
       </c>
       <c r="K135" s="5"/>
     </row>
@@ -8961,17 +8961,17 @@
         <v>3661</v>
       </c>
       <c r="F136" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5">
-        <v>0.013947520130920699</v>
+        <v>0.016272106819407502</v>
       </c>
       <c r="I136" s="5">
-        <v>33.3333333333333</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J136" s="5">
-        <v>0.16388964763725758</v>
+        <v>0.19120458891013384</v>
       </c>
       <c r="K136" s="5"/>
     </row>
@@ -9023,17 +9023,17 @@
         <v>4508</v>
       </c>
       <c r="F138" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
-        <v>0.010395993799829299</v>
+        <v>0.0072771956598805098</v>
       </c>
       <c r="I138" s="5">
-        <v>30</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J138" s="5">
-        <v>0.22182786157941436</v>
+        <v>0.15527950310559005</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -9054,17 +9054,17 @@
         <v>2114</v>
       </c>
       <c r="F139" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
-        <v>0.015925690727067499</v>
+        <v>0.0139349793861841</v>
       </c>
       <c r="I139" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J139" s="5">
-        <v>0.3784295175023652</v>
+        <v>0.33112582781456956</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>11851</v>
       </c>
       <c r="F140" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
-        <v>0.0195741908812457</v>
+        <v>0.0187912232459959</v>
       </c>
       <c r="I140" s="5">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J140" s="5">
-        <v>0.42190532444519452</v>
+        <v>0.40502911146738668</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -9116,17 +9116,17 @@
         <v>1197</v>
       </c>
       <c r="F141" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5">
-        <v>0.022783887234947401</v>
+        <v>0.018986572695789499</v>
       </c>
       <c r="I141" s="5">
         <v>0</v>
       </c>
       <c r="J141" s="5">
-        <v>0.50125313283208017</v>
+        <v>0.41771094402673348</v>
       </c>
       <c r="K141" s="5"/>
     </row>
@@ -9147,17 +9147,17 @@
         <v>2205</v>
       </c>
       <c r="F142" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
-        <v>0.0093793012889504795</v>
+        <v>0.0046896506444752397</v>
       </c>
       <c r="I142" s="5">
         <v>0</v>
       </c>
       <c r="J142" s="5">
-        <v>0.18140589569160998</v>
+        <v>0.090702947845804988</v>
       </c>
       <c r="K142" s="5"/>
     </row>
@@ -9178,17 +9178,17 @@
         <v>889</v>
       </c>
       <c r="F143" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5">
-        <v>0.017456475188529899</v>
+        <v>0.011637650125686599</v>
       </c>
       <c r="I143" s="5">
         <v>0</v>
       </c>
       <c r="J143" s="5">
-        <v>0.33745781777277839</v>
+        <v>0.22497187851518563</v>
       </c>
       <c r="K143" s="5"/>
     </row>
@@ -9302,17 +9302,17 @@
         <v>7966</v>
       </c>
       <c r="F147" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5">
-        <v>0.023669815541127501</v>
+        <v>0.0207110885984866</v>
       </c>
       <c r="I147" s="5">
-        <v>2.5</v>
+        <v>2.8571428571428599</v>
       </c>
       <c r="J147" s="5">
-        <v>0.50213406979663566</v>
+        <v>0.43936731107205629</v>
       </c>
       <c r="K147" s="5"/>
     </row>
@@ -9519,17 +9519,17 @@
         <v>952</v>
       </c>
       <c r="F154" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5">
-        <v>0.037432154220475397</v>
+        <v>0.032753134942915998</v>
       </c>
       <c r="I154" s="5">
         <v>0</v>
       </c>
       <c r="J154" s="5">
-        <v>0.84033613445378152</v>
+        <v>0.73529411764705876</v>
       </c>
       <c r="K154" s="5"/>
     </row>
@@ -9829,17 +9829,17 @@
         <v>5880</v>
       </c>
       <c r="F164" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5">
-        <v>0.0054146039603960401</v>
+        <v>0.00464108910891089</v>
       </c>
       <c r="I164" s="5">
-        <v>85.714285714285694</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J164" s="5">
-        <v>0.11904761904761905</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="K164" s="5"/>
     </row>
@@ -9860,17 +9860,17 @@
         <v>182</v>
       </c>
       <c r="F165" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5">
-        <v>0.0047776254246114603</v>
+        <v>0.0095552508492229207</v>
       </c>
       <c r="I165" s="5">
         <v>0</v>
       </c>
       <c r="J165" s="5">
-        <v>0.5494505494505495</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="K165" s="5"/>
     </row>
@@ -9898,7 +9898,7 @@
         <v>0.0120596712533616</v>
       </c>
       <c r="I166" s="5">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="J166" s="5">
         <v>0.21754894851341552</v>
@@ -10108,17 +10108,17 @@
         <v>2422</v>
       </c>
       <c r="F173" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5">
-        <v>0.013787816533798101</v>
+        <v>0.0193029431473173</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
       </c>
       <c r="J173" s="5">
-        <v>0.20644095788604458</v>
+        <v>0.28901734104046239</v>
       </c>
       <c r="K173" s="5"/>
     </row>
@@ -10139,17 +10139,17 @@
         <v>644</v>
       </c>
       <c r="F174" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5">
-        <v>0.083655056739042194</v>
+        <v>0.094809064304247903</v>
       </c>
       <c r="I174" s="5">
-        <v>11.6666666666667</v>
+        <v>13.235294117647101</v>
       </c>
       <c r="J174" s="5">
-        <v>9.316770186335404</v>
+        <v>10.559006211180124</v>
       </c>
       <c r="K174" s="5"/>
     </row>
@@ -10201,17 +10201,17 @@
         <v>5537</v>
       </c>
       <c r="F176" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5">
-        <v>0.0469393485971311</v>
+        <v>0.045292353909512501</v>
       </c>
       <c r="I176" s="5">
-        <v>15.789473684210501</v>
+        <v>14.545454545454501</v>
       </c>
       <c r="J176" s="5">
-        <v>1.0294383240021672</v>
+        <v>0.99331768105472285</v>
       </c>
       <c r="K176" s="5"/>
     </row>
@@ -10232,17 +10232,17 @@
         <v>25886</v>
       </c>
       <c r="F177" s="4">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5">
-        <v>0.0795043674003615</v>
+        <v>0.082273176215299407</v>
       </c>
       <c r="I177" s="5">
-        <v>30.845771144278601</v>
+        <v>31.25</v>
       </c>
       <c r="J177" s="5">
-        <v>0.77648149578922965</v>
+        <v>0.80352313992119295</v>
       </c>
       <c r="K177" s="5"/>
     </row>
@@ -10294,17 +10294,17 @@
         <v>280</v>
       </c>
       <c r="F179" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5">
-        <v>0.025597332026650502</v>
+        <v>0.021940570308557599</v>
       </c>
       <c r="I179" s="5">
-        <v>14.285714285714301</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J179" s="5">
-        <v>2.5</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="K179" s="5"/>
     </row>
@@ -10356,17 +10356,17 @@
         <v>8036</v>
       </c>
       <c r="F181" s="4">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5">
-        <v>0.0297589214113873</v>
+        <v>0.0250601443464314</v>
       </c>
       <c r="I181" s="5">
-        <v>5.2631578947368398</v>
+        <v>3.125</v>
       </c>
       <c r="J181" s="5">
-        <v>0.4728720756595321</v>
+        <v>0.39820806371329021</v>
       </c>
       <c r="K181" s="5"/>
     </row>
@@ -10418,17 +10418,17 @@
         <v>875</v>
       </c>
       <c r="F183" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="5">
-        <v>0.0059333800092560701</v>
+        <v>0.0118667600185121</v>
       </c>
       <c r="I183" s="5">
         <v>0</v>
       </c>
       <c r="J183" s="5">
-        <v>0.1142857142857143</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="K183" s="5"/>
     </row>
@@ -10449,17 +10449,17 @@
         <v>15568</v>
       </c>
       <c r="F184" s="4">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5">
-        <v>0.12405174167888899</v>
+        <v>0.123295328619871</v>
       </c>
       <c r="I184" s="5">
-        <v>8.8414634146341502</v>
+        <v>8.2822085889570491</v>
       </c>
       <c r="J184" s="5">
-        <v>2.1068859198355603</v>
+        <v>2.0940390544707093</v>
       </c>
       <c r="K184" s="5"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>1897</v>
       </c>
       <c r="F185" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5">
-        <v>0.040269706358334899</v>
+        <v>0.035235993063543102</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>0.84343700579862946</v>
+        <v>0.73800738007380073</v>
       </c>
       <c r="K185" s="5"/>
     </row>
@@ -10511,17 +10511,17 @@
         <v>938</v>
       </c>
       <c r="F186" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="5">
-        <v>0.0061123199921762298</v>
+        <v>0.0122246399843525</v>
       </c>
       <c r="I186" s="5">
         <v>0</v>
       </c>
       <c r="J186" s="5">
-        <v>0.10660980810234541</v>
+        <v>0.21321961620469082</v>
       </c>
       <c r="K186" s="5"/>
     </row>
@@ -10542,17 +10542,17 @@
         <v>1435</v>
       </c>
       <c r="F187" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5">
-        <v>0.0097665787674577603</v>
+        <v>0.00651105251163851</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>0.20905923344947736</v>
+        <v>0.13937282229965156</v>
       </c>
       <c r="K187" s="5"/>
     </row>
@@ -10604,17 +10604,17 @@
         <v>721</v>
       </c>
       <c r="F189" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5">
-        <v>0.064571535575687497</v>
+        <v>0.077485842690824994</v>
       </c>
       <c r="I189" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J189" s="5">
-        <v>1.3869625520110958</v>
+        <v>1.6643550624133148</v>
       </c>
       <c r="K189" s="5"/>
     </row>
@@ -10635,17 +10635,17 @@
         <v>5586</v>
       </c>
       <c r="F190" s="4">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5">
-        <v>0.19937849549914599</v>
+        <v>0.18732305158524401</v>
       </c>
       <c r="I190" s="5">
-        <v>8.3720930232558093</v>
+        <v>6.4356435643564396</v>
       </c>
       <c r="J190" s="5">
-        <v>3.8489079842463303</v>
+        <v>3.6161833154314356</v>
       </c>
       <c r="K190" s="5"/>
     </row>
@@ -10666,17 +10666,17 @@
         <v>182</v>
       </c>
       <c r="F191" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5">
-        <v>0.047798862387075203</v>
+        <v>0.042487877677400199</v>
       </c>
       <c r="I191" s="5">
         <v>0</v>
       </c>
       <c r="J191" s="5">
-        <v>4.9450549450549453</v>
+        <v>4.395604395604396</v>
       </c>
       <c r="K191" s="5"/>
     </row>
@@ -10728,17 +10728,17 @@
         <v>2268</v>
       </c>
       <c r="F193" s="4">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5">
-        <v>0.177780899307971</v>
+        <v>0.20850846215132399</v>
       </c>
       <c r="I193" s="5">
-        <v>3.7037037037037002</v>
+        <v>2.1052631578947398</v>
       </c>
       <c r="J193" s="5">
-        <v>3.5714285714285712</v>
+        <v>4.1887125220458552</v>
       </c>
       <c r="K193" s="5"/>
     </row>
@@ -10759,17 +10759,17 @@
         <v>6104</v>
       </c>
       <c r="F194" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5">
-        <v>0.040086988765621397</v>
+        <v>0.038416697567053799</v>
       </c>
       <c r="I194" s="5">
-        <v>12.5</v>
+        <v>17.3913043478261</v>
       </c>
       <c r="J194" s="5">
-        <v>0.39318479685452157</v>
+        <v>0.37680209698558326</v>
       </c>
       <c r="K194" s="5"/>
     </row>
@@ -10790,17 +10790,17 @@
         <v>1603</v>
       </c>
       <c r="F195" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5">
-        <v>0.078294683790970598</v>
+        <v>0.089893896204447696</v>
       </c>
       <c r="I195" s="5">
-        <v>7.4074074074074101</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="J195" s="5">
-        <v>1.6843418590143482</v>
+        <v>1.9338739862757333</v>
       </c>
       <c r="K195" s="5"/>
     </row>
@@ -10821,17 +10821,17 @@
         <v>5089</v>
       </c>
       <c r="F196" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5">
-        <v>0.056910827351078899</v>
+        <v>0.059557842576710499</v>
       </c>
       <c r="I196" s="5">
-        <v>9.3023255813953494</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J196" s="5">
-        <v>0.84495971703674599</v>
+        <v>0.88426016899194348</v>
       </c>
       <c r="K196" s="5"/>
     </row>
@@ -10852,17 +10852,17 @@
         <v>25571</v>
       </c>
       <c r="F197" s="4">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5">
-        <v>0.19273121390622699</v>
+        <v>0.196428695228169</v>
       </c>
       <c r="I197" s="5">
-        <v>11.510791366906499</v>
+        <v>12</v>
       </c>
       <c r="J197" s="5">
-        <v>1.6307535880489616</v>
+        <v>1.6620390285870712</v>
       </c>
       <c r="K197" s="5"/>
     </row>
@@ -10914,17 +10914,17 @@
         <v>1106</v>
       </c>
       <c r="F199" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5">
-        <v>0.0048121342777948904</v>
+        <v>0.0096242685555897808</v>
       </c>
       <c r="I199" s="5">
         <v>0</v>
       </c>
       <c r="J199" s="5">
-        <v>0.090415913200723327</v>
+        <v>0.18083182640144665</v>
       </c>
       <c r="K199" s="5"/>
     </row>
@@ -10945,17 +10945,17 @@
         <v>147</v>
       </c>
       <c r="F200" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="5">
-        <v>0.0137709749161692</v>
+        <v>0.020656462374253799</v>
       </c>
       <c r="I200" s="5">
         <v>0</v>
       </c>
       <c r="J200" s="5">
-        <v>1.3605442176870748</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="K200" s="5"/>
     </row>
@@ -10976,17 +10976,17 @@
         <v>26621</v>
       </c>
       <c r="F201" s="4">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5">
-        <v>0.36175612636218102</v>
+        <v>0.34804407697944501</v>
       </c>
       <c r="I201" s="5">
-        <v>8.8071348940914191</v>
+        <v>7.8794901506373103</v>
       </c>
       <c r="J201" s="5">
-        <v>3.3695203035197774</v>
+        <v>3.24180158521468</v>
       </c>
       <c r="K201" s="5"/>
     </row>
@@ -11007,17 +11007,17 @@
         <v>9135</v>
       </c>
       <c r="F202" s="4">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5">
-        <v>0.34281435262190701</v>
+        <v>0.31600205688611599</v>
       </c>
       <c r="I202" s="5">
-        <v>10.055865921787699</v>
+        <v>10</v>
       </c>
       <c r="J202" s="5">
-        <v>3.9189928845101258</v>
+        <v>3.6124794745484397</v>
       </c>
       <c r="K202" s="5"/>
     </row>
@@ -11038,17 +11038,17 @@
         <v>23093</v>
       </c>
       <c r="F203" s="4">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5">
-        <v>0.43395364496405298</v>
+        <v>0.42588425900397803</v>
       </c>
       <c r="I203" s="5">
-        <v>9.9173553719008307</v>
+        <v>9.1578947368421009</v>
       </c>
       <c r="J203" s="5">
-        <v>4.191746416663058</v>
+        <v>4.1138007188325467</v>
       </c>
       <c r="K203" s="5"/>
     </row>
@@ -11069,17 +11069,17 @@
         <v>29498</v>
       </c>
       <c r="F204" s="4">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="5">
-        <v>0.23104267322529701</v>
+        <v>0.23039458718539499</v>
       </c>
       <c r="I204" s="5">
-        <v>6.5918653576437602</v>
+        <v>6.3291139240506302</v>
       </c>
       <c r="J204" s="5">
-        <v>2.417113024611838</v>
+        <v>2.4103329039256898</v>
       </c>
       <c r="K204" s="5"/>
     </row>
@@ -11100,17 +11100,17 @@
         <v>18501</v>
       </c>
       <c r="F205" s="4">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="5">
-        <v>0.32661271222941501</v>
+        <v>0.32165568961547802</v>
       </c>
       <c r="I205" s="5">
-        <v>8.6003372681281594</v>
+        <v>7.8767123287671197</v>
       </c>
       <c r="J205" s="5">
-        <v>3.2052321496135341</v>
+        <v>3.1565861304794338</v>
       </c>
       <c r="K205" s="5"/>
     </row>
@@ -11131,17 +11131,17 @@
         <v>3031</v>
       </c>
       <c r="F206" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="5">
-        <v>0.0314910541787842</v>
+        <v>0.037789265014541003</v>
       </c>
       <c r="I206" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J206" s="5">
-        <v>0.65984823490597166</v>
+        <v>0.79181788188716595</v>
       </c>
       <c r="K206" s="5"/>
     </row>
@@ -11162,17 +11162,17 @@
         <v>308</v>
       </c>
       <c r="F207" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="5">
-        <v>0.0118884294671368</v>
+        <v>0.014266115360564199</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>1.6233766233766231</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="K207" s="5"/>
     </row>
@@ -11193,17 +11193,17 @@
         <v>1463</v>
       </c>
       <c r="F208" s="4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="5">
-        <v>0.036884654977584197</v>
+        <v>0.0637098585976454</v>
       </c>
       <c r="I208" s="5">
         <v>0</v>
       </c>
       <c r="J208" s="5">
-        <v>0.75187969924812026</v>
+        <v>1.2987012987012987</v>
       </c>
       <c r="K208" s="5"/>
     </row>
@@ -11224,17 +11224,17 @@
         <v>2058</v>
       </c>
       <c r="F209" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="5">
-        <v>0.026971334865305199</v>
+        <v>0.0215770678922441</v>
       </c>
       <c r="I209" s="5">
         <v>0</v>
       </c>
       <c r="J209" s="5">
-        <v>0.48590864917395532</v>
+        <v>0.3887269193391642</v>
       </c>
       <c r="K209" s="5"/>
     </row>
@@ -11286,17 +11286,17 @@
         <v>2352</v>
       </c>
       <c r="F211" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="5">
-        <v>0.042122910440374001</v>
+        <v>0.033698328352299203</v>
       </c>
       <c r="I211" s="5">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="J211" s="5">
-        <v>0.85034013605442182</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="K211" s="5"/>
     </row>
@@ -11379,17 +11379,17 @@
         <v>1211</v>
       </c>
       <c r="F214" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="5">
-        <v>0.0121928419888964</v>
+        <v>0.020321403314827301</v>
       </c>
       <c r="I214" s="5">
         <v>0</v>
       </c>
       <c r="J214" s="5">
-        <v>0.2477291494632535</v>
+        <v>0.41288191577208916</v>
       </c>
       <c r="K214" s="5"/>
     </row>
@@ -11410,17 +11410,17 @@
         <v>889</v>
       </c>
       <c r="F215" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="5">
-        <v>0.064430754285884198</v>
+        <v>0.0693869661540292</v>
       </c>
       <c r="I215" s="5">
-        <v>38.461538461538503</v>
+        <v>35.714285714285701</v>
       </c>
       <c r="J215" s="5">
-        <v>1.4623172103487065</v>
+        <v>1.5748031496062991</v>
       </c>
       <c r="K215" s="5"/>
     </row>
@@ -11472,17 +11472,17 @@
         <v>7861</v>
       </c>
       <c r="F217" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="5">
-        <v>0.019117364917040899</v>
+        <v>0.019800127949792301</v>
       </c>
       <c r="I217" s="5">
         <v>0</v>
       </c>
       <c r="J217" s="5">
-        <v>0.3561887800534283</v>
+        <v>0.36890980791247929</v>
       </c>
       <c r="K217" s="5"/>
     </row>
@@ -11503,17 +11503,17 @@
         <v>4424</v>
       </c>
       <c r="F218" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="5">
-        <v>0.071044375233472401</v>
+        <v>0.073336129273261899</v>
       </c>
       <c r="I218" s="5">
-        <v>12.9032258064516</v>
+        <v>12.5</v>
       </c>
       <c r="J218" s="5">
-        <v>1.4014466546112114</v>
+        <v>1.4466546112115732</v>
       </c>
       <c r="K218" s="5"/>
     </row>
@@ -11534,17 +11534,17 @@
         <v>2170</v>
       </c>
       <c r="F219" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="5">
-        <v>0.0173751756521664</v>
+        <v>0.026062763478249502</v>
       </c>
       <c r="I219" s="5">
         <v>0</v>
       </c>
       <c r="J219" s="5">
-        <v>0.3686635944700461</v>
+        <v>0.55299539170506917</v>
       </c>
       <c r="K219" s="5"/>
     </row>
@@ -11596,17 +11596,17 @@
         <v>11655</v>
       </c>
       <c r="F221" s="4">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="5">
-        <v>0.052286887695407201</v>
+        <v>0.051482474038554701</v>
       </c>
       <c r="I221" s="5">
-        <v>6.1538461538461497</v>
+        <v>4.6875</v>
       </c>
       <c r="J221" s="5">
-        <v>1.1154011154011154</v>
+        <v>1.0982410982410982</v>
       </c>
       <c r="K221" s="5"/>
     </row>
@@ -11658,17 +11658,17 @@
         <v>658</v>
       </c>
       <c r="F223" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="5">
-        <v>0.050948738290888203</v>
+        <v>0.029113564737650401</v>
       </c>
       <c r="I223" s="5">
         <v>0</v>
       </c>
       <c r="J223" s="5">
-        <v>1.0638297872340425</v>
+        <v>0.60790273556231</v>
       </c>
       <c r="K223" s="5"/>
     </row>
@@ -11689,17 +11689,17 @@
         <v>4984</v>
       </c>
       <c r="F224" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="5">
-        <v>0.0146723301861185</v>
+        <v>0.0136243066013958</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
       </c>
       <c r="J224" s="5">
-        <v>0.2808988764044944</v>
+        <v>0.2608346709470305</v>
       </c>
       <c r="K224" s="5"/>
     </row>
@@ -11813,17 +11813,17 @@
         <v>1477</v>
       </c>
       <c r="F228" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="5">
-        <v>0.25797048172762799</v>
+        <v>0.264419743770819</v>
       </c>
       <c r="I228" s="5">
-        <v>5</v>
+        <v>3.6585365853658498</v>
       </c>
       <c r="J228" s="5">
-        <v>5.4163845633039953</v>
+        <v>5.5517941773865944</v>
       </c>
       <c r="K228" s="5"/>
     </row>
@@ -11844,17 +11844,17 @@
         <v>1736</v>
       </c>
       <c r="F229" s="4">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="5">
-        <v>0.081469239542841201</v>
+        <v>0.080305393263657696</v>
       </c>
       <c r="I229" s="5">
-        <v>9.28571428571429</v>
+        <v>10.144927536231901</v>
       </c>
       <c r="J229" s="5">
-        <v>8.064516129032258</v>
+        <v>7.9493087557603692</v>
       </c>
       <c r="K229" s="5"/>
     </row>
@@ -11906,17 +11906,17 @@
         <v>2023</v>
       </c>
       <c r="F231" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="5">
-        <v>0.030572703161981799</v>
+        <v>0.0254772526349849</v>
       </c>
       <c r="I231" s="5">
-        <v>16.6666666666667</v>
+        <v>10</v>
       </c>
       <c r="J231" s="5">
-        <v>0.59317844784972817</v>
+        <v>0.49431537320810681</v>
       </c>
       <c r="K231" s="5"/>
     </row>
@@ -11937,17 +11937,17 @@
         <v>217</v>
       </c>
       <c r="F232" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="5">
-        <v>0.078111100021263605</v>
+        <v>0.060753077794316102</v>
       </c>
       <c r="I232" s="5">
-        <v>5.5555555555555598</v>
+        <v>0</v>
       </c>
       <c r="J232" s="5">
-        <v>8.2949308755760374</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="K232" s="5"/>
     </row>
@@ -12030,17 +12030,17 @@
         <v>203</v>
       </c>
       <c r="F235" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="5">
-        <v>0.12762543757292899</v>
+        <v>0.113951283547258</v>
       </c>
       <c r="I235" s="5">
-        <v>3.5714285714285698</v>
+        <v>4</v>
       </c>
       <c r="J235" s="5">
-        <v>13.793103448275861</v>
+        <v>12.315270935960591</v>
       </c>
       <c r="K235" s="5"/>
     </row>
@@ -12123,17 +12123,17 @@
         <v>5894</v>
       </c>
       <c r="F238" s="4">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="5">
-        <v>0.104220339329737</v>
+        <v>0.091558055112105005</v>
       </c>
       <c r="I238" s="5">
-        <v>3.7383177570093502</v>
+        <v>5.31914893617021</v>
       </c>
       <c r="J238" s="5">
-        <v>1.815405497115711</v>
+        <v>1.5948422124194097</v>
       </c>
       <c r="K238" s="5"/>
     </row>
@@ -12154,17 +12154,17 @@
         <v>2611</v>
       </c>
       <c r="F239" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="5">
-        <v>0.039703451312740501</v>
+        <v>0.043312855977535099</v>
       </c>
       <c r="I239" s="5">
         <v>0</v>
       </c>
       <c r="J239" s="5">
-        <v>0.42129452317119875</v>
+        <v>0.4595940252776714</v>
       </c>
       <c r="K239" s="5"/>
     </row>
@@ -12185,17 +12185,17 @@
         <v>3332</v>
       </c>
       <c r="F240" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="5">
-        <v>0.0234999676875444</v>
+        <v>0.027906211628959</v>
       </c>
       <c r="I240" s="5">
-        <v>6.25</v>
+        <v>5.2631578947368398</v>
       </c>
       <c r="J240" s="5">
-        <v>0.48019207683073228</v>
+        <v>0.57022809123649465</v>
       </c>
       <c r="K240" s="5"/>
     </row>
@@ -12216,17 +12216,17 @@
         <v>196</v>
       </c>
       <c r="F241" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="5">
-        <v>0.0196741953254112</v>
+        <v>0.014755646494058401</v>
       </c>
       <c r="I241" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J241" s="5">
-        <v>2.0408163265306123</v>
+        <v>1.5306122448979591</v>
       </c>
       <c r="K241" s="5"/>
     </row>
@@ -12247,17 +12247,17 @@
         <v>1218</v>
       </c>
       <c r="F242" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="5">
-        <v>0.044081285891183299</v>
+        <v>0.040073896264712097</v>
       </c>
       <c r="I242" s="5">
-        <v>18.181818181818201</v>
+        <v>10</v>
       </c>
       <c r="J242" s="5">
-        <v>0.90311986863710991</v>
+        <v>0.82101806239737274</v>
       </c>
       <c r="K242" s="5"/>
     </row>
@@ -12278,17 +12278,17 @@
         <v>175</v>
       </c>
       <c r="F243" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="5">
-        <v>0.80515297906602301</v>
+        <v>0.85116172072693796</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
       </c>
       <c r="J243" s="5">
-        <v>20</v>
+        <v>21.142857142857142</v>
       </c>
       <c r="K243" s="5"/>
     </row>
@@ -12340,17 +12340,17 @@
         <v>868</v>
       </c>
       <c r="F245" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="5">
-        <v>0.025638664971407099</v>
+        <v>0.0279694526960804</v>
       </c>
       <c r="I245" s="5">
         <v>0</v>
       </c>
       <c r="J245" s="5">
-        <v>2.5345622119815667</v>
+        <v>2.7649769585253456</v>
       </c>
       <c r="K245" s="5"/>
     </row>
@@ -12402,17 +12402,17 @@
         <v>1883</v>
       </c>
       <c r="F247" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="5">
-        <v>0.010533504444261099</v>
+        <v>0.0099483097529132394</v>
       </c>
       <c r="I247" s="5">
-        <v>33.3333333333333</v>
+        <v>29.411764705882401</v>
       </c>
       <c r="J247" s="5">
-        <v>0.95592140201805642</v>
+        <v>0.90281465746149758</v>
       </c>
       <c r="K247" s="5"/>
     </row>
@@ -12433,17 +12433,17 @@
         <v>3591</v>
       </c>
       <c r="F248" s="4">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="5">
-        <v>0.097977046155353506</v>
+        <v>0.089812292309074004</v>
       </c>
       <c r="I248" s="5">
-        <v>6.9444444444444402</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="J248" s="5">
-        <v>2.0050125313283207</v>
+        <v>1.8379281537176273</v>
       </c>
       <c r="K248" s="5"/>
     </row>
@@ -12495,17 +12495,17 @@
         <v>1162</v>
       </c>
       <c r="F250" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="5">
-        <v>0.028000224001792001</v>
+        <v>0.032000256002047998</v>
       </c>
       <c r="I250" s="5">
         <v>0</v>
       </c>
       <c r="J250" s="5">
-        <v>0.60240963855421692</v>
+        <v>0.6884681583476765</v>
       </c>
       <c r="K250" s="5"/>
     </row>
@@ -12526,17 +12526,17 @@
         <v>378</v>
       </c>
       <c r="F251" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="5">
-        <v>0.0125851067846311</v>
+        <v>0</v>
       </c>
       <c r="I251" s="5">
         <v>0</v>
       </c>
       <c r="J251" s="5">
-        <v>0.26455026455026454</v>
+        <v>0</v>
       </c>
       <c r="K251" s="5"/>
     </row>
@@ -12619,17 +12619,17 @@
         <v>1659</v>
       </c>
       <c r="F254" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="5">
-        <v>0.032810641584753997</v>
+        <v>0.035544861716816797</v>
       </c>
       <c r="I254" s="5">
-        <v>25</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J254" s="5">
-        <v>0.72332730560578662</v>
+        <v>0.78360458107293551</v>
       </c>
       <c r="K254" s="5"/>
     </row>
@@ -12681,17 +12681,17 @@
         <v>14637</v>
       </c>
       <c r="F256" s="4">
-        <v>733</v>
+        <v>784</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="5">
-        <v>0.25085592177402</v>
+        <v>0.26830974443496802</v>
       </c>
       <c r="I256" s="5">
-        <v>9.5497953615279698</v>
+        <v>7.5255102040816304</v>
       </c>
       <c r="J256" s="5">
-        <v>5.0078568012570877</v>
+        <v>5.3562888570062173</v>
       </c>
       <c r="K256" s="5"/>
     </row>
@@ -12712,17 +12712,17 @@
         <v>2597</v>
       </c>
       <c r="F257" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="5">
-        <v>0.054919665785427001</v>
+        <v>0.053025884206619099</v>
       </c>
       <c r="I257" s="5">
-        <v>10.3448275862069</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J257" s="5">
-        <v>1.1166730843280708</v>
+        <v>1.0781671159029651</v>
       </c>
       <c r="K257" s="5"/>
     </row>
@@ -12743,17 +12743,17 @@
         <v>23100</v>
       </c>
       <c r="F258" s="4">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="5">
-        <v>0.26884375798766402</v>
+        <v>0.27800888610087998</v>
       </c>
       <c r="I258" s="5">
-        <v>5.4924242424242404</v>
+        <v>5.1282051282051304</v>
       </c>
       <c r="J258" s="5">
-        <v>2.2857142857142856</v>
+        <v>2.3636363636363638</v>
       </c>
       <c r="K258" s="5"/>
     </row>
@@ -12774,17 +12774,17 @@
         <v>17766</v>
       </c>
       <c r="F259" s="4">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="5">
-        <v>0.26723906320561103</v>
+        <v>0.24794640356242501</v>
       </c>
       <c r="I259" s="5">
-        <v>12.566844919786099</v>
+        <v>9.5100864553314093</v>
       </c>
       <c r="J259" s="5">
-        <v>2.1051446583361479</v>
+        <v>1.9531689744455702</v>
       </c>
       <c r="K259" s="5"/>
     </row>
@@ -12836,17 +12836,17 @@
         <v>1106</v>
       </c>
       <c r="F261" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="5">
-        <v>0.0252703932073183</v>
+        <v>0.0168469288048789</v>
       </c>
       <c r="I261" s="5">
         <v>0</v>
       </c>
       <c r="J261" s="5">
-        <v>0.54249547920433994</v>
+        <v>0.36166365280289331</v>
       </c>
       <c r="K261" s="5"/>
     </row>
@@ -12867,17 +12867,17 @@
         <v>266</v>
       </c>
       <c r="F262" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="5">
-        <v>0.208730446289324</v>
+        <v>0.20479213598197801</v>
       </c>
       <c r="I262" s="5">
-        <v>1.88679245283019</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="J262" s="5">
-        <v>19.924812030075188</v>
+        <v>19.548872180451127</v>
       </c>
       <c r="K262" s="5"/>
     </row>
@@ -12905,7 +12905,7 @@
         <v>0.010656337123881299</v>
       </c>
       <c r="I263" s="5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J263" s="5">
         <v>0.23323615160349853</v>
@@ -12960,17 +12960,17 @@
         <v>2499</v>
       </c>
       <c r="F265" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="5">
-        <v>0.0034984239600060201</v>
+        <v>0.010495271880018101</v>
       </c>
       <c r="I265" s="5">
         <v>100</v>
       </c>
       <c r="J265" s="5">
-        <v>0.040016006402561026</v>
+        <v>0.12004801920768307</v>
       </c>
       <c r="K265" s="5"/>
     </row>
@@ -13115,17 +13115,17 @@
         <v>2247</v>
       </c>
       <c r="F270" s="4">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="5">
-        <v>0.404493066403391</v>
+        <v>0.32998118575013502</v>
       </c>
       <c r="I270" s="5">
-        <v>4.6052631578947398</v>
+        <v>4.0322580645161299</v>
       </c>
       <c r="J270" s="5">
-        <v>6.7645749888740543</v>
+        <v>5.5184690698709389</v>
       </c>
       <c r="K270" s="5"/>
     </row>
@@ -13177,17 +13177,17 @@
         <v>1589</v>
       </c>
       <c r="F272" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="5">
-        <v>0.0106085788040595</v>
+        <v>0.0070723858693730298</v>
       </c>
       <c r="I272" s="5">
         <v>0</v>
       </c>
       <c r="J272" s="5">
-        <v>0.18879798615481436</v>
+        <v>0.12586532410320958</v>
       </c>
       <c r="K272" s="5"/>
     </row>
@@ -13270,17 +13270,17 @@
         <v>2968</v>
       </c>
       <c r="F275" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="5">
-        <v>0.0107714513453543</v>
+        <v>0.0076938938181101901</v>
       </c>
       <c r="I275" s="5">
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>0.23584905660377359</v>
+        <v>0.1684636118598383</v>
       </c>
       <c r="K275" s="5"/>
     </row>
@@ -13301,17 +13301,17 @@
         <v>4466</v>
       </c>
       <c r="F276" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="5">
-        <v>0.0045283599865054902</v>
+        <v>0.0067925399797582296</v>
       </c>
       <c r="I276" s="5">
-        <v>75</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J276" s="5">
-        <v>0.089565606806986109</v>
+        <v>0.13434841021047916</v>
       </c>
       <c r="K276" s="5"/>
     </row>
@@ -13332,17 +13332,17 @@
         <v>2240</v>
       </c>
       <c r="F277" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="5">
-        <v>0.029192818566632601</v>
+        <v>0.031438419994835098</v>
       </c>
       <c r="I277" s="5">
-        <v>23.076923076923102</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J277" s="5">
-        <v>0.5803571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="K277" s="5"/>
     </row>
@@ -13363,17 +13363,17 @@
         <v>5502</v>
       </c>
       <c r="F278" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="5">
-        <v>0.014004136986820501</v>
+        <v>0.0156516825146817</v>
       </c>
       <c r="I278" s="5">
-        <v>11.764705882352899</v>
+        <v>10.526315789473699</v>
       </c>
       <c r="J278" s="5">
-        <v>0.30897855325336243</v>
+        <v>0.34532897128316975</v>
       </c>
       <c r="K278" s="5"/>
     </row>
@@ -13425,17 +13425,17 @@
         <v>756</v>
       </c>
       <c r="F280" s="4">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="5">
-        <v>1.2252228059280601</v>
+        <v>1.08535718881299</v>
       </c>
       <c r="I280" s="5">
-        <v>0</v>
+        <v>0.51546391752577303</v>
       </c>
       <c r="J280" s="5">
-        <v>28.968253968253972</v>
+        <v>25.661375661375661</v>
       </c>
       <c r="K280" s="5"/>
     </row>
@@ -13487,17 +13487,17 @@
         <v>2002</v>
       </c>
       <c r="F282" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="5">
-        <v>0.0064795796048752402</v>
+        <v>0.0107992993414587</v>
       </c>
       <c r="I282" s="5">
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>0.14985014985014986</v>
+        <v>0.24975024975024976</v>
       </c>
       <c r="K282" s="5"/>
     </row>
@@ -13580,17 +13580,17 @@
         <v>1869</v>
       </c>
       <c r="F285" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="5">
-        <v>0.014678934994336401</v>
+        <v>0.017125424160059102</v>
       </c>
       <c r="I285" s="5">
-        <v>33.3333333333333</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="J285" s="5">
-        <v>0.32102728731942215</v>
+        <v>0.37453183520599254</v>
       </c>
       <c r="K285" s="5"/>
     </row>
@@ -13611,17 +13611,17 @@
         <v>2100</v>
       </c>
       <c r="F286" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="5">
-        <v>0.0111041771693676</v>
+        <v>0.0088833417354940592</v>
       </c>
       <c r="I286" s="5">
         <v>0</v>
       </c>
       <c r="J286" s="5">
-        <v>0.23809523809523811</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -13673,17 +13673,17 @@
         <v>6034</v>
       </c>
       <c r="F288" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="5">
-        <v>0.0239451959769168</v>
+        <v>0.025396419975517899</v>
       </c>
       <c r="I288" s="5">
-        <v>15.1515151515152</v>
+        <v>17.1428571428571</v>
       </c>
       <c r="J288" s="5">
-        <v>0.54690089492873717</v>
+        <v>0.58004640371229699</v>
       </c>
       <c r="K288" s="5"/>
     </row>
@@ -13735,17 +13735,17 @@
         <v>5194</v>
       </c>
       <c r="F290" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="5">
-        <v>0.018761491413490799</v>
+        <v>0.0178680870604674</v>
       </c>
       <c r="I290" s="5">
         <v>0</v>
       </c>
       <c r="J290" s="5">
-        <v>0.40431266846361186</v>
+        <v>0.38505968425105891</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -13766,17 +13766,17 @@
         <v>6552</v>
       </c>
       <c r="F291" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="5">
-        <v>0.0085240982815417907</v>
+        <v>0.0098354980171636002</v>
       </c>
       <c r="I291" s="5">
         <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>0.1984126984126984</v>
+        <v>0.22893772893772896</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -13835,7 +13835,7 @@
         <v>0.012123287775028101</v>
       </c>
       <c r="I293" s="5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J293" s="5">
         <v>0.2568218298555377</v>
@@ -13890,17 +13890,17 @@
         <v>5299</v>
       </c>
       <c r="F295" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="5">
-        <v>0.0083435619222083403</v>
+        <v>0.0092706243580092593</v>
       </c>
       <c r="I295" s="5">
-        <v>11.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="J295" s="5">
-        <v>0.16984336667295716</v>
+        <v>0.18871485185884129</v>
       </c>
       <c r="K295" s="5"/>
     </row>
@@ -13952,17 +13952,17 @@
         <v>6580</v>
       </c>
       <c r="F297" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="5">
-        <v>0.020010971532667898</v>
+        <v>0.018630904530415</v>
       </c>
       <c r="I297" s="5">
         <v>0</v>
       </c>
       <c r="J297" s="5">
-        <v>0.44072948328267475</v>
+        <v>0.4103343465045593</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -14014,17 +14014,17 @@
         <v>756</v>
       </c>
       <c r="F299" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="5">
-        <v>0.013952352715476599</v>
+        <v>0.020928529073215001</v>
       </c>
       <c r="I299" s="5">
         <v>0</v>
       </c>
       <c r="J299" s="5">
-        <v>0.26455026455026454</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K299" s="5"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>3710</v>
       </c>
       <c r="F302" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="5">
-        <v>0.015685269832389801</v>
+        <v>0.014378164013024001</v>
       </c>
       <c r="I302" s="5">
         <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>0.32345013477088952</v>
+        <v>0.29649595687331537</v>
       </c>
       <c r="K302" s="5"/>
     </row>
@@ -14138,17 +14138,17 @@
         <v>4977</v>
       </c>
       <c r="F303" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="5">
-        <v>0.00270318976392143</v>
+        <v>0.0045053162732023797</v>
       </c>
       <c r="I303" s="5">
         <v>0</v>
       </c>
       <c r="J303" s="5">
-        <v>0.06027727546714888</v>
+        <v>0.10046212577858146</v>
       </c>
       <c r="K303" s="5"/>
     </row>
@@ -14169,17 +14169,17 @@
         <v>6279</v>
       </c>
       <c r="F304" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="5">
-        <v>0.0042418985040944901</v>
+        <v>0.0049488815881102398</v>
       </c>
       <c r="I304" s="5">
         <v>0</v>
       </c>
       <c r="J304" s="5">
-        <v>0.095556617295747728</v>
+        <v>0.11148272017837235</v>
       </c>
       <c r="K304" s="5"/>
     </row>
@@ -14231,17 +14231,17 @@
         <v>5250</v>
       </c>
       <c r="F306" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="5">
-        <v>0.0095998687436128095</v>
+        <v>0.012218014764598099</v>
       </c>
       <c r="I306" s="5">
         <v>0</v>
       </c>
       <c r="J306" s="5">
-        <v>0.20952380952380953</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="K306" s="5"/>
     </row>
@@ -14355,17 +14355,17 @@
         <v>3430</v>
       </c>
       <c r="F310" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="5">
-        <v>0.0197931222858681</v>
+        <v>0.023751746743041698</v>
       </c>
       <c r="I310" s="5">
-        <v>6.6666666666666696</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J310" s="5">
-        <v>0.43731778425655976</v>
+        <v>0.52478134110787178</v>
       </c>
       <c r="K310" s="5"/>
     </row>
@@ -14386,17 +14386,17 @@
         <v>13125</v>
       </c>
       <c r="F311" s="4">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="5">
-        <v>0.068582657384153103</v>
+        <v>0.064109875380838705</v>
       </c>
       <c r="I311" s="5">
-        <v>3.2608695652173898</v>
+        <v>0</v>
       </c>
       <c r="J311" s="5">
-        <v>0.70095238095238088</v>
+        <v>0.65523809523809529</v>
       </c>
       <c r="K311" s="5"/>
     </row>
@@ -14448,17 +14448,17 @@
         <v>266</v>
       </c>
       <c r="F313" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="5">
-        <v>0.43800735852362299</v>
+        <v>0.37960637738713998</v>
       </c>
       <c r="I313" s="5">
         <v>0</v>
       </c>
       <c r="J313" s="5">
-        <v>5.6390977443609023</v>
+        <v>4.8872180451127818</v>
       </c>
       <c r="K313" s="5"/>
     </row>
@@ -14479,17 +14479,17 @@
         <v>6167</v>
       </c>
       <c r="F314" s="4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="5">
-        <v>0.041403550798090397</v>
+        <v>0.036228106948329099</v>
       </c>
       <c r="I314" s="5">
-        <v>12.5</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="J314" s="5">
-        <v>0.90805902383654935</v>
+        <v>0.79455164585698068</v>
       </c>
       <c r="K314" s="5"/>
     </row>
@@ -14572,17 +14572,17 @@
         <v>13251</v>
       </c>
       <c r="F317" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="5">
-        <v>0.030701832935976101</v>
+        <v>0.029970836913690901</v>
       </c>
       <c r="I317" s="5">
-        <v>10.714285714285699</v>
+        <v>13.4146341463415</v>
       </c>
       <c r="J317" s="5">
-        <v>0.6339144215530903</v>
+        <v>0.61882122103992143</v>
       </c>
       <c r="K317" s="5"/>
     </row>
@@ -14727,17 +14727,17 @@
         <v>1638</v>
       </c>
       <c r="F322" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="4"/>
       <c r="H322" s="5">
-        <v>0</v>
+        <v>0.00578292072193982</v>
       </c>
       <c r="I322" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J322" s="5">
-        <v>0</v>
+        <v>0.061050061050061048</v>
       </c>
       <c r="K322" s="5"/>
     </row>
@@ -14944,17 +14944,17 @@
         <v>1463</v>
       </c>
       <c r="F329" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="5">
-        <v>0.028955712238131801</v>
+        <v>0.025336248208365299</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>0.54682159945317843</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="K329" s="5"/>
     </row>
@@ -15006,17 +15006,17 @@
         <v>882</v>
       </c>
       <c r="F331" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="5">
-        <v>0.019516479227147401</v>
+        <v>0.0146373594203606</v>
       </c>
       <c r="I331" s="5">
         <v>0</v>
       </c>
       <c r="J331" s="5">
-        <v>0.45351473922902497</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="K331" s="5"/>
     </row>
@@ -15099,17 +15099,17 @@
         <v>1799</v>
       </c>
       <c r="F334" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="5">
-        <v>0.0024178300458904101</v>
+        <v>0</v>
       </c>
       <c r="I334" s="5">
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>0.055586436909394105</v>
+        <v>0</v>
       </c>
       <c r="K334" s="5"/>
     </row>
@@ -15254,17 +15254,17 @@
         <v>1190</v>
       </c>
       <c r="F339" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="5">
-        <v>0.0041770396484603397</v>
+        <v>0.0083540792969206898</v>
       </c>
       <c r="I339" s="5">
         <v>0</v>
       </c>
       <c r="J339" s="5">
-        <v>0.084033613445378158</v>
+        <v>0.16806722689075632</v>
       </c>
       <c r="K339" s="5"/>
     </row>
@@ -15316,17 +15316,17 @@
         <v>1106</v>
       </c>
       <c r="F341" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="5">
-        <v>0.042711965757206899</v>
+        <v>0.033559401666376797</v>
       </c>
       <c r="I341" s="5">
-        <v>14.285714285714301</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J341" s="5">
-        <v>1.2658227848101267</v>
+        <v>0.99457504520795659</v>
       </c>
       <c r="K341" s="5"/>
     </row>
@@ -15378,17 +15378,17 @@
         <v>3178</v>
       </c>
       <c r="F343" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="5">
-        <v>0.0082897774609240592</v>
+        <v>0</v>
       </c>
       <c r="I343" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J343" s="5">
-        <v>0.06293266205160479</v>
+        <v>0</v>
       </c>
       <c r="K343" s="5"/>
     </row>
@@ -15471,17 +15471,17 @@
         <v>5726</v>
       </c>
       <c r="F346" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="5">
-        <v>0.018193521893304501</v>
+        <v>0.0164608055225136</v>
       </c>
       <c r="I346" s="5">
-        <v>23.8095238095238</v>
+        <v>21.052631578947398</v>
       </c>
       <c r="J346" s="5">
-        <v>0.36674816625916873</v>
+        <v>0.33181976947258124</v>
       </c>
       <c r="K346" s="5"/>
     </row>
@@ -15533,17 +15533,17 @@
         <v>1358</v>
       </c>
       <c r="F348" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="5">
-        <v>0.0156414968912525</v>
+        <v>0.0078207484456262501</v>
       </c>
       <c r="I348" s="5">
         <v>100</v>
       </c>
       <c r="J348" s="5">
-        <v>0.14727540500736377</v>
+        <v>0.073637702503681887</v>
       </c>
       <c r="K348" s="5"/>
     </row>
@@ -15564,17 +15564,17 @@
         <v>3318</v>
       </c>
       <c r="F349" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="5">
-        <v>0.0078007744608884801</v>
+        <v>0.0046804646765330896</v>
       </c>
       <c r="I349" s="5">
         <v>0</v>
       </c>
       <c r="J349" s="5">
-        <v>0.15069318866787221</v>
+        <v>0.090415913200723327</v>
       </c>
       <c r="K349" s="5"/>
     </row>
@@ -15595,17 +15595,17 @@
         <v>2317</v>
       </c>
       <c r="F350" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="5">
-        <v>0.0094210971338667196</v>
+        <v>0.011776371417333399</v>
       </c>
       <c r="I350" s="5">
         <v>0</v>
       </c>
       <c r="J350" s="5">
-        <v>0.17263703064307295</v>
+        <v>0.21579628830384118</v>
       </c>
       <c r="K350" s="5"/>
     </row>
@@ -15719,17 +15719,17 @@
         <v>602</v>
       </c>
       <c r="F354" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="5">
-        <v>0.0084428796974071896</v>
+        <v>0.0168857593948144</v>
       </c>
       <c r="I354" s="5">
         <v>0</v>
       </c>
       <c r="J354" s="5">
-        <v>0.16611295681063123</v>
+        <v>0.33222591362126247</v>
       </c>
       <c r="K354" s="5"/>
     </row>
@@ -15750,17 +15750,17 @@
         <v>3374</v>
       </c>
       <c r="F355" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="5">
-        <v>0.015338599585857799</v>
+        <v>0.0184063195030294</v>
       </c>
       <c r="I355" s="5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J355" s="5">
-        <v>0.29638411381149971</v>
+        <v>0.35566093657379966</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -15781,17 +15781,17 @@
         <v>2100</v>
       </c>
       <c r="F356" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="5">
-        <v>0.0145706396753661</v>
+        <v>0.0194275195671549</v>
       </c>
       <c r="I356" s="5">
-        <v>33.3333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="J356" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="K356" s="5"/>
     </row>
@@ -15998,17 +15998,17 @@
         <v>847</v>
       </c>
       <c r="F363" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="5">
-        <v>0.0057442213133587598</v>
+        <v>0.0172326639400763</v>
       </c>
       <c r="I363" s="5">
         <v>0</v>
       </c>
       <c r="J363" s="5">
-        <v>0.11806375442739078</v>
+        <v>0.35419126328217237</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -16029,17 +16029,17 @@
         <v>5313</v>
       </c>
       <c r="F364" s="4">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="5">
-        <v>0.106027954270143</v>
+        <v>0.111329351983651</v>
       </c>
       <c r="I364" s="5">
-        <v>17.5</v>
+        <v>19.841269841269799</v>
       </c>
       <c r="J364" s="5">
-        <v>2.2586109542631281</v>
+        <v>2.3715415019762842</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -16060,17 +16060,17 @@
         <v>4207</v>
       </c>
       <c r="F365" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="5">
-        <v>0.026015568621152198</v>
+        <v>0.0271466803003328</v>
       </c>
       <c r="I365" s="5">
-        <v>8.6956521739130395</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J365" s="5">
-        <v>0.54670786783931546</v>
+        <v>0.57047777513667697</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -16184,17 +16184,17 @@
         <v>700</v>
       </c>
       <c r="F369" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="4"/>
       <c r="H369" s="5">
-        <v>0.0063021502936802002</v>
+        <v>0</v>
       </c>
       <c r="I369" s="5">
         <v>0</v>
       </c>
       <c r="J369" s="5">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K369" s="5"/>
     </row>
@@ -16246,17 +16246,17 @@
         <v>2219</v>
       </c>
       <c r="F371" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="5">
-        <v>0.0160498554366592</v>
+        <v>0.0068785094728539596</v>
       </c>
       <c r="I371" s="5">
-        <v>14.285714285714301</v>
+        <v>0</v>
       </c>
       <c r="J371" s="5">
-        <v>0.31545741324921134</v>
+        <v>0.13519603424966201</v>
       </c>
       <c r="K371" s="5"/>
     </row>
@@ -16277,17 +16277,17 @@
         <v>4312</v>
       </c>
       <c r="F372" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G372" s="4"/>
       <c r="H372" s="5">
-        <v>0.013629295551274</v>
+        <v>0.012390268682976401</v>
       </c>
       <c r="I372" s="5">
-        <v>9.0909090909090899</v>
+        <v>10</v>
       </c>
       <c r="J372" s="5">
-        <v>0.25510204081632654</v>
+        <v>0.2319109461966605</v>
       </c>
       <c r="K372" s="5"/>
     </row>
@@ -16308,17 +16308,17 @@
         <v>1911</v>
       </c>
       <c r="F373" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G373" s="4"/>
       <c r="H373" s="5">
-        <v>0.0078321006477147202</v>
+        <v>0.0052214004318098198</v>
       </c>
       <c r="I373" s="5">
         <v>0</v>
       </c>
       <c r="J373" s="5">
-        <v>0.15698587127158556</v>
+        <v>0.10465724751439037</v>
       </c>
       <c r="K373" s="5"/>
     </row>
@@ -16339,17 +16339,17 @@
         <v>1883</v>
       </c>
       <c r="F374" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G374" s="4"/>
       <c r="H374" s="5">
-        <v>0.0093123959630763507</v>
+        <v>0.0046561979815381701</v>
       </c>
       <c r="I374" s="5">
         <v>0</v>
       </c>
       <c r="J374" s="5">
-        <v>0.21242697822623471</v>
+        <v>0.10621348911311736</v>
       </c>
       <c r="K374" s="5"/>
     </row>
@@ -16370,17 +16370,17 @@
         <v>3479</v>
       </c>
       <c r="F375" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="5">
-        <v>0.0074163729782967302</v>
+        <v>0.010382922169615399</v>
       </c>
       <c r="I375" s="5">
         <v>0</v>
       </c>
       <c r="J375" s="5">
-        <v>0.14371945961483185</v>
+        <v>0.2012072434607646</v>
       </c>
       <c r="K375" s="5"/>
     </row>
@@ -16401,17 +16401,17 @@
         <v>5579</v>
       </c>
       <c r="F376" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G376" s="4"/>
       <c r="H376" s="5">
-        <v>0.022087469778394701</v>
+        <v>0.020388433641595101</v>
       </c>
       <c r="I376" s="5">
         <v>0</v>
       </c>
       <c r="J376" s="5">
-        <v>0.23301666965405984</v>
+        <v>0.21509231044990143</v>
       </c>
       <c r="K376" s="5"/>
     </row>
@@ -16432,17 +16432,17 @@
         <v>1526</v>
       </c>
       <c r="F377" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="5">
-        <v>0</v>
+        <v>0.0035617101907652001</v>
       </c>
       <c r="I377" s="5">
         <v>0</v>
       </c>
       <c r="J377" s="5">
-        <v>0</v>
+        <v>0.065530799475753604</v>
       </c>
       <c r="K377" s="5"/>
     </row>
@@ -16494,17 +16494,17 @@
         <v>2121</v>
       </c>
       <c r="F379" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G379" s="4"/>
       <c r="H379" s="5">
-        <v>0.0043556947442009398</v>
+        <v>0.0065335421163014102</v>
       </c>
       <c r="I379" s="5">
         <v>0</v>
       </c>
       <c r="J379" s="5">
-        <v>0.094295143800094294</v>
+        <v>0.14144271570014144</v>
       </c>
       <c r="K379" s="5"/>
     </row>
@@ -16587,17 +16587,17 @@
         <v>4529</v>
       </c>
       <c r="F382" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="5">
-        <v>0.00904264397867292</v>
+        <v>0.012433635470675299</v>
       </c>
       <c r="I382" s="5">
-        <v>12.5</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="J382" s="5">
-        <v>0.17663943475380878</v>
+        <v>0.2428792227864871</v>
       </c>
       <c r="K382" s="5"/>
     </row>
@@ -16618,17 +16618,17 @@
         <v>6153</v>
       </c>
       <c r="F383" s="4">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="5">
-        <v>0.025641953856549899</v>
+        <v>0.021871078289410199</v>
       </c>
       <c r="I383" s="5">
-        <v>2.9411764705882399</v>
+        <v>3.4482758620689702</v>
       </c>
       <c r="J383" s="5">
-        <v>0.55257597919713963</v>
+        <v>0.4713148057857956</v>
       </c>
       <c r="K383" s="5"/>
     </row>
@@ -16866,17 +16866,17 @@
         <v>1435</v>
       </c>
       <c r="F391" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="5">
-        <v>0.027875438602604299</v>
+        <v>0.020906578951953199</v>
       </c>
       <c r="I391" s="5">
         <v>0</v>
       </c>
       <c r="J391" s="5">
-        <v>0.55749128919860624</v>
+        <v>0.41811846689895471</v>
       </c>
       <c r="K391" s="5"/>
     </row>
@@ -16897,17 +16897,17 @@
         <v>8302</v>
       </c>
       <c r="F392" s="4">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G392" s="4"/>
       <c r="H392" s="5">
-        <v>0.139390399320306</v>
+        <v>0.134563026183672</v>
       </c>
       <c r="I392" s="5">
-        <v>2.16450216450216</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="J392" s="5">
-        <v>2.7824620573355818</v>
+        <v>2.6860997350036135</v>
       </c>
       <c r="K392" s="5"/>
     </row>
@@ -16928,17 +16928,17 @@
         <v>6335</v>
       </c>
       <c r="F393" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G393" s="4"/>
       <c r="H393" s="5">
-        <v>0.00145897969173218</v>
+        <v>0.00072948984586609</v>
       </c>
       <c r="I393" s="5">
         <v>100</v>
       </c>
       <c r="J393" s="5">
-        <v>0.03157063930544593</v>
+        <v>0.015785319652722965</v>
       </c>
       <c r="K393" s="5"/>
     </row>
@@ -17052,17 +17052,17 @@
         <v>2695</v>
       </c>
       <c r="F397" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G397" s="4"/>
       <c r="H397" s="5">
-        <v>0.012049847810422201</v>
+        <v>0.0096398782483377195</v>
       </c>
       <c r="I397" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J397" s="5">
-        <v>0.1855287569573284</v>
+        <v>0.14842300556586271</v>
       </c>
       <c r="K397" s="5"/>
     </row>
@@ -17083,17 +17083,17 @@
         <v>6503</v>
       </c>
       <c r="F398" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G398" s="4"/>
       <c r="H398" s="5">
-        <v>0.00129728187016154</v>
+        <v>0.00259456374032309</v>
       </c>
       <c r="I398" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J398" s="5">
-        <v>0.030755036137167464</v>
+        <v>0.061510072274334929</v>
       </c>
       <c r="K398" s="5"/>
     </row>
@@ -17145,17 +17145,17 @@
         <v>987</v>
       </c>
       <c r="F400" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G400" s="4"/>
       <c r="H400" s="5">
-        <v>0.019475713784910201</v>
+        <v>0.014606785338682701</v>
       </c>
       <c r="I400" s="5">
         <v>0</v>
       </c>
       <c r="J400" s="5">
-        <v>0.40526849037487339</v>
+        <v>0.303951367781155</v>
       </c>
       <c r="K400" s="5"/>
     </row>
@@ -17176,17 +17176,17 @@
         <v>2289</v>
       </c>
       <c r="F401" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G401" s="4"/>
       <c r="H401" s="5">
-        <v>0.017989278390079501</v>
+        <v>0.015990469680070701</v>
       </c>
       <c r="I401" s="5">
         <v>0</v>
       </c>
       <c r="J401" s="5">
-        <v>0.39318479685452157</v>
+        <v>0.34949759720401924</v>
       </c>
       <c r="K401" s="5"/>
     </row>
@@ -17462,7 +17462,7 @@
         <v>0.0047094393647908201</v>
       </c>
       <c r="I410" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J410" s="5">
         <v>0.097847358121330719</v>
@@ -17486,17 +17486,17 @@
         <v>5943</v>
       </c>
       <c r="F411" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G411" s="4"/>
       <c r="H411" s="5">
-        <v>0.0118119337654251</v>
+        <v>0.0126556433200983</v>
       </c>
       <c r="I411" s="5">
         <v>0</v>
       </c>
       <c r="J411" s="5">
-        <v>0.23557126030624262</v>
+        <v>0.25239777889954568</v>
       </c>
       <c r="K411" s="5"/>
     </row>
@@ -17517,17 +17517,17 @@
         <v>1288</v>
       </c>
       <c r="F412" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G412" s="4"/>
       <c r="H412" s="5">
-        <v>0.043008286263153402</v>
+        <v>0.050176333973678898</v>
       </c>
       <c r="I412" s="5">
         <v>0</v>
       </c>
       <c r="J412" s="5">
-        <v>0.46583850931677018</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="K412" s="5"/>
     </row>
@@ -17703,17 +17703,17 @@
         <v>959</v>
       </c>
       <c r="F418" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="5">
-        <v>0.017137242655739501</v>
+        <v>0.0190413807285994</v>
       </c>
       <c r="I418" s="5">
-        <v>27.7777777777778</v>
+        <v>30</v>
       </c>
       <c r="J418" s="5">
-        <v>1.8769551616266946</v>
+        <v>2.0855057351407713</v>
       </c>
       <c r="K418" s="5"/>
     </row>
@@ -17858,17 +17858,17 @@
         <v>3703</v>
       </c>
       <c r="F423" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="5">
-        <v>0.016336884377928601</v>
+        <v>0.017822055685013001</v>
       </c>
       <c r="I423" s="5">
         <v>0</v>
       </c>
       <c r="J423" s="5">
-        <v>0.29705644072373749</v>
+        <v>0.32406157169862276</v>
       </c>
       <c r="K423" s="5"/>
     </row>
@@ -17889,17 +17889,17 @@
         <v>7476</v>
       </c>
       <c r="F424" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G424" s="4"/>
       <c r="H424" s="5">
-        <v>0.020219516551359298</v>
+        <v>0.015164637413519399</v>
       </c>
       <c r="I424" s="5">
-        <v>8.3333333333333304</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="J424" s="5">
-        <v>0.16051364365971107</v>
+        <v>0.1203852327447833</v>
       </c>
       <c r="K424" s="5"/>
     </row>
@@ -18044,17 +18044,17 @@
         <v>5054</v>
       </c>
       <c r="F429" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G429" s="4"/>
       <c r="H429" s="5">
-        <v>0.0098400596701218399</v>
+        <v>0.0068880417690852904</v>
       </c>
       <c r="I429" s="5">
         <v>0</v>
       </c>
       <c r="J429" s="5">
-        <v>0.19786307874950534</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="K429" s="5"/>
     </row>
@@ -18199,17 +18199,17 @@
         <v>1001</v>
       </c>
       <c r="F434" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G434" s="4"/>
       <c r="H434" s="5">
-        <v>0.0045975531821964297</v>
+        <v>0</v>
       </c>
       <c r="I434" s="5">
         <v>0</v>
       </c>
       <c r="J434" s="5">
-        <v>0.099900099900099903</v>
+        <v>0</v>
       </c>
       <c r="K434" s="5"/>
     </row>
@@ -18230,17 +18230,17 @@
         <v>1085</v>
       </c>
       <c r="F435" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G435" s="4"/>
       <c r="H435" s="5">
-        <v>0.0036705093841160499</v>
+        <v>0.0018352546920580299</v>
       </c>
       <c r="I435" s="5">
         <v>50</v>
       </c>
       <c r="J435" s="5">
-        <v>0.3686635944700461</v>
+        <v>0.18433179723502305</v>
       </c>
       <c r="K435" s="5"/>
     </row>
@@ -18323,17 +18323,17 @@
         <v>7602</v>
       </c>
       <c r="F438" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G438" s="4"/>
       <c r="H438" s="5">
-        <v>0.039370009337155898</v>
+        <v>0.040545233496474001</v>
       </c>
       <c r="I438" s="5">
-        <v>5.9701492537313401</v>
+        <v>1.4492753623188399</v>
       </c>
       <c r="J438" s="5">
-        <v>0.88134701394369896</v>
+        <v>0.90765588003157061</v>
       </c>
       <c r="K438" s="5"/>
     </row>
@@ -18354,17 +18354,17 @@
         <v>3080</v>
       </c>
       <c r="F439" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G439" s="4"/>
       <c r="H439" s="5">
-        <v>0.0043375291698836702</v>
+        <v>0.0028916861132557798</v>
       </c>
       <c r="I439" s="5">
         <v>0</v>
       </c>
       <c r="J439" s="5">
-        <v>0.097402597402597407</v>
+        <v>0.064935064935064929</v>
       </c>
       <c r="K439" s="5"/>
     </row>
@@ -18416,17 +18416,17 @@
         <v>2548</v>
       </c>
       <c r="F441" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G441" s="4"/>
       <c r="H441" s="5">
-        <v>0.0144701645877864</v>
+        <v>0.010335831848418801</v>
       </c>
       <c r="I441" s="5">
-        <v>14.285714285714301</v>
+        <v>20</v>
       </c>
       <c r="J441" s="5">
-        <v>0.27472527472527475</v>
+        <v>0.19623233908948193</v>
       </c>
       <c r="K441" s="5"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>11774</v>
       </c>
       <c r="F443" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G443" s="4"/>
       <c r="H443" s="5">
-        <v>0.070458857553373694</v>
+        <v>0.071379888371064903</v>
       </c>
       <c r="I443" s="5">
-        <v>7.18954248366013</v>
+        <v>7.0967741935483897</v>
       </c>
       <c r="J443" s="5">
-        <v>1.299473416001359</v>
+        <v>1.316459996602684</v>
       </c>
       <c r="K443" s="5"/>
     </row>
@@ -18509,17 +18509,17 @@
         <v>2436</v>
       </c>
       <c r="F444" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G444" s="4"/>
       <c r="H444" s="5">
-        <v>0.014816845271389</v>
+        <v>0.0185210565892363</v>
       </c>
       <c r="I444" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J444" s="5">
-        <v>0.16420361247947454</v>
+        <v>0.20525451559934318</v>
       </c>
       <c r="K444" s="5"/>
     </row>
@@ -18540,17 +18540,17 @@
         <v>1260</v>
       </c>
       <c r="F445" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445" s="4"/>
       <c r="H445" s="5">
-        <v>0</v>
+        <v>0.0040522743389727498</v>
       </c>
       <c r="I445" s="5">
         <v>0</v>
       </c>
       <c r="J445" s="5">
-        <v>0</v>
+        <v>0.079365079365079361</v>
       </c>
       <c r="K445" s="5"/>
     </row>
@@ -18571,17 +18571,17 @@
         <v>322</v>
       </c>
       <c r="F446" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G446" s="4"/>
       <c r="H446" s="5">
-        <v>0.25857484125561597</v>
+        <v>0.25269814031798798</v>
       </c>
       <c r="I446" s="5">
-        <v>17.045454545454501</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="J446" s="5">
-        <v>27.329192546583851</v>
+        <v>26.70807453416149</v>
       </c>
       <c r="K446" s="5"/>
     </row>
@@ -18602,17 +18602,17 @@
         <v>4389</v>
       </c>
       <c r="F447" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G447" s="4"/>
       <c r="H447" s="5">
-        <v>0.017112787530482201</v>
+        <v>0.0133099458570417</v>
       </c>
       <c r="I447" s="5">
-        <v>5.5555555555555598</v>
+        <v>7.1428571428571397</v>
       </c>
       <c r="J447" s="5">
-        <v>0.41011619958988382</v>
+        <v>0.31897926634768742</v>
       </c>
       <c r="K447" s="5"/>
     </row>
@@ -18664,17 +18664,17 @@
         <v>1232</v>
       </c>
       <c r="F449" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G449" s="4"/>
       <c r="H449" s="5">
-        <v>0.0036977598970543602</v>
+        <v>0.0073955197941087299</v>
       </c>
       <c r="I449" s="5">
         <v>0</v>
       </c>
       <c r="J449" s="5">
-        <v>0.081168831168831168</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="K449" s="5"/>
     </row>
@@ -18726,17 +18726,17 @@
         <v>672</v>
       </c>
       <c r="F451" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G451" s="4"/>
       <c r="H451" s="5">
-        <v>0</v>
+        <v>0.013527772516977401</v>
       </c>
       <c r="I451" s="5">
         <v>0</v>
       </c>
       <c r="J451" s="5">
-        <v>0</v>
+        <v>0.14880952380952381</v>
       </c>
       <c r="K451" s="5"/>
     </row>
@@ -18757,17 +18757,17 @@
         <v>3458</v>
       </c>
       <c r="F452" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G452" s="4"/>
       <c r="H452" s="5">
-        <v>0.018552372634394101</v>
+        <v>0.021406583808916298</v>
       </c>
       <c r="I452" s="5">
-        <v>7.6923076923076898</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="J452" s="5">
-        <v>0.37593984962406013</v>
+        <v>0.43377674956622325</v>
       </c>
       <c r="K452" s="5"/>
     </row>
@@ -18788,17 +18788,17 @@
         <v>6412</v>
       </c>
       <c r="F453" s="4">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G453" s="4"/>
       <c r="H453" s="5">
-        <v>0.100130854766614</v>
+        <v>0.094140119866047201</v>
       </c>
       <c r="I453" s="5">
-        <v>11.965811965812</v>
+        <v>14.545454545454501</v>
       </c>
       <c r="J453" s="5">
-        <v>1.824703680598877</v>
+        <v>1.7155333749220212</v>
       </c>
       <c r="K453" s="5"/>
     </row>
@@ -18819,17 +18819,17 @@
         <v>1911</v>
       </c>
       <c r="F454" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G454" s="4"/>
       <c r="H454" s="5">
-        <v>0</v>
+        <v>0.0024364928147826898</v>
       </c>
       <c r="I454" s="5">
         <v>0</v>
       </c>
       <c r="J454" s="5">
-        <v>0</v>
+        <v>0.052328623757195186</v>
       </c>
       <c r="K454" s="5"/>
     </row>
@@ -18974,17 +18974,17 @@
         <v>4452</v>
       </c>
       <c r="F459" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="5">
-        <v>0.0069668309179994102</v>
+        <v>0.0049763077985710003</v>
       </c>
       <c r="I459" s="5">
-        <v>42.857142857142897</v>
+        <v>40</v>
       </c>
       <c r="J459" s="5">
-        <v>0.15723270440251574</v>
+        <v>0.11230907457322552</v>
       </c>
       <c r="K459" s="5"/>
     </row>
@@ -19005,17 +19005,17 @@
         <v>7973</v>
       </c>
       <c r="F460" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G460" s="4"/>
       <c r="H460" s="5">
-        <v>0.010221530632123501</v>
+        <v>0.0084177311088075892</v>
       </c>
       <c r="I460" s="5">
-        <v>47.058823529411796</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="J460" s="5">
-        <v>0.21321961620469082</v>
+        <v>0.17559262510974538</v>
       </c>
       <c r="K460" s="5"/>
     </row>
@@ -19036,17 +19036,17 @@
         <v>12698</v>
       </c>
       <c r="F461" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G461" s="4"/>
       <c r="H461" s="5">
-        <v>0.0091936984976082204</v>
+        <v>0.010608113651086401</v>
       </c>
       <c r="I461" s="5">
-        <v>19.230769230769202</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J461" s="5">
-        <v>0.20475665459127423</v>
+        <v>0.23625767837454717</v>
       </c>
       <c r="K461" s="5"/>
     </row>
@@ -19105,7 +19105,7 @@
         <v>0.0095576912865714403</v>
       </c>
       <c r="I463" s="5">
-        <v>44.4444444444444</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J463" s="5">
         <v>0.19902697921273774</v>
@@ -19160,17 +19160,17 @@
         <v>1820</v>
       </c>
       <c r="F465" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G465" s="4"/>
       <c r="H465" s="5">
-        <v>0.0091248924023104201</v>
+        <v>0.012166523203080599</v>
       </c>
       <c r="I465" s="5">
         <v>0</v>
       </c>
       <c r="J465" s="5">
-        <v>0.16483516483516483</v>
+        <v>0.21978021978021978</v>
       </c>
       <c r="K465" s="5"/>
     </row>
@@ -19222,17 +19222,17 @@
         <v>2674</v>
       </c>
       <c r="F467" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G467" s="4"/>
       <c r="H467" s="5">
-        <v>0.026999818715502898</v>
+        <v>0.023142701756145301</v>
       </c>
       <c r="I467" s="5">
-        <v>28.571428571428601</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="J467" s="5">
-        <v>0.26178010471204188</v>
+        <v>0.22438294689603588</v>
       </c>
       <c r="K467" s="5"/>
     </row>
@@ -19253,17 +19253,17 @@
         <v>2408</v>
       </c>
       <c r="F468" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G468" s="4"/>
       <c r="H468" s="5">
-        <v>0.016772363617388798</v>
+        <v>0.018635959574876501</v>
       </c>
       <c r="I468" s="5">
         <v>0</v>
       </c>
       <c r="J468" s="5">
-        <v>0.37375415282392027</v>
+        <v>0.41528239202657813</v>
       </c>
       <c r="K468" s="5"/>
     </row>
@@ -19315,17 +19315,17 @@
         <v>5929</v>
       </c>
       <c r="F470" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G470" s="4"/>
       <c r="H470" s="5">
-        <v>0.027798064749274098</v>
+        <v>0.0252709679538855</v>
       </c>
       <c r="I470" s="5">
-        <v>3.0303030303030298</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="J470" s="5">
-        <v>0.55658627087198509</v>
+        <v>0.50598751897453198</v>
       </c>
       <c r="K470" s="5"/>
     </row>
@@ -19346,17 +19346,17 @@
         <v>5502</v>
       </c>
       <c r="F471" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G471" s="4"/>
       <c r="H471" s="5">
-        <v>0.029483484045966499</v>
+        <v>0.032084967932375301</v>
       </c>
       <c r="I471" s="5">
         <v>0</v>
       </c>
       <c r="J471" s="5">
-        <v>0.61795710650672486</v>
+        <v>0.67248273355143584</v>
       </c>
       <c r="K471" s="5"/>
     </row>
@@ -19408,17 +19408,17 @@
         <v>1302</v>
       </c>
       <c r="F473" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G473" s="4"/>
       <c r="H473" s="5">
-        <v>0.014987728797047401</v>
+        <v>0.0112407965977856</v>
       </c>
       <c r="I473" s="5">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J473" s="5">
-        <v>0.30721966205837176</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="K473" s="5"/>
     </row>
@@ -19439,17 +19439,17 @@
         <v>2268</v>
       </c>
       <c r="F474" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G474" s="4"/>
       <c r="H474" s="5">
-        <v>0.0192444624059427</v>
+        <v>0.017106188805282401</v>
       </c>
       <c r="I474" s="5">
-        <v>11.1111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="J474" s="5">
-        <v>0.3968253968253968</v>
+        <v>0.35273368606701938</v>
       </c>
       <c r="K474" s="5"/>
     </row>
@@ -19532,17 +19532,17 @@
         <v>154</v>
       </c>
       <c r="F477" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G477" s="4"/>
       <c r="H477" s="5">
-        <v>0</v>
+        <v>0.035510102624196599</v>
       </c>
       <c r="I477" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J477" s="5">
-        <v>0</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="K477" s="5"/>
     </row>
@@ -19625,17 +19625,17 @@
         <v>1750</v>
       </c>
       <c r="F480" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G480" s="4"/>
       <c r="H480" s="5">
-        <v>0.0128790298484396</v>
+        <v>0.0154548358181275</v>
       </c>
       <c r="I480" s="5">
         <v>0</v>
       </c>
       <c r="J480" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="K480" s="5"/>
     </row>
@@ -19656,17 +19656,17 @@
         <v>1757</v>
       </c>
       <c r="F481" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G481" s="4"/>
       <c r="H481" s="5">
-        <v>0.00547972228767446</v>
+        <v>0.00821958343151169</v>
       </c>
       <c r="I481" s="5">
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J481" s="5">
-        <v>0.11383039271485487</v>
+        <v>0.17074558907228229</v>
       </c>
       <c r="K481" s="5"/>
     </row>
@@ -19687,17 +19687,17 @@
         <v>19635</v>
       </c>
       <c r="F482" s="4">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="G482" s="4"/>
       <c r="H482" s="5">
-        <v>0.21085221347772101</v>
+        <v>0.20497070124682201</v>
       </c>
       <c r="I482" s="5">
-        <v>4.1841004184100399</v>
+        <v>3.5868005738880901</v>
       </c>
       <c r="J482" s="5">
-        <v>3.6516424751718866</v>
+        <v>3.5497835497835499</v>
       </c>
       <c r="K482" s="5"/>
     </row>
@@ -19718,17 +19718,17 @@
         <v>3080</v>
       </c>
       <c r="F483" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G483" s="4"/>
       <c r="H483" s="5">
-        <v>0.0089503212419465798</v>
+        <v>0.0059668808279643801</v>
       </c>
       <c r="I483" s="5">
         <v>0</v>
       </c>
       <c r="J483" s="5">
-        <v>0.19480519480519481</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="K483" s="5"/>
     </row>
@@ -19749,17 +19749,17 @@
         <v>1701</v>
       </c>
       <c r="F484" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G484" s="4"/>
       <c r="H484" s="5">
-        <v>0.0059689198344221603</v>
+        <v>0.0029844599172110802</v>
       </c>
       <c r="I484" s="5">
         <v>0</v>
       </c>
       <c r="J484" s="5">
-        <v>0.11757789535567313</v>
+        <v>0.058788947677836566</v>
       </c>
       <c r="K484" s="5"/>
     </row>
@@ -19842,17 +19842,17 @@
         <v>2016</v>
       </c>
       <c r="F487" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G487" s="4"/>
       <c r="H487" s="5">
-        <v>0.0075966675951482602</v>
+        <v>0.0101288901268643</v>
       </c>
       <c r="I487" s="5">
         <v>0</v>
       </c>
       <c r="J487" s="5">
-        <v>0.14880952380952381</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="K487" s="5"/>
     </row>
@@ -19873,17 +19873,17 @@
         <v>1540</v>
       </c>
       <c r="F488" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G488" s="4"/>
       <c r="H488" s="5">
-        <v>0.0152908472046802</v>
+        <v>0.012232677763744201</v>
       </c>
       <c r="I488" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J488" s="5">
-        <v>0.32467532467532467</v>
+        <v>0.25974025974025972</v>
       </c>
       <c r="K488" s="5"/>
     </row>
@@ -19935,17 +19935,17 @@
         <v>9058</v>
       </c>
       <c r="F490" s="4">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G490" s="4"/>
       <c r="H490" s="5">
-        <v>0.038523187575126697</v>
+        <v>0.036961436727486502</v>
       </c>
       <c r="I490" s="5">
-        <v>1.35135135135135</v>
+        <v>0</v>
       </c>
       <c r="J490" s="5">
-        <v>0.81695738573636567</v>
+        <v>0.78383749172002659</v>
       </c>
       <c r="K490" s="5"/>
     </row>
@@ -19966,17 +19966,17 @@
         <v>1806</v>
       </c>
       <c r="F491" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G491" s="4"/>
       <c r="H491" s="5">
-        <v>0.0028148239890559601</v>
+        <v>0.0056296479781119298</v>
       </c>
       <c r="I491" s="5">
         <v>0</v>
       </c>
       <c r="J491" s="5">
-        <v>0.05537098560354374</v>
+        <v>0.11074197120708748</v>
       </c>
       <c r="K491" s="5"/>
     </row>
@@ -19997,17 +19997,17 @@
         <v>7189</v>
       </c>
       <c r="F492" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G492" s="4"/>
       <c r="H492" s="5">
-        <v>0.0011941702994322299</v>
+        <v>0.0023883405988644598</v>
       </c>
       <c r="I492" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J492" s="5">
-        <v>0.027820280984837947</v>
+        <v>0.055640561969675893</v>
       </c>
       <c r="K492" s="5"/>
     </row>
@@ -20090,17 +20090,17 @@
         <v>7840</v>
       </c>
       <c r="F495" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G495" s="4"/>
       <c r="H495" s="5">
-        <v>0.0036815281778030898</v>
+        <v>0.0061358802963384796</v>
       </c>
       <c r="I495" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J495" s="5">
-        <v>0.03826530612244898</v>
+        <v>0.063775510204081634</v>
       </c>
       <c r="K495" s="5"/>
     </row>
@@ -20152,17 +20152,17 @@
         <v>1302</v>
       </c>
       <c r="F497" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="5">
-        <v>0.00363056792974125</v>
+        <v>0.0072611358594825001</v>
       </c>
       <c r="I497" s="5">
         <v>0</v>
       </c>
       <c r="J497" s="5">
-        <v>0.076804915514592939</v>
+        <v>0.15360983102918588</v>
       </c>
       <c r="K497" s="5"/>
     </row>
@@ -20183,17 +20183,17 @@
         <v>1855</v>
       </c>
       <c r="F498" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G498" s="4"/>
       <c r="H498" s="5">
-        <v>0.0092284976005906193</v>
+        <v>0.0046142488002953097</v>
       </c>
       <c r="I498" s="5">
         <v>0</v>
       </c>
       <c r="J498" s="5">
-        <v>0.1078167115902965</v>
+        <v>0.053908355795148251</v>
       </c>
       <c r="K498" s="5"/>
     </row>
@@ -20338,17 +20338,17 @@
         <v>3507</v>
       </c>
       <c r="F503" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G503" s="4"/>
       <c r="H503" s="5">
-        <v>0.0094020813521804806</v>
+        <v>0.010745235831063399</v>
       </c>
       <c r="I503" s="5">
         <v>0</v>
       </c>
       <c r="J503" s="5">
-        <v>0.19960079840319359</v>
+        <v>0.22811519817507844</v>
       </c>
       <c r="K503" s="5"/>
     </row>
@@ -20369,17 +20369,17 @@
         <v>5929</v>
       </c>
       <c r="F504" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G504" s="4"/>
       <c r="H504" s="5">
-        <v>0.017956178761921501</v>
+        <v>0.02203712848054</v>
       </c>
       <c r="I504" s="5">
         <v>0</v>
       </c>
       <c r="J504" s="5">
-        <v>0.3710575139146568</v>
+        <v>0.45538876707707876</v>
       </c>
       <c r="K504" s="5"/>
     </row>
@@ -20469,7 +20469,7 @@
         <v>0.0152624193448472</v>
       </c>
       <c r="I507" s="5">
-        <v>11.764705882352899</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J507" s="5">
         <v>0.32337835267262699</v>
@@ -20617,17 +20617,17 @@
         <v>4788</v>
       </c>
       <c r="F512" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G512" s="4"/>
       <c r="H512" s="5">
-        <v>0.0037945443937978198</v>
+        <v>0.0028459082953483602</v>
       </c>
       <c r="I512" s="5">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="J512" s="5">
-        <v>0.083542188805346695</v>
+        <v>0.062656641604010022</v>
       </c>
       <c r="K512" s="5"/>
     </row>
@@ -20648,17 +20648,17 @@
         <v>3962</v>
       </c>
       <c r="F513" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G513" s="4"/>
       <c r="H513" s="5">
-        <v>0.0032590770728273401</v>
+        <v>0.0043454360971031097</v>
       </c>
       <c r="I513" s="5">
-        <v>33.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="J513" s="5">
-        <v>0.075719333669863706</v>
+        <v>0.10095911155981827</v>
       </c>
       <c r="K513" s="5"/>
     </row>
